--- a/back-end/Mehendi/products.xlsx
+++ b/back-end/Mehendi/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -34,199 +34,223 @@
     <t>description</t>
   </si>
   <si>
-    <t>Dreamy Dress Emporium</t>
-  </si>
-  <si>
-    <t>vijay nagar Indore</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/1314238/1592985945_Screenshot_from_2020_06_24_13_30_57.png</t>
-  </si>
-  <si>
-    <t>Enter a realm of whimsical wonder at Dreamy Dress Emporium, where each gown embodies the essence of dreams and romance. Our emporium offers an enchanting array of bridal dresses crafted with delicate lace, flowing chiffon, and shimmering satin. From fairytale ball gowns to sleek mermaid silhouettes, every design is meticulously curated to make your wedding day dreams come true. Our knowledgeable stylists are dedicated to providing personalized attention, ensuring that every bride feels like royalty as she finds her perfect dress. Let us transport you to a world of enchantment and make your wedding day truly magical.</t>
-  </si>
-  <si>
-    <t>Serene Splendor Bridal Boutique</t>
+    <t>Henna Haven</t>
+  </si>
+  <si>
+    <t>Vijay Nagar, Indore</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUVFxgaGBcVGBUXGBcYFRgYFxcXFxcYHSggGB0lGxYVITEhJSorLi4uFx8zODMsNygtLi0BCgoKDg0OGxAQGy0lICY1LSstLS0uLS0tLS0tLy0vLTAtLS0tLS0tLS0tLS0tLS0tLy0tLSstNS0tLS0tLS0tLf/AABEIAPsAyQMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQIDBgEABwj/xAA+EAACAQMDAwIEAwYFAgcBAQABAhEAAyEEEjEFIkETUQYyYXEjUoEUM0KRocEVYrHR8CTxNENjcoKi4QcW/8QAGgEAAgMBAQAAAAAAAAAAAAAAAwQBAgUABv/EACsRAAICAgIBAwMEAgMAAAAAAAABAhEDIRIxBCJBURMycYHB4fAzQiNhof/aAAwDAQACEQMRAD8AovdPZan0++VMGn1tluLIpVq9LBxSco1tGyvhnTbkzU4AFD6a8Rg1J7tRosyTXRXyL4rH/VXfqQf6V9QuvXzD4s/8S32FWxP1i3lr0fqJprleIr1NmaWWngg/Wrr7MWJAJj2oYGtX8DkFrhMTAx9KpLWwkH7APSNd4NanR6qr9b8PWb+QNlz8y8H7ik13TXdO226sezD5T9jSeWCe0OYptaZof8RZSoRQzE4BMD25/X+lH29Y8h7vzPgYZdoQkbNpJmTkN5ArKaXVPun05EwO8KcfQ8/zoh+ol7iraRtyAypEQzDkkkiNoYzJ4qIxagwzyW0OerapnItj5RBaQSCwI2ofHJBj6iKq13/T22vBQxZD2tMEKQ0xIgAMvBIMcZqrQatLotsmwMSyspRu5XUnc9zg+BHickmi+v6QsRvIaGlijGCFyqn3ncZ8zjEUXAo4IOb7BZbyukAfCvRu0M7srnnaxxOT4gkCBn2o3rDGwLenQB2uTvAgSMzIwEb5Z9w32p/0XR7UK4IA3D5hH+Xkgef5Ujt6e3qr5uEShJ2qeFUnwdp5GfHgTiatGUoQuf3S/wDCJY02ox6QOmrezad1kG3llcOJBOYDD68rIwMZmmnwr11WCi6HHu2GE5x2sSvtmOKV/E6i0lvTIUIZw0O+0oRBBkzAIkeeaJ6XpVS4m9GRj8jKZVgIZgHAEYGVYCRx5iZR4yUfjbOjJ7f6Cj4q+C79ljdsD1bMk7QO9AcwR/EB7isLfhpPB9q/Rmn1Eisz8WfAtnVTctRave4Ha/8A7gOD9RURkmwk8NnxWzdK1C5dOfrR3Vel3NPcNu6pVh49/qD5FCkCKMLTUuPEFr00TctrGOaH2mrXYvKLifetBaNvHijrsEVxlxUJigqNI1WwDUW6DdqP1DCl92gyVF0VXTivmnxX/wCIP2H96+lXOK+cfE6F9TtUEkgAACSTnxUYf8gv5f8AjEc0w6V0W9qD+EhIHLcKP1rYfDf/APPGaLmqwORaHJ/9x8fYV9B0eltooRFCKMBQIinmqM+ML7PnVj/+cty94fZR/c000fwdbskMrMGHmcH7ito6gUq1d7JzigSbGFjihJq7d5Mo6/ypHr+oai5Ft7kqSBECOftNO9Xq5kLSVUHrZOeV45QbuCRnAiTBhpqjdI5K5UhjqwbduW9FhJECbLkjPbJIbBB5EyPelPTrDQXF0qjo5udhDIhKDarEAFmiMYHdTJ2D3CX/AIRtAk7SwUDcB/MDE/ymrbjo9sptkJMjIG0NBOSJHOfrPsaWulQ01bCNFNt2t6e4ty2Njbtvqkbg0oNrAGIVpP5qts/tDEsWMgT2m2gB2nHykgTt5J80n0OjYhvTGLbsDcRgtxwwwqyCCIEgSORBomx0sOc7hMstw3b25kCgvsRTLGSmCFkHA80RRt6ZXlSNXptYRb/EBZTu3E7Q4XuIIdQFaFGZjJ5JxU9LsRWKtu2juVtyuAo25U/NHH3HM1numtetm4LTm6ic+om9SuCCtwET2/Rjz7UzvXrd2yyFBbdwCGVt1s7i0Qxgidz8gBtxGafhUkr7SAttN0L9Dp/2m6bshvyq04Xzznu58cgHijrqLaZLdvAbu9NflU8EqP4QSeBjH852tPdtfMQ4jIIAdeO5CsB+eIBO0ke1JLXWV9V7/wA4kIsEZC9sge3J/wDlSORSx4232w8HFy/BvNJwKYWTWA0HxAQgX1AxlpaQDGSDgHI9v5Ux6d1pUkLcG5/zMstcIA3Q2RwBAgc/SqYoSsM8sR38S/DlnWW9riGHyuOR/wDn0r5F8Q/COo00ysoOHHB+/tX1zT6m4yh2aPlJAgiVgnaQJIbuH8vrLG+bd4emRIdCSrDBA2zxj+L3nB9q08eN1sWnKEmfm10I5qO+vpXXPg1LfqBZI5Weft/asL/hDVWgMsMu4n3R3oe49WFgaocUJjSA7xoO48UZffx5qzTdMkg3P0A/vQfpubpFpZFBbF+n0j3flwPzHj9PemvTeg2rRLqoLnBc/N9h7CjbQKnaYjwRx9qI9QCmsWCMN+4nlzOf4IW0I+1cvKDkVG5dn6VEmBzRZdA0wPUQJzSTWQfNNNUpYwKqfSIgm4wX78/ypOW2G9hRpdACaT/EcWbmYIhWggysBsg4jIB+6j61sLessjisr8bWxdZDbGSpUnxwTBIzwKrJKtnR10LLd5kbbcKo7D1AdwGHM7TiNxIbnHH6nWNckqAQ5bcFXdEyTJOMKNo7m9pHAhSukW6dz7lY7SVHcTiTtG05PMHiI81foNOUvbc7VR2U7V3QTBODyT2+f08CcYvXuEUpIOTRXRceG/FIJlVO2WB53EbTDYMYnzijdKGcKjMSVC+mpQgOM/OsSe0NbbcQANvJIqOlRlBaO4lfywIHjgLj3jj3MUVoV9MF1RiJcEoyj1FckMWK9wYQIbxtAETUwlS2WcPgJ11nC3UGy2qhV27WYIz4YWlhV9NjiZIBbE13SqCG06hSysG3KV2wmCl12A3dwuWoAwHEgV7T3J3LcJS2A1wpbb8IloW6rPt3NlwwGJLnkigbqkWw5DfgIZYdl1rZj5LR4m2QSTHemOJo0W07RWVVsI691D0dGQhYh7QgFSpS45K7VDElYhuwkxjbjjH9IChQGDM8YAEhCCTjIEnAzxRXxMCbqWV+Qk3JGd+4wCx5Y7xcyaZ9K0gQKCsYEkCYBkH6fm+0T4oflZSuKDcgjS33mPRbaW8enAmPdpA5ppb1ax3q9uFADOhKgrES0kMT7k+9V2LaqoLMGg5AEYPkxOTAAAk92PrebhW4ohpFkNcjYCtwncUxLKSCABAGRmcG/jbVl8trQ20ejtkTY7CWIJtlYUAMZhsNJCrHMGizqGUjcsP3BCdwtsSO4bd2Dg9uRjHEAGxbCsRkMsE3BC7t3b5gOd0iPm4yJBrutf1JVxJCNtCEgEEhu2TzuURMEGa100oCDvkZn456+y3EVY4aYM43YP8AKsf/AIufanHxDaFxtznuA2z77Sc/rz+tIf8ADf8AOKR5qTtGirUUavoHx0jAJqe1uN4Hafqfyn+lau3qQ/yEMD5BkfzFfLvhf4Xuatp+S0OW9/ovv96+rdO0KaZBatptUePf6k+TXfTvYnDPJKi9tJ6YDfNPJ9vt7VdZujg0XpXUjaeD70JrNGBkE0RxpWijk29ll5ZEVSltjg8jz71xGjEzULmoAzNRyRNBIsYkVTdsjlmgfeknUPigLhQD9aQajqF++cmBVJZESkPupfEFu322hub8x/tWfuXLl1tzEkmmPSuhk5j9TWhsdORPEn3NBey6TZkk0Fw8KaW/EGkdFBYEZjE4ypJxxgRP+avo5FZ74rvptW2Ud5MkIP4fYz7nx9KrLSsuoGV0D21Xc7LknLHwCJgHDyAoxJE8Ecl2umm4hvD0wdm5VDMSFtsN7EgQ3JwfBHtXNDqWW4WFm0wujKMhOyCQAWMbmM+8HAxTLp2gVPU9OZe3t/hmCTuAGCPAkxGTBigxWwvaot1OhvIyJ6lsgqNrIApcedoMjAI8EfLA5qNjpRVgbV66hzwSQ0Y+R+3dIE4j296n0XTjfttyo7tqG9u2JHcpG6V7lGAPK4xNM7m1QMKC5Xc3uBjc0nMR4/SaLJSX2kxUWtgaawI6+ttB5t3lEKSZgMCTB4zMH6eVusum5qFLjLeopywASAVJ7u8SXgNxviBVPWNfvVl7DvBUktEBCCwKjBOBAjyP0h8Maqwll2vHc4WczICjCjySaN48VlmvZe4v5E3CNd/As6trUbWXCAQi7UGfFsARJwqzu4+nnNM+n6pCBudcQQDctr7CI3RBILAmPE+9Jeh9P9R2JYBQRuIMlzBZralTJ4YzM8YmtFct2vSD91n1I9ODeyBJkpmJyJJBwYGJKudxnkYTApRgOE3llch1VSGUJtKTbEhVO4oC/GTHPmp2roWLzTN5jd2nZPbHppFsQYdkgmTg5pNbVlJdE9NQBJDstwmMufTWCpBBHqD+8HF1vJ+IrNkLuVQLqMjTlPluQ0Ht2sd2BmmsMKIySsYdHcud2FhXZiZDtvVWAYEwNttVWZzsmM1Z166Ftl/yGR/ISOcyN3twPau6LT+mvzm7ulg6y28jlVWe0iCNv0FdudP/AGvdZmAUlmHMyYkRiZ/1pmV6igCrtnzjVXTctsXwZkRwaTxT7r+mazc9AyI9/NLfSFLr06aoeVNH2bp9kBQAAIECPA9qs1Jj/wDaqa7HFQ1F8OMmD4phvRmpEg2Irl3UGAP61QQQJ5pT1HqW0RxQZToukGa/qQQVl9b1J7pheKgxa6c8U10fTo8f70BtssLtJ02TnJrQaHpwESKJ0+mAoxLVSkWSLbOMCpXTjiuriq7hNSXAdf1FbSl2mB7ZkngYrI3ug3dSWvFQrHum4BtXbyCSN+3mGUcAUZ8T62TsEkANKjb3EbIG35o7oke5GZFN7PXgAPTsNcb5XcgJhV3SoOSpYwPHzHwaVy5JX6A2OEX9xmLdy6JCtuCANLgXUKsMbWBDxx8hbkccUx02sVZa4nGGdCbqLyYYYu2oJJgg5g0IXdX2lgjshCsCGZS7b3FvAntXbJySF+5ss2GBe/svTsBFy9FtUCQNpnvXAycg5+tdezkaTSaJdtwyreruKbVLPvadpV84BOZ+s+ZUau6hGohQno2lRluOVubo3s5UggyICknMHgUCvUWt2/VUFbYYrcT+AsB+8tx8rj3XtaCMGKWmNRcFy+xcgLMwCxQmJgDGR9zTydx4i03TsPHS/X7rjGBhSOSMZn2mY96Udb6UNOFJfcGOFjuIWJ48ZGa0Gm1u5opf1ZTqb2wSQi7RgnMMzkAEbiAAI94o2SGLF49+4vGU8mUTdNvXFYsm9S3O0riPc3CZ95JFN5uFAGutsXIF5T6YPkm7bLqDk/NHNEazpqWHRgQe1XgkeoShAcwVKnAA2+5IEc0x6h1Kwxm1YMmAtxTsnfhdoH+cgEHbzgmsxS5U0h/hSpst0Gv/AHQvBkt72O8HdbadxCl1JEFm4JzC+1FWNegvXB+EVZI/AA2BdwkMDAnaBLEx2gTSPToQ4ADW3uYlRtDnIIII2v8AKcMrE44kUUmpvWgyLFtnxAACXScbUn91c9l3bTwCDID2GrA5G6Gdx1t8OzDHqEwWMCBdbaAA6gA7oG4SncQI03wvZ2o1xpm4eMYCDbj6TuP61idZrLTr+ExW5dQKUIKjcnpIJBH8DSxg+0+1fSNCyC2iJlVUKMzgCKcwxuV/ArklqjL/AB78NftIW9bEunMeRWA/wpvyH+VfcAFFU+gn5R/Kr5fGWR30Ti8h41XZlP2oMJwaqbUog7v96UnWRO0KJ88/0pPd1LMc5NZ8sgRIZdQ6sBItk0Dp9I9wy8/aien9MJO5uaf6fTAUKmy3YLpNCFphat10W6JtJFcESO27VcuCplq4a4sUFD70r6z1FrakD52wolQSfcbiJj6UfrNQEUsTAAk1jNdbOoJLBSTlQ+VVfAwOMyT70PLkUEdCLk9FI0Re5O9lM7ngdymeWDLuSYw0bTAwYrX6Po+nubD3XDKk+rcbcuxTBt7cTMSAQILfYoDYayQFIu21C7FLlbiMfFq78wJx2nBB/QmdM1O+ShJ2Ru7dl215Bu21wR/6lvHnbyaAlKauLDppOpIn1SwLF66LQA2hLqhVWfmlk3cqGNuJYfxnJ4p51u037PdbdA9PcB2rtKgsTuz9OZAjzSTXKbjhn2urW9oHb3KSGMXFyykSNpMHGZFL+o9YusmwXSw27GRLEQFVldobjLKPpA4nBFi5VfaIlPimBap/+nRREP3FRBHbCgiMJlDgfU8mly2D4NTa7tWJJ+/MDA+2AMDFHaG4j/Q09iSbozsjb2csKbaF2/hBM0q6NriHDG+tvc2WUiQsksBvwdzbZ+w54rQdXuqtsIAST3EAThc5PgEx/I0H060ZOxnW2Z7SAQCBMFS0QTjznwBQ/OyRT4fAXxMb+4hrtGtn04clCbbC4AVTduJuQNpUSdpgN4r6Fa0S2yhtW7Srw5IhgncwCkD8xnOMmsTb0rJBtzbZl3FbUQVBAJa0RsIkgYAJkUVqdQXULebaonvTvsMGAj1bTT6Y4zlR75pOPrpWO/ZboZ6/UqNZ6hdYtsijudZIUsyrtJ3PtY9m0TAGTBFfXeo6a5bcBrjsxJ7kYAhtp2gwIABEHkbT5XAJ6aVu20YgC6Au5fTTldvZuaHhu8ADjGSIo7rPTklSquzNe2kOMlVOdoESD2jcTwJ8U9CNKhacns98FWjqS5uEn0ztJ8M8HuP12FSf8xJ81prekew3aTFF9J6bbtJtXlmZ24yzGTx4GAPoBRosE81pwxVFfIhKdsjp9WHw2DRW0e9C3LA9qh+ztV9oofOLl9rrcD7xFGaHQgGY/X/artFoQo/vTSygGKya+RxIjasgUQtuuolWTFQwiRzaBXJrwzXTAqjCI4Gqq49dYzSvWagu5sWjDRLuIOwYwB+cg/pj3qkpKKtk03pCnrPUN91bQEqCdxJMY9hB3xn9f0qOgsy+4fMoBG4MRBBAM/KcTicRxiguo6C1b2NbPokgl1Lb2VgFID2lkN8y8EHuGaMs32QFC215K87rTkAHDz+G0fwucwO6KUlB5PUGi1HTGGmUgZbu3SIDLCHgEk+8zwM/eoNoFPpuhgt3rdX1FuIHWQVgHkx2sIiZkmKuLHY0q7OrSFxuGB2JAH28nPJkUVf3oMvthVYm7JKiRuU7fmMbhA81bFFx2XlTQju9UgRcAVzndtKWrjScupH4FyRG8SpnO4YCvU3XKtbJYCQGBw3YQdjjj2yMEGZIOGnVJbdBIR03KCDtJyQW+g7cH34GZVJZ2j7CB9FEkLnwCWj2BA8U0mpb9xSdx0LL1sk/avICpppYSRXtUdq9q7nPAE+Ik4BP9KY41GxVO3RUNzMBvwRDKQDmSCuT7T96bC2AWVQWYkQYckx8/bwcg5GeZ+ifp2pNo7HttI3SwLHajgCHtgb9oicge4jimuk1c2iiDcHiHTmYXcBOSRtHjEHPFZs4yk7ZpY3FKkM7jEoqkzumccFcweY+gP8AcVRa7n7IXAECAxectnkGRz/erVDFiRtA8hhtAjuPOAMzPEHzXrTAJgANuBYyT2mSCpE7sgEZ+smpxQ0XnID3NpmkCbQMuiEE2mH/AJtkfwkZlIyJwJimnQ+mteuerdc3FSdjEkgvO3cF4HainAjvxGZGtg3Lq20Ugsw8AKAZZnIPIiP1Ire9N6Ylm2ltPlRQB+grW8TG57fSMzyJKOkKv2S6MqZqxOqXV5FN7ikcVAWB/EKf4NPQry+QbT9aQ/MIov8Axa170Dd0CE4Fc/wcV3qI0K9bpzaaOVPB/t96pDGtR1LShgQf+31rMPbKEg8j/k1js0pw4stRzUsmqlqwPXEI6WIqBYmuMaSfEPX106HbBf29j/v5+gz7Ajk6LIu651kWhtU95/8AqD5P15gfSs1pVJuQCUNwKDnbIdiisWmSGLIsDkrMEVRdtqGskXGuXL6liwG65bftmU5uJBI2tmFkGm+gDo4LOVdADBhx6cmbljfhlhmzyv8AEPNBk7CRQxu/DpRH3X13203elZXiREnb3n5YBUKe2MxRvStOr2LxNgXLjAkg+mrXhHbIIECQyAuM7JpdqPiMXC34NsFwLbE9zN87G0cAjtiAedxAzQfTbV0Ps3tubas2+2QbTbe49zqCSdk7gTuODi8INrZLkk9DvU9Mu6dRsDXbI/8ALJBu25P/AJbse6PyMfsZxQl3qCkSGLrIBcZYQVY2nRhKkgQQYIE8xV2o6e6od/qbUZiXd95XYmxbiIJ3rt3HaYyePZbf0/rW1uKwXUdyhjxfFvB3pPdbMiCe5ZUz7Eq0RbXRVdZwqrhR3GMltrNyTxJCkfrNAXzJirrDSvBAP8J5WOVP2bcP0ri2vNTix1oXyz5ELXP1q7oWjXUags+AU7BKA4bJid39IzzVN2+qFcGZ8bPGe4MRgweMxMVDSXnBLBlSAA4tKSS1yYCGfUUlQsBTELOKjyG2uCLePFJ8maDW9Ni0Wk7Fk/idjJEiQSRt4mQZOKzi6e5JZDDCcgqGYHzvjbcBH5sj3pynRLjCHS7ea0va11wqsW5TeCpZRGSw98GaH+H9Lba6FhjZuKNhtKSu8Splwvao243CCQTyDS+KPFaY1PdWijSa/ZCXlCjgkAhe7lbqNlJ98rknzRNxgyMzyWDQBBIEgsWweInOZkQPdnrulFA+0G4tpo4Ksu4KYRm5GfqpyDMRSb4f0JfWDTz+Dt9UrPbtBGFGYBLrjwQYxFNY4qVUtsXyScO+hrotPqB+PtPfJH0XgfoYmfrzTfS9fuLhv61oTBxGKrvdPRhkfrWnHC4L0sQlNSeyvR/ECNhsGmSalHwDWcv9EB+WhT066nysf+e1EU5rtFGl7Gw9GOKp3/Q1nNN1u9aMXASKaf8A+ktf8FXWWP4KuLHl0TSHq2mkSBkf1+lPQ1CakTWHCVm/khZl1uCug1DqKhWJ8f6Uk1HWAxNu20EYL5hZE49/vxUTyKKtinB3QZ1vqwtqyp8wGW8JuwJP5uT9Ik/XLIuy6j3huUFWDGZttJPfIko0ZnOZ5BFM9Fp/Kt3MZ8ggASzFyY+v85olbSqDuYMWiFK5Yk5Y3JhxEwsckc4pF5+crf8Af5GFjpHtB1B31F5FssXMMGAUFboRdpR2AGwAAZJ3TIw0UNb0+3Si/fa4CLu7KhWtM5MXLBIyPJHykTio6XUXtOxQEWyRstOVAA/9G6PGSSpPk+zZheRV01i41xxdsXQty27ltpk4FstCwsEFeV98U7BJU0Ck+7DdHrbtpiFKh3XsdADbvAA91seGEz6fI8SDB7rNcnqJcLL6iojOwTYxZTtdgxJQyFKz/CCc0brNJ61zepHo3SZDLCv2LDhgQyEbHho/i+tIP2hSrbnDqCQLvlZ7QNQF+VuIugQw5ipu+jna7NF1Pr+nVjs3s17sLWzgbcAyTAMMSCMnb5gVnbdy81v5hbFwlxtK77rOCrZxhW2E9oEDzRFvUrbR1eBcFtt7MdpdgD6TWyo2o0k5AJwDLRNLtDr91tZnt3QzGSdxJx9I2j7g/Q1KetFZy+RsbQNeuWgqliYCgknHA+9Apr8zVPVtajG1YLQLjjfmO1TIE+JaM/SjRkoxbYs1ydHtIbAd7t6zcAuLBdlFy0BjzbJ24A59qcBfRdNSNvoqQN1ott9PaoJcW1gmd5yABIyKzmmUpfH4xVyrMVtdwtmGItnkEDk+IH606dhZi5bf0d2A9sA2bkTl7UwJ2sZWD94pB98n7j8VSpLoaN8UoDca3bdzKqN77bTxObbjcgME+RMQcik17VuznZbEi6GtMfUJVjtJtkoSAABgAxEYqbXbbBjetG1uG039MSUImTIAlMiTI+804u9Pt3bdk2IdUDIbiuZFu4rbyVnJY7RwYBJxAILhr4K5OT9wDqPWNa4AV1CXSFHYMB+ztMDeC2RIExEmZrW9H6cLCQMsY3n3P0+g8ChPh7oNttt4om4BQjIWKQqgbrasTs9vfB961Vu3FaeNRx7rZnZZuTooVQBUGYnFFMk4qhhtpmGRSAtUdUgCq27qiW3GrNwAopUjcsIRBANB/wCEWvyCi0E5q2a5pM6y/fSrrHUltIWYwP8AmKs1urCKWPAE18967cvO/q3YRIAtAnuDE8x+baCfp7HIrzSmoo9DkZC91C7qN7sVW2pMJ/F9APdp59oxQV63tuq5Ha4A3QSoxK5IhsyCRI+uKnpLyiyzOoY2SxIDMNpyQf8ANhjjirdWfUB38wFY+QpjYQI3GGAKoB7k80Dcpvl+APsEIqnBskqZxtc2/ZtzzjJiPIPjFEekXDmGWAsAAom3AGy4MKQSO2ZETQHT77cNIKsBcUNGV8g8QRBB9o9sHtqTAAiQJKC5CTAgFz4mRujx75NHFxdfv7/ISLTVntYqXAEubTAwhYF2VAFOWWSIAlscn2pIdl9Rad5YQtu+QZBE7bV+eRgw388zJ/r3b186eztgKC7SSqjE7WABMkwPeJ9zQRS2VW0AGt2DO4QPVY3Nty2wknIZPtA4p3FaVyYvkpvQZc6U7Woe86JbsQ6B5i+kxKGe0zjb7CKE1GkvBluXGUMFS2xsHcbVq2CX3W4h5mCCDHsaX3tQsenf7kViqXVlnstEsgY/vUHkZj64NP7mucWiWZAVH4RUblddvI954iZk5okm0VVSM65Y7U27Qw3BGztDAGbRklMEEocZx4gh7JAAFE9MtllDuO5lA9zAGJPkn/YeKq1OsTu2vbBGCXYQD9FEs5+gEfWiJL3F27eigWT/APnv9qI6ancSdoLMBuMsAQVTaYiBBPJzB/NQvTL4BYXzDt5LACCFIXGFHzSJHI8iiTeVpVPxS89qgEwue9lbtGOQCYWcGCF8knJ8V0M4oKPqZzTaG96hW1bYlDu2oFVU9VFJQlh+VtuT44pjd6go3gmI8OoEMohhBcDduDyUByxIOYq3Ta5/QFxNS38IvWwLIuAsQpZDtxJ8mcGZxSbXaafxLa3UtMQNrvudyfmZRJnxj/tUKNrYTlx6CdV6oi5ZUklwPw+G3zkx2xK7cEgQMnz7p2oDuQv/AE+pEwVMK7rytxRggx7Tzz5u02otsbVnT3ntBmdvVuSmCI9MTAfuUn7/AK1d0224tbBaQj9odXvK252dUZ1Oc7eDM59s0bHCtgskrPpvStbbZBtaYAE48Ae2K0aKIBO3IHA4mB78g18o6Fea00H5T/Q8EfSYGfdRwCTWvtXyeGP8zj9PFMvLyYi4Uaa+BsJgZBOFjyqwM/WaUai0TxQN3XFR3MftP/P58VntR8WuGOyCo/r9vp/380TFOKlsrJOjUshA4qkmTSG18YH+JKPt/FNk8oRTqywfTB8WNAYFQ30IvXtOfJFS/wAa03uatyj8kUwHXHcAPEj+lZf4j0BusA1wrhvTAUsogruZ2GdxGAP9af8AqeKT9TPp7rjXu5gFRGYrbkGYAEkk+Tn9K8ZGbc7R6TIlx2Zy3rHtssCFZtsQO24sxPvuViIMxtIo97nexZt1yO8Dch2MfFyMbiPEf2oO9dW4XQbUYhSCcqLozuQMMLuYjdEmSREVbp3uXbcBtzrINsnDXFwyCcAkbjJHM/emmr37iy06L7525XYZlTswLltSZS1JJLW5wYzlaqe8ApYS20F1yvpssA7hjcSVUqB9W5qwKLRhhskDjazowhtitkIJOSPEeRNCaltgMgbDuLqoMIZh7tsGC9ktyPByOZokal+Tn6dhmoa/bSZUXtSiqQgMWwgLWw2T43A+OfbNFwSAiMFOW3ER6atHrXSPckEKPdvoapOqEl2Jbeq5Qkki2CAEHEsCoLH2OAalqF/DJbYzuZaWhGZR2WhGWRAYgcmfeidugf8Af7+QK863JRAqW7YgEXIa2mBO1Z3MzN75JoTSobbMSzW7W4k2mzkNCDJMkxJI/wBKK1l8MnphLQJc7wnbuZQdoED5FMZJyQceKAQBrhAHqKgM5XLMCCxJ8+32oq0gEtsO1V57iqoIC3CyhBkkLHcxxjPA9jnxTjpmgVUEqoG2HaAO0gFt/IbiSvEA0E2sb9oANkK25ET0wpHJgE/mgjE/X7n2vVvB/wB2bavD25Hqt6fzZAGPMHkgfSguUm/+hiEIx67B9P02bahv3aF2RWCgQ0MGYRnDCQ3G4exFWXtNadZCxLBNxO3YZRQQVBxFydslSB4NHWSrW9tz+Nf4nUb5jcIZsE7JgZBJBGAT7WXFt2p2sApAG0gTGxondJ424kS8+KhNuVBHFKNgen6paNq6l0IqqD6VpLeZXcAQ0TuBUST9zijem2VPpfI3BO4LKHJhZU8AtkZx/Nb0bRuneQuAhfvTPqKG2gESX+VuTmferw3ouqSSk77MTHgFDAJ7QDAORBHgzee9IrB1tjF+l93pvbUKmd1wIENu0SwJIJJWATBGNuI5o34e6bbD7k3HduYlTFoAQEBUQC0OwDZ7V+tQ0OpVla4BcMRtVdu4yckbmiADJzMeac9K5O1YhU7vzFtxYH/6/oRRvEVzQPymlEObRofA/wB6gug8KY+mCB9gavDbuOfar14+tazxxfaMxSYl1/SGYRuMe3A+8DFKLvw+/IFa/fJzXbmOKG/GgyfqM+f3OnOMRVf7K3tW/Gn3Zql9EpPyifb3+oob8eumTzRiFsN7GrPQPsa2a9NUeK9+wr7VP0WdyQgD1XeKfM+3HloxH1NUBqmDNeRqj0XYn0iae4jNahySAGh5lBCj/Kdo/hz5oG+0MbrtC7Qt1TM4PYyg8MCRM/fzNN+t6kWwu0srEMBsTfzGfABHiT5NJV1jXblxbqjsVQ+3KknHdPGJH9wKbhb9S6/YXlX2+4bbtCJL24AMqRLsQIXZntzmcH34qPEB5QTuFxSSRA/L+WCx2QJkmCJoFNatl0tsgFo/IxJPt2OTx9+IjxNFaqwgDFLT7d34kFncsFMACccx7ZoqVNNde38lOV/uCX9Iyfu1UbpPpE9j8d1lubbZAjiZiYilja1VwIUr4dVF1CfAaOD7jP2ptqnCyu2VCyUImMD5h4jc2frH2TPGbsEKvAMSTwM/8yaax+sWyvj0dtBgDtGRtBP5QYVVxEucGB70RqbCBJtk23OGmIIODOO9cEE4YcMvmielaEon7VaurvEkhhME43EGTbPOSCPrFUaO6rFC1l39UsMXBue4jAs53AiDIz9/FTKV9HRhXfbCtG737du2gZit03bt1YDclVZc8wYH1URxWt0tvsubSgvMp2MQgLuokC4wUbiJUxxzyKR29YwuM10IqXYzbKtaPp8IxUEyFDZiZMwYgV6vqaMgS3BQ7g52swTf5LNEsN7D27uRgALW79hmLSW+yrX6Jlu7Eu3XuFC59MwwuwR3d2cc53R96YafSWHcgu3y2ttz9oABYlgzIQe4xkAj+HxNc6f07bK28GVuWn8h1yEYiQJG4EScN5MUf00adgz3PSAe6pCXgoW2UUBlAjDiG/p9aPDoG47ArRKm/dt3bqsGuAk+kQ4sp2Od/PAEqDk+PFmrsW2tWwQwRltmSe5HZZG0gzI2iQYjtoTUauy1q/cIsG6Gu7crvKu8KQeMqX5+nFEak6T1bRUadla7+JBXYALZDFpO35p4jgc1LjaIUqBhcuWmtC9HpBv3qrhlY5LH+EjPbxPEEEVtehn8EMbZtlzuKE7tpgLE+flpNpOoo142rVy2JtoQiyVJIafTPsseY8DFaayoAAAwKc8XH6uTQp5M9cUwm0nmrGafvUA3tXAP+3+3tTwoXBBH+tVqM84/0qO+f7+D+tX27YFScTIAyDUNk14JJgYq5lgfWuOKGk/f/WrPRNSRfNQn61xx8+W5RCEUDuqS3K8XODR6RMYbh5pTfeWZCp2CO4xDe2Blvtjir/Vpdq2torMS7MfyyW9htA4/T9a7HHZE2A6+wGUq4BU4GcyJgyMK8T9/9ANDrbtiVZz6fCuATEeGHIx+o8SKvtaftChvTQMSUGSxHBZj9qmdO0kKcn2OYP5h7ZNaGNf69iU3/t0USlyRbAyO91J7szE+M/rUdcjbBCyAQWxMKDzH3in1kIg2qAFHJ9/cn3NXdWKWNE7Ed9+FUeQG9v8A4yfvT8oxxQSXbFIXlk2+kZJ7waFQkN2Kg55A3sX5EkcD6+9POraYpZZCFIC2uO0LLQNq5nlpk5mfoFNixd/fuoaN8Agb9gU7n3eNpK5MmSKd/EemvjTLcLKLbbSbY7iJBYEsw7sngQMCkpbaocj9rbFmk1Vv0DZtq51FxlGJjtaVPMDtkfz8UxtyhfsIThlaIiAI84+buJzn60m6ZcnvzuuFwQo2qAFjtjg7T7GJn7tFsONyn02UncEyWQxIMAR8rHtJ4PiqSVMvjehnpdStsrbL/htmzcbcxtmZa1E/Mdu0TnxyM+e4wuG6EBYbTessBmIKuogw4xH8vYUrvafZuR9rITBVZJQngHGCIwQTwBiARdp3KPtY93KEBR626AN7fQDP0z7ii821rsiknvoa371oWLZt3bZDMn4jgB4Fw3H3OMAAR289pyZor/FbB1WnE2CrC8xddqjIItzPJjB981k7WqJLtZInm5bntY+XQ/8ADnPvTTpOoEXCqi4dmz0HABDbiWLz4zyBwKKpKwbs2fRdLvuuw9LaFtgekZUPt/EA+k7Y806fRkZFIdB1FUAVbfpriFAAjAEQMePFOLfUgYrWw8VCjMytuRYtknxVpT6VZa1y8GpevJo1Iocs6YnP9fNEMng14agAVS2sHmp0cF27WKGuZNcbU4kGQf6VCfNQ2cevXIH2oH1j71zU3ZND0NskxzpQtxiKb3LU0M+lrz8sakacMzj2KGumvKTRV7RHx/WoJ0y4fYfc0JYmG+rF+4Hd028iZMcKpiT9ff8A0oyz08oDkFmMk+B7AfYf88UdY0YQe59/9vapMIpmCcULZJKT0AjRxE5EyR4MeD9Jiva07pdwXKywH2HgcDFFb5oHUXF3HBLhSLYztDNKszEeFUjn8xq8pUrZTGrfFHOhXNul1j3vnZAIPhLikoFHgFnOKR9Q6692xb0xIhT8/wDlGBP2Ej6ijf8ADlVWuI0i1bF3YYfNtoZX4MGJGMgH2pajnV3rl24ILCewcAQqsF5dRtIMZzPiqxS+5h5N6ihpp1Uq7KqLthV3D5UUcqsdzn8OZn5j71dq7my0zG4RAgSsE/KZEST2gxPiMjMVW1A7rgDAyd4KhDIPduAgGSMNt84zV+v60L15QqW3QbQttlDIuIcnHksM+FDZnIrx5NyZfkox4oB0tz5/VBZtjQrkqoI44iVENke4gRmiesgLZG5DtbFueC30acEHMSMCcedH8Ororrva2XNMy5iTtuBJA27juxk7CTIHmKQfElm2+otWldXt2bJA2uqkvJOwgk+meBLAeasoa5M6UtcRP0mxB+bbcXJBwGUSWaeScRABIINbTonRVuuLly2AyRIIXtIyIjKn6SQM4xWcsWUu/hudrD5HUgyR24I5PbESJgQQYn6T0DS+hp0ts25slm9yxLH/AFpnxsKySti2bI8caRc2lDciuN0/2xRluKua4IrUcUIJsViwa8FdTR63BNWs4OCKiibF25qvtLPNGJZ+leeBXUcV27UH/Woai77V2/cgYoMtNQ2ceialsqVpZon0a5HGW9OKrZaZ37M8UJ6Mc1iUPAot14rRDCo7alIhg+2qbwo1lFCss0WMSjYHeKqpZsBRJNCdLs+ojAqofuG66yDZuMspAO9Mz44jIrnXbXqD0d4QbWdmMwdnyp+pz79vFA67VnSqqm65vOgNwyIXHYoMbiQB+YUPKlJ8Q+D0rkyJU3mGmBkLb2eopx6YcG5ckgTv2KB/PIM0Ou0hiFJAZdgHbdtn5dgHuAkwQQcHFNtPaa1o3vP+9vxmQCFbAifZJaPpQl60GgsvcB+8sySPHdb+dfP5l5qcseKUf1Jxvk3IpTWMF3r3T/ErG25ngOBIJ+pM0FpdGzBroci7uKsCQcriG25U/WCODir0V/3oYME/CswCCbpHYqggTtHdmBKr5ozT6Sw4EfhXFxMgAbcfNBAiOG/nVJJpJfJaPqlfwWdC6h+yN6lxTBkSVG3P5XXA4wDHPik1lAzOx3AOW2zJJWYXJMwBAJkkeRTXrZvW7fpllY3FJYAMp2D52J3lWkduCecRXNFqwFFoqLqEgKCVW4pxEM3bciRzkewq9aUSre7+Bx8O6UHYRG22uRt+ZiTD7jk4kQeIitbaYmgej9PFq2FEyMmTOT45P+ppipjx+n+1aeHHwjQjlnykWISKuBqpM1alHQI6qzRNpYqlM0WCBXHI693EEUKzxVrNQmouVDZJXdaoqK8ooiyk1U4v01urfVX3qjXXtiwOTSSW+tHjDQOU6ZYLlVXnmpEVCKwGaQMa8Wq24tCvUEMjdueKrLgc1FuTQHWf3D/UAfozAH+hNEUqKVYm1usRwz7t0lSva8GWHYW+XChATzMiK0lw6XVXQ9s7mdFF1SvyqrbhMjBJG3HIz4rY9P6bZ/ZTb9JNnpnt2iODXzz4KWFv/S+y/wDxWNo/STV8ca2/fYxmTgqLPijVI19LayWsglsQAbgXaszyRAAAPzDiKH12jtiwXDBFQctLDlQIHgn8M4jkfWgNfeZtXqCST6auU9gVQAGOCQCcmp9Kcm/atkyjDTsVOROxRP0MKOPahzueWzsdQxUe6om0WdO+7sTe5E4vXIYggmSURkGDIngiRUrd0gS0XEAUbwdpVEMss/JkFgd2054rjDe1xn7iEuOC3d3ssk5+oH8qEsWgzQ2Z2g5MkM67gSMmd7TPvVefKTZZQqKKtBaF1vU27RMojblEA7tyO2A3JPj3gZrS/C2jVrruVkpAkjbDkuWDr5Y7pnIiOJrTfGelRemttUDYoKwI2kAkQaF+GVA0tn62wT9zk0zix3Pf5BZ/+NUhqHirJqA4rw4p9CBcF/SrghqqzxU4oiKsMt2oHFRZ6lac7eaqaoZKOO1CFc1ddNQSqMk9bSjbShQSfFVWBUeqt2R7kf1NXgrZWTpC+3qPVc+Pb7Ub+zH3obQDNMYojk0DjG9n/9k=</t>
+  </si>
+  <si>
+    <t>Henna Haven beckons like an oasis in the desert, offering solace to those seeking the intricate beauty of Mehendi art. Nestled within its walls, clients find respite from the hustle and bustle of daily life, enveloped in an atmosphere of tranquility and creativity. Here, skilled artisans transform hands and feet into canvases of floral intricacy and geometric elegance, each stroke a testament to the studio's commitment to excellence.</t>
+  </si>
+  <si>
+    <t>Mehendi Magic</t>
   </si>
   <si>
     <t>Bhawarkua, Indore</t>
   </si>
   <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/1134141/1584710745_Screenshot_from_2020_03_20_18_54_59.png</t>
-  </si>
-  <si>
-    <t>Nestled in a serene corner of the city, our boutique offers a sanctuary of tranquility where brides can explore a curated collection of timeless bridal gowns. Each dress exudes splendor and elegance, with intricate details and luxurious fabrics that reflect the essence of true love. Our experienced consultants are committed to providing a personalized shopping experience, guiding brides through the selection process with care and expertise. Whether you envision a classic ballroom affair or a romantic garden ceremony, Serene Splendor Bridal Boutique is the perfect destination to find the gown of your dreams.</t>
-  </si>
-  <si>
-    <t>Blissful Bridal Bliss</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGRsZGBgYGCEfGhoeIR4eIBohHiAdHSggIBolGx0ZITEhJykrLi4uHx8zODUtNygtLisBCgoKDg0OGxAQGislICUtLS8tLS0tLS01NS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAPsAyAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAgMFBgcAAQj/xABCEAACAQIEBAMFBgUDAgUFAAABAhEDIQAEEjEFIkFRE2FxBjKBkaEHI0KxwfAUUmLR4TNy8SSCFVOSorI0Q2Nzwv/EABkBAAMBAQEAAAAAAAAAAAAAAAIDBAEFAP/EACsRAAICAgIBAwMDBQEAAAAAAAABAhEDIRIxBCJBUSMycRNh8EKBkaGxM//aAAwDAQACEQMRAD8AzqmbkEAdZwussKDJvp9Now4sMTHQgW2O/wBJwfw3hTV6tKiltUFiR7qrd2/fUjEK26JC8/Zrw4Jl6ldgAasqvotvq5PyGGfZziVOizrpqKpCkK1/DksQtpBBJc6hIiL3xdcrRWnSCKIVFA6bQfr1PrjOc0yCn93ZQj6QJ2pqSEDTJFzcfhDAWjDPJjSjE6Xiqk2Teb4r44jwyCjK4CuNYIUmCPdMnlibgkz0wjL8Q8HU000V2DM1R7k2UgXH4FUDzB3xQOG1nep/SoZiQoASATqECxBj1MC84uT5imlQeIaa1CizKktveIGwvv2xHODjosxzU1YTmfaARBzaKdJBKx1IIbYwwFh0vhNLjhdj4eYo1OYkoCJAiABsQAeaTfcY9PFki9cja5psB066fX5YGzXh1xBajWv3BIPLO+x5hfAJfKYx/tQ5X43AC1l0mBLfh90ljvyrIgXO4xMezVan4Tmo6KusjmiCdKkb9oJjFG4hSamConSd6VQ6h/2Mbg9IJI6WxZfs2rTTrAEjTVXmgExGzg3Amb+dojFnjY0pckTeRP0UyXzzPRjQVmoNyBygf6jFgRywRFpBM32xHZDNTejTNYmSa1VtFMmwJFiWmBcKQY3wd7UKKooippFNdTOSwC/hgP8A03nT15d8NUc0WH3NJ3EGHc+HT2IECNbCdJsCN74X5P3nsH2HtRcyYl8unkEZh89a9I6YZajXjfLN6qy+t9Zw+HzMywym4lQGJs07mI6DbpjqlWuIPhZY/ErfVJgwdxbyxM/7FKX5AqtOpecujbx4dWTBnVAZVF/W+BTVGkFaRXQVJRwIBWNM6WgkAQDJvHYYNrZp+UNliswNaOCqmT5i06Yt3xU/avNMiEAKYqBE1KrBQKaMSNQPM2vc7AACMFCPKVHpSUVbJLifFWqVQ2hlZQrCmxBGoalkEW08xk+QxbqVEQtuirt6Hp6DfbGVcOzJq0yDAIIW1hEiRHRTaQNoMdBjX2SNr+U9dxBJsLRHn5Ydw4smyS5IyT2nqMc3mCd9QBO1gAB8YAxDpFpmB2PcwcSftYYzmYBtL/8A8j+5xEgR5wAfLf8AxhyRyp9sOpKulhJwcilfe6XJ72gT+++Iyg0D16np2wc2ZmxN/wAXmJt8sJkmKYTlDqUyQABOn1Mx6bYfpOpmZndY7nb9THliOquNNvL1gkD8gcOU6xDRNogH13j4E/TC3FsBkgqXA9SD6D9dvjjsM5bM653gaZ779PoPljsKcd7PWAUVHKCDE3Pn8OsE/PF++znKgLVrGNRYJPYAAn6kfIYoFGvqF/emR/uuI+MR6nGpexGQellfvF0kuWCzeCALjobTGOl48W8lsZDssGYPI8dFO/8AtPz3GMn9nKrOjiqGgVFZGEhlckLCmRa4Fj39MazTFoA8ulvS2M0zD0qVc5dZR9RZXYllBVpQXayAqTpsOnWcN8z7UdDxuxilxWnUZadPWzk8muy6okWBiSRAaJEzOJJMzpAcuVptogtIu4LLMWBO17SMMZLgApMWKpTLSAVqlomx0So0yCQGJYj64kKIzCOfDqUFSxFNkJjlgCQRtNh5DHMnwb0y/HzitoDHGqcEnWImSZAsQpm0gBiAZiJHQzgXMJRrDm8NzOzqNYgwRvqmbWi+Jo5vNIIig8KonmSSLmfe3HT/AIxGZ11fUa+Tmz81Jg12II/lOwF+4EY9GKvX/TXJ1sjK2X0LCu2g/gdi9M77MZdDfcFvTEz9ntItSzguVYqugAFg2nmJMwRBX1Ate2IStTp1Cxy9UhiXY0atjuAIB5gDM+p8gBPfZepNHNFgwdaomDHuqCBPY/li7B2S+Q1x0S/FqcNSZgzjU7gPddYgaupsBsbAmR5NUc41U2R3FjKixlWYenKov1LJ3w57Q1qfi0jVRz4ZYLTQEmoxKExsGUDc2AMybYIo5jNMBpWjl1hYDc7WBnlUqsbRDdMT+SvqbD8dtQ0IGQzLQxWmvuSDBI61LxciyAdTJNrYE/h84qn7lC8A2dQoZmsDbZEhidyTAw7VyDEzUz1YkfylUG8i2kiJ7zhRplGJ/jKoaQ7eIaZBtYnkFoHSMI9BQuZGZzMFkWoVNNjIUVAwNgSWYC4GgMwWRtE3xX8/VTOUiUljYOoADgrZHVSY2JETcQJlRNmzaO6HVUSrblcLA62aJHMCVkRYnrijZPItQq1XBYaaT6OVgQYtJjQSP6SZ8tsHiUdtdmZHLSfQjhPDoq0aXOddVA2pNBjUrNykkgBVNz59sa+y/wBQm0EjtP7+eMz9gAa+eqM7H7sMywIEmUAPlpYnvYdsaeFB7+tvL99t8Om3qyTXsY17b0z/AB1bm3dd/NVxDsp0iN9j8N8Wb7Q8tpzzMbalRvkI/Q/LFfpEki1ztHr/AHOGJ6OfP7mLSmeW4KgXH9/33wVTS+oj3CRtueluuBcvTNoiJ77Rv6YOZSJvMG3mbfXrGFzYs8XdbSJg+UmI9L4dpU1UhT2j9bn1+gx1FyXUtHcj096cLopBncQQLfl574W2BIIppe0XMW3MzGOw2lFpGx2AH+39n547AAFo+zX2dJnM1VEW8LaJBu3z2+J7Y0h6UWHb54gvs/b/AKSkZG7L/wC4nFguCZ2tF5O/pt5+eOxiVRVFMVqwR6f6fsER+zii8f4bTGdZ2MTDhQoJNosZkAkGQBfuASMaDUUaojz33iDYesYqntdlxqpu0ab0yZsCfdnynl2Pv9pwHlbx6KfGa/U2V7MEofGBZqJXm0n/AEm6NaCU2k7iD8HuGqfu9eh2IBJUcpM9JB6aemH8nX0vppkMqBmqvMU0USYmLtPQdukDCKOUp1FNTJVRTLTKgchYjfTujf7YP9LY47Vr4Oryp/IPlY08kDS9eCwGwNTqQAIMRItG2AqU6fxABrEE3GnoCBbUVseuHfHNCmKLo1N4FNYazajzsrhYJiZEA32G+GQCEOgMS0kiNRlo/D1IQUzHnhyXYu+iJ4ij6UFYamKs3Mmhl0kAQQSNjuIPzxYPs6RzQrMtSp/rBW0xqZVpyLm5IJAt2v1IhfaBVSqyCFFKgqmBAGoz3MiBbr0xZ/sypTlKi9qxOqJIss7iLrI9CcV4CXP0F8czrisig8xQhS3vAalnr1levbAmZZmBJY8mZ0X1Qy6DblBG5nmgYK9oaqLmEk/gmmsXPNJiD7ggXMR8RgfMSP4xFjUrJXUFigI0gmSvMwENywZIG2Js6vIx2J1jiOFCq1NMgtRL2sSaVQMw9StT9xgOqGbLOoXenUXaLjUR0HSNreeJJsyoVKn4VbU4IsabDTU36BGDn/bfENk82mXapTd4KsCNREteCfNmGlrDqb9MKj9tj7qTRLrWRmDECGRWuBsVWCeY+e/nin5vNVAxmFCai6zqBW4S94J/QmOmJHKZ2to8GjTOhWIp1nlVVDfYgFip/lknqemI3P5SV8OmZRmIrVbTMSbdOggWWfPBQhxk7PSyXFUWP7PMiqJVdtXOwVVIvCR9QxAuenXF0cd/3/gifniE9jUIyNAmSShdptJfmYn5wMTZXT5XmwtH7t8MOkRWZt9qWXIq0akXZWQx5XH0Yn/nFMDkD4T8caZ9p1P/AKVGE2qraL3DD9R8sZgrmYAmL+u+/wA8FHoiyqpBWVMki5B2+v1j8sE02JtvBJ9TP5dMAMRI09d7WsbfngydOlhc6bjrc/neMDJCRyvUmDBPl2tH6jB9JEW4MgRIP6eunANUTqYn+0RJwutSK+7ebGbGJI+sYW1aAYTlBKBjY7g/IDr1bHuAqBIEmwET2Bv/AGnHYHgwaNc9icoUyiBol5fe41benLF/XFgZx5i3e/wxCey1TVk6JIgimBe0AARvsCBiYie0GelvocdiCSiqKV0KSr0AMSJJ7Ht/bED7YuyZdqqjU1L7wBhYgAyDHcT9MTy5aRIMzvaxI8j6YB45Q8ShUpvs6ldu+MyK4NB43UkUvhXEjmcoTUhdZahCdyAdUHr+KOwPU4XS4dNGjRIWnUpmGehJYgdWlPxWlSDe8WxXMtkKmZqVMxlglHwSg0ExzqoBIgaQCR1gHr1wXxDifEPC/igBRVfuzG7HVp9xpgBpA7Xi2OU4bpNHRjk1bTC6vHBUqVqHgVK1FYDsUsO+oEWgg7j0AwFU4UyMr0W8Smp1ijUPNI20uwMRuJnYXw3w3M5ulRc1Muzio4qM5bmuCGLJ7zFVRjEiD02wVxKmxcVEqaQSrTuCnYCT0iP0xj9GkMh6+yuGqWFapUAWq7kukRoCjlBHncz1mcXX7M6enJVGAZlNYlYFkACg38r23jpir8ZZHCCowWoVmmw9624P9J7H1HcW/wCy4hclTDITqqVlsu99RgzdOWNtxizx6eybPpJHntQhpNSQFidJglQdRZpCiIMg9O1+mB6dNxU8Z6vglaZEIA7lN5bUCsi91B9cSHtU5bNUQCCTSbSwFxqaDa9xy3j8RtiB4Vlc5QpfxVN0qtWXSymWeCYBG1w0COlpwjOryOmMxSqCRKcOyWXNP7qk1RFtqcsVtcwrELtJMLG+H83mFoK5CIgQAnQoEyJsABPzwFwutVy7pkcwURCDLTPKwJjVYCWEEx8dsC532joI706illUladRBJYfhDTdif5gb2tieUJXrY6GSP9R5xzOVBSFZTqCPTNRQCdSltoN17G8frAZ3KVF8WlTqL4LszoB/qqxHulegFh8u+HPaf2gpqppU0cMWBY1FKEAGQADcTAN538hDvDOKLmc3STQUQujhmIA5ACZJtOrSojv54dihJJWgMs4tumaXlssiqlNJQqpZVEiJkSVkTckwevpglQL/AM25Um4mbx2mR2sYw1RR9bC91neFJFvUbjafnu/TAsPIRpuCLRf1JjyGHNEtle9vKOvJ1RtGkj4Mv1ucZNTpQYFjtb6fOYnGz+09MNl66xP3bQBFzv8AOYOMeQ2MGDuSR0EH9MBZPn7G6dIspMbm4joL/W2CghYQOWOUfpHx/LHZe+4uCJ9Ijbt/jBdPrN7m3r36yMBKRMxtadiTESVI3mbg/WMLGtoJIMTPfe3yJ+mHcup933hYHzNojyN/nhdJ9U+QKx5n/kfXC+QIisQUaRss+sDY+cHHYLSje21xc9b9O1tzjsYp0DZqnByDRpldtC267W8vLBiG8Xjfbb6/piB9h6k5OlBJALgSLgBmj5WxOyAbW+NiZEfGTjswdxTKV0E0ki5Ak2tv8PrjzMBSCCTtEmAB6k/L448WfwwCZJtfz698LWxJF5uRcmbCw7W6Y81YaZnPCKFOj4gS9cVG1hW0ltVQeGGMe7pdelr4Sc+xrU6BUeG7sro66mWogLaJBgqdSuGiYjth/imWqpmKmg001sHLMC0W0sumAGVgqn3httgB+HIzmo1SszFtZZIRQ0BZEKzLYAe9OONKk3yOrG2lxQvidaGBKuSTuBYWnmO4B2+OIzNU6/iqlE0xTqKzkVF1BTq5tIgQWZhCgnBlXIJ1Nc+RqMfmCMDZjKjlK1cyhEgGUNjuLpJHxwGNJe42dv2K3mJc12rVFOYVnoqBYARbSOgLajPS+NH9g6TfwFISY+9KkqDvVeAbb8okeeM94llSiKUFNyhJkrodhB1A3IYnuTvjS/YlQMlldQP+mDpsY1S0i079b/26eDZzs6rTI32yznhtS0IxcU3YKKXXUJdoWAASGMiCY88DpT/hBTTmFF2jxBUbUHBHMUPIFO4UCSoJnB3tHSqjOI6voXwisFQ2rmn8VgRbv0wweFI4C1KmaYLcAldK+gCgD5Yl8iUVNplGCMnC0erlzWZqldEeoGakg/Cq0zpLFT11yZk9rYGOUoVIrIlLWrFkZDCEgsWsDBPQE3UicH1MiQLZjMAAkjUEIBYyblZucR9XL1EB05gCZHPTB3/2Ml/n6Yn5W9SKFCltEfxDiqaTX006q1tNOUAlZEBWBliB1FjPexwT7FJ/1VQqJFJFVViwBaLA3nSp32tOKqvs6Kblqv3qwY8MwwPQlZB+AJxevs5ceC9YjRreJIAsol/QBpn9nFcIq9E2ST4vkW+lqZrgkcwmBEWtO8T23g9hhaVE0zI0zMnoZgQD5iPXCZhZTlmFUMIUGTeLGTO3ph+ojcxVRqgQbXibfUwT1O3ejiSgtWnqBEdwem/+L/HGFpCpBgkWNuvX1NvyxvdemQQAZncdBt+nTGCZ8RWqr2rODbbnOEOIrP7BTVrMIibecTPysBhapJEEm0wD5TH5YBpnbe0x8YA+GF0apEaTO4npJkfSRhbiTEicyVabgiDHSxA/v88G0aymZAA/D5gqR+kYiVrkuQd4CibybH5TafPBGUZpUOohiR5gmRHrLLt3GFShoBh9UDTDXY7ef83r0+Zx2BqbqRBkaDEnYx7299oEY8wKiCaF9nlT/pV6Qzgjf8RIv8cWpDvPw332N/XrGKL9leYL5WoJ92qZ73C3+eLxTveTJ6Tt33MfHHZxfaimPQvRfe4Nr+X5+WHUvGrcdevmSB54Qr7+6WFwOgPrGHCAb2Exf9jBMNFM9qgq5hSUd2YWVVBJAjcnlAvux64jy9c/+RR2ixquD5+6OuwJ2GJT20JFRBMAU29wCd4ET2G4xXcy4UAGdYXkI5nMqSTDDTPKYkxvt14+Wv1Gjr4bcFsIZXE6s38Bl1A2Hck9BgLMUq4Fq9Fug1ZfT07h/wBxgk5CnUbwQhqVCAzrIVEWeXW2kidyAAT6DAvEFehVFGnRp1c1VBaXOpKdNbKBYWtJgC564FJ/t/hBScV8/wCyvcbrPpJq01j+ekxIFybgwQPSdsa7wTKgZeioiFoosg7EAT03me+Mg9pDVVT4tNKdRbnwz926kxIB90hiJ8jjX+HcQpqtNVflRVXTB2CAAC06p/XF/jJUQ+S7aIn2qrP41JUCEhWOuqTpAsANIuzEqT0AwxRStF3y89/BJ6R1qfuBh3i7LUztBHgqFJPSWlzEbESoP573erlcwalKmiq9EoabkWN4qbRKghkIH9sSeSryMpwOoIDqpmDPPldiLoRuAOjE9PrgLiNTNBTGWy72a6VCtzt7yjb1v5YmG9mBBBzVbV1KimBPp4f5knzxX+LZarRlGcFiCUfuO+m51gwCBMyCNyFVX4Hp37shc9nUY6GR8u5mFqEaW2jS4sTE3vi/+yNDRl6PKCSjMx/ECzSBEdepnoN8ZrxDOkhtRDoeWCLz2YMJBuLGPyxrXC8mqUqdO9lprIkGVUbntA+Nxvi3BGiTyZN0h+kilCiraCpvJE7iSfPvhxafiXgpKkb8wHpMAnvuIw5TQmpc7AGA1hOoXESRbck3BgCMesqyARZ2kSIMjveSSBbyF8UkljR5b3J6g7npO+1jj544jmB49YxBNWoTPmzWx9CrGogMpaQZI7Aao5vXawnrecA9qsuaWcrq1vvGZfRiSpHe31nCOOwcm0MLVt5zb1/cYUBIF7ny3/dhgISNvnP5xgmnVMSJ1CSSPrjHEnaCnqgGFJJPUfIxa9/ywR/EReTIkjyO4+Fh8hiJoVOYHeNrYWKuprk7wf1n88C4GOJM/wAQCD8d+m0fH3v2cdiMqVQN77R1E/8AH5Y7A8AeJefsczY116J3ZBUHwJB/+Qxpq7HYdd42vG22MF9kuLDLZylUadE6WgxCsIPXoYPwxvKvOxW9x1+PpfFuJ6GoJU3JNrgTH027z88KZeVrRuBabdDA6YSpHcX92d56/T6Y9YDYxHWdoJsN/hhoSKl7eUwHpSo0aG1CBETcX7z07Yg0XxNL88mAFPNzRARQImwLEGw3O04nPtCJV6B5TZ4BBgG0Ex2xC0iTTrMCQVZMspB93WU8Vh/US8T2UY5GeP1WdbDL6SC8tXNBaxkGpVdApRWeCFVIMLDFQrMQJ/FiIo5qo1ZsyCKz0C1GpoF3pMQyOqj8S7FesHriz1qoSoTpZKVBVUEqQvMQGIJEQqCJG0tgXN0DTzwqKvJXplXIFtamVLEdSuoSewwvkgmtlM9tyKlMVEOpSLEdpB/MAeWL7kcnlxTQlFjQrqwsAALbm5uT6Yzvj+YV0zjJ/phxpPTXA1x/3X9ZxrlGgKlFAykSqknsSAAIN9MzYxi7w7UWiTy6bTIPMp4NTMVA5P3aCnYEydUKJ31PFvQYEo5LMZV6RasKk03UfdwFl0LSA01PeYxIJjBLVkTOVQw1CmqXP4GA96I6q4v0ve+JM8TVgqvRfS4/Eh7SeWDIAjafpiXNL6jKMUfQiAy/FPDOYqMCadWD4lNpIbwNZKhumkSOxIERsb/4/QO+oFSaYZ4knlkCDuZFrG22C3zaOp/6eU5jfTHLymQdm02g9OoxG1amXDs5qKadUBgJAQEKFgxuxA2O0YU6fsNRVPagJW8Osit94xpGVu1zpMbk2Mf7sa5/D2EgFZFmiF07EWN5E3Nu+M34llQ1TKrSAAatTKjTKiSDJWRYAG0jGlsJFxBI1c0FVIuJvEgwbYs8V3CyTyVUj1L8wtAtcxe5kfIg73O3Xw1G6HlhYMWMnYHVckfmN8JbMAXQCSwknlBmBO0kxAHewxwrSRJ08xADRLWO1/U94xTZOIrmF2kEGwuO87Sf84zT7XOF6qdLNBIKnw2IIupkqfmNv68aNmDpkA3J63sRst9gYPz72ieP8FOZy1SgD7ykKW/CwgoSdzzqJ9cAuzJdGCLB3x7Si8yPTvhFRCrFWGllJBHUEGCD8cKIn9/3xjEC6a2sL9DhylF99h037/Dp8sMgWnp16/vph1EJm/132wLBY8doUna9zHfbaxx2PFZtrgdj+vw/PHYyzLGXj+56Y2T7MeJGpkgpMtSJTa5UXT6ED4YxmstojcW9O+Ln9mPFjTzRot7tZbA25lkj6SPlhuJ1I8bLTm9zuItt336eeHRX2sfRRNpsTa1sMURNwb2+Xb998OJT9wAAAdBsLEW8+mKmGire39Mt4SxJPiQTYAHSTEbkAEx1xCcNqqniJUVjQrwxKg6kfSFbUANQBgHUBykGYxPe3ZnwHuCrPFj/AEi46367RfbFRV5VhTgleQMXZpaebVFy1hjkeQ6yM63jxvEi15PMVSukNRzCe7rLFWI7MArKTG5ET2GILiHCAjIlR61OlUbQFp5hmSTJCkMgKqYgQY6Ww7w3OClKsGI/FpB1dwyjckGZAvtA5SMLzWZyzlalXPI6UjqVZReYWlgLlh2gemEq+xkkloqnthQWlT8BFC0xdFHWxuxNyZm3eL41yvWAWLxoB1ldhHXrIgEyOvrjHOL518zmUamti6LSDGNXMOY9lJI+AxtmmdJM6heAY+A2tPffHR8RNQ2ReS05Kil8drvRz3iKA8KqlJAaopVdXYawYPa0W6H5rjutIpI6H+Z1AA9BMk+lvPoYz2pp/wDV1IAGpRLkgaZQAHmtNhESNsQGazKWbUGYK2kWBHQ3JiTKwCBtuZxHmtzZXiS4LZaxxbLNzV18N7TIJRo2hlGlx2m47A4GrccoB2OghXjm0kM0WkrEx02nYxBGKwmfKHStZuhJ1cxFrKI03g2tHpgHP5pnYE3uSsGJWLWMRN5Ebg4FQsPonOH1svUzuVpUQKiK+pwrWGlWiZI5gebvync40moderS6w1h1EgX63uJgRtjK/s+fXn6ZJNqVRhEcxsADblsd95+uq1UExO4JgTvsb9BcbRizFHjCiHNK57Gg40iQVBQmfwrt16G9sPMxXTeSLMIibG/lePLDCM5HLZhKlisTFut9JNxGPEIEAktNwSdo/PvgroXQPUOohgoPkttyNW8HeT54fWmstLCIM3Ino036QL9MMpGop2gsQ3MDuJI3mBP+cF0pjeBC8xAuT6Wv18zbBQMkZh9rns6qP/GUwAGISsB0JA0MR0kSD/29zjPEpz1t6j4dd8fRvFMnTrUXo1bo6su0nY3nfUN/hj56zuQajVei/v02KnsSDH13x6aEyR7RYKIIGk+VyP38senkuRaTF8IAk2ABvA9L4dy9IsADcTMz064UxTHKQLGRY7iBM36/Hr8MdhVMECIBXYkHp/bHYBsEDDSd7/uIw9kK5pVUqWlGDd9iDhqqNiRck/Ht+X1w4ySDeBOn18/nbB3Rtn0NRIFwtjAta3SPQHBiORFhH16yf354g/ZuuKmWy9SLGmJsDzAQfjM4lpI2AN/xW0zsBY+X17Ri9bQSZXvtDJNKkVQtFSIGnsT+IwBYg4qFKhVdSDTQg9DVgxafdB6jfzjFn9uawmnRCzfxDz6R1F5nfpAO3TrBMHj/AE6Ef/taev8A+HsR8scryv8A0dHW8b7Fdg+aGYZg0UhHQVTBkReac9jHUi+Ac6MwQNVIOw/ErqW+ZgxiUVXI/wBKgfPxj27Gl64Yz9NtN6Sx/RWWd/6kQbeeERdPpfz+5S1+St5AtUzmXpPTqCaq6lNiYabNIGw3B7xjbkdiQ2m9gBq3Hc3gkCT/AMYyX2bqA57LKS1qg5SI6EW3mDFwTjY2WGTYmCTO4ERIsZ6CJHfyx08C9JzfI+7spftBTQ5tmFJXYqkMw1AC6wJ90SPLrgCq1IzIo7TEp2B6n+pf2MJ9qKCVM4VOpgFlacEIsDUzONy3N1FpGAKWYpLTd2oIqqYPITf5HEWf73tluC+C0h6tlqN5p0D70z4d9PvHfEVxThKKSfCKkE3pkgLH/t2PUHcYJoPl6y1CtHL6kMaDZ2AFyBbzHwxB1HoMpZaRW+kBGYFrXKgG64yCfyzZNe6RZPsw4ef4ms4aQtMgSBIJZYBiLcvSO2NFrIAiLzpJAMNe82J1Sf8AtM4zj2AzKrWr02n71Qqmq0SwJgH8RDa9/KJnGktUUsOYXNge4BnTt8d/hitPRDP7jxydXum4ifIfkZJ63vgZjCiLkXYH3gZM37e8Nr4f9wWsst3mSZGne2/oBgHNPYEXmDbz/Peb98AzENcPqCdQK6R3MXgm57RHn1xPabAidhfewuIHWf1xB5bTZy0ASxmwKwe56alk/DEtTqbDcQA1oH9tp2xQlQA4vKdzJ8jpHNbyBvv1icZX9rvC1SumZAIFVNLWsGEwfUr/APHGokMBKyfdsfe3A8oAAJO8ycV/7QOFGvk3pooNRWNVBquYktv3kr2uMektAS6MTQwJjfrh7LOZAFwbCenfrhFEWncef79MEU1m4ABHawnfY98TNk7HqSknQAACAYPcCYHYmTjseLVlZ0mVM+m/5TPzx2A2DsBCyADHp8P748oGW2mbRPrh18vPum//ADhpuWNM7Se0/wCMGbZrv2YZjVkTT60naR0Abmj/ANzfXE5xni/ggpTXVVYggTYbXYjYBY+EdxOa+w3Gmyz1xpYl0GmASNUwJUe8YJgDyFhJEnw+hrFapSqVSzDS6Vx94HuZ5SABvaNwe2DyeRwxa7K/Fw/qNX0K10nzj1K2YAqiAulhBt1DagWvHysMOZKj4NWrNHWK7xSrVSIki6kAEiTqKiBq27YhaqzSFAU2FUgC69e87dzO+J3i+ZFWnToaWqOHRqlJPeKKDMn8NyI2nHP5Nyq+/wCWdTioxtL+fAjieWp0mo5YUwu1Rnk6iqmIuA1zczaBhGZlnqA01WmFGhlJkk973v3GBOF5imivUqU2COWZasl3RR7tN+o7zNjHriRrLQQGa9M7gaTqLnSGCgATJmOvxx6aldUMxSjVt0V/MN4T5epcBagc7zClWkWj3SRucbDncyutV1qpUBzJ/DIBO/u2ifP55Rxpbl2XTTVWWmv4zquWcSRrO0Dpv5W/h3E54SlY1GVlpmmWkTIJVd5mbX3vi/x5VGiHyY3JP5IPMVmbMvmEioRVcwDIZCNMA9Dp0nptFpwXl4ktRcMDuhI1LaSGHcAX3vGACEVaV0pssbtBCMOawsznT133wM+epuPvkRmgc2mRBuIYwfdub4il69suguOkdnEegtSkBSmtUJJJipcwwtYILjVeIa0xhftAGp+CINNFMawZ02gAEiw36TGBKuYpKnIqIlWz1IlgsEmxaWGxtMSDvgps+aaJQrAPSB5WfUpdQNiGAMgx0vC+eClFumgOSi2mCpTNeoaTVGqALqkQdLdBMX9DiyeyPtfrXwsyyIwOgMDBn+qe/wDMLTvEiYV65aA2VqUcuGYswpvMaSFmFXl1ESOsXthbZWsaDZorlyx/0melNYhrLLghdZB7EjrgoNx7E5Ep9Gg1amleaZHUgGYIH4bamGwF77dMR+aLSQDNzv1EkwIIg9PL4YguC8QOWNLK5l9UqDTf3WkQCp6neAxiYIPTE3UXU8ki8+TWIYAEdBBkdfniiDTeiaS46YblFKqGIN9E362B+gv8fictXyJubRB96ARJi0zM7SfLAuQQaNtX4wdWq7T7pJ8zHSDbD8ysi9MwdSsZI8govcDbeT8akJPUo+8JY80E26wDtHzN72xD+2fHUyWXIsatSVpqfhc3nSN57wOuDuM59qNFq9OmKjIjEKWIJg32B2BO2+1rYw/OcSq5mt4tZwzm4tywLKoHbp+c4CcqQE5UDrYDc2if31tjlJ1e7aZjocLpidV9z8Nxb44ezCQLADoe3kf31nE1k9g61TzQx7AntP8Af9cdhsqRYzJsbxvOOxtG0eeJYQYJE+fXf54cpUiWHKbGIG5kfrbDBSSe1h8Okflif4HrFXxUVCyXAPU3iO1pgnAzdKw8ePnJRLJ7NFKRpeDS8ZlXxKjqVWHIIC88AwpYRY7eeJHNZUsaucFYUKjjmRtJUQAAHlg2q24+E9a97Q8eanozOVJp6x96YGlj+GQbatxOPT7R0szRp0gGNRzT8V2UBRzDVtdiYgdADsNsJUW1yrR1lxg+L9ujuBcTzFV3VEptUgsHqEqoFhYASRa0fHD1bPZnJ16lWsBW8RAdVMHShQyAbcqSRfDvHKjHMJSDBWgnV28l9fj6Y7g2ZanXalUY1F0SzQSy7gggDqJO2FKXuorft7jnDVOTdDPCq2lAUdGJgkz7zMxL2AsYki/lGDzVaPuqYRnG5BESJ54AI/vgHg+UptRQMgbSIBB0uBuJYEG4IMT1GJLL5KAy069jcrWAJn/eII6dDj06sKF1bRC5mirSHaWIIAlpIMAyNgdRiR0+ODOC5tjww0kCuDm9CrJB0hRU3/3AfDA/FcjXVQfCaAdRNJgy3MmBOoyT2thXs3W1ZfwwCXbPTpuIAojUSDEAEiTaSQMU4tJ/gRmpyX5C6/jhkZsuAAsM1Mh3YgQtrbdr4g+IcWpyBqYQD740k9BqDCdRK6iVj3ut8W9hmtI1UBZGdubVB/DTA1HVUPLJFhPXrVs1OsCpSdG2g3WQJaCIso3P54XHvaGvS0wDh+ZaoGVXOqQ2pRqggCIUC42k2xaDm5y1TN1NLtsNPughoETJ3hie5OA+HZwFVWnTdidNwInVOnvaAXNtvlh/hsUlY1aA8KuTzQNQ/DzJvBCzIBsceyW1pGRpPbE0s7WAUVGU0qraCACpAYGYMybSJ+OG+N1kyFeiFhqRSTTZywW5EIWnS3zGPaS5FKrEEto91QGaYHNA2AEi9gJxGN7RrRzNVkoamraVpKeYpe3/AKiZgdhgcUHfTqvweyzVd7GeKZ3L5vMU/DQ01MhmYKC0XiFgT0ne/li9+zWeNVGTWhemwTULzaQSLXiRv0OKp7I5YeNVWuhVyCVDKNKgmXnoGuLWt5YO4RlMxQq66SKaXNe8styukbSCSQbSLdZw1ZYwyU9ITLE54+S2y+UGRWGqBO199Jlbz07eeJDUw3Kl9huATBIHWNt8RuQzKsNVMsVMEGDBGke5NhBIkdw3UYKyK+9pLXhgALAC0SRFyDa3646CIQumgIKwFE2A6ge9IIi5kenXGB8fyH8PmqlIiysdOnbQeZY/7SPjONp49xynlKSvWapLkqqrp1Gb9bcvfYec4yf2i40MzXeqKa05EBRfaSC3SSTJt5YTlaFZGgDL09nMadz5zNvONP0x1IAqwMdT84t6b/LCgQq3tY26gx+XXHmUoyC3kBG/Uz8IjEzZOwfN0SRqAkbW7Xk+lgce4cq02IARrtv09Y8iL/Hyx2CUkuzUwbIZZqrlVBLATG0Qb9v3GLZWpZWYNRqJUBYJCFhHvQ29yb4hqLilly4YipUMA7EKpkkReS4A89JxDZvjDVJFUFx0P4h29fz9cDLG57R0fGlHHHfbCuJZjxWWgg+7TVcGzdvmfric4flcsmXompQJFVawqujHVT8NlhwNrK4kReAcQ3DsnpKKd4JJ6m4gem1u5OLHw+oT4WXpVNNRq5KsVBimabeIINidSU/iBjVJR9KELO8mdC2qZPQ1GohU02KKwBEkHcEbkxMTN+uH+E5+nl8uy5amTmj7wYGFMxJY2a5ACgmSR54crlBQqZVU1AVSn8QWB1HUGYwBPiTIHz74aSr/AKZgAvU1x2WmNQmw/H4XxJwjjH9/8nWXJo9yWTCgLrE3/oqAn3jIsSCFIlfwrfB7LAY64BOpRVWAAWB061lPcLKOshY3OAl983UkQrXsJ5rg2nm7YNoVSkLJYyAQvMoknmN/dAiTeMA8l9jFjroZz4q00120gMWdWDRpciRH8yAtYW0tgLIuWoMXdlQZwBtB0vPhH8X8ttt9r47ihpM8KAtQdadm7XizC4EEHriV9neHN/4ZXfUQWr+IGAgyCKbETaSsz0kn0FGFJptfAnPyTSfyM5ilR0h0q5hQbgiofIzcR2+WAMtXIAIzFXSRA1hGkX6wDFz+xiRLKdNMlxeRYgNBsDaCL3HXEdxSlKhCzLoOoEACe4M2vA64njkd0yl44+waucaI/inA6hVQdNO9+nl+mI3iQoiOWo3MhZmYs7KZOkFo06gjCF7Y6mAR+IaeYgGBa1+4i0euCHQMAgO6FPiOdT8hU+eGxlTFThomv4xMxTJpoUohXUnTpJXTBCCbBQwPmfTEB7LZNUrUwGpVI11WcGWdRyibHRAcHSNyN98RxzFcK1KnUKo6EMNIkjYxN/KR0A7Thz2fzD/xdIAKNQZGaffAEgR0aQNrG5wUIVdMRketosvGOB06zpWeVElX02ABgKTP8rfMEzYYhKnEa7q2XFYrTpMVaotjykgAEXYwJABiLnpi80k1ATMETDXEQRt8jfGb+2NL+FrhKTIEKhhTRp8In3hECATJBjbB8bViYzS0Tvsj7Q0suzZasCtIaipYluYkNz+pk+pPfD/E/tMhmXL0SVOzOSIIi+kSSDa0r54z/wDiQRLfDy/ye+PMtVLTBjljbDIzklQnMvdBXEuIVc1U8WvULsR6ADsALAW6fXDdM8xmAQSDa56+kWw3RPu9ehPTsMO1jbYjURp816+d5mfXAt2RNjuVYlk1m2ogX+J/L64VUSGIJggyI7fv8wcNiTpj6dxtbpbf09MF5kgs02YQQotEwAD8Bvhb7AYxTMAGLzv2tP8Af0x2HGoFWkiZ2BNhsFNvK3wOOx4whM9nmqEDc7AAfSBgrgmQ0v4lVZiCB8p9TcD44NRYcPp6cx8+/wAhOFM4DQfcK6viTIM/FcHLJapBzzOSpBVCgDzgTBAH7P4o0nz2whssKlSnLFTE7wSdz59WuMNVa1m7HQ0/A/4+OJbKgPUaopJJVoURcxYgtZYsd9/TCLa2F4keWaKHK+YRKOlBGsSpB0qFgCdW+prmSJ6YLEPWaDZKaUxeTLEs3ftT+WIX2lySiGVix0jVqY65GzRsBF9hgjgnCq/ghhUolXUNBZg3lPKbxA3x5xXG7O6peqqJap7vPY3FwAd4B3IuBIve22I/PZtlWmqOup9KkhQNTGBMDa8mMCZfK5mpXakVTTpv96QsSPxKNQ+vXBnF+D1gUZqlAQ4aVLFhe5WVuet/LAqCT20MeS1pMMqZIUqXujUVEE+/J5uYxO4Eid/K2LPwFQOEGQVszAsd+YsGF7CPS8+uK3xjgQakQM1VMCeZZHfbQOvc4O4vnj/AZPKhWl05oUjUq0jr0zeCSAfjHfD/ABlalsl8qT9OiM9ocuNGrW0wAINhEgGPd67jEZwfMBqTO+lT4gDGTdiQNoO5VcG8Yy+X0cqsLTao8E/Gp2vgnh3CCESKppTRpMw06mJKwTc+7axAwqMfQ7ZQ5tTWhBrJTSCog8sTbeLzuD6/HA/jqpsICshHSBIBH/pkbYA4/wAPqUYqU8wWIIJDJpB+kW3wbV4MXAZ66gMuyrM2vDXB3x6MUt2FLJdqgBqiOW8MQ3NLESAZud4/D1HXzx5w+p4VZKwUkIQCshd+UzuB/gYk+F5FFoow1OaT6GmBykllPmIMfrgjPZWzUwNSDkIadzzSGIuOYCB3wbai6FJOaJP2t4w2Vy7FAFd+RT1B6tHkASPUYyZqvnOq5n9/PEp7T8Ver4SMZFNSNR6kkX220hR8z1xFohIvEdP388URVI5eW+VC9KkkmYmLeljgqgwUQJv0/f5+uBVeFBAMg/Pp/fDqsBfrA/OI/PHmhLbZIpZBJkG5jvM/DphIQu6hZH4RqMWif2PMYRQzABIIsFE267fL/GHzXMCNupJmCb/E/wCcLFnuTrKiPA1E7E9hN8FvpKrUMAiZAidhpnymPgTgKnUE3jSREjfykE+UfPD+bAJZgdIg28wDG/lfANbBfYqrdgSrRJIvsO3S0fnjsNCrNgOUQSveY/vMdycdjaNoXl5DwskFYMix8vlhpXFU6QIMQL7NJ79Pdw2aoViBMRe+53v8bfLCKhJnSIm4O3Ww8zAP0xnHYFBmbaEVX2Wzdz6WtecHcHoKQy6SyMCTeLTAi433j+q+K/WcyJBOqQZ/e84meAgNTenUXVABgbsJ2tffp1/PJRqJZ4SrKgj2hcLQBHJqp+GKTCSNM7t3Em23TFloLWp0VH8E3KLaa4mAhABv/NB+GK57Q1RUdKU2Lw9zsoJta8gYl6OasNTFTygSBcspNMXQQDBHqCD0kHfBaOxrn2R3D87OaqlctVLaVBUkAqACPeBvJ89sE8e4qukB8vXRm0APqDKP5ieYi5j4YD4RmCHqVw/vuKYiwsFPU96ijym8Y72nzxeissTO0+RAYHmNx1EWnzxvFcloG3xb5EzxXJUBRZkrg2NoVhvI2Fral8wROwxO0uGg+AGnVSV0JJJU6lIYkmLfi0iw2FhOMfrU/EZKY3dlQW6sQB+eN5yo1OsQUYMWOw0mdgZ/mxZhxuNkOXJyrRn3GHyvghleG0SPv163776pP/c3fFhr1yDlvBy65hTQQBvEWNIBj3up1TIHTztmnGMsFpwCTpY0zM20kjtA9PPF54ZWA4Zkq0GF1UzYGbsJ7RKdb7dd1Ri3CXuO/U9cfYB46c01JkfKUgCFB3mwI6KRJt8sE8JqVmy6EVaVDTAOinqYEMSA07GSRiI4pxGkQSIvBkBbdRECbiSI36HFm4vk6gNU0qZKtzg6RIDRqjVNxM6SFJEwZGFcXw6KG1yqwT2eoq1StRauagemGlgBpCHTIgCCNQ3wxmC4QQHGgkMo5i9oMCZW/WO/TCfZ2nXp5ykWQ6WFRGkyQBewHchSO0mdsE+1GqlWOgFxVBDxsCoAYW2JkdflGPSjcUwYzrI18md8dU8pJmReTfz8/wBd8RtNj9MWD2k4dVSkHanoVTbmkmT6kfWcVxdsUY2nEg8lVMJV522H+P1x6BPWYA/4wzSNiB3F8EICfObekf8AG+NZMw+hW5TqAmDYjcbH4/5x4tS9485HkJnrv+WAltsZ8/Lr9bfPB615mNugJtPU9PQYW0AerW90Fm0i3z6x6TfBNesSD3ImJk2AUzbeDOA0eooDafKNIMekyRPww1RqcxJ3EiPUEH44xoxoOpsoXVESbSflEdh3x7gWg0qRBZojaQBa8d+mOxlGUIqbExc83yHfDnhystIG4Mje/e022wCsgmTYf8WmPPHOw0yrdpEb7/vfBUe4jucChrMTPa8GNt/r64l/ZA5YVKn8V2Gm7byZ934b4gqlWJAME7iOtu/xx2TaCAfWca42qH4XxkmXOr/C/wAXRGU06+eJ1kT4bxOq2+J7iPFc4ijxKVFp20uR/NHvDuwPwxQeFWzdI6gvv8x2H3b9/wAutsS3Es+pUEZmfJqX+B1wueNpJLf5OjjyJtt6/BPcJps1BXTL0wXrVi6M0Rp8NQAQpDe6TawOBs/lmr16NCrl6dNS0tUDqYhCahgXvpmfIdsRXHtQy2QU/wDlVKgNr+I+qQBsPXHfZzqfidO5KoruRNhy6Z+bDD1h9af4FPN6XEk+FexdWhnlesytSpMGQr7znZLbLzEbncdr407JU2kuAASV1AnpedpEgRtbETmWbXysrS5Ii8ibgyTJFxaIt2wdw6gwp8x5idQJER0W09B+u2KoombKH7a+w1SpWetQqJoqPLqxjQ7ESRAMgk6j2v5YtfEsquXyPhUSsUlUKWgyF06mNxexvO+JPiSMyPGmQCdLCSQsx1gSwBmNrYjeIMcxk6pUN95SIEN5EggTEz8xG+M4KnRqm7RQPaHiECWrUltEUlExIP8AM20W7ScXTjaVmZGFY0VenBGgMTHmDuQ0/wCcZLxpASGUEAqNzP8AzjQauYV8jkfEDvKJ1K//AGrwwgH3T1O/yiUbxsr5/UQNkV052lOZrVGmoQJCgko3SAbwLTiX9q61RdLgD3lDTMAMDExaQwURffzxVOAZzL/+IUAlELzldesk3VhMtPfvi/e0dBauXqItybrMiCIImwJYxftJ7Y9FXjpmSlU7Rk/tHn67l6dRxG+kAAeXQE4rSnbEzxp1NQkXnz6/DERAPngsKpUJzu3bPVG8Ydpvbrv0/ffDAw9TeSAbD0wxk4VRGzEm28kD5Am+/bD+XMAhVWTqgkxAjz6xMXw1RMSRcERt8usjoZHbC6JZei6jsGB3Gxnp/bAUAe1dRAWCJgTFu/bzm0YUcuq7uCSbR5DYkC0mMPDN3AJKXvYQZsbQLbWn8sC1KryUBJjY81h3udo8sCYc9Rj1t1Mbfvzx2ObWFIvHX53nv69sdjTwKRykCQbHy3g/njqdYiRME2gi3bCkujz0iPpgXoMGlYVClPfYfXHJUgzvGPJsPMXwo+6vnq+kR+ePGlr9kOCVK7PmCs0qdOqAd5coygRvaZ+WIHNNyTjT/sivlKs/+efqiTjLuNLpaqosqvUAHYBiB9MNrSGRlZaPanly3DSZ/wDpQJO34Tv6EemDvshy7eLXzEQgUU9doBJDNv5BZ9RjRsvw+lVoLTq01qIq04VxqURTWLH1x3B6CU0NNFVUUkKqgAC57Yao7sy9CM4jB1INp1XAhdhAiN7m87n0wzTzOhtVQRqIUnoCfdv1uQLbTggOWA1X5Ea/fv8ATERxmiDloImQimdyGIUid9ifz3xnTPdonjSLLJJjYgiCRPNJgWjaI9TgH2cMUdJuqFlWGnVvbe9oiThn2LztSrlMszsWZqY1E7nlP1sL4N4NTEVBERVaIt18tx5YMEy7jPslnGq+ClAQW5ahYKpBBI3MgwDK78p3icW/2j4X4GSytM8wpOqCARI8NhtJvbFsZzrpiTGpuvqPl5Yr/wBqCgZIsPeDpB9TH5YRLEowdDoTbkrM09niRxGiSIhyYI7KxFu8xHnGNbztGAzNILLtFtj1B2E9I288Zz9lFBamdqM41FKLFSehJAJ9YJHxxpWcpg3MkmRuYgkTbboP2ThMVUA2/UY79oeQ8KurqRprAvbbUGIMfDSfWcVcL3GL39qh/wDpvJGI+LCfyGKCpwUehWTsd9ThyknxHUef/OB1w+GNz13vf88axQ/YWn1vgikNRGpiegBmB267W6YcylJSVkDYH43x5mqh8ZwIABMQAPyF8LbBHkB0lJGlt1nrB0m5ve2/fDDSJSSRNl6Eja/6T8pw6DZ5vAUibkHlnfA4clhPQgbf1YEEUhZtILTMDewtab9Pyx2G/wAI82/tjzG0af/Z</t>
+  </si>
+  <si>
+    <t>Step into Mehendi Magic, where the ordinary is transformed into the extraordinary with the flick of an artist's wrist. Within these walls, Mehendi transcends mere adornment, becoming a conduit for self-expression and celebration. From traditional bridal designs to contemporary fusion styles, Mehendi Magic weaves its spell, leaving clients enchanted by the beauty of their own reflection.</t>
+  </si>
+  <si>
+    <t>Artistic Adornments</t>
   </si>
   <si>
     <t>Rajwada, Indore</t>
   </si>
   <si>
-    <t>https://productimages.withfloats.com/tile/5e258edd864d8b00011cebd1.jpg</t>
-  </si>
-  <si>
-    <t>At Blissful Bridal Bliss, we believe that every bride deserves to experience pure joy on her wedding day. Our boutique is a haven of happiness, where brides-to-be can explore a carefully curated collection of exquisite bridal attire. From flowing bohemian designs to glamorous Hollywood-inspired gowns, our selection caters to every style and preference. Our dedicated team of stylists is passionate about helping brides find the perfect dress that reflects their individuality and celebrates their love story. With attention to detail and a commitment to excellence, we strive to make every bride's journey to the altar as blissful as can be. Let us be a part of your wedding day adventure and create memories that will last a lifetime.</t>
-  </si>
-  <si>
-    <t>Majestic Matrimony Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQTEhUTEhMWFRUXGCAbGRcXFx8gHxgfHxgXHR8dGh4ZHSggHxslGx8ZITEhJSorLi4uHSAzODMtNygtLisBCgoKDg0OGxAQGy4mHyUvLS0tMS01KyswLS0tLS0tLS0vLSstLy0tKy0vLS0tLS0tLS0vLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABMEAACAQIEAwUDCAcFBwEJAAABAhEAAwQSITEFQVEGEyJhcTKBkRQjQlKhscHRBzNicrLh8BUWc5KiJDRDU2OC8eJEVIOTo7PC0tP/xAAaAQACAwEBAAAAAAAAAAAAAAADBAECBQAG/8QANhEAAQMCBAMHAgUDBQAAAAAAAQACEQMhBBIxQRMiUTJhcYGRwfChsQVCUtHhIzPxFDRDU3L/2gAMAwEAAhEDEQA/AL+mKQCAKiv3pGlD4e2OdFEIN6xJe7VbIZSaeWUFZAJ2NSk5RoDR1q0vKp+7EVDWHdSXNnRJURydF+NEW8Id23ol74G9ZdxdtVzM0DzojpiAq5y0qDKF1FSATzmqpxztxhLcwQx8qWcC7c3MU/dWLMmdW5KCdzV20nOFgozMF3Ourvc4fLTqKYAbAcqV4jH2rNrvcS/dZNw51Ob2TkUliYjwxMzpAo/B4lWCsCCGAKnUSDtoQCPQirink1VxV4gsVXON4EtYBtCTbvPmWds0EjTz1jzqicVY68tdtdPEvWr5xi69tsR3Zg57VweYIdWnykrVex2LsX/DfXu3+uNvKffG9anLVYLwfp/CxCX0Hm0tHTUeW/ldVjjjBkSTsKK/R1jct57M6MMy+q/y+6teO8IuICdGQD2h6cxVf4Tj+5vW7sTlYEjqNj9k0o+k+mcrhCPTrU6nNTMhdtBDCGEjmDSfjGFxIK/Je7y8w0gj06imWDuBgGUyCJB6g7URNLlq1JkLnvEuF8Sv3bdk2wisfbT2Y5yeWnKur8G4YmGsraTkNT1PMml1nEMuxoy1xAH2tDXcSBEKnCvMo13od2rxnqF3oJcjNYtbz0BeNTXblDXWqqLokHH+KiypYyBtIO06TsdqpuF4xirRZxcN5ACXBMlBMSY5bajqKtPau1NsmM0bjqOdVbglm1MqQCARHMTuN9vL1pimWhpkIVSk95BaVZuG9o0ugSCpPPlRWJv0kbhc628wEQSdlH8vKtEuNl8OYrGk7x5CZoRA2TJpkCTqoeMXSRlG5rq/ZHAmzhrat7USffrXJOGEXMXZRts406xrpXa7V0GmKTYWdiHTZEZqytO+FZRkqq+LsrK1mHvajNoaFwd3Loa2KFrggaVnMk8xWmWMaTT+Qmou6/jWMxfwzBodkg+Ve4IDOWOlQO9UDb5h0Q/aHEJhrTXbrgQNJNcJ7Sdr72IYhWZU6A70+/S52lN6/wDJ09hN/M1R+F4Fr11ba7sfh51o4egBzFI4jFugs9Uf2Y7P3MZdyroo9tzy/nXbeE8PsYDB3GTLbCjxXDuJ3J0JJOgAAJkiKB4FwtMNaCIIUbnmTTHiotnCuuJuXrFu46eO2JB8ULbIgli28DpJ0EFuoWhoaNUhQDnPLzpoEXxLh5vYpFZGJtW1IdSj20vMJZ3UuLxuZFVVaNOlecNvnEZb1sXQCMvzy5bnggZnEnU7gnU/bSrhOEuhvlCNaFpXdzbsWWm+y+EK73spdzmEEZBmJI1WrVwXhCYa0QveS5zHvbhuMunsBmPsrsKRqDMtSgSw2S/jK21Du6l5QKQNDGYMDIIgyB19DXM+IEXGAVgCxkqdMsHmx0MjWuhdtMXkw7xuSB9v5x8a5ZdxIJKqCWOuiyfsojTNIIdRpFYxv+y2tcbu2LgtzKgwykyNeYIPTpTW/wAMw98Zli2/TkfUflSB0yMe8sMB9Y22A+0VZOymS68sRlXX1PKi0sU5oyEZm9D7HZKVvwttR/EaS1/Vu/iND5q39n8K1qyqOQYmP2R018592nKmSGQKGa+AN6PtqIA8hQHCTZaTeVoBWlaGiSlD3YFDdTVw9eJiCPSsuYiobtDs9AdTRGvRQuVpeehhcry/d0qA1WL0FxMgqRXLrrfJr7ZfZJ/oV0Li+Kyqa5pxW/muE0xTbsqF+XmVqscVLz3TFRPMjymR+NN7iqi+DLtBZdSeok/hXPeHXSG8JmeU1asFjSywZB+jIjbehvZBTjaoe3MsS6Vy3CVDofApGsT1586u3Z3tTnJtvo4Gn7Wn31TThs6E58oXfnHOAI686DXwkskkyCH5acgTUtMINWmHi2qv/wDeFqyqj/aV7oP8pryr5kpwT0XQPkpBksD5USmIAAJ38qrKcZJJGtRDijE5WFLNZUNk2abT08lbsHigwbypT2q4j8lwz3NyRpU/BW8J0iaoP6SMW+LxFvCYeWj2gNh61zKc1MjtlSs7hgvZ4Ln2Ewt3FXoUFmYyfL1rr3ZHscuHAMZrh3PP+Qpj2L7M2cIoDEZolmPM9BVg4jxZQymyIySZjeeUVo06hfzN7Oyya9JtPlddxuf28V7b4YFym7AB9kTpPT1pbx/CJZe/iSjEWLEW0LBVa60LnTvEgvqqhvEPCOfhojHY17ih2fKqxtAPiZVGWdM/i084rMcy4cRYFsXLZa3rbJYWzDMjPcLF5uSxbSZ25mXWkldTGchrVD2Vsm4XZwGtKyOgvXGuX7d0INbnjKL4WJCqBoQYFWe/QHCbzd0CwAYzIAgD0A8oo2JoBuFoNYGlV3i+CGImw21wFSRuND4hPMGD7qziGGtYHDObKqoRC0kbwJljufWaYC3F4HyP4Up/SA4+Q4j/AAn/AIGobBIynqj1rc46JDgu1i3QBetgA6ZlMjXr0+2my8Aw7y3dgE7ldD/prhGCxly2IViAdxyrvXZS4Ww1ktubak/CivpZdEvQxDng5lAeztudHuCP2z+NEPh79sRbuBh+2PxH5UxvaH3V6x0FUDTsUcvnVK7dm+/6y5A6Jp9p1o21w9RrqT5sT95qRWrY3org07obnDZQX1gUCWo2+1BMu9EyoJconatb76VreOlKuMcQFu2WYwAKHlurhyR9qMdsi6seVV61waT42JY8lqHBcR7y61xuew6VcuH8PRsrGdgTruYqHuLLJuhSZUbmN0itcMt24OQEjUTqT5+7pT6xhENqSygjf+YNPEW3bWYCwN/61pRirGclzlB69AOtALy7VNhjQIAslF5spJU76HoaIwuMkwY21Pp+NBYluui/WM6+lQHFINm+yKKGyEi5xYYTmE+uPiaykfy9Op+NZU8NU4yuPF0WTkOvMCmnCuGlgrPuP61orBcIVTMa9TWnF+KZCLNkZ7raBRy8z5Uu+uakNpi6aDBRBLyICg47xU2yLOHAa8+gEbDqYqPAYBMEMzePEXTqfPy6AVvaw9vh1pr145rz6kn7l8qWcAW5fdsVdkFtEU8h199EpUcxy7bnr3JKriC0cQi/5R07yrILyqIJLGJY+fQVIFQr4k8xG/v1+ygGtnUTrygVNN1R4kJHXKfyrRa0SGkR6LHe90F7TJHSb+ic8NYBXguzFdAANDoRrygjcfhQXye4XU3jNwiW9enuGnuojgTeMk6SNB6c6Y4lQSSaFUkmCZT+DADA6Ilb4VNxRdlaXYW7446imlo1VqYegsfZ5jcUk43gFxWHeyWKhxBI3FWS9SLFIRcGUgBjBnaeXprAocEOsitILDm0C5pb/RY/eLmvKbU+KBDR0HmetdO4fgwgCgQqgADyAiovlSroxg+dTJxBCNGB9KO7ODDxCXpmkWzSII7jK8xFvWvGWNK3S8p51sxmqhXJQoFa3ENG5BUdyrQhylzLUTLpRjLQ9/QVyo43S/FVzPtZjmxNzurR+bU+I9T+IFNO3fafKTh7J8R0dhy8h5/dVW4Vcjbf/wAVx5RKmnFR2U6KTA8EcScy6ciDVk4OmJHsDvMu6yOmmpitcDYttmYki2Opief9CmfBMcbSNlEl2lAem0senTrStR5Oq1aNNtMQ1acc4icqoyFCTJDAiY5CPwr23ipAVjoFDOfXZaZC/PzWJAfNrMaAnl5etKuKcOFknI2YE5ipPiEDSDz9PvoQhME7KO9hmusAFBJGgGyj+udLMZ2cuglmGdf2eXu51auHXAigKhe44k5RoPU7AUZ/ayLbRnHtmABrA61IeQVR9MOC578lH1W/yt+VZXSflVn66/Gsq/FQOF3KLtB2iJYYfCjPdbQRy8zRdjC2+G2jexL5rzDVjvPQV5wuxh+F4c3XIa8Rqx1JPQVT7T3uK4jPdkWlPhXrVQxrWkNNtz17gkjVe9/OPAdO89/wIzCW73Ebwe5OQGUHKBr8a6DhbYWykBSoESYn00/GgMNYFi2cmmUhQRyrU8UCnxW1JPPr57RPnTNN/DA70GozjggaD77opiSzIQATr4d9RpqPuqLilhrbW1tSLuTxKrSJ086Gu8QEyM6neFKgH3xNCtj9CFAAO55n1Y/dVqtRrzZDw2HqUhcymmCxOXEBQZB0MbTGseU0/vpIFKez2Cy/OupmPCOevM0zuX+VDa4SnIMIcIQ4NNLNyh7RDDXevM0GiaKszZFO1JuL4UsNDHpTQvNevazCKi8yFewEHQ6qqY273mpEMBDDqeo9/wB9B4dSpzJoeY6004xgtDGhgiRymq5a4utrwuDmGhMGCY8hTFbFGq1od2hPn0SGG/Df9LUqOpHkdBA6G8+I0hPLV0MQGESDqNDNF4dTyM1Q+OdqmtwURTruZ1rfhPbyzdcKVe1c5iMyt7xr8QKCEy4wbroQDDf7jWxtnc/b+VJrHH0P/EH+b89akfjK8gTU2VXSj7hAqg9u+1Xdzh7Bm6R4mH/DH/7HpyqTtV2qKIwU5WO0b1zXh752MnWfeSdanaUOJcGndH4fDyAHMrzLH8ete3sC2HIfe2To3SefpRGBwhuMFglp/EzT/C2rhRi6Z1MhgQI0MaHaKA55C0m0QRaxCVWmtkpChnO+py6aSQN/KmV26TcEe1poP2Z5HbQnSl1vhb2mL2dF+oxEj0PP30wwjEy30oBCkQTHNSef2Ghug6JimYHMLpib7sQI9/uBj4a1vg8WJPeGCdYJ3JP3ARWt1YUtld4nMywFXeQJ1MbUE7FyibTqTzaduXShlqMHSnOIvqoJQ+JhAA135x5daRXrgGisWUDSRBBFMLGHIJKozkAAtOxEzr5jlQr3A6AKoAMA7AmDJI86gBSe5CZfKsr35an7XxrKtBVZUGCwV7H3e8uk93OgrpfCeGqihbcACtuH8EFhRMBelWHC4yzaUykNrIjp60SmA90u7IWPWeGs5TLnfRaHhRTwlAAyzmMkejDb4Uh4lwaGBUiDB3kR1U7n0q14jjFu2A2cmVOmupMRA5Up4TiVcQWMiSFEganYZdT8fdTT3Nc6HJKk19NuZlvskGKs2w5PdsvOAfwYVvwXA23uiA0L4oMQeXLz+6rJi1KnRmDFwozQVEgGNRMRNbcPwgRrr5cuZoA8hpI9TJob2sym10SlUrB4GaQt7s0q4ljMgk8qbXrtUXtpipXICRmMab+6aTAly08wawuIsFauCcQS/bW7bOhkR5gwRTBoPl+Fc+7JYW7YOhy2jEyRMxyBO/xq5WsdI8YyawCSP6nyp0kAwkqb8zQ42RTOV3+NbW8TFRm7yO331Uu3XBMTct95g7rqyjW0pgsP2TvPlOtcCiuMN0VyxloOsiqjj+F5i2mtU/sp+kG5YHcYoEsG0uMdfNLgbT0bQjnNdNw2It3GcjXRftBP3GufTuFFDEiCFTE4UrN3dxRDbTsfKkON4AmDuHIDDnQnkPqjyq/4q7YdiiuuaJjMJ3ifjpXO+F3MTcxN21dzvbVmys40kOFEGNQV5eXx4NIBCtVqtJB+BO+D2AdYprxK8lq2WOkCvbVpbaydBXPe1vHTcYqNtgOtcEI3JJ0Vf4zj2vXTvqYApvw3gwyxsSNTRXZzgQWHufrDyP0f51csFw8DpUudsFFKnfM7X7Kr2sM1kkmdiQwP2U5tW27kHOYIEAHqPuFOcXw9WQgiq7iMSV+YUqMq+EmZUeg50BzZWhTrAQChreJzAA6wdc3MA/1vTi5iLBQZrbljrEbdIk/dQfDOHABRBZ8zBQSBlCGJPLfnrvRmIwFvU5bmcHx5m0HqfOaG4AJlpzLTBYu4ltwqFkE+E+0J92tANcCNbcSyG2CDGgI0PSP50ZdxMRyI238tiTtQd/EZvBMCJ5xprA9TUTOqvkgyEZbxNyCuqKSSdYY6bA0PgcKr3CrOxQaAg+R/r4Ufw+4Mwbuy/hjbn79/dUN6y9rxZCviLLOxB3BI2NQFDrGF5/d611asqL+07n/L/wDqrWVPMqSnnZ3G3+IXO/YZbCtltjqx+kY6bD310q4otDIoBIjNyJ8yTypHhOAthbNqzZXRAAIImZ3O2pMmamfiV1bYkZriuQIGaVG5PMwTFPCGcoC84ZfeUTxmxbNp3YAMRCuRrmnYRypPwrhlwOraBZkFWB9wAbnWty1iMSRmYKCTAMgSN400GkSRTPDobPcqBnzzqSBlbUkiRsfWhEZ3TCKDlblm6kvLl8bNmhsogQbZOk5ToTPOiMhAAkmOZ5+Z8zUdom44AlUA1lwzXIOmxPhH40ViTFRVsIRcPEylOPuRXKu3953uoLfLU/18a6JxvEwDXLuNYw/KEG6sDI9OY9KBR7cp7ENIoHy+6b9m8RiEadS6KSTA0EanXf3U8wmMv41u6XKqgeM5TEczExrrAFV7hNk3nWyFLEzBA9jqemXyPlXTcJg0sW8qqg08RjVyOZIj7qORBukGZXt5UNfcoMqRA5HX76EfiTKCSABQ3Fsdlk/Yv5E6/GqnxTjpYHXw1EpprTotscmGxuKVcRbjNoHQwSeU6ajlrTj9IfDHu31GHuth4toTExc0yiYI9nKRz3pX2c4AXYX8QMoGttDoT0Zug6Dnv63HiFk3BZadchUnrlZfzNNU3HhuG+qzsU1v+pYdjI84ke/0XLbvYvFOdbyOepzA+u29dE4fh+6tg3CCwUZmGkmNT7zRlmwF1MVUO13HBqinQbmhlx3RmUxMNS7tT2gLEqns+XOg+GcHCRcurmuHUA7J7uvnTLgfAtr14eI6qp+j5kfW+6rFYwgB1EUOSmbaJdhcGTroP686c4KxyOhoizhug0olkCiqriZSrjWMWxae42yj4nkPUnSuPtjbhuNdzEOZbMOR/Ll8KtfbfjIvXO6RwEtnxRMs22nKB981Vby5hCiOsmSfspqlTIElZuIrgugHRPuHdqQYZlBcasskCYALKRyIAlTppVpPE81gmQWusCx5DbReZGg1rlZsshBGhGxp7wXHS0Ge8dgDJ8LDMPh6fChVaUXCfwmMBhr1cboMgnxQZZQPx6RTC5F2GdVFucqWx9JgYEnpMmlS4pmdltCAWMciIOoI9dponhdi4+LtprkRJAnYFdT6yaVDTK1XVBEpljXKRbtn519yo9hf2Ry6AVu2Fyro0MOUmT6sTE+6tMTbbCXS8ZrdzmdYbzPSoMbjS3sp7WxO35VDhsq63GiUd15f6hWUT/Z7fVb/ACmsqIV5auk8S4qib55YcmAB1PKJHupfY4qBBMoUMoUAIykbEE69aDv3NA13xa6Dqd4nlzJNQXL1yJFtACdJQGfKWk/GPStMvZTniD9wvKBlSqBwjpvsfKPr6Jtd4surG6hB19kh/TKPBPmaHucTF3MBK3CCELNm0I9kaAKSOfuoNMQrnu7ltVJ0DhcpBOxMaFZ3qO3gHtlbhAIX2YIIZh7IEHrqfTzqzQxwlms7/NFR5qtOWrpGo8Pvp4ynnYXB5Ldy4d2aB6KPzJ+FH8SxFF4HDdzYRDuF8Xmx1P20M2FDbikcU8veYWt+H0xSpAFVHi12QaqOE7J4nFYhGCFLSzmuPoN/ojdj6aeddcGGRSPCoPoNaV9oe01rDEW9XukTkWPCOrE6KPWgslt07XqNqNyrbBYS1hVyWh4j7Tc2P5eVQY5rhGg15VWbXaq7OYWbajncuMYH7sRmP7s+taP29lsq2Wu+aGB9sge813MTdUaaTAA1Fvwe9cJzFVHxPwH50Rg+y1i0e9ufONuMw8IPIhdp8zNS43jpt2s62iXiYysVHvAE+740nx/aHPazlGLRJtruDGxOy69akE7K7iDZxsmeKxKsx5++vcRxIDDr1S5HuKk/eBVGudor49m1aQdGaT94FEYTjTsGDqhDgDwzp4gZk6cjpNMUyWgzuEjXFN5bl2IPt9iiOJ9oXIIUwK07N8HNxhiL/sjVFPP9o+XT41McPhj7Rt+9hy30mnGGxCsNHWOoIj7KrKPA0CZCyrbTR2GwEedA4HF2VMF1HvFO04hZAk3EA82H51EyqHlsvUsRVU7fcV7jDNlMO3hT1PP3CT7qtSY5HUvbYMnJhsfQ8x5iuNdsuLfK8QcrfN25VNDDGfEZ28h5DzolNuZyDXqZWSNVXbNsnzoy3Z01ph2etoHPeQoIIVyMwV9IJHMb/GmtrgaGSb6MN4QHMdRvIGQb76wDpTLn3hZ7GWzFIUwhueEKT+Hx0FaXeEsIAI0+oCx98RVhtXrSnKw0H0FXNEbltwT5HapxxXCsMtw5hGxtqBOY7yu0chHShkkHQlFABGoCV8Nv3FuKz5i3slipEjlM6SDzq+8JxSlGyAd8lsgDmw3EdYOkVUGwdlFNzDuk8xmIXUHYM2sdNqBt41bb25uidBo0nyaVMKRtGbaqOpSMzU5SxUHhv8irjirkIHV2uaqHVzIaZkQRoRG1avibaXGFlVtiCuo8QbkVJ5bVFYvkObmK7x0tAMmxRyTG4Akg9dah4oO9a47eFy2g3PLw6H8KWhaTXZj3IPPd/wCY3+f+dZXvyVvqD4Gsrrosjor5bykZiM4BkfvCZBHQ6VLhOP3RcVWClJgrAgSQNI50Ph8BcAjKx5nQj46TsOlb3DasMr3WDuDKWk+tyJ3mOQ/8VomowtzO1K8m2hUFTIwnKDb5+687aWFV1CxJGo6R18qn7F4FiXdx4JDKD1BMH0pVjsYczXLwBuHUg/R+qsczvI9OlRcY43iBYsW8OTaN9iWvaEgAwSNIEAD7NaVDIGZaHEn+nHifnz1XQsY6hSzGFUSSeVc0xX6SXa/3eFso1sHV3J19AIg+VF8Y7SZrPydSFSMtxnLFsoG7MBuxIBiTvrzAloWrAEBEIGzKDk5wF8Kr+9c18uZGRFyjNcTYKLjV+/irlu4veL3XiXu1JBYEaydDoTt0IO9Rrw/EsSwtsCT4na2M3txM3f2NfXpTI8TlcwNxgPp7L8R3dv8A1tUY4kjHUAnlmugE+ht2mJPkGNUgq5gIVcHeBEOoOkszWZ9rqxJ9n7fLStX4LiCSyMpPiykXV8J0yQQNI1nqaLxeMs5fnLTRMEjE3AFPQm5kAPlv5VDgMPg8QxtrnV4kMb4cekEmfQiuhWz7KO1wo3ARexyAayPlGc7iJGYbCRvrPlQPFBglPd2jdvuJ0tgECTtJU6DbnHvNN1wDr3iN4jbAnLGqkaMEaUO20A6c6qvFsJcRg5tKUbUMFhWHkyAQfI1Zt1R7iEXhuBX73s2mUeLV7ij2t9k3P2V7/de/rNhiNfYuJzEaSk7UBhzYiRcvWm+IHvTemeDW48Bcex8grFvhvVtPhVBzHX7Ly3ewdliMRhroYR7RXcCBABXl0FOMHw/D4wZlwhVPrsMub0gyamwHZRARcul7rbg3Pyqx22y6cqoag2RhSP5oVaufo3wzay6+hH4itMN+jrDW3DPmuAa5WiD6wNauKYldppX2o4wuHw9y6fojTzPIe8xRA8myC6k0XIVH/SH2oI/2TDkztcZfoj6oI2J+wVQktaCPf/52+FDW7hYsWksxknzJkn40+wKKFWfU05TZCycViLKLDcQKKENsFYM9SdYJ9KO7O8SsItxMQLgDkEOgkiMw/wDyn3VNh7SsPZB1/r3UQ+GtqJKDSIHUnbSrOosAJ0S9LG1XODInZT4PGWrFq6LNwul1Ss3bYRRqfFJOY+UCAZ1pXg7dkeLub18dQrZf9A1/zURkBIJANw6+LVUHKBMT0FEBCxANxwxOgKiT5R+FBptcXQ03+dycq1GBuZ7ZA7p9xbzQ4vYO782FNp52M5Z6MHkgk6TPupF3dtjMQNdNNff+NW7iXBLdxV+U3iHXYqktH1SZCzPLlrSy52asz83euAb+JAdfcQB05mjOJiHGY+nmh02gnMwRP18pUnZvjZVGw2Jg22EKTynYHy6HlTDhGPZHRd2tsJDH4gyYBnoPPakXEuF3F3QQdQwaVbQbHr1U0HY4wZVLshl8IYAbSJUzHuPryNKPpl1wFp4bEBnK4yCuo/30t/VH+b+VZVN+QW/qXP8AOle0OXJuKPz/ACruzAxmExyzOBHIe1FQl+7VrgUIoEs4DEx5sZMeQIoh7qp+23Pn7wDoPU/ZS3iWO7xbqXDl+bJR7jSM2ZYAGuYwTsdI9KPNNruRpPfsspprvb/VdE7br3GYS4LdvELdsm04BVCuZmP1SrjLHmSI8jQt9jcKrbIN3WEtCEAg6rrOpJE7c6YPhEGFshpFtV+YsKFFy4DvcuufZzzmMRE8zW3ZvB3vGUsWsjfSzZRz00BZgOp31NUqVN0enSGgSe/ZvWrqWigXMRBe54QdPG5HtHTTYzzFeX3yMDbVmUEqL5QEs3/SDfN2xII0E85pn21xboipcFlmJ0t2yS8dASsqCOYE1tgiO7QKmEtoF9l1Lt7zcKyaHM3KKBFggVt3blwMrE3AMoQgXHHUsYyqCfpHTapbnD8l1ULk3n8TnN+ptR4gGAADPESANPSTJi+L3wpt2QUH/RtW1B9+ZvupT/Y+MvSgHdI/tsT4m/eY+I+m1URNEdxTD9+LWKtWhdsWwVFoaZYJBhRpuJ50tN7MyArdyo+dVWyA0gyBmU7fCugcGwaYeytpdlHx6n41NiMbZX2nVT5kD76rnCvwzCRcNw95zdvXIttcUKik+yBMZvedqW9nnu4e61nEsFRz82CZ8RJkAjkfONaLe7cxAvJeAXDgStxecHYmYZSKUXOJ5lQqnhQBVuNq5CnXXZW051yjQyrYcXb71rPdkwJL5Rl6x1mPKK94TxOw8hPBBjxDLPSOs+VVDFcbOg7+5uRMkfSGUkDkFnbeKNtXkZwL/jQnwvOqGBBYIIBLRpuKjIp4hV30OleNZFc6t8VvYR77GXZ4RVMmGE/ZBnTqKd9k+JYq/cl2+bHtZlAJPRQNY8zU5YXZ5ViuIBvXIf0m8YNy/wDJ1b5tIJA5sZ39B99djx1sZSTXz9x8hsVeYGQXOvWAB+dMUG8yWxb4pobAWZYCmjWulA4K2Ty35c//ADVjs8EKgPiG7pSYCgSxPoNqc4rWdpY5wtSseTz6fPgQmBw1xjCA0zAy3VS6SIGkaxoSSxnc9NYBo6zj1tqFt2woPNm11IBJjnrO9KsbhFCyCDLQuu4Egkjp50nUxLqltAtSh+H06IB1dv8Awi8E63LhFq0zifE9x4AHWFHTYVe8D2UVlOUd0CNxOY/A6D31VuyheywBVHUNmZNn9QDr9nT3disICoZTIIBHoa6lTzGZR31A1sQPRcu4z2f+TAG4r3FmAUIE/vE8/dSxuJWk0NiPV5I05kaDrP3V13imCW5ae24lWUiD6VxK7wRi+Ve6YmYCsw5n6wifKnhXrU4ax0DyWVVwmGeS57QZ6z/KsHDXsX0NsHKQS0DUHwiY2n0pXj+z9q4pYBWQfSWAR6+dJsKl61c9lgR9E79fjXoxeJtPJVgZJK6jeCRG8HptTLcSYiowEehWe/BtLs1J5B9Ray1/umn7f9e6vKZf3lf/AJC/5Kyu4uE/S76LuDjP1t9VbgYWchP2kmOQjeg8PiUw9lAUa9iHBzm6IyBvorm5idQN28tK8x9lFM5cQrafOJdDa9IgT7uWu1e4TGYkAd1iLeIUjRLohvg0E+41lOqOcMvRblOi1ri+LlQ4V9ZvrKQNAQTAEAMSddANBAp7a7UIVKWVNrSA94Qq6cgszHqKV3e0dtWC4rBAHmVEH3A8vfRl3Cpftd7hCrwNLb8j0PP/ALTQH96aZGgSDG4YYZ0voRiFOty6NSxJkkFTKsOXlpTbidi7e7srcW7hzqwYLMdJA6bHQ0ss3LttsyznJINtxrdI01QaIo5GtO0OOR7Q+TsLLSRcQQCCAT9HedqqSdlaANUF8lsK79xiAAm4uICB6EjWpOHYpCxIu3rmUSRaBRBHNiI0oK7wlUwy3yueTAE8z9J4+wVauBWcTh1Vrtu13J9oINUB2J5Eda7UKZiP5SK5xJnvB7eYIoaJJhmCg9dTBJ1qBMCCxxGKzNIzJaYmWE7t0XameK4bdxL3fk9lbdtHiZjMw0kCYoSy96xcKX7ZViDlcny1UTKspj2T8akDoqkyblP+M465cw9y0LaIq21b2pzr+wQIy6RS2/wolWXIxuWwrEK0qVOpBYiQYB0k0Pw0XL4y6qpzBUQCQIAaMx0Uk+zrRvevacIz57V6dSchJWFK3DrEAbDeohWkJFibneBVS2xJJBJ56Zo3IBA5iKPwmJISDbkZc6+EsAvX2vDrRPEQiyqNZ+cKhRbc/NlZ8R0100O3Kl9jE3FBBTNbyKCRoWRSfsJInyq0IcrMCbhukxcdY8TpBI2nKW6iPPSmgtYG3cVu+vTGaVL8/rkag+WlG4PHLam4l62XuFR3SJ4BGkFuRjnpttUfDMUlp3721mtX2N1WABhZglx0Gm1W0XC+617Rcca4ngdUtHRWaSW0/ZBgetc3t8Dm21xn1D5coUnMeUEx91X7jmGUYh/ktg3LYSWKeyGnQ9PZkHyNLHvh7JFtMji5kRTvNzUnToDAPnXNLm6KX5H2cNF72RuWbaHOqI43aCzR+0dQvpUlqw14XGus9y4j6KjABVIkOvl560VwLDuulq4LYB8CnKRdI0Juz4gHMgGjBwNMR8/Ztkqf1lpHy3Lbcwh2KneDH4VHDk5iuNaGhoFgq1ibAOS6TntMCMwGVg67qwGmb4A1PhcORopPdusyCqydjqVJAnTWB509xdnKqWlw7WbSMrKrRmclpJIB6BvWhbN9lQIqhWtliREh53JiSy5YED3kVORVzqXC8Wd7mW8qwugUL4hECVYEnNJHKD1rpfZfEzYysfEhKk7TB0MVy7hXDnuXAtllFzLmhZUr7JOcGcvQEb6b7iz4riyYCwoxLh75k5EMliSTpOuUaCTRaJdmtdDq5cpzGAnHbvtMmEwztMu3hQD6x5+4SfdXHMHjjlXNrpBP1ufxojinHbmLcNetiAfBkcqVHQEyD6xUtq4hAXOw8ntq2X/vDZtOsD0FM1A4XMfT3SjHU6lpMeB9ZCPscUIsq4MnvCgbc21hSRPLfTprUPF8X8++eTrof2foxyIiPL40LZuIuZDD2mI1XQggbrm300IO+m1Et3eTK11LigwM9u4rr6MJIA5gyKoyq5Wq4VgHy617zyX4j8qyoPkdnqv/AMw//wAqyj539EpwqfVWm5hiLCN3hIKu5B1GTNCLrsCTJ6xUfekwl3uxA1kiAY9ojmI9kDSvBjCUt5/C15gdpFuyui6cv51ozBCUtpbYAwogNnE8zuNNZ5VlE3W20WWxOwT560F9i5rpzbN9DyFQ3OFOPnsA7Iw1a0faHkRzHrUNy2e+urhQNGBVc0CQuoAOhg1KMec4km3eTad2Mas5O6eVcCVMA6ozBcZtYv5u78xiYynkH6id/duKX8R4KGOQrlugGI0t21ncmPFW/FMAuM+j3WKAzAbC4BzHQ/bU/AeKjEf7HjBF5fYdh7Ucm8/vqwbuFXNs5b9nuGYd7JtexdgkkzluAH2oOjL91QYLi+Ie1ctJBtoNSdWyTDG3yYAddaI4xgyM4cxeH09QttZhVQDfNt8aEGKdMP3ttQty0yi5bIiCQBK+TKYIqQJUEwi+DNesnJbviLlx8xZZAhAysNt1ia8xOJxGKaytwJZzjNbedIA1YA65jOg86Tpw24AT3jLmJGik20LDLlLehyyNqeYcm9bvI9tO+AyM10hVtAbKg1PnI+NWDJVDUhAdoeAX+HgXlu94jNDyOfXWY9RTTBCycrtdusEJIe3blQW9qWgz0nYV7xjjqYvBC2ctsgiS1xYGVt98xBjpzpFwlDaZA15VtqZtuMxBXNmOQroSTIIPI1JaqNcdCrxjOzi4i2CuJbK2qmEM9DIUH7aRcc4ZiMPbhwLiEFTdQewpIk5AN9BrJ2oHguNz3bmS2rLnY+MEhAdQAJ8AOpzVf+AuWzIdUyK6htSocHwkneI08jUACVY6TKpFjDOqdzba4SUzLkZTburpPtaqddRyofG4xTiUQ2TbtqgthHIAMawxnRZ1PWPOieJcJFjGvbUHK4DoMpYCDLKVGpBiNOgrOIYdAlsuuU98TbEZDlyiYB1UZ5ietWIVAU04DxAWLvdl81q4T4hbIRXYiFQ/VjrSD+zwuOvuo+bUMMwOiFogkcwpJ9Ka4rhhvC2xM2y6yxvl8mo+iABvpvpNCcY4McHjB3bOLboWiZiJLCDoRHI9RXKTCX8Pui3Fm8RbZRoST4oEZtRAEa7mY0qwYLCAgXmVrSmAIYq14AEgRpA6seQPKgjxHurHfAM9sNCsmUhf+24C6EdACBWw7T2UysobE4hwCA2irOozHXXnlHwFWZTzGAq1KwY3MTog+0OMZ37wPqr+zG8QIEjkNBprJJiYoW1xSyhU3rvdgbqC2cw0lcqQCG1BzAARQnFMR3jNeYIgLEHuxrcbSSsk6CB4vzoHDYhSYNq4x5nvT90RNMjCPNzoknY+mN7p3xj9Ilx5GFtiysRnYAtHkBoI85qqC87ks7FiTOZjqT59aa4+zZKsR3gbTKHQbzr400IidxUfDsOoV7ra93lgeubWDvERHU1FUZAIF1bDnikl7pCzCcOuPBUALvnYgA/HUj0ojEHDovd5e9PNjIMztCkADy15a0tx3EndjqQCdpO3nQJc/ZVW0XOu6ytUxTG8rBp0+XTi5xe2pDW8OgbYl/FoBGgMgecUO15MQ6zbRHJ1ZdBEfSWMpjUyI/JYD1o/haqGJjNKkDWInzij8EA9UqcWXdR6pz32E8/iPyrKbf2LY/6Xx/nWVXLU7kTiUO/1XvErxlGsmCATPMjbUH6JMACl9y5fcMC4SCcwQAaKBOo9abYXsscgl2ztl1HKBP2GtB2SYy3evJAzGdDJ8XxrJDgN1uFpOyGxAt4dSg1YAED/AJgOzKR7LigTgcRinDuxGT2SwGYr100MU97McFQ3b4nMbb5NTMLAOn21bjw2SI0jb864ucDYKMrSLqi4PCs5KMf9oUypB1J5OTyWOVGcW4auNss6wMXY3K6Z45jqDGh5Giu2lhLBtXpIJbKwDRmWJImtmvx3d+0RKgZkXVVtnXLpu50+FGZMSgPI0QHAuJfLbeR/96sCVJHtjaY6j74NJ+OWCUZrRKgDxBt2EyWuHqWGg3ovjCjB461irZ+auHNptDaOPtmrg/ZzvL5Onct49ANWOhnqY25CaKQBcIIcTYqs8GxD4q2FUMloHxs0BUEhmAMyxPLpNe2UfEXr9+3ZVrReATbDnQAbSGg+VdBHZ3DafMpoNNOnUbH30Rf4SjSRKEiCUJX4xvXKR3qp9hMGHsXxdtABrrCCsSIAPh3UeVUzgllUxN+2GUKGOTMRsHIbJm8IYiN94q5doMI+Ct5beKyW7jRldS75jvkI1JO+s1XOD8LGe7bQFsRbJ8IbK0ED60qw11HI10SomEbb7Om/ettaZQ0MWJWVYBgFLBY31GmhimWE4xft3sQllEvdyAbrGQWI0y2wJgATFS9ncLjZKGyLILDvLrtmcgcl+7oK34/2Suo1/E4TEXEZwWKKNWO8A+f2VYNhVc7ooO1irfxCR/wbee5B1EsukjYxJry7w1LLOGHeBHBZWJLvbc+AqZnMjToN4pXh8bggthQzjM3+0u5IJB3VzzGYDbYCm/E7lu4UuYFPlLWbiszZs2gkBFY9N45RXOAUNcVtfwN1HF+1bS4qOAouLle4rAaEtuVY6MRPnRV0gl8Xj8tlAhREZh4VPtEkfSbaBSjjHa1lYm+NbcFcPbMnNuGutsFG9cy7RcaxGMu577aA+FF9lB5DmY5nWpDbri+0q08Q4naKLbwtvJYZ8zFtWfKGMtmkj2dKUcMuBndtoBI06wBy6E1nCuHX2Rfm9DqpJAB8Lj1+lI0p12e4HaynvpVu8yEZ4Kgbes6a+YpqmWiIskqrHOJnu+6R4q8WygEgAGNfOPw+/rRmBtgevx191GdpeGLh7zC0CbYAMgzk6gnUjXXXrRvZThXfKbtxu7tgwIiT5LPPz91EGIhuUJd2Cl0u+WQtoBhBgDbzGukfCtPkozHMojbTUEzqRzjyO1MONcMOHuzLZWBKk/c3KR9ooWzfGgHsjfz1jXTelq9TSNU1Qoluboh8bw1FI5sROvxjy0r21bTUKAZ0BmIb3CSOutTYi4T4yRB5/gJ5/wBaULicSw8UHaAfL8zS7pqutdFaBRbcwlOL4NcJJgmedAvgnUxBB/qKc3+NE6QT66D768ucQUgZliOUQI8vLnTjXCzYjxShY8TUnMD0vCSZrvU/Cspv8stfWf4VlXnx9UPJ4egV/wAvEkgAWXA56ia0vdo76go+DfvNhl1U++rlFQ4piqkqhY9BzrHEdF6N07FUbhnCcZh2+UIBca5rdtkxznQ9RRGMx2INwd5ireGJ9m2IJPrNT4+5xK8Stq2therGTXnB+xq2W+U4q53jjxa7COetHA6pYuOyVYrh/e4hExd83GPsLEAAaliOkCKM4YRajXKlws1s6QPFEAc2iIrzh/Z18bcv4l2a2HlbRjXLtPpH31csFwm1atWrRUOLQGUsOY51YqgJlLOGdnkuWguIQOiuWtgzoDybrrNWZXVQAIAAgDpVa7T9rLOEXxklj7NtNWb8h5mkOF/SLh2Pzlu9a9VzfwEn41YMdEqpqNBhdGGIFbi8Kp+B7XYS4JW+g1jxeHXp4o1p7hsWrCQwPoanKRquDwdEdiMPbuZc6K2UysiYPUedD4rgti5cF1rY7wbOCQfiDrWwvgc6gvcasoYa6gPQsJqwBNgFVzgLkpoNKwvVWxvaoAfMp3h/xEUfaZ+yq1j8bxPEj5si2pJEWoJ0/aJP2AUYYaqdkq7HUW/mnwVv7ScSwdi3OK7sKTorKCWPksSTXOOM9vnu2+7wSdxamM8AEgbkAaKNvP0oS12OuO+a6tx2I9u4S24kSSdq9fsl4T3UwN0JMofTmPOudh3tMQobjabgXDRAXAGKNJFzKZYCcxGx94oQjvHi2hJ6Afhy/nTzC8IuIuUoGUbawftBorC8Oy3O9treRxvlyspnqCoih5KjHyQiB9KrThrlPg+HXrdqLgV/mzGX2lA10PMgHlG3Omd/h9sW37q9cZu7BUHXMzFSQdNZOTSo7qXx84UVQNyWUTHId2Pd76gw3FFacmGe2S6rIcmRPIECduflUPLokhFZlBgO1TW9hr1q2JXLakBlBBJk+Nrgjn6iK9xmFQMj+G0hGVUTKSwJB39kD40bYVwbllG7ttJaBr0gcwdRIiDQ2BxJtObQGiAEhAoDAg7hiDI9TQb9ExbqlfHcKmIsm8bsC0SMtx8wf92Dv7qr+GxWGaFW2FPPvAQGPkQ5g+tWnjPDkd+/uWUyKpJJOp8zEAwPOpcVgcN3Jbu7UgaQYHlqDvRAHaIZyGD7BVvAle8gWwrchmOm31oPvHKjC5zDN3fikoTlyjT/AFGeR6VVbnhQk6eIBNdecx5URZLNaVkY94QSV/5gDEGBzMcjPlXMc8adFD6VIiTa8eactbsvDm0WBOXNlKjSJI5SddKhxHBcO4YIxLKNdfPYSeVLDjy66guqmSusDzYbgeYkeQpjYRnuHIbVoZMw0nMBuZJgieh9RTbXh3aHus+phyychv6H/Hql392fJqyif7axH/vK/D/01lG5f0JXK/8A7Pr/ACuxVuKysrCYvUPWUp7T/qDWVlHGqAmmE9hfQV5e2NZWVKouJ9qP9+v+7+EUgwnP0/GsrKaf+XwSFLV/ijOI+zc/wx/9xa27H8vUffWVlX/N5e6j8o8fZPeJeyfX8DSfhn6xPd94rKynsD21nY/spp2n9sepqTgvs2fVv4qysrR/52+ayh/tT5e66X2R/Vn0X7jQPHf1i+o/iFe1lZ+I7Z8k/hOx6+6bYjdf3jQ2M/Vn0/KsrK53ZPmit1HkkfFfbT938694d7Vv/ErysoVfsDyRcN2/MorG/wC82v3D/HSo/rr3p+VZWUrW081p0tv/AD7pvj/93b/D/AVz277Q9R91ZWUDE6tTGF7DkPxf2MP+4/8AGanwn67Cfur/ABGsrKPR7Z8P2SWL/tDxHupuF+23/wAT7jTLst/7J+/d/grKyoZ2D86Ij/7g8PYpLWVlZTSz1//Z</t>
+  </si>
+  <si>
+    <t>Nestled amidst the tranquil hills, Harmony Heights Sound exudes a sense of serenity and calm. Here, amidst the whispering trees and rustling leaves, artists find solace in the embrace of pristine soundscapes. The studio's warm, inviting atmosphere fosters creativity and collaboration, allowing musicians to connect with their inner muse. Whether recording acoustic ballads or ambient soundscapes, Harmony Heights Sound offers a sanctuary for artists to explore the depths of their creativity and craft.</t>
+  </si>
+  <si>
+    <t>Blossom Mehendi</t>
   </si>
   <si>
     <t>Palasia, Indore</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSiZH6_ItNgmzBtJFRq2nz19DC0aBP22MpHzyB1Gh7zdA&amp;s</t>
-  </si>
-  <si>
-    <t>tep into a world of whimsy and wonder at Whimsical Wedding Wardrobe, where imagination knows no bounds. Our boutique offers a curated collection of whimsical wedding attire that embraces the beauty of individuality and creativity. From bohemian-inspired designs to vintage-inspired silhouettes, each gown is a unique expression of style and personality. Our dedicated team of stylists is committed to providing a personalized shopping experience, helping brides find the perfect dress that reflects their vision and spirit. Whether you're planning a rustic barn wedding or a whimsical garden soiree, Whimsical Wedding Wardrobe has the enchanting attire you need to make your special day truly magical.</t>
-  </si>
-  <si>
-    <t>Celestial Couture Collection</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFhUXGBobGBgYGBgYGhcdHR0YGBoaHxoYHSghHR4lHhoZIjEiJSktLi4wFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLTArLS0tLS0vLS8tNTUtLS8vLy0tLS0tLS0tLS0tLy8tLS0tLS0tLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xAA9EAACAgAFAgQEAwYGAgEFAAABAgMRAAQSITEFIgYTQVEyYXGBI5GhBxRCscHwM1Ji0eHxQ4JyFSQ0g6L/xAAbAQACAwEBAQAAAAAAAAAAAAACAwEEBQYAB//EADERAAICAQQBAgQEBgMBAAAAAAECABEDBBIhMUEFUSJhcYEykaHwEyNSscHhBhTRFf/aAAwDAQACEQMRAD8AyOEHbCjgvfGGDPrbRGn1OEGuMOH64SR98FEMsiyp8VcgbYq8ypWx7n/vFxIu5/u8RMzl79LOHY2ozI1unLrayrY/Lj9cMg738xxh6VQp3P2GGj8hWLizm8q38JlvkMz7gUBYPr6+v1oV/wA42fQwDpiEoMjLbRsLBscUQVNCuVP67c6gcCwfT9fl88aPpWksXkokjdL7a/1b78AVwaqm4wnLjvzX7+cqsSOP7zc9OzL7CFVPl6kjYAJCrH4nBUVIdVkIiE9o4xO6XkIIEt3aUXqbW5EW3bejVpPsL1m9tKkmqDKZ95v8KggAUyNsi76a0gjWN1NAhQRtWxxdeH8v5eYYzgSu4/A1KDqUE3pQA6P4QRRoGxR2wa0tgmvl5Mq5OaPfz8S3y/XvMmSCIgsRtZMSgAFmNjuAAv4aWgdrPaOsZWRlkjmMbwMDHJosNEHAPmsCO0Ak2SR8Ow22d6pmRFHpdgkkaR+WHQ6iLIIjK/CpAI3BI31bVh7OyPMjRiNlJR0YO5Ve4AiijHzLFHftIPpe7i6lQaofOVxYbvn5Tz1m8s0UjxOKZCysPmpKn9RhhuOcbn9q/Symc86tInUMQfR1oOLHOxQ/+xxiSOMLVgRYm2BuW4uM8k7+5O9centfoPfF90fXJsiUp5diVSx6ilskc9ov5jfGdy4GqjuOQPS/n9sWuXzlbE0PoTdeyj+uDMouniazK5dUppHebcbWVj2O2ysS2523YGyNPONh0/N9oZFRUYbiljUkk7kAEghe7UoUHk7fFielTJI7I0iKrKNMhYFizbKpsUL2OkV6AfOZ01TL5sWtfPjcGCQBAXYbh+0k2CSG9CjNQ5Agd8xRHtOgHMgj4jRG1q/Gx1d7VvYA9BZ4rFR4tyqyZVyF3Q2CoVgpBrSWjJpiAws+p+4eyGc8+KOVF03sVJA0sOxlIo3obtPHxoANhhb5zy7moFdA81D/ABxDYn1NrxZIUAj1IwbKGWp7DlbFkXIvggzmDf0/7wV74vvEXhuSAecq6su/cjLZCBuFbYUfT7YoC2+3yxlMpU0Z9JwanHqMYyYzwf3zFt+n8sJG2x3U/ocKbCCP7H+2IBjsghFdiT6EDClHr9R/YwUhskH1H6jBM1n1O9m/XB8RPRjijC1whThQOBltCIYwCMDB3iIyJ+uFYGAceueqDB4Tg8esyYm8EcKwR5wEgxJ+dYIC9sKPzwBiRFkRqvthqQX87xIIw2w3GDuV3XiU+egqz9/9sQfmf7+WLvMx2CPviozERBF4uYnsVOX1+n2PuUcRjVRvFnkCH+K6uquvTk1v9sVzsb3wrLyEcAXXrfyAw4ixMjIADz1Nr0XqqwMELuAp2ISyb7gfa7J2IF0OfS+y5EpuSIKjqqrXNguFfURs9k0Lsb45/l5CBdm7535Ff8fTGx6T1NF8tlDSS1elWo7bai7A6aI5G3FgUKWV+LcO/eVzW3nrwJqcioXV5CMLCFdTNdikosxsbgnc6fiC/DbXzZwR35kirvsDZIHGkqDqW9uQwPFm7xQQiZzp1GNdxoy4LNVUwMlGv/XWt7bHfFn0npI0eZHGqnSWUyAnkm6LAhCBZpStkjtAHcROIc5Df79zKxGQ8IK+sovHMSZvJuY0kPkfiBmQ6WAFOA69p27uATp9eccezK6Tpx6NjmAAM8UxuMsXoPHWmipKktuLHd72NyTjhfinpXkTywnmNyAf8ymmRvupU/fC0K3ailPU09IS+NsZPxD9mZ1h64uMhI2oFQDtZF0CL5N/fFWVxJycg3Bvbba/X6fTDzyItlo3Nl0dZPKeeaJJI1Vn1sVpT8SgL/FTXydtxYBxc9LDjLyO2VLvq0xTuiCMvJagij3VYGtaBFCyN8ZHpGZVVC1IC7DUwY9oG6hQNviNg1yODuDvciYrhi8zM5dFUP5kznWjykBQVcFFAPG43UVq2GIVREMD5lv0eF/MzMROhmaGddB2DTr5bAeu2YRnI4JF+pxTdazNxOoVNJ1HuEjjSy+azHQwk20tupDAe/wnRZZ7zrNdj93yZZqFMTNLIT9fxVNfP6YyedzYVJLVgBpYhCNqiLFwKvzNNEURwt4ceJXUE3Og+F8jl8z06BZEjkTy6GlpGX13VpKcHc80w4xTZro0BiEbKJFieSNW/jYK1KpfkEEOpO2++22JfhDJSN05UWeNGcMRLllVVewKkYFdn4uq9d/ah6f1LTlnLWhR5lYBSRcSokhGv+DuBJ9DeCIUjmCrujAoajOc/Z3IymTKyrKhJKAndk5UhwNLGvTbGO6j06WHSJY2SxsSNmB9Qw2P2OOn+GFkbKQu6eXGsUSHymVmchUW2DLelSKoGzbGthc2Z454zEyLpbSAEZgur4yygiiW1AFQb5FnViq2mQ/h4m7pv+Q6lABlAYfr+c4vqs/YYVfbtze/0xvOs+EI20xwKiyhqDCQ6HB3Ww42IsKSCKJAOokXic/kXglaKRSjryD6/MEcj5jnFR8TJ3Ok0fqOHVj4DR9j3EemFVhtB6k4dvCprY+oLwMJTChj0aDcPAwLwMRDhYPAweInqiTgsHgsBPQrwVn2wdcYL1wQizCJ2H8sNseMLOCIF19MTFNZjTVXHJ/LELNRKQL9b/4xOPrhiaOxud8MQ0ZQ1OPetVM/KaO4OBG1EH88S85FRP6YhEY0FNichnxlGIMtMuL+HYep9TzsL/n8/tjU+GUIjKhSFWn0bjVWrhr/ANNaqsUaIrGV6RLVEi6I2HNVW35/pjWdOTQdW5BN2Dz9CNyp34OxF7+qs1lTUrY1AYbprMtJF5CzKiHMMFQquYMRUswPGoABUN2e48A8HGkzESKtrmWrSselZFpuCZCpW0cHtN3tQoema8IsIP8ADRJFbZmYIJIxsqsjMO9Qa21Hehtxi4yvVsq0xn8srEvaI0gZgkrElpJFQWpNgEMFutzYGAVRlBUcH9/b6ROQFGs9S36gXy6yt5ivHoAGqMK4skKFkX41DORVdvmVtd45/wDtY6YSI8wFKlfwZAVYVtcbWR3A941CuFHONqc9A0sa9kUSgXMTJCGkO2mONjW9cNdWw5XCOvZR5w8DM0ivGZGURxhow3YBqQaZCjqrijZ8rk7WxcB7I5qvyk4c/wDCyA+PP3nn4ghueMMLIQ1/UH6HFj1DKtHI6OKdTRH/AHvXt9cVTHBpNDUUOuu5sPCRm8+Py1jYqADqJAAamJJ+gXf3FY3/AISdys88hWRZnI1sVYJVix6AKiB2F3Sgj58x6ZXlkl3B0GlHdr7RYK+wPrzv8xjadEDTBcimpY03zL7LpB7vJHoJG06n3KrpPID6iXgynkNLLbIs7RZnNlCj5iQ+WrFlYRpqiisMe0hVdtgP8D5jGL6lnG1r5apqcjQTsASQsYIuqZUA/wDY3vjoXV5EcCNWCoo/h2pKWqWiVLaUC3ZCBSAzEXlcj0A5jOeWscTLE585XOyqyRPH2/5aBSrO5Y784lu4lK20ZfZLxdlsjlFURok1Mf3dG1U5JIJb0B2JJ+m+MfnusOMiEfcyRkk3y8ra229bTy25obbHkXv7RumRSyZZU0pIXKyKPiRVXU5IHsvHva1zimfoqTLIWm0SLpWGIbFnIHadY0hRYUbgCmJIo0IY+YRQeJqfA2ZWfKBY4gsmXsySawjMGDbJpJN0eWAWwB3C6krmltAp1WEUAFt1VwVqMjUGJcb6brSf4NI55n+mNkgYGZ4821AqjtomRuNgAHXbTpPqOPXGp6hn+qur/vGWhUssbDZlYeSWlBW2K+YoJfSTqIF0QCMFe0fSBQ8wde8dSJKscYsR6iVlCkozE6lIBIaha73vbWQRjarkYOo5aAMdRdHYSvYkDAqCo0mk2N6dxQ4NE44HmpRrkfg70Krc3f5E41HQPED5VNEeYPAbRIqOnmbmwpU6AL+IH0usBus/F0YxMbK1odpHmWviHwlPlC2oeYin413r13H0s2PRbNcYo0Ni8dA8Pdf/AHkvLISyL2xk7vKQO+UqASuooaC7hIuLSnh9V6XlZxJLE8cZWyzggxsd2/h9xvY3prIFVhOTTg8p+U6P0/18odmpHH9Q/wA/6/KYsjBBsOZmIqSrAgjDT4qTq9wI3KeIsYMYaU1h3HqjEa4eBgYGPXCicETgzgjhU8YRPGARgEYFc4mDUSwwRu8Gf0wB6/TExZEacbYRIAT9QMO0aOEkji8FcrOvvK/OJYJ98VMoqsX+YHI+WKHNAg4uYDfE5z1XGFO6XPhDKh5t2VfTuI9fkeT8sdDn8GSxqssKvIlC4SBGaGpxpDdwJahRIO/GM74D6esbRyMo81ZAyazSSahpaFidkYjSyMdidvXHVV8eQk+UkU3n2ECSIUCsTQ1twBftf63hyYyz7gZzeoy8bT1MvlsvQ0mQF1KK60ylXaMS1VE/CzAkf5CCpF4cnUBw7rpc9qyxv5Um16QHUhDfCgnTV0g9egZvw/DKY3kUeajpJrQaCzoGAJo2RTMACTWrn1xkM/4ZzCggmKVAkxNKUc/xQpo3VyDYJNbEVwCDOPbypoxSZN3DciNdP6hIlRLJHPGXLOk61LJuSy2ynVTtd6EAI22OJOTlNL5kc0Mpd2leEK6FO+gyR69YI0Ahq9yTR1Yp+opHKwDGPTobQ6mMjVoTdTqBIPPbuP0uOnZiTQsdx0JAvYRWrSWCkI6sQQtr273W2CDt5FyWxoejUgePuhjNgzxspzHaAibalAoKysFcN7NVeh02MclcVsdiNiMejUnD9jgFCLXzEIUgfF2yoLI2G5O/OOZ/tP8AC2kfvsC1G3+KBwpvSH9qJ2NE0SPc4i1PUPG7D4W6mU6QxIRUoSFqVqvQNhr+o4A9TXrjoXScxHHEuWh3FEljuGs9zsfVdQ4H+IwUDUqaTzDpsxGoDnat/wBP1/njYeFc0VkgtWdDKnA16mIdVLL7KwShtsSd97Eg3UaCOzOgZOIqtojyWVIRa81hI7wtI6k0aIcDurTrb0JxZdZykvTOnnMIUmnjVfOdo1Tz11aQW07jQG2N8A3ubE7pPh9srAMw2ifOxQsglOpQ6KzOEIsgFt7eibYncbYjdV8RfvEeyeWi6WBk3DONEg7eSsZKFtt2KIN9QDdoUSoWJa5jerZuSZTmJSqTuqrGoS/LBpxEykFjuBI97r2C71RshMhHJ5rL56SxrqIJXynLEuI17aYA78ja2FAAGXlXk83zfLWWPToMSyDzYiW1t8Z8uSQuDqBIe1JW2Jd1zZXKyMFWQxvyEZSsiCw1mGUhlAb312eQRtgNt8xgfbxG5cwVyytriR4cygjGh2cuaVlDqTenW3byNOkkUcR/EsU3lrmBmC6ZehLD5TQSwCS0MulmLWdxqcHbUQTi1IzkEsTJGMxlYiXVQ/lSF9JXUWlRFkABO3zPsoE7qHVXnR2TJMXkTQweXLROqAt2oQ9g9x772sbb2PEAjmRvqcb6yNDtsoDAFQBtzvQ9N72/6xVhfQWAeR/P86H5Y6B+0PokxV828aoDIWKiSNymsmwdDG+7QLA5xz1jhKAgUZpjIMqAnxJ56k4AVT9B7EVuPUHYbijsMSct4imVkpiAhv0Ntd6qax8VNp3UsoJBoYqY33sjDi5In4SOeDz+eCsCC+B8n4OflOjdN8U5XOL5OcTSwFJKg3Qge/LIdu1hY923YQetdDkhBkH4kFgeYoYVfGoEAgHam4NijvWMLHl5Fb4WB9wCf5c40PROsZmInSWVSpBBJqiCCpU7N9CCNsLy7W5P5/vuWvTcmswOMaA7b5Buv9RYNKR7n8sOqcM9RYF2MY0oSdKn0HteFRS9g1bN64qMp7nZYcwuiK4j+BgDAwPMuXE4LB4LCYUBwQODrfBYmAYTcc1gh74NhsMJQ0cFFnuIV/fCJEokYdkWmw3I29+2CldxxzI3UHoV8sVmVj1OAeAwJvitufleJebJO+F9E6U85IDrHGxVWdr+bbD13XFzCKE5f1XNbX+U2UjQ5fLI5jdANIYOf8RiRYoS94I1NqA299zU8SZeQq41akYaJE/xVPIXU2zAiyI3G1aRptScpmvDZiiOYMkTxhtOoMw9WRWqtwWAG3H6DR5Y5DLZMEKsk7oQ1JqYsxICCSRdEca+pA1HkUebaYwFtTzOZbISafqdD6f4tk8sXA87hQT5OlWIIvUYZCHG97J5lEHc1hnwr4iXNiR3OmbzNLRGwY10rpWmAOxs7jlzsLAxSLkY1ysNTPmJSBY0dpsd+lyoKVVgkkggGr3ELPO0sbNKjsqqCshXzRwhYJJYlUWG5YL+Ip3VAWA5AVIPcIYqYEdSZ4nMRziwuoYugZgR6Lqq/mdueQDhuXpGQEZuAb0TpdkJNqFoqRR2/TGM6hlozJ50LuslXay67IKremQBwKIYd/HtRqt6n1vNsoV5ANLb9rLqKH1Isc+xwsrTAqZZXLakMJ2uPwrAxfRNOheXzrVk7JDepltDWrU1jju9KFST4XLhx5waJ3e0eMH8NywlhJDcCyEIrQBVG8YLonjuXR8OXMn+ZpnC7+pURXz6D8xi48M9VzsMbIZMs1sWLETtRclieyMcsWNepJ+d2sbbhyRKedNvKgzjXiLpDZDOyQNZCFtJP8Smwp/ofocbPwBKuUjmzhGtkFsLNNGDZZb2D1uL9iNrsWn7Q/CEk2XfMa/NnVmelSrFDzVGohjwtDRtpocnHO8j1VjCYlsa1CuasAcXQ3N+2FZeCNssadgynfwa4nfU8YZfMRMkDksQA5ofhhu2631OSQqoL1MQOLIgO6NSrGBEmkMkYBVUBoKgGzABzZHJYgWWAxl/CEBMLJBH2IuuRmZAyg2CWJ5ldA6gEaFUmtiGe5ysDMECzBX1lEO6UdKnVqpu06hdghtQB5sFuJqKZALuN+IOhwyyk5dzddrLIymjosax6W6iiCebNE4gZRZmiSPMBZY2+EZiDSQCutaVQyoaB3KAn4hwcXfXIngcsx70AJYAANsCRSoNtkNgWpUHddQFGmVOYVFGYkYRELHE7RlVsGqZBrYAbDUWvirwFwwLA8iNZPpSKWeImK23EOZPNV6sF9SB2Y0WXin587OHcLpM8e5NmqXLk+/6YyWTzzZGRmly6zAxolAr2bMGPd/C3+YchQNyCFPoGcU2CqAkAJbFV8y6pjqoWCKPIIrYsBiNxEP+EpBM303TY8xEY5fMZWFHdWJ+4Efr9scN650RoJngayysAGI+Jd9LDcjcexO9jHceoItoy5cxqBWk9vd8W4XhauxybvTS2MX476eDEs4iAMVh3UiirG11KOGViRY2IN+2PZbon2ln01kGUY26b9JzJcluPrviXDEQ2/0r+uJGkAEH0J+97j+uH4/9sUmyEzq9PokB4j0Q2wb4JRhRGFibdfDUjAi6rC69TVemGZ1H9/PC8u4O2JI4uVFb49hjisK9RgYMqPf9cDA8SxyI5gjg8FeFR8BwBgsHe2PSLjerClNkXxeAcAntv1v8hgoHMQx52POI7msPORQ2xEzMnoNv5YNBZlLUPtFyBJ3NW5reh8vT7nb74vcvNXlpq1aVRexVagaYnk7jUbv2A9bFZ0jKJK5V5VjHoT6nbbf0sjGozSdteS8c8RVY/LXXGwVfiJXuDMN9uRWx3q9YAqcVqWZ8hl74YyrjMLDpjckPayNpUjStmgpsiwoIF09H/TUHprORHlspGTlpmE0qK7CamsIaWiACByT2i6vGdm8SpGrxworBx3NKA2k3bBKAoHajzsOaFafpnioorxwTiBMxUndE5ZC5qTytIPsTRUD2O94ctrM9grnuazxFO+ey6TaYxGr6WSzIwZvw6K6dmDMO0Atvtv2mD00x+eJZGKny0QKWQRLUgW7O4p2N1xd0dnxSZDxBM+f1ZRXZGlWoJCdzpWLzG3q9IN70LBFnjbZzNuuaZZoUVp4K8wEARRx+YZn1Hv8AhkNMVWyAK9T44yvPkwTkDDaOhMoMuq5HOaq2CAEDTuMrlo6Ht3SD6VjJN04lpIhEzPoSiLpCASbFXuWH5bcE42nVX15aNH7GzkzSNuAFV3E/cTQGmKPLj/8AZjJ9RyLu8ulaZXogaKAJ8pTq9QdFkgkb3jzmqgp5Mp8mPKkUsW8slbIJ41AncfRh/wBY3z5/LGRf3YzEUNR1y7uDtyeBsCeAWWtW6nEWVkOXkq0tdSkHcbULoEWv2I24FTctkJog0gjfyzSydulSO1tJO9g2DXA4PthRuWlI4BnT+jZpQVM0eutQI3Yxs4U0CNRGkq9N6+Y2+oMDyLxd0f8AdM3LEo7XHmxAfwhiQwqhRVg6gHcBd/XHTuhEZhQ2qrNdyaqIYKQpDggkMpr2Fg1WnM/tWyrfuuRzQMZPcewUUWQKwRh7AqVB+ZX0BJ4ySIkja8o+jZloiqEka9O6uQpLGls/I2dwaKhhRF42sJaMhmN5ZyAsraCr2TQNGww3okEcodZpm5RlJ9ZUafWhvWk2DsSaFfYfTYjeZXK5z91fJsCVvWkQ0q1n8TY0Tz6ISCSu4DEmAKlh3U+JtcwI5YGEb6WdSrFZDKVYdocNyKYCjtZUUBvinjzRzOXRf3Zcu0KaUcDa62AoABQQB3bW+1VjNeFfEc2SzL5TN/hCRTFIJFYlNVlXGiySNRAAJG43FXhOczenMSqKiIlVtZQMQCwEj7HcgOzXt/hgEDfHmJqBjQAn27E3vUcjlp1mWcaaGuEbASiiVNkbn4QVBs6rO525tNk5MtMoR7QtYZhsVI2DAbEG1GrjvG3Axph4vMExiaSJ1DVY1aGVqIYKGBUU1/EVNmwDvizn6U7x69OqFpGUEBA0JZjGw0/Bp1MRVgrudyTiSd0hbxzLTeMDCoVF0yK1FALK7fwtdAH0AX+W+zXqOWmmZYJBNEV0omkyMbCa1B3JFFtiDvsNhWOR+KOlPBmO9iQwVgdgR2rakDgrYGwoij8sdE8FdYijiWNUSOxfozSV/pN3ygDSF1GonSmkjHgKM8/xC1mb6/0Z4JCGQrdlAWD6o727l2LAUD9theK5K2x13xJ045mB1kISSMgq0h7gxUst1dRMQUocUdrFjkg342Pqvtirnx7TOu9H1v8A2MdH8Q7+fsY6MHhCnCxhE6BTcj5hL/TEXLsBqHG939NqxOnSx/e3zxAdu8+3pg16mdqRsyBpYxmwDgYiKdv+cDAUZZGo46kwYIYMnbBHCZch4TzhWDMR06q2uvviQIDQ9A16QRQ9fTDBb2wtm9hhpsFFsaiZeMVmbk+IHj/bFhmT/LFWYmllVQD3HYev2w/CsxfU8u0UJs/2YZaIrM7vCGG2mVwg0kfEbB2xI6h1uXLyj9zl8xFihh81h+HK6Fl1kN8JOpQpJ4HPFOeGvD0M/aYwzD4kNRZmO/k5C7dxB1b7Wu5OJ+b8MQIZFeRlRELFZAN7V9QUSLZ7wp+kqn0s3sahbJ8zis7NkYBZy7rBAkOtfxS7+ZRFDe+ANjZIr/SPfZ3o2kyKZNTRirVSAxUUCttsDWw+2K7PgGRyF0gsSBd0CbAv1obXhqKQqbBP22wRPlYxcYX4XE6bDLk9WjLtmIJjMhgZ21iNNKL3AsRWp5TuePUbYt8pkZmlly80xnlnYKzqSCMtGwLEezSyVCqk7U1GsYPw/Oq6nD0QCSdKs29j/MCWJIob2duLvejOPl4QKAzeY7TR/wAIAFdIPtGv4YP+YueUGAGRrowMuJa+ERzqGZ8/M64yumL8KI126ydUkgPIUUdOm2KxrpoixQZt9Ukoj3jFhtIY3egENyQQxdTJpqzdUwAv+m5cJoBUGOOilFu3eteki930g7E18yEFLmcwQEidFCxgDUDXmKoMY3oqBuWO7bihfOFsxbmSiVxMj16Iq6sqFRVmyxo2bBJUEVVUcXnQuvO8LQM7GNkOpAd2oCwB5bHegKUi/wDSSTi0eFJoizpuund9TKGjZmlDDVsTeo2f82/F53/6a6Ss6OCrX5ZQsRrtdKjReo3W229XpBBxINiHVcGTej9TaFmiBplftBWx/EJNSAbxspNjZl1bb6jjW+IhHP0/MRFfKcqrqu7O8g7k/wDErkn1eRn2c7knVjnU2Z1Z+WpFjQyWG0jtShpABoAaaHI+uOq+F48vHpaIGRx/5ZWuiWq9RAUblt0Vjs34gonDce0H4ovNuItROE5LMGNw4JH0r5i9/XfHQfCGZzGbLB8wsaUupqXzNChwAAxCIlSSW7Vu3rxjMeN+kLls5IiD8J/xYTVXG5JFD0AIZf8A1xX9JzJVgBWxBAJNc73/AH6nHnEYnI+s7R4q6Fl81lW8vT5qC45assRdIAACyse3ZQm5Kp2kjD9CzLZlUiWJNcW3mylYggJal1bliGoBVUkVsBjU+G+u5bLKks8pzDTIVksL+CV1E6Qg1BSS1nfuaxVtjF+JMjJBnPMAcRzl5I2PYGBbuNchbIJFUb2BFYEkHqAgIOwzfZ3wvl83B5ZkZ50DaJKYBGNndWOqrUg66OzHSasZTwxLKWOWlkWOKCxISENlDQolVC6QNmkcelH+HGs6V1CGBV/e5h2NoaJCwAjkC+W6aO51qMA8DZzWx1Zjxdm9eYjzcQEaWIzJoPll01aHsDSshQKpFEAp6gb+LL955RzR6mv634ZgzOWMJ2kA7J3HcWW/kp3NggKt92zEFhy7w/1jMZR5MuqhWcGORXGw5FnUQB9TyKx0DL+L8sgAyxeaR0jKO6nXFItKEACgsukDtTnuFnVtR/tT6RIJR1DQVDuAysAzJsNDSBQUSzwpJO4vg4ksDwIKWDXiaDosfYsmZzRzDsFUhWKROBqVVaQ98qgiQkLpT/Esk3ec8VZEJmGCjSW7gKCUd9XYK0AkGhVcjkGpngZRmV8iSK0kpJphMfMjIYNC6Am0thvpFMavg1eeKOlyyZbU0LpKWZ5e8SrHJGAtclgJI/xBp4AY13EAWQOkvaDUnS6kX0eD9DMApv6jCxhvVq7hyOcLVr3498UKn0HGbhyjFZmo/Ucg3i0IxAzMRsn6G/bnBA8yvrU3JIiTqRZwMNTIuo7gb+2Bh20TDOXKOOJdhsHWAmxwot3X6YpVc6gRII3vDhkZlq+0b4Qu7V7nDuaXSxUen64IWAT4kcE1I59cNsdjhbnDTj1JwIi8h9oxmmCi/XBeGSDmAzOqCwLdVYVyw0tsdsRurPsMPeGoQ8ippLEkMQFDbXuaO5oAbDmzi/p8YI5nI+tanaxA8TtE+TZ4wWSCdQprYErVA0zEtVMrdrrsfSgDjvFcvlxrEDmYmYsDE0zlNIYq2pWZi1sKFscOy9Zy6JpWbQ+4qu323BYEg/8AyH54y2ez8mYYyyOzhdlsVS3fz5Nnk84bqQEX4WmZ6Ih1GoG5eBzf0lJnstZxUslHGmkWx6YqOoQ/b2wnDk8GbXqWjA/mLHPDueSKQSOCShtQObrav9XoD6c+gxr+mzeZKJpTTvQ7DtCg2RATx/sSdyQcc7Q0QfnjXZcBY45l1FW2cvxr31C6BKkVbC9N/MjDcg9vMwFFnnxOk9Oy8LQTuzxoIQQIDalV0AkBtWpdbFiABXAA5vM+NsvomilDMWtkYlYwdbrbGiFZh3HuIoFueMWEObVkDGFWLKQsjqLGoNpIkDACwslkUbRru8UvVM2DLNlWcSOHoOptn8sWjWx03xqXYVxxgCeqEhEskkyx6NCfKyz64Scw+lqZ0eEDch2QksNJaMmhRkX2xF8PwxPIUkcvFTLcYP4otxQkY7J3k7C7CnarNz4HmPmGCWNAz0pYodd3Wlrj5BIFuxrUpA7hiqzqR5WU5SSQRtA5CyMbUwt3JdG9Y+HSBZK+nqvOcm3+WOYWMLZDmN/tW8IDKmLOw7xyUjito2AGkj5EKeeCvz2j+F+uZaHyXcNNKjdwY9hHdWkEaQw1WCfX1Fk40/V+oHqGQbLZWN5Eof8A3M9RxAjhhdb2KrkXwcc68H5mOKQiSJXkU7aqIUj5OCoojnSx22xYVGVFL9+alfG5a1X9ZpP2oFszloc2ImWKOQxxtVXHJqdRvyE0hRp2GqrPOOZbjcY7l1jNpm8rPBI663XSgvYNWuMsWLOdDBL30jzGpbXfhq4cxv4q4MjCONhPIm9/ZxnMurXINUi2yWNZU8kqh7AwoHUwY9uy42XjSA5zLlACZ1BkjRDqKsPitju5Khks0O19I2UHiuVzDRsGRiCCCCPQjcHGn6B1c61JZw4YEOt66221Ag2BsN+Nrwh2KC4bqD1wY/4NMDtqzTgnYKrh5S1doURJu59NyADXa2OidRaLN5cwZjTHFQ0EsnmAfwMCKjj3BOlNiEAJPmDHM+vNplGYjJj1nS6qODR/iLWSeQTvd72tnaeHZo4zGVlLSIHmOiEO00envy7EHZtIABG1Ku228oQeR5gspI6lV4LzhykhieFI5Nld7APdpotKdTLGQyn8MbhgbA3GpE6ZwyZRwhAUNTbLErEhnCc9tbndwTKSdkOMz+0XKKsmXzMekRutIvllKishI3Tb4AWjI5ooDi98PZySWErEmVZXJXKRu2g+Uf8A8jL6qB+EsQtnmxXljBKADUh7YBhMDk4Bls0cvmFbTqVWtmiOgtYYMa2Uj4hsaJBIq+m5fOZed38gGQOU/eJC8iqJYfLWFgWOmmS9QG7DTs1HFD486IJIDNEhrL15ZDrL50GkASGzqtaVW5NhbG5bFR4W8Sx9kcyyaFU1o09pIC7KaULsTtXxHY0Djx+A34klt6j3kPqkPlzOlm1bZqq73Bona74OGlazxR4Pti38YTxyTa4mBQiuCtUBtXoL1VuTVb4pY2O1+ntjPJFmup3vpuU5MKOe6EmZdbYCr+V0CBvXyxX5weuJsMpXcGjiPOP0xNipezIWUyilQ2cDD80A1HcYGHhuJzDadtx4mgiVdZT7A4L90a2B9P1xI6r09srMA24sEH3Hri28QZI3FIuwYUT/AFwtMQYEEcidC2qUbaPB6MzxiZQHqt9sIeSzZ5xY9ezQZlReFH64rB64RkAB2iPwuzLZFRDYRMeCMOFhRxFk32xCiLzNQlbnnBIH2xJ6NpBLONQXbtZQ35Hf05GIU6d+3phUWTkG91fzN40EYKs4rW6fNqch2i+ZZ57OHMPp0gAfEx+Kv6D5ADElAOBhvLQBF+fqff54dI2I9as4p5X3tOl9M0A0mLn8R7/8jbLx+eImciFegxPb1/L8hiPKLA/L+oxCmjLGoxhkImZmjokYvfCWUMzmMKzbbgFVG29s7bAD8/qLGKzOxd23F/2ML6OEMgEh7LFjuo1/8dz9q+oxog2s4nNiKOQJ13wlNDCscMMYzMiOXLpTkCyaU6LUNdNuVFtudroPH+WbL5yLOLFo/eYyrouh11g0dJBKklSPoQTRxpOhdciXTDDGq3uiUC7uAW2iUEDcLb971ISSCpxZ/tE6cc1015An4kLGaPV3OViOmQPzbaWbY3viAVIoCVCHRrYys6JlpJB5zlcrCBQEcrMwFAU2YkJUfCBUSse0AjbFb+0Lw/CipnIYQREdMiuDTKSSHKOSxIOoEtpoI1r24rfC+dlm0apVjA3WaY6qpfMVasBVYBT6Co22tjemHiDJiEBbzBlhUOHYEqbuRCaAp1JHaOb/AM2Dx7slqog5gmMhyZVdK8Ry5jy1iQtq7BRKBdgSvm7BO3zDS6AaU0dwcB4ryEsGY1uEUy6mqP4QQWjkWtqIYMCPS8X3Sf3sSSZPLRStolFH/KY2OlyTSLqGiwT6Hm9pHjrw5L5HnS5hZZkY6kQlwgbUXJcUqm1vQB7nHsaUCSZ53ttqiV/hjOISVdSC/F1pPIX4vY739dzRxSddyGieXTxqsb+/d/X9MH0bMUASTQYGqBG9Btj77fLb09bTrgDymuNK39eNq9KrDNQ1Yx9Yz0zF/E1JU+R+omSrDuWlKGwSCOCPTFjJkQcOz9OBUaef+MVDmU8Ga3/y8rXXiSGzZliazypBA9hR4+oB+2F+GOqsF8oyvH3BgUPdrF6QL9CTx62ffFZGjRahpVgwIpgTp/1CiKP6e4OK1WIN/X74nGigHbKb4mxtTidlyZbPQSwMspTMEy07IzQTBi5Ve0nQwaxtYUWSgIIxnQ875EpizChpYe2K2pVkvZtQNFGsWTsQPY4R0Dxc0QCMNUZG6glNe/8AEV3K/ENI4LaqtQcT+rAzxmUBDJq1CTtLir0qVvZDxWkC6+QEPkCgBu4naAxrqbrw/GZPLU5WKKNImXWjMESSQmOeFQCDTBQwC2Q4G9EXyV8q2WzskMgNrIwN8kE2pq+SCDR3F7742fhrxwqxorHS+41m3k9ioYioxuGAUEHQRsSMI8ZdL/epI3y3lvKWA7GDHckUSQGIs33b78CqxORl2Ux7itp38Su6goMR3J0sDwQaa65+uKxJP54seqq8ZMDqilKDhWLi6BK6iL2J43o+vOK5R23W/wDz/wB4oKhWwfedn6YrrhBPnn7SYho/TBTm7P8AfzwWUcXTWQPba9tsGwwfQm6CHFyplh3OBiY6b8HB4ndMttILM2/S8/Hmj5WYUazxYxK8QZArlCB/DWnDUkEX77G4oCifv6YheIuul5WiB/DoC/54uk7VO6Z4U5dQoxih+Ig9CZUoThB2sYlyQmM3yvviK3N++M5lqdCDfUSd8NjnjEqfTtQIFb/XCDGGIC7bbnHqriAw8yGmXGq+QD+uHo47N+2HWTY1wPXDuhlUcaXF/libJFmAmJVNCNP7fphyCIGYLdDULPO17n9MNlh7YVlo/iPFIzf0H6nEIOYzKRG+bb/MW/WzhrTwPf8Anh47BD6DY/luf1w229D2sH5874k9xDDipX5qIUTW+/2xTIdJvce9c41Eq38jVH5/PFLn8tsW433/AExaw5PBmB6pozxkWaHpfigZelgiDOWjYObLqyE6gDuSre3He22+OleF8tmJn83NFldmLLANO4kGgsy2RHG1lTtqavcY4t0LPGMkatNiiVALV8iePt8sdO8E5yUBvKXVMFSVYyR5mYDONW7MAKVEO5s+WtcnDwzBtoHH6zm8iKy7iefbxMDnuk+RnZspK7KkUhFKbJQ9yVqIHwsNz743/hPMw5ZikSAOCFDV5rsSNIGuqQl2VdgSaNHjEf8AbJkFXOZbOKDpmjKPRoao+4Akb6qJWueysDwdGshEIMkTZqBkdlUFEeLSQaXkkBybYWPniSvxDmBuGzqQ/HTCLOCZD2SLIHV2beSAmNtQ3Bk0GJt/W98X7ZN3y86zqGAi1ZcRsAsifgo3YDroDQu+1L9ah+LqzOQGZR1JuOZQV0vqRVgzJkrY2Crk3f4VEduInhEOZY5TOgaNfLQQa5nIawI6pYlBLEAsRR+mCKhWqQrMy37TBydMkgldVGoe91amiG53BUgj5MMTgfUjn09B7AY1fjbKRrNG8bFg8bKdTa2LKeSwAG6ulACgABjM6hXr88U82R/wHxOt9K0WDYNSnbD7D3qRxyB88TCuwxEYglRvz74muMIbxNnSi932kV4r9Pl/f5Yoc1ltNVxWNGR+mI8sIqvfB48m0ynr9EMyzNqaxf5XqIRG5ZQNv9N+jfcf3xgHIrf3G2IeeyFkkemHs6ZODMHL6VlxqWEj5CUagDenVfzF8H/f6Y3vSszEU0nWJQebGlloj66gT+WMAmVdaIHP6410P7vHkxI0kjZnUV8kLSoLrUWK93aAavc0K5IDPiGXoymmnyKb2nx4MZZgWY/6vtvf6c4YAokYcWQE6qHpxt+mESc4RO4r4AY4H2/LEvmO63Bon67r99m/IYhxEb84senSJ3rIxCsjcb92k+WTXs39cEndRhYhbHPykAt8jgYKdSpprBoH8wCONuDgY9sPtF/9hP6v7Q831N9e14OG5Nz98XfQEgzSspG4Hrz9Ripng8l5IieOD7jFjJjJ5PImbpNYjuQJIyud30kalxEzDDUdPF4bgzOkGq3w0hvFV2sVNVSLjxJO3thXkFr0AmhZPths3wMTMtnDCzAAEMtMPfAqL5MJzxx3I2XNivUG9+NsE7bfrhxSNOlVOtj6e3tWHsv05pJEiUjU22+wB5onBEEgAQQ4AJMbysFpLIf4NO3uWJGDEZWPUR/i9oA50ggt+or7HE3p1wvNHIosjy7a9KWdJax7DfDXX5g05CENHGAiFRtSitvveGFQq3FDIWfZ47lUTt9sSM1GBI1EUVVvuwBP5WcTPDjDzwKBJVgqldWtmpVUe3N6vQA4ZyChZGLUPKR7B3DkEgAbGxuOfb54FV+H6wHyDdXtIVCt/wC/W/y/liNm4u0j63/LEmj/AH/f93gSRVz+Xv8AbAg0ZORN6kH2mVjfQ/r7H+/74xt/BvVTC6yxQo0wNwEsB7CSMAn1Qudz+WMv1HIkkFRd0NvUnEeOZ0eg2kg7EkjTyPTjbGgrBhc4jU6ZsTkETrvjaOD9zGVijlFRpmoCWaSnJrywfbQSvxfwih6nLeE+pOYXjjlMe6TFm1f+M6mWwbo0AT8/9VYneFOp5eBWYuXmN3K9ivTTEo3BOwLncLrK1WM11VFSe4nMMEzMaC6tHpXbV9p4BoHUBtyzll3D7yjQVtreep13NMk8cxaXLtHmUBg1CnWNxonVSo2Ysik1tuSeMcZ6Nm5kkMZLXqIYA/xLY9PneOk+GFysKr5bEmx+JLp7tmKpGo2jBI06yNSmRPfGB8YRCHOtKgpJTqA4ojnb8mvcWx3NYbjYE7h0Il1K2nk+Je9TcGNHBJGoHc2dwQdq+QHPp6Vinz0GnuXdTdcff74RDnjJGlgdrNuFAu9x3A2eTtVfXen48wVDLpDKw4PpXqPUHFLVur5SfpOx9CxPj0Cq3ua+kgRSAuvvRxY3iHGE8wVzWwP1xLf/AGxTfsTc0dhWN+f8RB4wTcHYDf8AphTc7YRV/wB/3/YxEa0JRuPqME0Vkj25wo8YfdKL/RW+xO/6n9MSsWwHRkda1Ae2GusLS0edQr6+mHsl/ij7/wAjhzN5bzFccUPX3HG2DFCjFvb4XQdxjLmwPn6/1/P9cSXiO+3BFn0F7DFZkC2lbB5O/pYJ2v0+n3xYI2rk0dPNbH5YhhRoyNLmGTECIQUg/wC2HmbalFWNz7+vGD2eQD3obAfSvnRw6Msxk8tQWbVpUDlt6H54gg+JZSvJiosywAANDAxr8t+zmUqC86IxG66S2n5WDvg8Whg1FdTOb1v0gEg5Fv6f6nJek9ReJtSGj/PErNZ15GLE7nAwMS/tOQ02Vlogy2kyAWENdsf54jSRNHpLDY4GBiMqLVzptLmciyYby2bG2EPIefU4GBip5moWNSxzMioUaG7oGz6H1wvI9ZdGOo0pYPqUDVqAoc+mBgYaGIY1ByINnMbj6pIyMCe2SXWWO5B+H+Rxe9Y6eUJy0ShzGjTO5pe2t/n77YGBhwW15+UzjqHRhXzP34kfq+VOWmj8ptUghSU6hvEAjAgG6PJPyoYo8rl3ZZSo7UUF+NgWHv7kDjAwMLyL8ZH1jsOQnCHPdj+8XmMvp1AkHSxXb0NXe44IJFf6fpg2rZkJB7wARfbp5+VgnB4GEtwZbXkAmQM1F3xrV0yGr5GzEfltiH1DI6lBHJwMDDAStVKL4lynIGHgSnilZW+mJmczmqLTXBBH1/6/v3GBjRVyBU4nNjXdH+k5ttQGpqPIv7Xv7Y2XUF8+BXPxx3d72CKJv6AH7YLAw0n+Uw+UTh+HW4mHe4fqZUy771Vj9bI/phi9sDAxhDufTj+EROUK62sWdO3yOtR/XEqX9f8AbAwMFl4r6Rei5Rx8/wDEa1f3/f8Ae+HCDouv96s8/kcDAwMaYql0sVsgHtJ2setj8vzwsONKPZreN/pz/I//AM4PAwawG5UfeCPKlMwVPKhrO3sVuj9cMwSDUb9f0/39PzwMDBHiBiNm/pIMsbawinZjqI4o1pu/p/XFpPlyscbmiHsD0oqQD9eQb+eBgYZW5bPtK2E7Mjhf6v8AFyX0bIPM4Eagm9hsN9659MdS8L+F0yvex1zMN29F9wv++BgY0NJiXaG8znf+Wa/PiAwIaVu/c/L6S/OBgYGNCfPp/9k=</t>
+  </si>
+  <si>
+    <t>Melodic Momentum Sound is where rhythm meets innovation, where every beat propels the listener on a journey of sonic discovery. With a focus on pushing the boundaries of traditional sound design, they specialize in crafting immersive audio experiences that captivate the imagination. From intricate percussion patterns to pulsating basslines, their studio is a playground for sonic experimentation. Melodic Momentum Sound invites artists to embrace the power of music to inspire, uplift, and move the soul.</t>
+  </si>
+  <si>
+    <t>Enchanting Hues</t>
   </si>
   <si>
     <t>Tilak Nagar, Indore</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTw_JMyTVul13HQwxfWHQdTGMlMsDA9ArAXoRvUyQKYg&amp;s</t>
-  </si>
-  <si>
-    <t>Indulge in the timeless allure of romance and elegance at Regal Romance Bridal Boutique. Our boutique offers a curated selection of regal gowns that exude sophistication and grace. From classic A-line dresses to opulent ball gowns, each design is crafted with luxurious fabrics and exquisite embellishments that capture the essence of regal splendor. Our experienced consultants provide personalized service, guiding brides through the selection process with care and expertise. Whether you dream of a fairy tale castle wedding or a glamorous black-tie affair, Regal Romance Bridal Boutique has the perfect gown to make you feel like royalty on your special day.</t>
-  </si>
-  <si>
-    <t>Dazzling Daydream Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExMWFhUXGB8aGBgYGBgfHhgbHRkaGRgbIB0aHSggIB4lHhoaIjEhJSorLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICYvKy0wLy8tLS0vLS8tLS0tLS0vLS0tLS8tLTUtLS01LS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOIA3wMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAFAwQGBwABAgj/xABKEAACAgAEAwQGBgUICgMBAQABAgMRAAQSIQUxQRMiUXEGBzJhgZEUI0Kh0fBSsbPB4SUzNWJygoPxCBUkNENzkqKywlRjdOJT/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDBAAFBv/EACwRAAICAQQBAgUEAwEAAAAAAAABAhEDBBIhMUFRcSIyM2GBBRMj0UKx8EP/2gAMAwEAAhEDEQA/AAP+jyt56f8A/Of2keLzzcAOxG/jjz/6jOKxZfOymVtIaEqDRO/aId68jj0VHmAQCKIPLHHclWenHq/TM26gRzdGA7re44pPP8Kly03ZzIVa/gfeD1GPXGay4YHb4Yqj1u8L/wBm7QJbROGB61yYH5/dgHFL5faQ+eC+ugcD82gJDriz/Vv6BmVVzWbU9md44z9vqGb+r4Dr5c5SKQg5ukLerT0IZj9LzQqM12cR+2ByZh+je4HXy52wZD0/PyxwFA/DG9eON0IKKpGazjerHBfGbeX3Y4ehTWMcsRjkAY5rAaCkc5iEOKxHc/w0qT3TR6j8R+/EmOOZEse/CSipF8WWUCEtlyOR+f4jBDhcKp9dmHVEWyLI30gsa8aAJ28DhL0pzyZYC93b2U8QASST4AA+dUMR6bMPMwLkd3un6wgA6tLKF2sUNhuDsTYYXFY35H1Os+HbHtkqz3ptsy5bLyPJUmnWNK2kbNexutamMjY6tuow9HpMySBZYxo0li6He7GlAL3IUSMxB5IDW4GK/wApEQwZe0Zu6ZEY1oBJ0gKFJLEKXBAAC2xO+zvM8RBZAqNTAlZFbcFV5kOpUbAg6Se6h56cUUWeTuROuD+kckuYRJIeyjkRigsFtSxxSNfuHaMtja0G51bSHNCxispFaFllE5y0IburFGrSS6G77u2hiVvegukBgSbJGJ5wviIngSXu99b7pJHwJAJHvoYLfBy7IB6fpVnxxBo0xO/WU+yr4n+OIKp8cZT6DRL+Oxzk4d7w6lhB5jcURXiDYPzxrIDBSDKlumDbNUkmqYE+jZgMJI5HJUg1fOgFBJ3JOkAWb5YXTPxFHjTJlczKd5Wk2Vr5p1sjpYrpWJxwvIADfn5YKw8BikYM6A0bsjn/AAxZOkeXqMeKPK49iP8Ao96NiacSSsnYIaEeklmYVTF9RNdKJ6EV1xWPrhCji+a0Vp+qquX8xHj0hDEFAAFAeGPN3rg/pfNf4f7CPFcPZ5Gd2jfqt4XJmMzIkVAiKySSKGpR0Hvx6I4FkXhj0ySdoxNk11xTH+jz/v0//wCc/tI8XyUrljTXkzOTqjoHDbifD0nieNwCGBB+IrC4OG2ZztHSvPx8Mc2kGEHN0isPRn0CWMtHm4VfsZT2D3uye13wNiATsD7xy52Gtfm/3YxfycJZvMhF1MeXIDmSeQ88Q7PThCMI0hZpQOZoDDP/AFrGdl1Se5FJ+/lgHxHPknv0W/Q+wnn+k33DA2bMs/tMSPDkB5AbDFFjsjPPXCJcOJ//AEy/BQf34Ug4hG50hqb9FgQfvxCBhymdcCm76+Db/I8x8Mc8Yi1D8k2K46AxH+HcVAq2JTlZ9qM9LP2l9/zwdD4RquzVGSkuBbTjUuZWNWZiAqi2J5AAWScca8QP1kcW16Mou+umkAFkqDsoAO9kG/cN+eBuoNOiOz8WOczD5jYWdKAKzMEB7i0gNHrv1LeOD8Pd0hnKnSDZi0gAGgCxVKoUfa2AI50MM+E5CQKP9nVtI5PMgPsFPZQ1uGPdO3s+F4XMSxsplXMZeinekIZCFGmtYJrUDuzNzCmrG8nyZmzJeGM0RYjWGoloyzMVbaTum20sIwpKM7MARyBw24tCkup4wEXRYkDnvMAQ4a9gAVTYn/x2IsjRjWSEOkN20dmJ2MnZgONrJtD0IBYBtjhtK2txZUTCmIJGiUBu6RsAW3FOBYJpxRUs3RPsE8QzYWCVHLMqxjVqWyG7SSqDqVPdRWIBCg33htVlcFdVysGk2vZLRF790dCSR5WaxU2ayZmRgHsUdNA6m0u8rl2fUQ7Pq722kqBXTBH0G9IJXTMxaSAChjTlpLBwwHgO6D89zzws+Y2h8UXuS9TPTriAlzGkH2BXxP8ACsBMtlGY902cEcz6NzhizqSSbvzw5yHBZV6eRrrjM0z6XFFQgkmO+G8LYAX99/hiUZPIUBajADL8QzcTLH2WrUaHW/ntXXE/4flDQLgavAchikHRn1ObYuTjIcP6n5YLxRVjQ2264WRtsOeNkyOTtnJGPNHrh/pfNf4f7CPHpZm3x5p9cP8AS+a/w/2EeLYezPl6JB/o9f79P/8AnP7SPF+scef/APR/kC56cn/45/aR4uXP54tsCAvnufz4Yu5JIniwyyPgcZvOau6vLx6ny92GgHT8/rwhGWO2/wB2Fg1bb/IYg9z5PVjjjBVE6EZPMgeX44BcVzRDFgT3ToT+19tvgCAPPBppwL39/h+GIjm3NRj+rZ82Ysf1j5YpBepn1EmkNwCehPw8z+4/LHXZMDWlrHMUb35e/BLgc7DXGiFmdTVEAikksgnr3vuPjgjk8ywLTrGSj6Tu6WAhKs2m7A1EchQ9wxYwEd7Bv0W39x91frHzGM7Ft+623PY7VzvEjkleO7jB2RzTRsQNUAHsk89I89QPTCidqAsXZCwrKv1kQsqYyVPeqwVNi7APux1nWRiKUo117iD1HUHEk4TmDRSydNFT1KEWvy5fDEd4jJqlkNc2O1g9fEbHzGCfBX70fk6/Ihx+s4Sa4NGnlUqDOczojjaRuSiz47Dp78VLC75mWSZmVe0Ngs5S15L7ILcvdW+Jh6dZolUyqHvTHpudKgkijXOq3+7AXguVY5eQRxmR1ZSpEi0B3iL/AEtL+8UTz02MZX3wbc8lFbRy+S0sF+q1EMQqyFHttZB78abDUKth7C+Bw/ys7IxCMylizGCa6K8zp2Yt3drVpBZHIckW4inbwzGXttVho+yS07ZTbaiqxq3ahqsktfuwrwxDI+YTs6hV4wmXktnt2SMMGBGimJJYbqeoo4PZhfBpYVIbsE7KQX2mVejFIdw2nmoNg7r3T18RH8/LSgowCuSQHPfWVmkLRsBR0UGQg8xY1E74fcXikTvq5ZFalcldUDgv3HIBBtnPfAGuqbvaWwK41mi/1o7hmVo5RR2kKFUlAPIMpq9iQF8scBAziud72qMuthmIUqW1cmUknSCDQLbbq7V3qxMfVfwist2zijKxZBv7F0pvn5e7zxE/RPhH0+bvLUSAM9e+tK8zzOrp0J54uPLRhQFUAACgANgBsB5e7DV4Nung/nFFy9eXvwlmJo41LOQgAskkAD3k4UzGbWNWZyAqgknoABZOKo4pxGbiMzWrDLBqjTS1GuTuRzJtDzoB/EWQ+C08m3sn8XpXk1ZB2usv7PZo7DzJUUB1s9N+WBOa9IczPKyx5iKJEbvBGViFWXS1ki+9HrNAAhglHc0Ay/DhGgADgGg/1b6SvaByOWnTa8tQuzZIGk7j4bqTVCx7SYGyjAxpsGPeJsHarverpQaElXZinOUmPooXjMQhmkMzQpEZacWiFu/ZGm9MgVdVnu3RO2JF6A8RNvE8k85LFllqdotJOyrI40mh11G725YifCZkiWRuyYoUZns2SEVJXLKaorG7LfUalJsKWMPG4zcNJM/1i3vHoRbrURErSchY12NxZAGzpPySbXgsrHmn1v8A9L5n/D/YR49JPKBjzV62WviuZP8Ay/2MeHxdi5egr6kj/tc3/JP/AJpi6Vj6mvvGKX9SP+9zbX9T/wC6YucRt1K+W4Pz3GGn2bdL9M78q+f44xjXMEfD8MaAI8PmP4Y6+Y+B/dthC9iRF7WP1YiebSgh/q0fNSQf3fPExIv3/LAHieT7xUD2jqT+1XeX4iiPeMUg6Zn1C3R4OPRvNrE7SNZIChQOZt11dOig354ezToIWhUi9MgVgpuu2DBbI5Og+4YjgcjkSPux127fpN8zi55wamnFSUTvBCooG9SmLUB7xpPyw5eWMTxSalZrk1uqsAw0EI7KR3XNmwPDEcMrfpN8zjXbt+k3zOOo6hMjBXhvdKE7UruT4A0v7jgfAhdue3Mt4DqThvxzPsT2EQ3cAvbAaIgpESWQaZuZ25HpYxPI6RowKnuYHzs5zMxzKrq0MKBQlVVHFly1ALRsj371tg9OmX7Uqr/SgUMaJEqHskXvAgmk1b1pGo+POsDoMlPCki9jrVzqXRI1Ahf6ylTbBXNsPYNeGDGRkfMLA0fZQvEUM7KfrUC6IxYkABVxTABSCUG52xn2hnk3StiGTaaaCRcvCpVTpjBDvIsciB1Kkdw/za0xG2vmN8dGSQyZfMS5s9lJE0YIkSF0dk1n+b02vahrJHTreCCejuZd3M7SNJKjdnTabEb+wVOpVUry5mnO4q8BOJQx5aDszJlxLlZGLWTqkpo3QIlEnUutQSSF5b4eqJ3YzbNQZdJUMsco7RlcDtHE6S6WAL1p1C5SXPMqPHESz+sv2MdyMzBVoC5KbWjGgNypBJ6bjpg/xrP5NTIIWkca45UHZsoEitJaHXRpYyOe7UbPTBj1b+j+hTm5VIkkAEV81j0gXVc2q/KuVnCovjx72kSb0U4KuUgWIbt7Tt+m55n4ch7gMHWIrfHCD44hPp/xphWVgbvuPrCCo0J4EkgKx6e68dfqehwl9kCPSbjDZ2bso2Iy8Zojf65gQQdKgsVG9EAglTdbHC+Wywj0/wA6FAo/U5ituoYtsK0f9B8RSHBOHMi0rxEb8ptO9EdKB3ZTuSbUeJwZjnaKmm7aBNR7+olQvfPth5ErdB3q9k9TtJybZjnK3bNcPjMigpIGBZF1RSXRKlJCe2vSoJ20ENpfpTYWWFJDrQhHKl3kUaNizbyKxPdARxuH5HvJthwIg5HbBGcqCJ4qD0ezFhlu11vXNgdJtaGMzY7Iozya7buTihdK3ZrK3QHtHII2sWKJAJj9yMvsI5qJRQeNRRtCVFSxq6SNWruqW0KpsE6aIsb4CT8XeKZM1IacWbAq+SsG3BIqiSRdMpANAArPm0MbQlSASqSUyjs3+rcFKUkhWbujkHZQBTnTEOMyhFdSSzqacU1EKL7q3Sgoxk77baUFYqn4JNN8lnw+kCzwLMu1g2tjusNmU14EEYoP08zPaZ+Z/Er90aj92LV4FwqRsv2KEISWdt7ClzekbbkDFWen2S7DPSxD7ITfxuJDf34TB87fg06jHtwpvu1/olHqKH+2Tf8AIP7RMXaR7sUj6jAfpk1C/qD0/wDsTF3CN+eg/I/hi0uw6d/xnDIDyP3/AI457M/n+GEs9n44VDSsEBIUFrAs8hfLHBzsRsCWOxuQHXYDn1wn5NCYvID1AP5+eG2ZiDqVNged14EXuK88Jvn127yG+VOu98q36+7CMfGcuy6u1jr3uvTzPngb6G28cgviOVI3bn+mPZb+0Oat7+uB5iaro14jcfMbYP5vjuWjXU0o03psBmF+HdB8MCZuN5IEldYPigZb9w5eOKLMkuTJk06b4Yy8sLpl2+13B4t18hzPwxxm/SCKKJJn+ldlIxWMlkBdh7VKG1ECqLbDzxsek2WjCsYJQX9juqzNvR5OTfu25YLy+hOOCN8sXzz9jFdVdaQxUFzftPZACrz030wG4ZFEz6mV5ZO0TUyvG1tMumiIyxAO21d1vEUCIzvGTmMyW19mB/Mq4YaRXO1RgCTvt0FbdCbZuRQpnox/ZeRElic76VEigaWJKAFgn2iSNhibbbDklFfDHofZTKlUJysjHSqrT6QTpbvAs2kG0b2WUeyOewKb53Lzt2cp7KYSvGkgbTbKyEsGptHcNiNqjOrpWFYwrvpR9EwVwiStqUq5p2ilNuvfGzW6Wuy1vhlmpAbSTVakqGkFywM0GljsRH2ZJBDaijBCLvvAogwl2rvmYI8+0kpJKfWFRHbRuw1KpqKTeMae8CFsE2cR7iwy0EWYyrTo7BUZGhRn+s7F0ZNWogd+mJY2bO17h8+bWWP6POq9m4qDURRBSNgurcrGXbpvGwFVpa41nM2e9D2JL6okTSojWUIGZGewCHKvRAG5U2a2xx0V4Cfo/k1z2acsriNX1y6mHfemUJSitIFir5De7xasB+X6sRr0Y4R9HjCj2m7znxc7tvz57c+QGC2dziwxs7tpVRbEnphUz2YYv24158nPpNx1MpCX5sdkUc2ath5dTit+HSNf0l3sSkGVl0FrJYPQ+ydLMF3B2XYA1hTiM02YmjzzRtJAnJUPsoRaHtACAxJFgbqUogAjBRcqIZWgkkEcM41AQgtTAilBZbFimD1pOkaetCTsx5clul0PctA8UlSJ9VLSr9Ip6d9KkkfYV1NFSd1Ir2du+HZ8xTPHK6xEaGTstg6kKCGSQ2KV9RBprRtieY3NyI+VaNmmkkUkxXrYFU7oCo47tIzWDytD1IGR8RXVBN9GYJHSTDTaNapqALOys162F6RTpY2wFGzM5UGo4Bu0BjSQMNSqSIZH1agPGKS1sMAPGiN8JTZ0MpUox276EGwKGvWA50tZW6od5WFWxA7O8ahE0gMckUTqpNopZHUFS6rCxVSxJO4I7zbUcCeMyjtA9gsxKPQUhmRCyP3tjaAqSeexx0vQMVfIpnZapQxJiGnUWr6hlNNW1vYCEjqOQq8I8Oy30nMKpXcoCR02J35nbcDeidPlhrLC88gjRRq0su9c1dSvI0CCWrfY88WJ6K+jwyyVsZG3dgOZ6C/AffhVyqNmPDzb6CvDcqY1Crv1Pv8AHlijPWqf5UzH+H+xjxfyAj4fn87YoH1qn+VMx/h/sY8XxqieudwXuST/AEfZQuenv/45/aR4v8TjHmz1PZZ3zUuh9DCG7q776bHfFrls5FdKJPerD9Ro46c2n0SwYd8LsGet7j6CTLQ+Ddo3wOw+Olh7rwCz3pTGYo40girs0VpAWEwcG5Dq2BQgb2ftfDAf0pGabO9s+UkdQg7pU1sfHl1+/A1ZgHvspEiYgUyklOeoDVz393U+GJN2VWGS4JTFn4yNHYNtHrMt91aO4oABlU0CusE1YN4aR8ViYorFiWFmU2Qh1MoUjnyANdRJQrniOZ3OP3lRpNBf2NTkMB7NiqJsDp08sMmzaaOUiS3vqPdqtybHO/Dx9242JgkpR7J1k4DmpoMv9XGJHAKo4JQUSxK3dkA8xWwqrrBzLcOg1hUylq0jxrpgEldnpvtJWRiHYNY1WCQR3a1Yb/65XhuQyWY+jq8JcagY2SVXCg9oHJ3JYNzFMGUbb2Bi9LM0O1kYx9nM1yVGdFMQFk06hcbjmDahw1jvb1jBR5M0pOTokvFeGiZ8usRXXl4ZHRCzBCWn0iiGDCKQRtXesCQbnDOXLgomhqCajHIy6dOhql1xJqezIFWmIo78mOEcvNoJmM/auTbSbC1PdTa9KrWwUUOjCjYSk4qpzBbL9SDmwQ3YmNbCPNp71KxG48DdgAkKSlwjnBw5YNzOTMCyP2RWNZE7jlSXdyDR0sDS01MAo7zi2KkF1kUkhGvLsdJRFMTi1Nuym1F6gA297it9t8a4Z2U3bQQvJNKQksNRJpLx7zASDSdHOiNIOsWGNgvYeILJFHoYhlAClNzsBpVzzRlqjZAJvfw5/CdFbhk8ayIZMpagG58tGbB6NLADsHC6qSitHYXQK2VzAzaIGZUlIYZWY2RIlASRPqALrZKNtVixzBIoBqjkgkWFtTrGbISVgRqazZu6Oqq7tdTfOezIkBlK9jMCpzCadIJsiPMilJ7rPbBdmBvmMMuRGqGfF1XspLVEfvMIhzi0sFljLV+jGT1BAX4nPQ3h7Su2blWmYALe/Q633P2iTVdL8cMIsp/rCcsQREVUy9Lk0steIOnT5Ae/Fh5OERqBQAAoAdOgwkn4PS0eD/0f4/sdIwVedAC/IDz6YgOf4x9Nl0swEAYqqqXGsFWOptFkgqrVy2vqcOvSXiX0h+wjkURrfaEuqhjz0AnfugFiQCBW4wQyUCxqAk7BiCqrHLGLYNeyMiCwQwoUOZFEYR/YOpy87TkfR2hOWCMI9Ou4JTsspsMFawVegaFg1uNsdZ3gwWALlokZkojswFew3eLrISX7vgTbKKXHeYUGQK7FmdkBR17ORhqBjp2Gl9DjVQJXv2AtHC8Ebs1g6m7Y6lfuNCjMQqrzLhJFIAI3UrQ2scmzC0gf9PnaaOZVVXlKR6QSSJGY7N9YrKxqirVQgUG6whMk2jMwx9iygBxekkg9m+mNhKFo6FAA1VpI54JyBc1GjFisrIGimWwUYg9n2g5HYkKTdHVXPEXzXEc3HNLIZ9UvZhHEiJ4juiowNm5ONiDd0cVsnTs64x6Qu0kUuYjsGI2TTdorlTsJe6F2IoE0JCcCeEZeSWNIxZrQt0KFa9hXPY7nxbzwnw5JMw4iRQKjCaksHSQF71E3soFbVXniyeB8FjhRQKBA58q8r/zOJO3wejp8CfxS6OfRngK5dRsCx5kcud0L6WTiSoNP5/DCSgjy+eFo7PT5HDRSRok/ToWjN/n8MeffWv8A0rmf8P8AYx49CK3T7see/Wt/SuZ/w/2MeKw7PP1fy/kf+qGRlzMxXn2J/wDNcWg2fbq5J6Bv3H9+Kz9TUIfNTAmvqb/70xbTcLU7lj8r/wA8JlTb4NWhlBYuQHmp9XiL+I/H44YTJQu/jf7/AN5xJxwVByY+XMfEf5Y03BYh7QN+IO3xH5GM7xNnpR1EF0QWYEnpfu/A7fq8sD8zkVkZUdTIWNIFC6romrZ0A2HMkb1seRm3FuERBC3saQTqHLxs3/DENDgPH2paAEnTLoY6kNA6XQ3ZFnu1prc3yEMbUhNXqYfsteXwJ5iYs4DuHGlCBPO81MQ7L3dja2h0re1c7YAlwr6QrBI49SEmmdOzU6moBFdg1sug6Qd9QDA7EqcJUw/RpIkSEBArSgEOSCd37NvrA7wgBCynv1ya8Pps7qKsjySqb1Mi9lH3l5Pp0KaRIB35XPSu6AdjR86m0BJ4cjbF4njOgvpjMgBAW70ooCg+VbjA7MZMjLSMsegSZlYqdY9SqKtRMW7QA6e8pULufMmJ+HkJBD2aIj641CgSM5YhjTFSDTQBtht2ntd6w2j4YrB+0kjlJj+tijnV3eSMDs6dkZzRDMyRMeSgDmMdFUCU78BR+HqcpGojtmsF1CkxHdWNsQAFWhtZIPIgjDedZcyUkkysMiyykrmWUKJGj0KUKox+qGhwEYjWGJoEb5NlptDRJnsuUUSAspkWSTsii6TCrd5jZ0KbLaSas3hf/VPZI8RTeM64sysPfYk6UDqW1pH2W5QAE72NhqSKcVTHnKMnaHWa4WTF2/bP23fjQtHpAChl7MIwDMuhqDliToBu0GIdm9Us0RRf55BfP2XDo41M7MwUhwCxBpLqziXTDLSKunNq+tuyHYwssr9xtUsetm7gfT7NUA2/TAL0TkE0/a0FVYwAoo6QAFQEhQSa1DVV1sSavHO0rY+GEcmRRXRMuD5BYlCpy578yepJB5+84Z+k3pCIUZI+9mNOyjet6LWNtv0SQTXhhHP8QZ0PYsNG1OCBrZX+tjDb6W0DnVkNYsDGs1lIQ7LY0ZlXSqp1VxrSUgRyUupDHWzatOoL0SPJ6Go1Cj8MRl6P5NByg7T61U1hmZmEitcp7MikDEqTp21+YwQmEE6ho5XQujOD3ZP043Yq/ftC7gm7GonkQS0z8Bjb6xDG6e1Hq3Vv0hp2ZT4nkP0d7yPjGj2yryhSqAr3ijKQ6qQD7XeXugd2r06QcLu9TE4+ULHt4V0yrG8BO7gXEAZFJ7SNrZAqaq+FtghHP3Vl75SNSdAKs8RZFYFWUkyIPqyy3qGmt6wwy2baI0ndZIAFjUhtTAnTchCjvJSkFRRRG3BOGU3ElQ6oxppgJIxRMWqnVo1ZtCCQlFbbbV4jaqISCnGD2hk0lXn+r7Vg50tCYmYMtqL0mQHV7vEMcRXikEmalj7PV2kqaJCCQCEYhixBHtAjnfIYcO9t2SyBVLsyBQLqdSjgEXehlYqLrv8AuGJf6N8EECc9Tn2mIBvwF/mzhG+TXp8G5W+jrgnCEy66RZY1qYiy1bcx+rEijVemx8OX3YYOhH2Qf1/d+GHGUa6sEfePvAxyR6MuuBwuXOr3ePL7uR+/C6Ej3+e38P1Y7WTwII/PTGyoP5/NYbozOV9nJO9dfA/n9WPPnrU/pTMf4f7GPHoKRdule/f9ePPnrS/pTMf4f7GPFIVZk1fyL3DPqT/3ubb/AIJ8f00xcYPgb8+f4HFNepdqzU3L+Z6/20xcZfxFee/3/jgT7KaT6YnK+9cvh88cmQ9Sa/P5vCkhvY8vz+f3YF8WkdFpAWc7InMs2/LrtzN9AcTNqquQJ6SZ8tqSMgBSA5K2GLHSIwDsQSe8TdC+e4COSyh1PEidmwB1DLprikqtWvLldDAWLOheY72Bon0fVS6kePMRvKJAxZRbWx0aWYapAaUg95aJBBxKcxkwjyazpIsMGVVISWis1fXMqhkYUQG23IwUmjzcuT9yTv8AABbKLILOWR1JBL5SZUs8wWhmOknnsknlhfPRzShgJs4HYDvtkZNagFCAsiEkbxpZDb6B5krPMilMuIVXMsRepSpVL1MxpdY1LaqK1HUuwPss8+hgBd3mKyR/VuiPKo7q0zKVpCzmgrkjvMdwBqZc+CMuPJv0IykeXnlaUjtK7utQrkOKdu8zNvpANkbGiAMCPS7M5VIu3fhixZiQnQWGykEnvovdLsACFI21GyQNz+VzGZly0TGGIxyOQ4j1assS4jYsxNJIWaggAK9bClcIZjgcrmWPNvACgcwQxuz2wW9IebvgA6LCVy32NYDVO2daapGZ7gsY7MPnMzlx2ep4oeW3tNsL2LAWSWrkcBOH592yGaljUqRG9LbGlNEtqbc7W19ed74PcJz+YeBQxkiKohdCiFgSxAAZwVU9mocB7PfXfkcagyYVmSUsRMrJKWYtrNEFix/SUWANqjoHmoW67G23deSPpxeLLLlyjWqQvsu5ZpBFoobnkjn+5iOejOdcmSKFG1ySk7ar0HcAadwQNRJANAHbGphNkZJsmqhp3YRoxWyYm16yvgTSAnpTDocSv0c4XHFCiam1BRbJYNh2fuuo1LZarBHIi6w80lGjsU5KVoIcBiRpo40pd3LmJXaOYx1RHZsvdDU+tWUagLXkMIZDONJGZXqRpQ8jlrcmtljAYm6UV8L3JxvKO2ZmUQKnY5YMQSgaPWAdMe9hmLUTuSLJJsgHrOZVkkYwGMhnOvLykBkZmjUyLJH3QzNJq0LsBe/TCuPw0jlN7rYx4PlZ51jhl3VyXSN4TJo7+txpUAgsUosxC6WcWLolOB8KQo5JCgRnUIkQFtbs9X3jcbKdLA2t7HbcHxGHMRP9In7BDEzhITc3aFX0SBjqUtpLRdzewL5AgmoTJMxlyjpPGWBCu3ZSKXmEQNoAFEkmptJAoeJ5FptCpxT56GX0dHRpIwwQs0xWUaGZhYckgag9BiD7O9kG9wfpRw6SJtL+zItqWUBnjIqiF6gspsgWaPTaV/RHmCNmCsEClhIwkMrsUfQ6EbUurTqCnWVPuNLcbybysszoY4YwViVh3TZ0uSNtIYbBiqkitRsVgbXGLYdylJJAn0Z4YxImlALlFCihttbEDzNDyvriY5ZQB4eX4YA8G4kshdOTIfYI+yeVDrXs7eA8cGYpK23HxsfLn8sIvU9qCWxKPQ8VSfA2cPoqA0navHfCMCULI+K7/cNx9+Flk25gj8/LFEiM5WJyJvW4P56412jAb7/cfwP3Yx9twfgfz+axoSb0e6cEFCscwOwO/hy+7FA+tM3xTMf4f7GPF6lR0+7ofL/LFEes+/8AWeYvn9X+xjw0OzJrFUF7hf1Nf71N/wAn/wB0/PXyxbxND8/kH5H3YqL1Lg/Spq6Q/wDumLcd63OxwJrkrovpiGbziQqWdlReRY7D5c793P34BZvMLM6SQZiOTTJeleybVENJ0KkrrpJINkr12O2GfFM527XJl2MNgQy62Ckt9pFUU/I2t7CtgThbh/opFMgkI1AbkyRRHu6mUWWKVdGvaba6Aq53bBnnfCfAKkzSPO8UgVMxKymCFnVlUIrL2UjoxCiVGZFFmgqk9MK5hcyqLDCMwDuogfKyawCTqRpEXs5RZ/nSQaHTe4h6RcO09rSaeyYKAtjv33QAQGHdIsUD1POsSCL6fkzBmHzDyMgSYQtI5ARywWwaHeCsBz99Ye01yY3FqVoM5Hht20kxSWMsLVw/YtoaWUMSSJGEQOpd0AKoLLal3wmXMSMwkmK9pGJIlfT3Qmt0BUaUaQOIGa62VhyBwjB6Q8GCJoXNqw7bXl9m7VswgibU7+AAo7chYwX4PxSPiEPYSTJDmVAZUzB7SOZSLQsTpYScwdBXfcA1Q5p+BU1/kgPxLj6uplV1ErZcQt2esyTuWQiWUmFEXRpJXmbbbBabOTMmVzDwwSTyIxjdtQ0ko2piBdl1QMQpXZvM4UTgWYzTmJMtFCVepJo82jogIFkRhNZcA2obrRPhh5m58mZ1izOZiyv0JkdI0ZSCq9qgTVdkmLsrUKCLO5s1yjJ/MFuMflBEGdVIyM1mYUmMrSFZXIUynu6iUSv5sFNFkAUNiu4/0g4usZMSSIWbSsdSxuK0ppbuudIUmWnIvSR1x3lPS3IRGXMvFmpp5kMfYSC8uV206QwoJSg0bI3GIPxfjS5iMQw5ODLl2CyNFX1pBB7oIBVQRZBauWDsXk7dJdBz0KyuWzWdkbMStKt9nEjpITLYChgyKd6U7bGgSepxNn4FkmkMGXhkzOg6W+vmMSEdKdmD11VVOI/6Jwnh8eZYoBKMoxhcr7Jslz7z2dG+qr54kOTdF7KKl7NsuskYX+bLMTrdlBAbnEACSB2oNYFp8g2tcCHHMqskUeXklOW1SaUSABQNJYBeRrkRzAvwui19FVhmllgjbtFgDgSZi5C7BSoLJYVVDVSLzFWb5GV7NAHYRugtxqWtNBncjswAqqFNLsTVbb4D8L9IYqTMdn2KyySdmWXT2zONTlgFUKrGlDDVR6kJskb5HlSaArQdjD2k+Y7UmdYQsaIgqyxZigJZhuApOxk8aOGXFMsqCNkjCaJBq5oW59kWK0aJCAE8iwOJXmeMRqrx5fKFnLa2LxoUiYlNUg0+1MKWr00U8RWGXD8nHPC0DWZK0uLvUV7oYsL3cAV4GNRzwOVTGVNNDjJ56GQxlIgJ0UWGPtVsWWQ2C2/tHY8jpOnSVzfpCIYblIQuSFD/AGzZWljFvdiu7qXYAMRiuMxC+WlKFyGu9xs6jYOB0atmKkGxfeB3lK8dTLFZDI8faKJJZY9GttUrxQxB3R9EUSIdgu587w8F6sTI+LSEuCcFzCvJxCXLNloIonZlcaTJe5qPmoAF78yF38JdlkBII3/ff8MAfTPJ5nPjsxm5HKRNIqC1GYiR9Myuqd3tVJFMNnDDZcLeiHElmy6VdoFUk/aoUCPvFeOOkjXosj5gyWQtt5dR0xuWIHfrXMGj+fccNIZiOf4/eN/3DDokEeH7+mCjRJUxIEjnv7x+8Df4j5Y6JsCqYdOvy/hWNMPf+ev5OEWSzY2vmR18x1/NYHAaOtAvqP1fP/LzxRPrOH8pz3/9f7GPF5NmSPaBPvG4+XP4C8UZ6zGB4lORuO5+yTDw7MutT/bXuF/U2azUv/J9/wCmnhi0c+GnJyyHSXRmaQ/8ONSA7GvcaH5Bqj1TZkR5iZ2oKIdyenfT88jiYZGzKksksyy5jUEXLkdoyjdgjM4GlRWzWSwYBdsJk+YGCe3B9+Rg0cCJcOYjlY6dLdnp+1di6ZSaA0gMaN+TTinFdeUOXdyEsFlBYOmktS0OftMBYqtyO6uJJwHj0WWMZZdUaoyrQ9ljpZXCljuynfw1V1xCvR3Ktmc9JLNbjd1Eh9rmVJCsAaF8+7vvd1hIryK2+qslnoxwFZzNmc+SjEfVISwCOtIA7AEggIgsjqcJrMkc8QzLI6ppvszpHM2F1EEgN9rbYVsDeDLsgjVhHrnkf67WsmpYip0urL9XqKAsSTuSdtqAbiHpFlMpAytE8jM7KQCy7Ek6z0bbSoVrFKf0jhatg6RFeITzJmpJcvDGpYsNBUtoAauTbgmr5Aj3XWCnpB6PK7xxp2naMwXtyR2cpZVLMmkDSi2OpFA3vg/6PZbsYgJNPZlVJ+rfUJ2kQM2utWhFYKADybcbElT0iysK5YEs7ZlmZWCiMBEUl9+6O6VGzGwdXwwzfPAO+yvRw6Zc39FyuYdLYo0jkxCx7bMdR2899wMKD0Jn7TQh7VzIyBdLhiwJ3F7FWFkNq5Ak1iT8LSHL6yw7SeSWRe2Yio0j+qCbmwXkujtYA8DRP0g4uYpI58tPGsepFiVUYSrS07yMykFgbU89Sv4Dd3J9CKK7IxnMo7SLl440iljQRuwKtqZhrkbexsAAoHs0e9vhDh/Dg06upKRpKsUZO43Ns7EsCAbuxeoAjkLBHh+Xkk7RIU0yOS0zBNKxLqoUq0BYs2OlttscP/S7gwgyYKG+zYkUH9mkCglhWvXrHc7tV5lL8I0SSjFevbDpzvY5jLzSq7R6XSYODr7OU9mS6H2aZA1b90jc3jri/DHyYWKK5MuPrMuQxIkjP87CSDvSlmHkjD2e6L4LxWORY2eX7GyhFBYnYajq2UDVyBsk7jSMHuG52CDhH0mQsYmnJVNRIjpmUBSfZs3ZJAN+/Bx04mbKmpI6Xjq3ExJfvFn1BKKlCqOFG+6uGIIvZuYwz4twLL5pmOZb6hmUrRYdmaYM4e6a72FcxXPbAzhmnMxsIonVXsRPOQGmKAuRGFJ+rQAlpLIIAUDc4fZfgasoCBRLGxpJd43HsSROB9nerAsHSwuzZa59Dl0/IIzjJKZGAGlpJa77d0El12VelknnuDhHKkMoZH3s0qKzXaxgghitjc+PzwUiWK2ki70RcoyuSCjrqBVxrUBlvck0y94dQEkyRuo949m7updIvLlu8kBsCjuW5Ub33KOHeSEGcXss1H9YAO657wLLqvVVg0fb68zvYLST0daBxFBxCJXYnRHmUUyCzbKp3WQFhdadj4NeAq5t4+8gUyKFplKnTYiFEJbmgjbNXI4Y5j0tZptbaNSklQ8VGMljQQ2dJC0t+CjwGE5XXRVJSJhwr0gymRV5ZMyM3mzGYo44Y27lsWcEc9TSEFmaiaAA6YZejEIhjQnVUpA1c1Dlbq+Y3NAnwJ8MQfgOad828scSMxYsEbTpJ1WBbbAmj8cWpLw15oYoomUyWe6GIRAF1HS2o6VBFAIdJK8qGC3zQYPY96CKMRV+PX9Wr8cOons0OfgfzR/DAjgvEkljVlkV+hZbFsNm2PLfp9+H5YcvDl4fw+G3Lnhkeg/iVjnX47bfn8nGEDp/D+GEmY9e8P8AuHkeR/X5Y3EQRYNj5V+H8PfgMFG2Tx2PnzxRXrM/pKf+50r/AISdMXq5/jt+78MUV6zD/KU/9z9kmHx9mPW/TXuHfUnwaHN5qeOdNSiAsNyCD2iAEFSCDucTv0j9HJ8hG0kMjTRIGKodAliLCiUcrZUjYqpQ1yJOId6gZQuczBP/AMc/tI8TP1gcYMh+jxtufaIPsr+OBlaTI6bHLIqRXc2bOYJlY3EgFbAagt6QFAHIEiiSffZxLeFR9lw3MtZjnmp+1jCt3LsRHvAgdL/rAGzsRYEUQMWl7SMkdmwUhhWknV15nryHLB3hIhGUknmO+kq7G1UIhQaiIyjOzsygBmF0SWxJc9GnUVBbPTv3GHBFWGOWfMPq0CytsQFATZYwyhiS53JoaSaO9ActHHxDOLBAznL/AM5pIPcuu5zLVqYbAtVNQIxzxLM9qVUS64hHq16dOlTRUMLPe3YUSfZuzqNl/QfImMTOC0UkqaUKKBKikKVdBIwsUGUkNe5IO2GVIjKL22P342IIHLZePtCq9kkisqKVIEwIvZ+6CBtVbVWBGb4vF9CDSsTOwjWCLXSpeq3LMTYBJDAnb3dCckqJOElkMMdBS8jh3YBzrdmUlQw06e8dgQBtzz0O9AhxFpc0zSQwaiMtRBNCu8bG42ArY8x0GOirYsm0rH3ookUEEzMqzNDG4iMqHQSu+pq1FQ4YPZAPfPiMRfMlM2UcQRrK7qqZeBQASQDR8Ab5myaezS4L+kvD8xw3SsyR/R3cCSbLqV1L0tAaVudACrO94GejxaCaPNyZeTLRM2qBzRRSxsEsx6ra97oR7zgnRaXJJ+GxfQYMzl5muSY9nK0LAPGTbDS2kgLpK908gBz3AzN51II2XNZcJGIu6r2mtFZKCldw2oLYNHc2NxhXiOcjhUZjRH2sxDnQqLqIbWrhL1FWkO7dde5qqi/DeFzZrNiRIu0V5GlYFmIs2CVttgpHtcrQDpuraCot3Ib+h+oJJFLaC2Yx6TZLIOxINgdwjcMCN/E4k3Bs9Nk5o4BKqQzPE00RCssYm+0NSgKWCksBYF3zw4yOX1zGJYyKTSWYrShAe+SXsgigWBb2gT4YjWZ9IIc6pQsNagaUOolt1DKrE1QG4FA7X03RTkpW1wM4KUaT5LEyXB5I8/n85PdohSPqqQkFtQ6CkCgKOba/G8RLJZmVpMvNEp/2w5lkQ/YMTHSAarUUtaOxIHK8J8P9Kp6GWnzSvlpPqXl7jMiuGRVd6s0T8L3Oxsl/qPM5dNUhVpMnl85KkgPdkaViVYAGwtOSR0Kj3E6GkzIt0WMs5E8n+15VQzMo7fL2azCCqYdQ6n2W9oHbc7M2OYUQiS+0getMh0lkP1f1RDKwUqkfIAAjkSOTvgL/AEeAhe8Yvo5NFif9oy6N77bteV33ZSDsMCuN5yOCbtl0nKT0maRT3e8bE6Dfe21DqeRvUxISrhjN7uUB/SieJqaPvgE1alQvfIYba4nB1DdCmyjx3iugk2TZPO+uLN9G+B9kkvaEMzOy6gKtFYqORNg7kX0IxCeK8PMMhRhVcveOmE3+D0semqO5ieUmCIaIVgwb2b1jkR7q2OJ9wvjxhjiKRSzK5Z5ZSTpiWO9KDSO61d4Ekbv1vFeRxcjW18vH3YW4LmJO1ESxl3sEIoU77EWzGgPMHC0nyLmhXfCZaWSdNAzLHSkriNmJLFpmAKA0Nu7Qv+z8CYUjbp0rCHoX6DuYwuekBSwRBGSoBU6kLuCCxB6bC/HBjjGQOXfb2TyO5+Bvn994amlZ2ny8vG/wMkawaN+7y35fwxvTuCux8b38efI8+R/hhNgCbuj93587Hvwsw6NsfmPPHWjUzQn56unWj8iOh/zxR3rLP8pT0b9jl/ykxeDR34nwN1Xx8PPbzxR3rIWuIzj+x0r/AISYpj7MWvS/bXuOPVxn3iml7MW7xaR7u+ps/LE8yGQcsBReVztfJmPj4fuGId6pYtWYmFX9TuNv018RWLv9EuGjUZtPK1UG9v0iLvy5+OJ5Y7pFdFlji07l55Irxf1VygGTLza3ay6SbWTz0sOQ6aSPjius5m8xE75R4nSRzpMbbc/aNg3R0i67p0g70MelM1mAoPuxUPGp2zWcDIuo7xxVz3PePkfH3HHSqJDBilmlz15I7l+BTshiy2XM2khpivQdF3Nm69kb1e2+CXAc1lRK4lUx63BkR+S2frFpyW0rV9CBv0xcPo1whcpAFFFj3navaY8z+oD3AYhfrW4Rl8wgOgDMWNMi7NQO9kcxV88dtqNs6UnlyVBcdIg6ZabMZiOKSZZZXkK643ZkUNp2QHujQEdu6AN1G9bXvlljy8SxpSqihQPcBQxTP0WWNoJ4d3ha9B+0CNJ38d/44kU/HczON4+xvaywJP8AZqxf5rCrJXg1ZNE3UU+EP+LqOJZtctzhiIeXwNeyvxO3/V1AxNs5FEISrqpQLRUgVXkemIH6ts0iCe6DdqQb50AAP1X8ThX009JNf1Ue6/bIP/bfTDQmqvyQyaaUsixx6RWvFMuxl0oWYDuIxALRZYPSi6s2SFBNmvjVh5LPJBM8JU2ipFI+ldLF4tRj07CtAFBa8B0uPei8HamfNNCzAaREoQs7d8IKF8tTWTWym7rCnpFxSUO8OoIkSlm72oqF02UU3RUkAMB9lqut5O3yDLtUtkekOuLcNhhSadpFgiiKUgQlbB7NE0jqdAsi6uzq5iE8C9HElV5WPZuxQRlmpVU2GclRuQBuu1lqw54ZE2btRK3YIwFsxpyGXTdKAQuoHcDc1zotYOZ4aoiiUJEBHC5lBhDtLIqgowkrSEsajup5Vh+eiPC5IXleEmXLSPmJAAGCAMQo0XbvRFPTG9IokmyfEXkePNk2gYZx58uu75YOdOi2jdKDEezbAHaqwS9Jc2Ey2h+1aRz2ahTaWFjOhzQNuHNcgAlAc8MvRj0ejWF9SRu5UDUQjlCTZZQzBXDKCAQdjvvgxdcnS+LgI8Xlyiwq2SzAftpsstMw1JHF2iKpUnX3A8Ysjops4H5bhxmlzUIP1PbzqB1VBIKIvobI67rhwmWy+Q4jGXRhAzNGwcqSqSqFtiu3dY2fD9ZXgXDDG+YJ3LSsBZ3pWNm+luXPTYjDydoOmxbsv+wtGgG1cuXjttzHP40MCfSjg3bIGj3defQsv6j58ueC+o9dx4MN/gf8zh9logBvz/rePnvv5774ntPZk6KlaLpX3YJ8AWmZk9sAH3kDn8Rz8rwf9K+DFT2ir3Se8N9j4/H4nyxHsnM0Th15g7fvHgfLEJWuGXjCM42i3fRL0gSUBSaYDx5+/Emz0AmiZDzrY+BxT6ITU+W2J3ZORB60Onl8sSngPpjQ0yghhtVGz8MVhkriR5eo0rT3QOZVKkhu6VO/OvD4fmsLRPWxG3vr8/Ly3xmcm7SRnUczyPI7AfPy+XXDdH6V/dP7iP3YerLrlcjgxmxpPw6++vH4fdij/WSf5Rn/ALn7JMXepB5dN66j4eHl5DFIesk/yjP/AHOt/wDCTrimPsw6/wCmvf8AsIeqx9M07XRWAkc+epeo5eeL54LxiMZePvi9Ivcc63++8UX6owDmZg3IwkGzX20+Hz2xPpuA3ydwOlCifhdH4fLCZpSUuCujxQyYKk65Cnpb6SWOyjYam578h/HA71cNGM3MXoGNFCgnqxOo/IKOV7nCZ4OlEAWRzO5N+LKd/wBWBs3o7I0naxuVbkas7f8AkPjtidNu/Ju/ZgsTgnV+S1OJcaVVO42xAJs208jSdBsB4fx93uw2hyJ5SyOTfJvYJ+Gx+P3YIQ5XcAivAiz8iO9XlqGDJyb+IXDgjhuh1lEDnfavHn+Bw+lh+N8xsCfxwnGlAbDTy5j4f1T9xx0Y62BJ/qm/1Hf44KXoBytgfN8GiLmQalbqFYqG8wD+rAb0qZI4wi91nOkXyAPtEdeW3LryOJdLIK71CvzzwpwD0Sgzd5jMxiRW/m1bkF5A+Z534acDbzR2TNsxuTI80v0bRE+ZUZho1k7J03VXBXUH2GqhZSqHPoMQr04NGEpOzSyqAI130RUQu43s77DocTH1l+jL5MQvDM8kWoJ2ch1NHZoaGO+neqN0DiCejeT7bP8AclSIpsJG3og2xUMCCaDABqAsb7b027WeRblHd9yU8OlXKQwPqUEQPCjiTu9+yzGPSSXCnY6q5bXgzlM+zGOCBgzT0GJJ0qxDkg017LZat2Lc/tYZekMolzE0isqqHYWAH7M6AA4UbEKwskdQefWM57M6XGjMGfs4h2klvs41HUpY6uuwPg3TE+SkY26rsF5nMM+eCxziVIZNXa1pDHVWohg10W5kG9zizcznkihSss8sckal59dRLT9mE0bhjuTo2AB25bVt6ueC/S8wwJUMwJQHqRTMed8r8dz05gtmMx20hUGTRG1NqQg7P7QF0XOgmzzsjxw0+HSQseVy+Qr6V8QTMtlIgGQCMxOh7Ps3Y0WdSpLlmNcwN9ODWXUKAByG3l/H3jAThbpNM8oYsqHQA1kK4ADgaqFCl3WvLB/SD/C/vHtDy35YFvyelpcahG15F4ffy+78/PzwSjoLQ3BHLmPz7gThpFGVG3Tbf8enxwoxANnY9eX+Xzwy+w8uTU6/Z2KkVRoqR+r9XkesT4r6PnUTEDv9g9PienuPwGJcknOx8fzf7/hhFhfKuW3Ue+uvyJ9+FmlLspjm4PgB+jmQkjDdopCk7Kbu+pG9j83WDQ2/rD/ury5EeX342Dpocx4NyPkeXy+RxqOidrB/RPPzHj9x8T0wFGlQJScnZ1Eo5qduo8fdv+o4VK3sR/n+v5/PphOt7qjysc/iK38iL8B1wuXGxNV0Ycv/AOfLlhhGxNgeu/v6j9X7ifLFJ+sdr4jObv2N/wDCTF3i+vn+fzR64pD1kf0jP/c/ZJimLswfqH017/2FvVALzUu9fVf+6YtlkrYfGv3g7XiqPU7p+kzarrseYAP20+7FrSRgd5Gse7evhzHlgZWr5K6B/wAS/Ik0I235fGvLfUPgfhhaNOpN9Lvl/eHL+8B54bPna5oT7xuPPb8Bjhc2x3XbwP8AHwwnBu2yY7kywY7738GP6w334TTKaT3Go/omh/2na/I/DCXbE89/L8KKn5fHCqzVtd30IJv+6e9/0kj3Y7cLUkKMaPe7p/SF/eOfzvHWna1II91VfkTV/wDThOPMhhXht3uQ9wYUV+OnCUmX3BBKt58/71UR5geeDw+gV6mlTt5Uy+/f9rfcIB3vAgnlvfPniw4tMaDoAKAHTwxUPFOJy5PNJPpB7mnwsXZ25Xy3G22JHJ6bxyREpu1XpHQ+/wABhFPa3ZDVYJz27eiN+tH0gtmF+wKXw1n8Pxwxy3C48jkoZQxmOZbcLoOhCp+sthe5oHegHrnWCfoZwBc7mGzM66oYyVUMNpHOzsQeg5VysnC/pj6A9hG8nDyyhqZ8vfdYAkjQTy3309aHKqLJWjNnajJQXS/5gmfJXlDmZ8yYy8hWAJvrkY6TtsNJIoiuSnfxBeksawZXs09uUhSQTudru+YA2HOgemCvCH1RJrvQpLIhHsMbDGjuDz+JJ57lTgvAk4ln9LDVl4F746MzdB8K+WFj2aFjePE5Pz0N/QvgEjocxG6xxwj25WZACASGDKb62TsK23BOOXzEss+iizKSZJu0D2duzIYbaVUCvEk+WJd6R+gM0GXlj4fKTBIKkyshsHx0SMCQfcfn0xGPRPh5hj3VkO4MZoaSCQdxz2HMkcz44aaozaaP7k/sghlgsYCadKjYaR4nfbr8zz5YNZOIGiCCB1HT9Vfd5HCMGUD3y26cj8Ry/wDHzwqmVKnmQR1HP8R94wFTPWk1VIe697B3HPlt57D/ALgPjjl9+ny514lf3g4SizTfaF/1gaO/lsfuJx07ht1N1vXIj4bb+/bzwWmiVcmuzIFruvzH535GscKRy5H39f3dDzxjNR22Pjy8efu/tfM4VFHYj5A/evMeY5+GOUvUJxIdN6uX5/y3vzGEpFBHluPd4Uenx28DjcikAEUw/PKvz7scBgetEb17/wA+Bx33QUhTtq2cFgOZ5MvmDzH4fawtDJsSpBHLb9RB/f8ANcJB7O/MDp7/AAobfD5dcYikEEbEdR4e8bgjyse68KuwNDpNvZ2932fdXVb/AMh1xR/rJP8AKM+1ex4f/wCSeG2LtSTbehfX7J8eu36vG+WKS9ZA/lGf+5+yT8/uHLFsfZ52vX8a9/7HPq0cjMOQSDoHL+2uLg4kNNkbEAbjbxvGYzCZfqI0fp/0Y+7Hc6jShrcsL9/PDDMDce9qPvHgcZjMJj7NUOjQHPzb9QrDVdyb35c/hjMZjpdlo+Ryx7it111fWttr8MOoR9Yy/Z03XS/GvHGYzAff/fYk/InNErqysoZdANEAi9t6PXEQz6BIbUBTpJsbb7+GMxmK/wCTKYumWl6EoBkMtQA+qXl7xvhXjR7p/snGYzCv5UeKvqMrCDlL7n293e6YknqcUdnmDW5zD2fHfGYzC4+z0df9MnnFDsfLFZSDvv5n/wAsZjMHJ8xH9O+VhJP5tj1Civdh04uIE89F3765+eMxmBHr8mifa9xsvJPeln3m+Z8cMHYiyOYYAe7ly8MaxmKw7KRCGd2APUICD4Hez546kFdpW1aarpZ3rwvGYzEI9CR6X/eTZH1oHQjf37Lz8eZ+eGcg2B/qn7gaxvGY7H2NHx7f2dSDc/n7Jx1qOi730yb+Xs/LpjMZhxmKj2yOmi/jp5+eKT9YgriE/mv7NcbxmK4Tzf1L6a91/pn/2Q==</t>
+  </si>
+  <si>
+    <t>Tranquil Tone Productions is a haven for those seeking refuge from the cacophony of the outside world. Here, amidst the gentle hum of analog equipment and the soft glow of vintage lamps, artists find solace in the purity of sound. With a meticulous attention to detail and a commitment to sonic perfection, they specialize in capturing the essence of every performance with warmth and clarity. Tranquil Tone Productions offers a respite from the hustle and bustle of modern life, inviting artists to immerse themselves in the timeless beauty of music.</t>
+  </si>
+  <si>
+    <t>Flourish Mehendi Studio</t>
   </si>
   <si>
     <t>Sudama Nagar, Indore</t>
   </si>
   <si>
-    <t>https://shaadiwish.com/blog/wp-content/uploads/2019/05/9-682x1024.jpeg</t>
-  </si>
-  <si>
-    <t>Whimsical Wedding Wardrobe</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExMVFhUXGBoYFxYYGBgXGBoYFxcXGhgYGBoYHSggGBolHh4XITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lICUvLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAPYAzQMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAgMEBgcBAAj/xABCEAACAgAEBAQDBgMGBQMFAAABAgMRAAQSIQUiMUEGE1FhMnGBBxQjQpGxUqHBYnKCwtHwJDND4fEWU6IVY4OSsv/EABkBAAMBAQEAAAAAAAAAAAAAAAECAwQABf/EACgRAAICAgICAQQCAwEAAAAAAAABAhEDIRIxIkFRBBMycWGRM4GhI//aAAwDAQACEQMRAD8AzrNcMLfC66uwvY+2BcmuNtLgqf5H5HFx8P8AC/vTkPII1Xc7bm+wGDnGvCELQ8jl2HQHr9Mc9q0aH/5y4szuLPYkDMXgfnci0RPcA7+o+eG45sJyfssop9BKQ4biiaR1jXdnOkfXEc5oAYt32WcLabMmarCcq/3m/wC374WUqVnKJrfgTgq5eEAdFAW/U9zi0pGO2I+VgpQg6Dr7nviYFCiz2xmStk5SG5TWw6nClFDCI7PMe+FE4olRO7YiRqxmHjvxWkWZEQGtkWyuoL15j2+Ku23zxomflCKWJ2AJJ9hucYrl8wczM0kkCtGA8zE0x1yHk1elIKA7CsTnVbNOBbstcHiK01RZad6qwVCEg0eQMbc0b2Fe4xHh8Wu8xjSEltRBgIKTIoFiR2bk0nba+46454e49FIGAk1GqfYhrIvl7+1DEHjCNHnMvJByyuJC6iLX+H1PmEEayDoGkGx89sZccoybTjRukmt2WPh/FlmLJpaORdyjUdumpSpIYfLp3w+2KNxOWV3TMFJJSzEBssJIwihWA3emJLUTe3LWCmX45PGoOZiGn4dcVubA3Zlocpo7j0OEyYvaHhMLZptsV7JjVnYh15gf03wZz0w02NwRsfn0xB8K5YyZov2X98Y8avJRom6g2aEkK+mEsjLuNxhaA4ciFnHoVZ5t0OJmB0YVhObcKhbYgYVmJlA5gPbFF8QcUMzmKM8g+IjufQe2KSfFCQg5ukRuNcSOZbSqgIOp/iP9B++HMllqGO5HJ0MExGO2MtOTtm5VFUhtVrA3jDbr9f6YIyvQ3wE4xLZX6/0wYupUCSuJnwzhFFTR9RthxuOz6g3mGxt7fX1wMF46Me0jz5+Ttkpp9ZJJ5j1Pr88RM5kwd0FN3Xsf7uF6sIlzAGxwG7FSoFMDdVvj6J+yrgvk5OM6eYizY/M3X9OmKJ4N8J2UnnW5XI8tD2B6Mw9cbrk4QihRsAMZ5yUvFAm6VjscdYYmbU2nsOuF5iWh79sNwLWOSoz3Y6MNO2Fu2GrwGxkimfaln/KyE1EgsAgI/tkA/wAsZdwmHyii5cTTRsYxIyv5YLWxZUOxo7fQHf0vf2pfjaIAVvmk36ci0L/XAHgE8fnKnP5TdW6KTen02UGwPa/TEp5OK0bsOPRKyozEWqOLKwuW1mECQF0JBIViykPW+9j0vAo8TdZkzCzyySwxESRyKqr5hdEeNQuyqNQLEdlH0N5TKCK5PM0ukkgjBIbzBqUh3bop2elvYED1xD4nwhEi81IJEMkjMHtSVZydQK2AEABU2CKu7vCRmrafsu4jPiPMTZGV5HdtEzqyxRkeUGv8QNqFgEWQy1Zu8Ss1xfy9MEgbUxoAjtuQdXTp/XA2DOcsjTiCdcuNojY1xmh5iFy1kbrpAob9LxFymQmnMZEiojh5YlLGVlVdIESsaKEWbrCZcUZpOXr2PCTjoJQuEiZNxodgFPYXage1EHFr8F5TTHqPU/13/wBMZvwLKytmQjyM7O3OLvlC7E+/bG0ZTL6FC+n74nHDxm5XdgzZPFIk3hcbAAk4arEfjWaCLXarPyxoiZJALxNxUnlX4m2HsO5wMyGUoYahBlkMh7nb2HbBqKLbGacuTNeOKghCbdOuFthZjwiRqGFuh+yHmG7YD8Trlr3/AKYMvucCOLobX6/0wIbkGX4mZK+2EOccxzVj2rPOPasF/CPC/vOZVSOROd/p0H1P7YCTPi+fZ9w/8BnB55Wpa+Ll26fO8SySqI8Vs0vwtk/MnMh6Rjb0s9MXcihgdwHh3kQhT8R3b5nD+ezOhSe52GExwpbMmafKWhJNm+w2+uHRhvLLSgdcO1WHZNDUmGZDQJw8z4hcTnCoe3+g3OJsouzKvFWaL58kJqWEJZJoUSSQL62b/T2w4Y59oYY9QdXnAsHVbCgSdlUWK9hsL3wMi4iZZCaMn4jE0hcFCWIHIDXUbn097wZyU8iqBIJigvYxSD5bpdD5g1jO7vo9KOkkP5jJRzGL8TyZIRIjlBchDLS6SLF3RLH+DbY4ecxSA5fynliR1kUaq3jrZ6vl6Gj10nCODZ9I3UrUhplkKtqcCyVOk09gUOl8p9cR+BVAA5kV2UgSIi6VWzIXUaqLfENz6EnC7S36D2Dszl4s0AI8uoRlDL8INITZRiB1AI6d7HbASV4Uk1rG8QMRBYsSVY1pfcWjGq+oxbZY8vC6ujSNLqZuYgakdrOkA7gbKD7VimceMKq0MSyq5vUX3ZmJWro/mI/ngx74qx1tXRZfsh4XrllzBFINkF3uaLbnrWw/XGoyrRwI8CcH+65SOPvVk+pO5wczA2w0nbbM0nbIwI3J6DfGf+NfEDBvJiXzJCbYC6A6hSegJ64sniXinkxsRu3RV/iY/CP6n2xnEHB5p5beUhWJMvbUerfQbfTHcoxVS9hxwcnfwTMjxSfMMY4NMRChm1KHKBhsWJYAetAHELh/HGjikkWfmvSsQDz262AbY2us+lCsRcxlkkzCx3l1Ziq6JGcS6Qo5XZOTV2AO/S98Wrh8sazMgARVb/lrSk7bNtv0229MdllHElopBSk3sLcM4vFMgKyISANYuip72p3Xf1xJkFixiv8AHeFxSFXVY/MQF9JoRmmUnzdrZavc98M8H4mkAibzSYZVdvKA1LDRB5aGoRiyCTsNumJqEZq4j8nF0w5IK7YD8afdfr/TFmkcV2II6/PFZ4sgsX7/ANMJGFSQzlcTLBJhl3wgthBOPV7MZ5jjfPso4EqxJMw3QUv94jc4xDw9lvNzUKdQXWx7A2f5DH05wAqkQGy2Sf8AxhJraROWSouvYcZsQy2okmiBsMO5mYaaHU7Yai22wTGLiGFSNhwLhmcYVjRGdWKr9oWf8vKv1tqQAdTr61/h1HFprGYfaPnVaZI3aljHmHSSDqawAxHTlB2Hr1GJmjHHYDyWYnKVEI1qgFAZ1otpF6CAu99iNjZwTXO5hWADQkUxOrzITUZ0ll8syaxdjpYI3G4w1DFGCXMSEgc7FFdtNWSWMlsK/bHIM7kJE8tZEjDdVBlyo3/u0p+tjE04/Brpk1eIrMH8/LsRFRaTQzotiwRKoDxmupYCu9Ye0sv/ACZGlVl+EsC9EWPLl6S+ulzdb2NscbKvrRw4Ol9TFlXWzaSgYSKPLZ/hNFBqKi274F/dhCCIFVXQxh1KsiuZH2Zgzsvl/EA6XRAFkDc0mtHXXZJ4hMswRjIE0RFS4VtTsjApHVcgHNqU0bPfAzh+Q+98RDqyslq7qLsEBaDe5I/+OH8/nxRk2DrtILVwdtm1Ls9Xs3dbB3G1l+zfhOkPOQAXINDoBpAH17/XC7QzdRL3CtAD0w3mWoYVK9YrXjXjq5XLMxPO/JH/AHmB3+gs/TCrZFbZRPGGc+95krHMEXLtzHfdqOs1301p+pxGynDhMhjDa5V0mEsQTudrJNLsNVCiaOI/CU8gCSR11FtIStWoAnmJ6kEb9+tntg9mmEUUarpVNLOpS2lLR2XBrmve9V1uu3oJyd0v9GmMUkcgSRstNEMrGolDu8rkgW5NsodAWOxIW9tt6qxX3LX91hECeYqm51dllfQOo1KN+9GxsRt1xc5OF+fHG8bkSK416mOmttRYd+W6U7Wd+mIT5CGILBLJrHxJJHsyPdctdBVL17D3x33X2xVH4AKcc8o+XHHmJCy6ld4mfoSGJQVqCmuhI3xCiRzETlsuvnbXNGwUMshIfUri+zAqfhPyxOlmEEhEDyFFAXmuQpIrBzy3uGPxKpvcEDAfNZ+anaOm1O3mUrxrrkKkBAw1UALN18WLRSUfFCu29ll4bxRgTl5Qqsqgx6CSpQCqDEczL3r1GCycJEiK7g0SdPyFWf8AfpiscJyk02YhVdwAS17gKxANV0Oxo++NV4tEFSIDsD/lx2KKk+TJ/UZOC4o+Zc3k2jqypBFqQdiPbERgcW7xJ4WmysbI34io4IK81K6/mr4TivcP4e+YkWOIWzGvl6k+gGNdkKvosP2Y8OZ82Ja5YgST7sKA+fXG85OD8FdR36j6nFJ4LwpcpCIYxZq5DsCW9caDCtRop9B17Gt8RtSloTKuEEhWUQgWeuJ6L0OGY16EdMSRhzOjzHEZ2s4eY7YY74WTHQ1nZgiEk0K3J2AAG5/TGDNnTNmHzFEM7kMpADaCwRAp0kWFAsg/xDveNP8AtOz/AJeTdVJ1SERKAaJLm2r30hv67YzfgaoFtiPLvUCxIZaUFkUE/DuaPcj5YVulZqwRthHj8jR5QRxoS8vKFUEkRjdzt0FaRf8AbOI//oPM03PEWXTS0xBsDVqb8uk2OhujWJ2Q4jHJxFicwieTGYlRv+oXH4lOSFVgaAHfQMTZPFqZeXQ+oSPKeg5QG6MSasUVH0OIS5QSpWaV5NlP4pk8zwyfyvNolQw035bA2DatsehB2wb4Xxtc3GyMHR1FakLKRq6GN7tSa+A9arpsbT4kePM5aYvIsUbIgMzAEDyyWGn1LMaob1fqLofCcu0OTJ28ybnPsoFj+W/1OGu42cu6Z3M5LzswkSA24CNWy6FUEnfr3N3+esbdwrICKJVAqgNvpihfZlw4zSNmHAr4F+hOo/K6/njS8w9CsGXWyE5b4og5k1vjIvGuc+95ohAGWDkF2QxYjzCuxrTVX7HGgeMeL/d4GcfH0Qf2j0/Tc/TGbcKhVUJaBWq9iEkYgdSOa69Ol9rxNWtotBIK8MjD+VDIm8ZDr+RW62jFlBIujQHarxN4Pnx5mlah+JVSgWULpDAgkld9Hfod604VAIr0AtE5/JZBP/4pNiP7u/vh8xFEKkJp3tlUlQSbJZDzx79SLHriTT6LWReE5wGcpmDqLMwetWhXBAZNXRtJI326t6Y9DwmWNnlkk8sK0pQO+qUgMgQ2eikBjpAFcvzw5nc6VhAsUx1ciWrUC5csvUHSfn6HEXjMLHyfKUsWEgMZ7lUsNIfQChXctv0wVvSXYP2znGmh1NmFkfzG3VByqKWitGid9Rv1Ptiv5jOjz5I2BHmsrRqBZDn8u3S+U7+uCPGlURqhkCPEXBrdjYBCge5qz7e+C3gXw6Hb75ICGN6AeldNdep6D6nvh8ceXYuSXFWWnwhwIQRl3X8R92N3XooP8Kjb9Tidxpq0bn83+XBOAjpYxC8QJXl9D8X+XGuC+Dzskr2zGvDvj4MohnWx+GFQcqHQerN1Njt7YPJl0gmfyogPMJ/5a0aPQC/6Yy/wrlvMzUQommBIHtvj6T8GZDTF5rqBI5JFgWFGwF/zwuZW+KL4ZxhBzkr9IT4Z8OiNRJLZY0Qrdh21epwWmILGuva/54fzWY5a2/37YRCB1Jw0YqKpGPJNzlbHYhQwu8cVgfX9KwmQ9h9cczkjjteEMOmPNfTCMzIF2P8A2A7kn0woxnH2i50tPFCCOX8QkgHmYlV033A1b9tYwOy/mf8AvyL9UrpfeEXtv16Yh8QzUuZzEswmKK5NBEX4ACo52Bu19AN/fElFnG4zjdxpkhRkpmDMGI0UDVGt62wjl/JvhCo9Cs1wtZQfMihm6bmPynPylhL37XpGK7L4bVHR4iY2sFIszTROf4UmjOg/K79xiyPnMwCWmy6zAklpcqxElF1s+WakIVBQG474k5XPxzxs0bCVekkRX8RdTlUSRaqVtidNdu+xwVKS/k6kAeKcakzLJk2y5gJszhgjgxrRHlPViyCAfUjfEHxBJqNUjEbKm5IYijygHbmWtuowc4jDpTUGuPcjcs0XqykmzHQ5kPQbgkLyMeBuEfec4GcKwiJYnSd5DpANtYoaWbY9STjlTaa6ObcYu+zU/CPCxlstGgHRRf8AX+d4nZh+pxKalXFX8Y8YGWy7PdN0Ta7dtl2G5rrXoMJLbozw+SjeLeJLPmzGXpYT2JvXsW2UHpsPmMOZHLwsxCuS9C41cWN9YOhwCu5vlo7++A3CCIY5MzICxVb3JJdz336amIG3ZvbALhfhPO5wjMCl8yRyZGbSVKnmcjrWrYV32x0YXezU5caVF1PDGSrUSW27CNNSAk2xidW7UOWzyjYb25FxBkBYsz0C2lCjaFugiOrWxNGlYG+m2A7cQ4hw9FbOIJYdZjDhvxQRuCDsaIHRhv3wWy+YgzKtLEyksKZ9O5ogqMxHsWogEOKI7EDYhpr8uvkKlfRLkWwzIvlsa1xupVTdGnU7xuezDY9ebbAubPkLO3mOpAJ0NsQ6rujG972N72K6928+WTQWJV1jPSQFS7ltdhyS8NKCBtWo/mBAh5h2nKBFIkchSh2YEWwDX3VgaPcNeJygUjKjvBODtm5VDAhVcs9/ERVKo/hB3PyxsmRgVECLQCgADtQGBfhzgYy8fS2bdmO5Zj1Yn/ewwey8XfGiCrRizT5Oz0cY/MP5YF+IIl5K/tf5cGw3rgP4hX4P8X+XGhGSRin2U5WhNMRvYQfuf6Y31CAqiugA/ljGfs8ywOTjXprcnb+9QH8sbQB0vE27kymRVFIajis2ar98PBbNVtjtdML6dscSR5qGEIld9/fCh73eIXF+MwZZdc0gUdh1ZvZVG5wBkTWFDfGefaL4lKqctA1MwPmld2VN9tujMAcN8e8VTSggn7rFdbn8XvuT8xRCWffcYpv3uKcymNGHllTVbuFKmz0ssVYe+sdMI2asWHdsRLkvKCxgqrllWzpoSSEb2R0Vd9zXIdheL5w/g0UaVSokX/MlEhANLtv0PqSfrZxWc2RFNFmAwKK4kLLzAIwkBIKmtg7Ha/gODnGssksZR18yKi56qOffzO3QUA24G/rjNJ3Vmx30hH3NZSTlpo56Fkoy2CTQsqdLHrVgV+43iOTMjB78rNIdKzVz2VIKOL5tjW99eU9AYPhTgr5PPQvDJcUjGNkOz6WBIsdGqgbHpg/42zaxuGA3LaLP8IViR+oH64d+LXF9gT5akBW4kXDpIvl5hKLIoJSRSdIeL+z/AMta69b33GgfZ/wQZbLrYAY7t35jVi+9UF/w4pnh7InNZlJK2hJonrbrWm+9bn6L741YIEUAdAKxW1VmfM98RE8l4yTx/wAT8/Nrl1J0x7tV/wDM5TQI6MF7/wBojrjT+I5pYonkboqkn6C8ZPli8haTWoMjMxBhLLZN78wP88JH2w447Gs8C+ZymUjdFYMJ21EgMUNogofExDGvcYtg4ugnKs4VgdSqx02ST69SPTtrOK5muCRS80sAciqmyrESAqNjoO5qh01nA3juRmlKuW++RI3OUUJmlAvZh0Zhd9LNbgYMsKnFRuh1OpNtGi8bVMzH5bRxuTZVWoi9JCs221Xd+gNYybwPwthNNJroRXGHRjpLm9wfzKAC36YM8V8UQR5bRAfPMoMbAs6SLY/MtaiL9Gq/XDsGX+6ZVIwLarYert8Z+QPLfojYEVOGOpdsNRlPXoRxDNrIjLsGXV60HrceyuNiPUewxa/s78Pkg5iXUS55Q3UJQA6k3dX16EDFR8LcJOazWg35abyDWX6kaU36fC1+30xt2ViCqFWiAK9MNGNaJ5snpDsZ/Kf+2Ho1ratvbCUT1GOMCvQ7YqlRjbsW6X0wF8QD4P8AF/lwdjcNgJ4lDDRvfxf5cUiI+gR4G8KHKZWETgecq/CNwpJvf1bFtVPXCnNt61++HLwKA229jWn5448lCyQAOpNDCpXrFF4nxdM3MYtjFGwIvpJIpsEDuq1t6kEi9IOFk6Q+ODm6QS8SeIzHBK8I3VSQ5A/UKSB9SQMZbxOMeRqlLtdeYxOqTTqXUQX6kBmxd/EB/wCHlVdOogaS66lBFEEr39a9QNjimidJoWW2ba99iVYb3udyCp+Z9sR53s9HHhSTB/DHhKZktC7JJy5eWUdzYA1n4W1FTqG3Lvg1w3gi5dDys89c8lk0aGpEC8pQGiGNGz86Excdll8nX5UcUEqIyrzSudOlW0Nsy7/T6YIz50xlwbW2PcLR1MxBKmlsEH9cHLaQ+JWxST6fwWNAkGI3Q9THbE6VvdAo6mu26JJ3jUwsGlgNoEUhWQE8yAn8m3wkgDsa2wKzJVlYn4VBY2RpI2vRtRPXb/zj3Ds5JpACpOgFKdw4FUKoE0N9j1PU4i03s0OKWmWyLxJAgXRE4IAAVISu1UQWvQKFb39cV3xNM8g850CgLSoDdIDZZiOrHbfp0onc4KZXPWLWGcE7jeH+PYEk2OU/riDxJy7xRMAgklRaNtJITIACxNeqkgWOS77Y7GvLr/tkpJJWjSPs+4Mcvlkv46tv77cz/vX0xZcw2HYkCqB2AxBz+aCAuzBVAJJPQAdz7YrM8+O3ZUPtAzzFEgQxjXbMX6aVIoadQuzXf8vviqQpIBvl4JV6M0D6XC2ovmpbChqGvqScNZlp83mpMxuIwxSNTQtV23HoL7/mbtWJ/BMs03OGYKdoQQHvSNnYMdS6uo0kbAd7vrUVs0xi0j0OcikYKrMkzUPKmBRtyx2arKoi2Xtgeg64dY6yNasGoaHFCQKdxpZdnSt9JHTcph3i+RGkpIYZ1HxDUH0k9SwALxn+1zVXbrgXM0mXU6S00FW0TEPJHq0qZYm380BQQoJNbUTRo0vQb+ROZycXnLJJGplU2kyjSsjUaEijpIOo62RsTuoE8WzbSMVCqSSoRTu+qyKA9SK6e/rvPzGaBF6taSCwbuxsdJI/6ijTZHceosHfAPh3zZfvcos1Sn1okFyPVhVV745K3bOk1COi2+BeA/dMuoNFzuxHSz1r26AewxYhCCb6e+FqKFDDoGHSswuR4Mfn++Fqwb/v1wjHWQN16+o64cQTVHArxKT+H/i/y4KMxXZtx2b/AFwH8RWNH+L/AC4MXsDJsM/NucTXloe/pge7pENt2xXPFvGzBATZ1vyjsfegOnz98K5Ugwg5OkQvF3iol/u8chQXTzVyE/8AtLJ8Kn1JI9BitzRmMlUjIVI71B7HKRq2fmvvW4FdMVOfiLRBqNEjcbUb6gr0IO93hfBMzPnf+Fiu6JDE7JHsGLN10rsvuCB2GJpPJtHowUcK2GIOKxojlpGLsQXJa/h+EAHYbemAuazOiTWn5+cbk3Y5h7BQAPr8sE/FXCIYZIIEKjy4y7M9W5ZjbOf8PTsOmDOZ8MnMxJq8tdItCnuAa27HbEnFY573ZeGTnBSRnOfyLOwkOy3ua6C99vb09sSo+MlT5SqJwuysAysVok2BuTv19sE6VIyjEFtwwvo42Ir0uxeJPDIxoBjCxafioGyQGFk9Tyk30/0q5qqkif23y5RdWB8jIMza5uXyYo1B0gadTaTTUbtiP1sYX4e4i0+ZysczLoQeWoKEiq2BCEFiTX8sG8zmgoLlQWgXzELfxcnKTY1BlKjuRpoY4OFyZ7O3LEco0cSu2hudrbkbUdlPqx6BcPFponK4y2ywwKKKszI423ZgDXxbE9b/AEGE5ZFkzmUSv+vqHSyFikN2RZApd77+4wK/+u6cv50kaSVI8QaKXS7laCMUG9UGJYmyWusGPAMjzZmSZ08tI1qJAbIMrEsW9X0qo39cQWPjLkymTJyg0adxTiCQxlnYKoFkk0BWMxzvHH4hTqNOV1MF5udmSzzrW3SwCfSxuMRPtB4vmJ3Iy71FlyXkIO7Mg5tNiuQX1/NZ7DEXgn3WUD7jDOmkXI8hKoWCk6GfUVZ236gdbBHTD8U4WZ8a4yoK5FF8hBuLaWMkXQbzTqu9ge+x7dMK4SHkyqRswDFDETp0kEUrAup6bFfY9jviMsgBeIlQJaeN/wD7gG6lidgwHRQSxL+mE5eaaN2CXR/5sDWuqty1qCUNncdCe4s4nJX1+zTQEzfCQJzLCXimjkoyRryqwA6rQHzKkgg9N8WbjmYWNkk0aS4jDIq/9VhzFewPqO4Bx1OKT6NISQMW2JniVFXV0A1sx22HpiAkcsjgvTFSzBEtiSdQt2aixAYgcoHNdmgMFylKrFikiJwXIedmfJQfhy/iGvy6SNQX0BsEe7E+2NlyGUWJAiigB6ft7YrH2eZFaln23kZFIA6R0pr5sCfmcXRBviqVmTNO3Xo6Ews47hLYp0ZjzLhBXHQ+O3jgnL7EWMA/ESldA6jmr/44NNtgP4jlA8vb+L/LhkBkvOSQQKZJPhHckfOsYn4z8YR5qYuNkUVGg9OpY/PGi+O/Br5+IaJikiK2hTujFq2bupNVq7BjtjJsj9mPFJHCtl/LF7u7oFA9eViT9AcI8fLsthnGG32V+pMzMqRqWdzSoNzZ/wB7ntjafCPhscOyzKzBppOZyAD0GyJ3oep6k4keE/CEPD1pSJJjs8xFE/2VG+lfbvW/sjxfxJo4yVZVoqupgT8bBSQF6tR29xisUorQmXI8rooPEY1zGbTMEPGj03OQW0qACNO4UDba/wAxxpkeQiZdRlJX2IA/l0xSuE8GJjV1iCtE+lnlYmQwiySpXcbEEWe1dMFcpkoWm8t2WWMnYbaGFAjlBIYWRjDkfJ2z1YR4x4r0QvFPCsvlpUl0qEksG7NyCqJPZdOv5lh9IfllywApWADbE8wq/hxdePZAzxMgIUn4DWrSw3DV7dfpgRmvCcEaM8mYlVQLJtQAAmlex2U23uxBPTC8oyVBi3ErmZympGj8zlf4wBINQBsA72RiP/8ARI9RZ3LMRRLliSB2OqWiOnXbFsyXgTLtR1zBQAFAYbUAARy/Nvcmze1Ot4VykUqxasxb6mVtYCppACqe5PMSOttZPbFIutJiSkm+irgZaGPoFvuOh67Ug5h1Bs4d4Rxcx5ZjGCHmdhHt0NUW9tKDYep+eCninI5bJQM6IpkICRsxLNqIKj4ifUkn3PriHBwP/g4pmBHldNW/Ka5go6szBRR/iF9MCrVgbIWdyEa5SaN815LFCUUlAJKFlbI1HVy7Ag8w67jD3h2MR5XKoNhKvmMaUEnWN20sddEgAkD/AElcViDxqGiSRoySqSfDZBA1V8yvzKn8uKf4U4uMvGRmElEIdvLdV5VlCksjfxseUcxIAvbvhknLG0uxW1HJbLfNk3I0yqec8qiyRupB9Rv3G4I29o/kzIoUMs0fQCQN5ijpSyRA2fi3ZVNnfpgLxfxvCiuuVR2ZgQJHCqBYWmVNwT8QIYVVYZj4Q/DghlUSyZpSiKGKmOS1ok/m+IAkdCDjoYppb/oE80W9f2Wf71K6kJBEDRovLK4UnzATpEZ6Eoe3wYazayOD5koCm/woFESnUWNagWdhu/8AB8R3xD4PB9zmGXzUyymdaXUCfLcMNNampUYk2xAvTt64tL6tFaSwNEEAlSCWKHlvUuxq9Ox98JNuL0ho1Lsm/Z9xECSXJhVVY0SRNJBBDEhth0o6bBJNk3i9xbHbGXeFeIxx8Vjy5a3MMiHrSm0kVRvXwgnauo69tTrForpmLNXJjmsd9jhL/wC6xxtxhG49x6YoRo7d+h/f9McBHY44QD0NHCXF9dj6/wCvrjjhevAfxCfg/wAX+XBNwcA/EB+Devi/y4aJzRZkjA7YhcRzdco6/tiWenU4HTxBuo+vfAsSgVPNpF/y9T2GK1xiISSDLTHyw4sSWA7SHfRF1ohaN1+bbFqzCom7EBVGpmboAOpJPTbGa5fPeeZZIpR5juzoQ0bvGSRp0gnUo00NvU+px0paL/TwuVk/jGTbQ00MMzSx/hOr7JInaQIT8J3IoeoxVuEZx5SSsaxrB1KkjbVt+l9fTFm4txBq1ymZ2CeUUQ6QxkU0GQUVewa+Lv6jEfg3hZYYImlyylZkqZ5ZAmhiQUoG6s7evS8QcU0ejGbiw9k/FsRC6g2qq6fzxF434hM6+XEAAxIux2BO97KD74ovEopVzX3cCPRG45o010rEBdRAJOxAwY43w14ElXy5XMZWVXkGhV9dPqB6V3+WJfaopzi2EMl4/cLR0fFoshuvpY2OHc3nROgkabdpBGAo1Nd1uE+Be/8A5o1nwbDqYTSZdZblU63NhU7kIATY2ODviziiQRZuOOWBCTGyLDHRHmDcMx2s1e2++H+2uVCPJSuir8bl87NiPcpEwBNlhfXezt6Y2Xh3F8s0NmRFUDmBIXT+uM28DcDqJpTH504eOTRdAJIoJMhYUToLHTud/XB3hGYRM+Y3RV0tygHlGpRp0g9rx2TxpIWC+4m/ZzifDmysoQkeWQBET0IChQjX8TEKxb1B9jgXmeAQ5h9TtIsdFzECdLyjYFge9AqSNyN9qONC8QcNXNx+WTR6qw+JWIIsehokfXFMDmPUkgpkbRJp6XSuGBPorJ+3QYRtryiGK5LjIGS8GyTah91Cgg0VZrpmBtWJokAFRYHXEPimZysDmPPRzTNo1QSjUDoYkrpBK6SDY1ad6vB9YDIunVqG2nSDWw6dAf1/eziIBEAwZRrUBec77XQBFtVDvho5X72CWFNa0VXw3N92kSSQDMJmF51X8WRBYA1g7EkWCp7E4cyHCsw+rTPJDCW1IgkJIUWFHxBQQprriRxXi4VdShdS+9iiNtqG/e8OcPgzc6KxZYVcgCVyB1oLQ62STXTFHOT2lQVihHTdhbwvkIsnMkiLZDLqlY/lsa6JA2q+m3vjarxl8XhgINUzGQ3YQbL7X3Y0B1NXjTh0G1e3p7YEH3bMn1KVqhatjxHp+mENhTYqmZTlVjpv5jHNVYQzDtsf5YKOEyRkbjp6YA+IW1FLUgjUNvpgyc5vp6HAnjrtUZG5Or9Nq/rgp7OaZYJ9h88QpGC7k48zg2QK/u8v7bYjTSH1B9jsT9emEbCkAvGeY05fy+UtMwQ6iK0jmbqRewAr+1iqzcJhcDzoVY/FygxSlV1MaBrcsdRII2/kz4s4/G+bdGyyOsX4epwp32L1qU1R26Hpe2B2Yz8Mak5ZzEV5jl2JaJ635VYkIfRlIIq9I6hW7dI24oVHaGMnG6ZxY/NeZYPxAoPMGH/R1ObAsVfY1sLxa+GyQSiWA5TSjDzz94k1HzD8YF2TpYXYrvgFwPKS+W0peFnmJZkmjYWXICKJLA3tjuCAANsI4rNrC5cxPE0h0EH8QFASHeFtg3Q+lcu2+Odso+JJ8M56aXz5ppNCzpo1QIGZSg0hqILAEb0Afi7YieKOKpmIIfLaeViWyzMx0hunOUP5jsegHriYMnLCtLonSNDdfgzoFUFqX4WQWAK0ljirpxESZ0NSkJZ0zIxDNuCJFQbHr+U16HBrYLVB/JcHniC+Rmd1/JmBygWK0t1XlDMdJ7qOt4CySHMZz/iohGsC+ZMlhtWkAqlgb2Sqhd61EYs3EONQrEwljMRKmgKlhkK3yqw2sH8pEZG/XpgT4XuPSzOiyzv5hDNGGIQ2lCQi+bf/AAnHJ+6A1fssHCOOsw1JMrKUPmIgUdTdkx/iRgWdyNhisSOrZl/LGgQxWFsuzBdwCRZJojeiaG9WcFPEkSFQZIwkorTIgMciUFVNuumg3Q0S11h3wv4ekijLu8cMk8cv4j7zWCNNIaCitz1PywtJoaMnEP8AAc3I0sSTs6gUy8xGo6bW6O6nfY1dGxtgt4k4IZnV0CktSPqJ0iMEsSoH5ydK36YzkcRM0ylDMzLEjEkgKyr1YBq0nfsN99t8XWHxlGsKtJbONmr17Ek9j1xD8dFnHl5Iby3hfREpzmZKgaVOjkBZrWi55jbNt06J6YKN4Qyqc3l+YBdh2LjSQFoA9gBVehPqbr8viwZwrCjIiudrYcxXeielbXXU4V/6onMVxAupJUMVP5bsAnY9DvZ/phnJicG32APFOVg8yWOKFFe+Uj82tRZ6cpvYj2xGyHFNEf3dnT8PaydItTQJY7CttvleJPhrK6zJmZLoKZWvsN2036n1/wBMQeF+KYYloynseXUACCGB0hNJpt97vbDrHrZzypOkXLgWebMTwosusAhmrS4ITevMXa7A2xpd4zr7PpoMxO08ZVmSPSW06W3YltVAXZPWhjQdWDGPEx/UPlI6xwpWw31x1cOjO0dYkYQJFujsf3w4a74jZlR0YbHo3ce+Gs4XPl79PniteJpGDLvXWh7bV/LFgygPc/2QfX3/AE/fFK+00lZYQTQ0Ej3Ni/6YKYUXdyvU2PpgdPIArOTsAWN7igLxLnzcoXqD8xeAPieSaXKTxoia3jZVK2DZHQe56fXCoZJmQcPzHmiSdr1F3kb+Hc3QHTAqFRLKC7hF1AEkautk7Dcj1+eIC5hk1RnUOzLVGx2IO437YMcPyZWQK2zIBq9dT70fkKGA48LmzbyTSijSMsZAv4bQTquxVLgkAroQS0f/AOyp8xiv5LNpmM08gzBgaPkjDxKyDu9q9qm+xphuDW2K7xfiDR1pYh+oYEhh7beuHshUMVkWd62sse+JfcajyrbDw3RZvEPFnhjKzRgPX4UsRJjY+180R70bB3ojvUeFIERpnO5vfvve+EZTLT5oGNNTWfw07A9yOwHbDfDeC5qeRYWSRFU0xZSoQd+o69aGKOPJVf7AnxYxGZMxKEBNOwWr69rPYkeuCXi/jTpnZkiI8uP8EKVV1IT4rVgQectix+D+GI08k+mooQSo+Q2+ZoX9cZpmJzI7O3xOxY/NjZxTE1LolmfSLFwjPSZiSKMArGjiQorN5Y0m+UEN5d9KG3tjSMnxFE0lIYovLktZpG8w+XJvJTDcHc/EQCAPbFM8D8HjZC0isWJpSkhR1G2oqBV1zHr2Hpibx9njIRZ2ZZDoIdSZowetkUZFAIG92QSCMLPb0NBNLYV4PwwZmXNTlGmDRyCNhUMRUuwoNexsNv0rfEfxLwxoBD5KoqyRdC5clzoA3I6dMHeEtBcEHlvM7ZZ4mQgxRDSAaZGIAvmUNR6nriv8QTzc1lh5CK0EEepBbjXfKpC1daT69flhGkykZyTO+F+GPEMv+Pl7851A06qOlr0kdH2PX1wvisolEcfnySfiTkso0R6QzAg6Rv1rrg5l+KyoIjLIsYWZmcxxDRTahTauZCC25399t8ROBZX7zOHMpdNUmkhQqFfNYk0PUgC/Y47Viyk0tiuLZAQcJmAFaoSa9FOwH6YxQHH0h4gyZmy+ZjAFmB0Wv4mUhf54+bhi+LaMkn5G0/YHlvwszJ6uqD/Ctn/+hjTzY7Yo32IwVw3UPzSuf00j+mL4W3xOfYLsT5gPXC0whlHbCSxXr0wqOaHS1YYnJAqrBw62/TDML81en6bYYWhjOKdq2r/Z/wB+2Kx9o0oYZfULNP8AumLFxfNCNS7mgOp9/Qe+M58R50Zgo7GjR5Qb0jahY64RyploY+Ss1DzPbDE4VFLVv2xOodumIucTUunBQtlO4vlIxUvlpr7vpGs0Cfiq8ZJleJAvI7nd2LfvjfTwoMKaq9sZzxf7Jm81nizCrCzXpZWLrZ6CtmHpZGHaUlTHxzUXZnc+aDSB2HLf8hW3vicc207pFFtrIW/n1+QGNTXwZlPuy5ZkLKDq13Tl+7WOhPSulfLHMj4Uy2VGqBDq6FmJZq9r6fTAlGKV/BSOZt0PcAyXkhEj6KAu/U9yf3P1xNzeWdnO3Uk3friVwuKt/Tb6nc/0wTSLUcZGPYLyXBEy0BUEMu5YdyT29xVD5DGMcZ4BFFM9agqkmjVDuB8hja+PSVpQfM/0/riifaZFEuSEmkCV2WMMNiQLJv12XFcV3SYk6q5bF8CnnWALC2VzcarzRgiNx3O6s6/4pFAwJjvM5nzYxEFjpQmYJG/VxYsCgCbN9NhuBjO45CpBUkMDsQaIPse2Na8PZV4sspKCVGHNJBIXezZOqNyUkNk7Iyt1oY0ShWxYT9DWf4qihllR8vMFBEctMhpAR5bi6cAj0IschxA4NwGMxhp4CzPzEksstF9RK6qBNBRd9ybsi4vjTiMJWGLVriJ1goLKizfl6t0JNBlbpoA7Wx7hHEy0RMMq5qMVqiZFjmX3BACufTUAT0D4SnVrRW7dS2RZ4Zw0cWszRykRh2vzoWIsqSRbxrYBD976Y0rhPCFRF0bBVCKP7K1WKz4Zyglf7wCSG5Y7sGuhLA9SN1BO4Fjfri/1pWvQYWyWR7pdAmCNgsljc39euMz8R/ZqcxLJNlpFQudRicGtR66WHSzvRH1xrN4hpl9NkDbt8sGMmuiTSfZE+zfg0uSySwyVetmoG6DV6e94sklHoaOI2TfkGHWo+xx12D2c1euPCS8IL9j19e+EX8scEclX+Hr6YVAdrO3+g/7/ALYjNKbAq72xI4jD+BIBt+G4+QCn/wA4IpjvizxE+dzwgipoozQUmlZh8TH9sBvEMsqyaaC12WyO2CfDEjiaLZQS257nY98OcbzA8z4CR2IAo9LrGRzuadHrQqMao1pcyPXHmnBOJByAxDfJj3xqPLtMdEmE5kFlIGGBk/QnHRCw6E4IKRCiiLGh/wCMTxkAWFGhjmph1GHIpu+OsNCsxHQodjjsXKv8zhxHvHhFiUolIyorGel1OScZn9rOcbzYIeiLH5nzZ2YE/QL/ADONfmyQ1GgKv9MV/wAZ+FEz6qSxQxWFYAbhuoPtYvFMS4u2CcrVIwMdcEeFcXmyz64XKnuPysPR16MPY4gyJpYj0JF/I4tHgTgH3hpZ3A8rLqXo9HkCkonuLFn6DvjUySdIAcRzhmleUii5sge/++uJvhXLyy5qJIWKsTuw7J+cn1Gm9u+BO5PeyfrZ/rjXvAXhP7qnnSj/AIhx0/8AbU/l/vHv+nrayaihk2y/cHywBFABVFAYKznbEfJIBGOx6n2OFTvtv+vY4yWOxGH1FAYjqcSycchRSURVfphtwR06Y8B6YSXr2P8ALDgG5GB2PXEeQsPfEhlv0v8A30w1pJOmqxxx7Ly7aq9gP3wSzMw8mRj0Ebkj5KcCs62miCaw6mbU5ebUdvKe79NJwIvyDKNpM+fMnnSZIuukCgDsOmDvHc4R5YojYnbcbnAjwzliWFjaxWJ3iTilyALRCivrjNKnlSXo9ZxbgfRLEHbEEpj2PY1niI5oxzSMex7AGEtGMOplRWPY9jjjn3bHgg98ex7ACiN935ib26488Y0lcex7HBMp4j9mCPOxEzKtlmFBjv8Aw30+t4u3BuEQ5aEQxLSDre5YnqzHuTj2PYdSbWzmkmI/9O5ZJPOWCPzSL16RYPqPQ+/XErKDU4H1x7HsLIaIcOwJ9Oo9RhiRwAdtj2xzHsSHEhtNHqP54mNj2PYYVnEbHGx7HsOIMSRdwawrL2Vu9zy/Laz/AKfrj2PYJw3xDlAHXuTjI/FnjZ5RJl4V8uPdXP5mo7jboMex7Cezb9LFPsi+HR+GD3wD4zEUkNm7s49j2M2L/MzW34s//9k=</t>
+  </si>
+  <si>
+    <t>Audio Bliss Solutions is dedicated to the pursuit of sonic perfection, offering a seamless blend of technical expertise and artistic vision. With a team of passionate engineers and producers, they specialize in crafting immersive audio experiences that transport listeners to new realms of consciousness. From lush orchestral arrangements to pulsating electronic beats, their studio is a playground for sonic exploration. Audio Bliss Solutions invites artists to unleash their creativity and embark on a journey of musical discovery.</t>
+  </si>
+  <si>
+    <t>Whimsical Designs</t>
   </si>
   <si>
     <t>Pardesipura, Indore</t>
   </si>
   <si>
-    <t>https://content.jdmagicbox.com/comp/pune/l1/020pxx20.xx20.210929195024.w3l1/catalogue/nauwari-saaz-hadapsar-pune-lehenga-on-hire-dbthtvc64q.jpg</t>
-  </si>
-  <si>
-    <t>Regal Romance Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXGBoXGBcYGBcgGhkbHR0eGRgbGBodHSgiHhomGxgXITEhJSkrLi4uHiAzODMtNygtLisBCgoKDg0OGxAQGi0mICYuLy01LS8tLS0vLS01LS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAL0BCgMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAFBgMEBwIBCAD/xABQEAACAQIEAwYCBwQFCAcJAQABAhEDIQAEEjEFQVEGEyIyYXGBkQcUI0KhscFS0fDxM2KCouEVJFRykpOy0xYXJUNkpOI1RFVjdIOUo9II/8QAGgEAAwEBAQEAAAAAAAAAAAAAAgMEBQEABv/EAC0RAAICAQMDAgQGAwAAAAAAAAECABEDBBIhMUFREyIFMmGhI0JxgcHwJLHx/9oADAMBAAIRAxEAPwDJMllmJvbBdqPLHcwbYmEAXwu45VqQ0ssOmLVPKiMWuF5+mqEMLziI1RFsKD2SI7YQLnOw2wMzVYn2wVSTblilW4Y5boMH0gPfaD8mvjPtjzMr4jhm4P2fd38KO9vuqTf3GK/HOBVUqEdzUHI6lYQfePXCyDumlp8q37jFuMegYJV+E1F8ylWBgqQQR0sb/wA8VquWKmD+GBIIlyFW6Gd5ZPCffFJVwV4fl2ZW0qTBxRFOCQeRwNxaL+IRCGUoKBJxWzlUsdK4vU6BK2xTpHuqgLDCcYu26nxMDVkh67XIcxkCiycUmXB/jWbWoo04CsMWaZmdAXmriSsPtmo/Qnw4ZjKcRos9SmGaiNdNtLiNR8LQY2/PC122ydXK1ylHOZw0xbxV2JnfcR+XLDp//n5fss9/rUvyfCt23zANWqGO9VhPTcA/DD8p2vQmKQzAk9YqLn8z/pWZ/wB8/wC/DZxDhWnJ08xT4lmzUOlWTvXI1G5WZsQI64B5XsxXqOFFwQrFlMgA7/EXJFtjfDpwXsotMU++ZTpek+0tYstRZ28JCsBf44EsJOq5OQYhVq+ZWR9azQIMEGs/xtOO+DnNVqy0/reaUMSA3e1I1QSqkzALQRjT07J5cgvoepUZTqcrGpxU1a7qIDqSG5RiLMcHpJTfuToMhwNQg6HZ0JtBA1abGYjAvkAjMWJ75MVsxwWtTznd1M3ne4KlxFZtYj7rGI81pAMAjHlLhp7ss2ezila7UmHfPEbpp6tYgj+CU4pnu/q5dTLJNSmVuW0lJ1ex6dN7kAH+GZcJTq0e7FIVq0IwMqupUcCOUAEe9sAHJEYVIaKtTgThSTnM7a5YZgkRIHITMmMW04Ci6DVz2dQVDpScyQZuZII2ERy5dYxOjFFzGlyGcfZU/CFarBZQJuZY0gFESZ9sC8qv1iuCw7wgMrU2JJRrAEosFYJbbYgTjg39zCfIv5RzPM1wvS1aM5nyKAJde/bxT5CrAQFMg9Y+OB3E8jWWgtWnnc00ae8JrtALKCFEfenUfQfCW/KCsMs9BQuqogdzUtp1fZsnUldBN+kYAdratNUp0KaFPEGZeWqArRG5JG/+OO7z5nEUseYs5dM7UR6i5rMmmjBW+2eQTtz2JMe+OxUzH+lZrr/TvttO/UEY0Ps7kKSiiFpqWJDISDDldZkk9CwMwLjDHS7PoU0GihK06NNhI8tN+9YbDzMbnBLlgZcLE8NUyThNOrUqor53NJTZtJcVn946A+vLfEPFalRa7pSzmaKK0KTmGaR1kW2xqGe7PUWBASJY1DADqWLlydJJ5AJPSeuAfDOwJP12o8GKTd1AEGofESAANtIH9qOWPeqDO48TAgMe/WJVJ6xYA5vNQTH9O+LzZSpJ/wA+zf8AvnxSyBGoMVLL6focFjmKHSoPhgQx8z6ZNPpiOVEUMrmSTfBapT1C2I8rwsAzgsoEQN8GzCYrUTxBFHJkTiZUO0XxfojecXeFcPao4VVliYUdSdsKCjdcPcdtGU8pQcsoCkk8gD8MP3CeyCqFOd8BcEJT1KG1fP1FuuGTs7wAZRAS0vUCs6mPCwBgLyJkm84W+3efLVh3dRe8gBaaKz1AQSSRpHLmPQi8YqxIhPvNSHUZcqgHGLhXjedq5SnT0wKaFU0q+42EzAMCZieuIMpxWvmKeqn9rEyyMg0urgrBLaSI/IjlgDkstWzUU6iPUKQ5fMEwpYQNOpZvvFzffni4aGXqUs2oovTq0U1GKrqZUFrQORmBBs0AjDTmC0oozOXE2bIzMXAP1/1LvEs1lsw3+dUxTq+TUAZDX3KkjYAyZtikn0dU6qB0zNxqDDwsJB2mbYSjxCuZ1VzUDLAaoNcAztN4kkx1v7tXZjjOXhqFZmy9QFWp1KVTuxUkx5iYLXEyNuVpxzIUIFDn7SzEdTjat3tHA8/qe1wVw7K/VS9KohBkkSN4tIPMWwocUANVyOZnG3Zmn9ap93TqU6ghg6uDyMDUytIIYT62O2MS4hk3p1XSoLqSPlbGbkwMj7r4PbxPoNBnGXIR9/Mu5auFAnElbLJWWRiGlRDATg5w/KBRbGXlyBOR1uQavE28ntEjNZcoYO2CWU4YlVbb4McXyAblhdDvReRtixMzZsftNNJ8epfDx+Waz9BmUalTzoP7VL8nxnnbJicxVG/2r7e5xqH0QZ4VKGaYbju5+TYSqNIu9ap+1UY/j/jh5zMuNXccylMY1GRqPBljsbxCcsEsGVmU2N7Spb3BI+G2GjLZzR3LFNJiamuytIA0jczImIwo5gV0U9ywRiV1NHi0/eCN90kHcYeOH5anSQFFuQCXN2b1Zjc4AZwV3faG+kKtt7eZPl85mHVmSmoLAC4IG4nciZEjbmcCc3wWtpC92xVQYCtRmTNySRa8fAYuHM1C5VaNWBDaz4Etv4iQY+GOafH2D93Uo1QC2kVIVqd7CXUxE8+XPHfULdRB9FV6GIkPl6ldCHSoVDUy4FoI3K6rX5SCRj3hfF64X7Md7FRqqs5iGgEzMWjaT+kl/pPonu0qAXVtJPodp6jUB88Z9wsvVbuh5pkGRpi3UEA73+GHLyLk7ja1TQeFcTSvmqLnLs0kRtpQpDWMjwqyqwBty6Y/dps4y5tqlOlZ00lqbANYlnbw/fOphe87Thcqo0klyh0xVCHxSp0mpYnzXECQReOn7heYKhkjVJuzEjcyyoNiTEkR1PTHdxgenfEJ5/jDOhpCnUarUBUrcLSQAwFMXIF2YyJnFfg/CGzOZDU6neIhB7wsRYWUXUmZB5bCbSMC89xp0U0tKoNLQFgkzYhm3gwefww8dg66pRQVCRUqaqrkzAHIux9AMCxoR2NfdzGDI9nwgXxmVGkeJ/CIiFvawHLFwZWoJ0tuZJm53mZU2vgBxDjb1W0Uqr0Vi8UdTe+qSBb7u+8xhh4TUZkGp1qMp0l1EAwAbjkb7fywO4iN9NTA3FaNRAJUBFJifLJkSziYFzuMNvAUP1enquWEtPOf8Iwqdq+OUxQzFOCSEZSbRJ8MTO9xhw4Rp+r0dAhO7TSOggQMdVb5isntoCfNuYrPk81Xokalp1XTTMQAx0wfaDggO0NDnr/j44bfpI4BR+uvUKXqqrky28aDsf6ownHgNLp/eb9+ONmx3RuX4MWo2AqRR8y/TQdccOVB3x+NOVkHA+oOZOGHiSKIVoLzjDB2LyrVazvsKQ1TBNwQYHwnCpkuI30xM2xo/DsnVTJU2osiuWqOdzJggagOgBN8Hpj+Nz2iNah9CxzfjrUEcc49mKpdF8IUBnPJWg2AJN7b7ze2KNGtQyFVNZZ2dHGw8JgA877kT74qcHoGtmKqlmimDtcl7jbY3OLvBOz/ANoe/IqmQoncESSAskGLAibem+GZ3UmxO6fG6oFJv6w/wntEKiuSCVDWIADzqKpLTDRPw64jyHEKwq1VqMjLVFiqCVIAUbkEqV9efrYDl+EVFquoqhaAqTomANRtG/Pbry3wzcF4UKZKkixibcrYAZECkHr2hHHmbItEBR18mZtxTKVMrUKOoCsZRhOkdIm45D5Hlj05xdMHY/3TyI+Mfh1xpvafs6uYolRc7jGHcQp1aNRqTggiY9f5jBY8m7rPZce3kdJpfYniFZq3gLEhQDJJG0STFpj8RGBfa2hU+tVBVVAx+0lLLpOxE77X9cKXAu0L0XVhMAglZMMByb03Hxw79puPrmMpRfuoZWJYiI0tYj2kj2jFDbsvaT4NmlIZWrngGq5+5lXhCoPNgyGU+XCnljqlJuLqeqnacGOC5Z18xnHyut04RiS37SzUZt/IHWW6y3wL4lw4MDGLfFtXIxjrJIdN8JQlEDgycUVqHPopBo5PiZPIIf7r4EcKH2Y5TJJn1O8Axg/wVdPDuIkcxS/Mj9cBcirCkg5aRy+O8Y082TfhQnvLvhq0WktRLf4/+nDDk+JinlkeNZPgAJ8I06iSYE7D8BthW4lmlQBmnxEKAsEyeg5wJPwwS7L8P73K16Gpg6VKjIxN4eHE8iDJU/HHtNjNbj0lGryiwg69Y1mj9YARlCu+W1EEXXUVsRyEj3t6YXeGce7vvKZpqCSx8/g1AENOtrL4eXra+CPY3iCrTZGMOEZi03aAqqFJ5re3IMp54GZLKUq1BH8Q1SCpcmCDG53Fx8Ti3aO8gsk8Ql2poLWyhPJlVx7WYYScjwKnIMgHrAn54ac3nVTL/VXJLGnU7swLhdlYDnffnbnjPlz1ORFRQCAb96I6jA7GPywvVRfnjpluz9CNlDC/O5mb339cVcx2eUEtrUc7AD4gjb3wFyGeDMFVizcgi1WJ5mMe1uJ0oMmoxn9gLboZPXAjHlJnTqdMoviUuNZKkhgNqPp+F9sGuH1CQ9OhT162RAwBkAIDp0n1Xf8AERhU4pnWDArT0giV1yZHXYSJHrhn4Vnmp0RTXwlxqqbX5wJ28OkR0Hvh4xkDmI9dXJKxm4nwgUe6SoHYlCzMtQAliT4VDHTaV+7eTzwX4Jw9KdDMB6jQrHTUOpG0Mish8JvvIjr8MLVQJVZWUVDrVAFbxGXAEq5YnSGbUFPTFjjBrAuCCAWp1KilTBJpqslTcCUcxykbGMcIhhoA4vmzUp1gaYDMULPJkso8StaC0ruOnrjVewWY7zIUDzC6f9kxjOc1ltdAmQIlmkkzPhUA+mlonr8cOf0RV9WTZP2XP4gH85xzCbYiFqFrGplf6Tst4KNUDZmpn+0NQ/4T88IGNd7b5XXk60boBUH9kyf7urGRNmADEfjiPUrTzR+H5bxV4inkOLlRpbBA5imwmRgAEx61LFu6cOiB6Q/w2kmueQv8sO/ZvMvUymaAqBYMgXkEidci8D4zhB4LTmB1EYKdnc73VeqJAVqbhrdCDB+GofHDcbGjUz82IKyg9jJ+wjNrzJG4NJF631E+I+XkZ9h6Fz4e1kLGnBNR2IGkQDo1K0wFlb2v0uBhf7E05o1CojvKyh9whIUTqj7t7Ac5Hsy0l8IXVbu6jXBBMlmDlzsACZ57+bVhOTkw06QRnQwy5FHTr1KRJGpn7wGR4brfY7GLXBPTJmqeWLuwQszMSIMzcxtFyRtOLNdS9Cmng6tqAI8ExO/hHlCi4O84asrw7vKIV4iSRsbH15878/TYAPEK6NzKsnx5EqDvszmBq20ydV48Nr3tbE/HciudhqTrVi2raqI5OD5vwOHRewq6gdUqp8PhWV5+E8sH8vwChRWyKD1gT88MLeIFC+Z8zcUybUahVhGO8tn20il90kSPT06HD/8ASrwkGpTZB4iSCOo/njP66hH0wJU39CbRh+LISAZLmxAGjDXCM0VqpJsp0t7cj8oxoYC20ncYyfK1Iqjrt7g7Y0Ds9mdab3FsZfxbFab56/bUu5vINU8px3QypQQcSDMlDbEhrFrnGAWeq7ToVdt94V4eP+zeIe1P8zgHlsyLA6bAc2ww8LH/AGfn/wD7X/FhUzPgUseQ6Lf2xsom/Cg+n8mX6FgqsTBXbXPAhaIifOSOQ5Xi2D/Y7ind1TRZkaqaTDSkmWS4uSZY6muYnCZVBZu8zCuFqKdOnSptZTcQRO/XF/snmTTLqB4liqsmNiNQ3i4gbc98ayYAmLbMl9Z6moLdv4jhwfhZ7ymK4akNVMtIHhLKxBINgjlWQk+gIGO6nAcxQr1BS7zuQV0srBdSMVJA1WJClhsbjFqrxkVyrCyxpUyQSJBHrcgGAJ2xKnERcr1FwAN+pJN79B8sCGMrKAd4K7UZLRXpUWqlqTLqNQooKEmFlkAWxCkn0wgZ7UH7tkVWpyhgC5UkEnqfXGj180LysetifwiAdtsZ3xshazxzPym52+IjDcJ5qRa5PYCJZZfq7o9GvLaA2pLFSZBXc3AxzladNkql6hVlWUWCdZ6Ty5b9ccim9I0ajqpVxrUEghgCPMOW4tianl3zFSs1Omos9UqCAFWZIExtIGHzL5gtgXemha0hRN9IJkwOlyYxqPC6dCmBopKx5vVksfWwKr7EW64znJZk95TWFgTBgTczvh6yhi0kNF9XmiLz1H7wOuEZbupq6ID07MP5RFRmcUUJa5lZUWA8MIqrsPvYG8QBWnJ1a9RfvZmyh9KxJHdS19DNAFxjug0CFMXtBtN42tr6LEAYo8b4kwRrjUYCkc2sFk3kyfNyMRYkYSbloqrlXP5nSrU5EtUMER4gliQoXy6pIIPM4Yvogqw+Yp+zfiR+oxnHG+IvSrrRPdlVVFBUbaRPhJuJDCfzjDz9FtWM43RlP6YLZsy35ED1fVwUeoP2M1LN5YOrIdmUqfYiD+ePn2qChKNupKnbcWOPosjCRxHsGlSrUqftuzf7RJ/XA58Raqh6XOMd3PntRjtscjHr4GfSdBDfA6wVC03AP44ucDywfMupltSE2Em8bDrOBHDBKaBzYScFOAVtOacggHu2AkwL855W1XxUBtTifO6ht2aOXBwaFCmult6jN+z4iY1HeYVWHoBHrdpcWDVLO3huwNjJsGJ9JueUbcsLnFuM0wYU+VdK7hVA2gEyxF41QNt+dPKZh6Z7wiAxCgkhtWoHUInbadiZHOxlYEwwQI5l1ZVGqRLQ2kwY80ifKJuALXg3sVyvH6aBaDtNRpZdINwRIIjbn7R6YWOHZ0sYU2M+AwW2IOgxDQb6bHcEdJAa4qtXWjRabBqlRg5gT5BYGx2n44FQekMAEwjkO1jJUNKtZxz5H1GDFfjSutjjPeN5bMV6y1DRWmq2Z1Y3npIHTfBrKcLFNg+sldNweuBaxxHALdkSn2vEU6mYIJ7tbHoTt8ZxkF/ExNzDH3w+dq3zValmKlDVUy7soYpdYXcC82tMA3JvbCJlqcqT8MVadSF5mfqH3NPckpLzOwJ/Uflhy7L5j7Ujk4DfHnhSp5fuoc9Y/Q4Pdmx9ukevyjCtcgbC36RMfMu6h/F0/HEuYZS3h6YpvS1YlppAx8oSNtQwfbUY+zqBspnFOxaiD7a74UfpPpU6FVMvRZtSjXUk3BPkA+AJ+Iw29mo+p5+TAAQk9I1GfwxlnEuKLma1evWDa6ksumIDbIDP3QAB8MfUfD0BwoSP7Zk2oysilQeso5lR3atrl5gpBsORnFytVqjM0qtVwWOg6pUwpESbESF9Cfjin3q9yymn4y4IqSbAbrp2M47zuXQIhWpqYgl10kaDO07G3MY0ameDRh6jWNOs9OYAYsnIaSTy9CGHsOmGrh6s0Ha4AJPL4+YWG4xmnB8yFzKFizAkLe5J2Xf1xrOWreXSVF/iR7nmCfU74lye1qmzgO9L8StW4dUAPhBHpqi20SB6WnCHx2iquyuIgFlMXJ2i1ot/E40z6wIMzubgMZ5W526b++EvtTkGqsCv3UYnXaAOs3noDgcT++jPavH+CSImUT4l1TptJHvePWMEc13ethRZymyk7kQJke84oGqYC8hfBVxVydUqGQsFglfEsNfmB+WLpgnmSdmxSep4lOoSSbwRyEe/pjS8h3YOldCxGwMGehUxzEmOYxmPZGgGdjrKkRECf4tPyw95HKqlg/mIDajymbwZi52vbEWU+6bukWsQhnMIrAlkBtEgXj3ENMTzO23LCfxuugzFHU4CAGoSeWkQgJQdStxYwD6YbMwbGxjcA3jrO5Yeom0dcZf2izjNVqaTAIKcriQSD18Qn3xzDbP+kLVsExfrJuN5P6xljmk/paZD1QXnwHw0yoPiLCAp5WBw6/RhS+3UyCdImD1AMfKMZz2a7QVMrWFRAC/iAUrIvaCPltyw9/Rfn/8AO9AAOsPUYKIVCOg5CTEe2HOvfxI8eSiB5mzs+Ou8GBr5kbkwBcnoBhLb6QMuTIDQb7DAeqJT6THpMKU49bEdE2x07WwquZ9N6gCWYW4QYBboBGKVbNRVLLyAMj35Y8oZrTI5EYrVyAZG5H8sVr8tT53OQchIjjk+EvB7sh1cS0+gkxCkwZnab2wez2VrijRpuiNTYFWYNMppGtkg2IbqS21hhV4N2krUcifsFeiDCuB4qbcmnpy+EYsZDKVM0q1MvW7u5buWJgkwCUYmxPQ4lZeeYxW44hzNoiRUoXpER94y4vAbayz/AKsTMkg2MllM69U1PEKbGfDAkRv1E7xOLdHPUa1NctmECMLmQFYWiQsGfM177ct8d5ivm6I7xWWtTifD5gOeqnuB63HtgNx7SnGShJhjNwtLxkC22M57W9oHCd3SN38IPQHcj9+GTjvEMnmFWoMy6T5qcqwHy8W9oOE/tRwSsuiukPRjzrBKTMal5SBIO2PY0phui8jkqamg5nJhTl8vRfu0NE6jCQQIXyjwwZ8wsb4zDNZRaderTF1WqQDa8ne1vlgrxntFTq0UPf6agpGl9mILcwH6X6RBws5ZoIG5ifc40ChTj95m48y5V3UbHHPHEI8TyGsUgotI/n+OP3ZcEZlh74t8OzkHSfUrPTp7jFjIUCH71AJEyMSapSyMPpDjRTM47c2wL4bxLWSpEMOWCFRrY+SyYmRtrQxLlKsRwrihBjw0h8CxB/AnGZqVBMLIOwb8JjnzxpGXWeF8T9qH/HhAo1Qjh1Xbk1xMQf1x9ZoB/jrIdafxJwtSEKaVMkHUR4hHQ9DiZ6lPutIQ97qJL6vDpjbT1mb/AMh7l8zoZzpRtSlSGFhPMdIx5lsxoR10oxcASwkr6r0OLpBcF1RZSDcbfnjTuznEW00nHh1KRJFiYEqD152E79LZ5llTUveBit5079B+OG7sNmaj0TSUKVQnVIk31EC7BQBqO8z0N8TZ17zU0OTkrGZqg8qkOukhtRYsVY7EvJFhMHa+F7tnS1qppgsIWAIMLcLZdhAt8f2Thkq5ZD5qiFgCPNqsTcFVUDe8RgRx+m9NDVoZjSwEwZBMD7utehNgcJSgwMtygtjI+kQQ1PuyIY1NQgyNOmDII5mY/jflU7tlNSmSpGoKZXULgEHpPPHdPLqabuagBWIQ7tJAtflPTEdWuahpio50qAgO+lfQY0CeJ8+BzCvY1WDlkVjePCJj3kEbdcPtKtUWO8LKtpOi/wDZhbnbpzv1X+xbLSRypJQuxVtA1MosCQQTy2Aw4rxJRMteJ8SEGOtgPnjOc20+iwikAg/jFJqdOrVDAWJ0+EjSoCqLqGNgbzH65vmker3jyCwVqjGwtIFhtuwAAw89tKNLuGqBQtSymNiCwkC2/wCO/KcZ/nHbSKbLpHnErBMiAZInTG3LD9OOCZnfEGO9V8C4Na6FxMrMzsSbW9Rb44ZexuZfL1lroWcDx1DeSuzT6EHnzAwrZcSGWdwfn/AwX4JnnSmqatK1CFaY8QBIEnlB/iMOYCTFmA47TWPpP4+KOVFJD48xYRyp7ufiCF+J6Yxv6yeuCHanOv3oWq2pqarSETEIIgTy3M85wvGtiYJNZXsXPaO2L2Tyr1JCLM2nkPicRcKybVaiovPf0A3Pyw/cNyHdrJXwr/RqbC+7N/WPrh2LDva+0q1+uGDGErkxEzWSKFlqDSRzO19vnGKOYW0A79f0OHjtXkVryyp4lBLPYctiefXCIuWfVo5dfjuMMdNky8Of1hZ6x14bwyomTpNSqaKjIbN5GDeIqwOKvBuG1laVcU6qHWaZ8hgSpXpMb+uGTMZdlVFC2CgTPW0czIEch88KPG6GY1rz0sSIksq9NgSvOOU4iskkXNHaFANRqo8SSqTQzuoMuokliKiWkFCJ1LC9YOC9CpWy2mord9RYgBkSWXVMhl1G4OqYB5+2FDh/aRXC0c4qso0+IAAwIHnmQY5+mCmXzNXLTUoOGRxAltbKBe+5sGN4Fxt1ArGBoTzvZrK5sa5FJ9IJZSsk7VA1O37JEAWn3jjJ5bN5SVen3tFdQBSTEwNLrAOkhlkaTyuBgl/lehVhkbR4msdCg6rnfxWOoTG3Q3xFmeJ6PErkSZhCyoSdxqYbk8gsn5YDcek7Q6xY7V9l6RQ5rKrpUMDUpzZZ30iBBB3X3NoIwk52QZHI41fLZ+rWqBailJsPs20mTBg8yVBvc9YFsIfaThXc5ipTA8MmPTeR7SDHpirA5PtMlzIPmEo8PzKOIYXHL9QcW++rUiWpkkEQbiY9jgK+UIMA6WGxmJ+OCGWaoaZDMwf7vlveGnDmUMKPSIuNHAMrtUnccvXrg3U2xf7NcBWplEUytYCZPzgjocUK1NlJVhBFiMfN/EtLkxZNzcg9IOLKr9Jdof8AsriftR/48Z6hBCALEDxE3kz+WNHor/2VxL2pf8WMuzfEpRaCUlDBiTUE63nkfQcv8Tjb+Hn/AB1/veSapSz0PEJ57iZqVu9GkOCDCgRI5wZnaTjziNVnYVXKlqsudPK5W4FgTEx7HngXku9YdyCFUsJ1BRDTF2iR6/4YIUcuAzpWfRoVoIXVqcEALII3vfFgMkZT0keYoqS70yQgPhDeeD1i38HB/sHUDuaRAEKTA/7wk/f5EAQL2jC8KZiY3Ej2FrdcNfCeAqtbvKNUuulYlYLSRrF7WF9ufpJVnrZzK9CGOXj940tVSm42KRHhMkMDuF6Yp8QzFOrqEEJpCgMrAsLyYv1GJ0oFWUE658i2n5ct7zbYzyNmpliF+0TyySVBi1oIIBF+e20xiEkjtN0KD3mS/U6jtU0JITUzAbKonqZgAe+I87mgadNO7VSmqXHmeYjV7Rgr2kovSrPBKBwQQGMHkwaNx+GBaUabqo1N3hcDT93RzMxYz6/DGkHBTdMA4SubZ9Y+dnqcZZE8eoAQVAsRckE+hPzwQ1MJWoahWY8SjSSLR4SDvixkh3QUggnSLLIDk2WVvBEGSPTbbHeRrtU8FRSpuyEEkE7lTNxy59ekHO3czf2UOIA7R1amZXuqa63Z9ViL7k2tG23phM4lnHqAmodTIAoY76QIA9gZ+M41PN5daihVUgstgAVgMOu+0eLYCI3g5rxnh9ShUCEh6Ykq0AqQSWAPzJj/ABxVgYD2zK1+Jr9QdOkEZGmprmJ0AiQSASIE+k74N9n+FlnbOVyy0KVZ20geYhpKqQCoNuhmML2UU9+AoklgAOp2Awdybd33uUqqykEsokCKk21dRp1W9cNcHtJ0cLZI7QFxBdQVhNx+tvjinow15vK0NSUaOtiQw1NAuJZYA9Le+AzZcg7YEyrTvaRi7CZQEM5+8wT4AayPjEYdM3XOk6BaPN+en19fzwkcAzQ7haSgltRc3AAP3Z6+3TBv69WNjSZj1Tb8cPw5MaIATEfEMOfNnZlHHSKPHq47000LR6kkkm+xtOOOG5WK1Ia5YtMbxHU+8Yr8ala7MQVMzeJ2ibYu9mUBru52ACz7i8fMYDIwKkxuBCpVekdkQkkszTA2eAApiBAsVm/vucUuK8P0hX1ONMiNRYfEECZB3wTyb2nS0TJ8JiD5gYnnJjb3x5xETS33A9ybrJ9fL6YzrmrUUMhwUZt6unSHVrJcU2BUWnkZ64rlqmWc02RlndGm0+GxiCJg/DDh2EyAVqrkxqewPpPX3Hyw4cT4DRzKBay6o2YWYex/TbDmtTRHESjK4tTzMkFakUMAoQQVYSDBOlt/gbYtcJze7VCxjSBClyQRJJPQFh4Wny+uC3HewFekGNBu+WD4TAe0EDoduuFV6FVFK1KYpstgXUzY8p/PHgARxPEkGPLUa9OkHq15oqAQUUzYzMjTLrAgGedjzu1OGUc+2rUwIA0VCArR6rYGT4QLfC+EXI8UqMFp6hpM6+YMfsg9TsTzGHZK3d0+8DKygeLSbsd4BnyiALiYk74SdyGNG1hM/wC1fBa2WIWqhHNHAgN+4+h9xIxUysVU1xFRP70X+dsa1lWTMI31lQyuNOggQAIv6Hb2FhzJUuIdgXpVVejUDUC2rSxOodBIuy8uvvOKsWcMaMlz4SgJE0PsjRAQMxliqn2tMYrds+GGRWVTEQ8fgcWezRKDQ0SLjnIPqcMTFiNh8dsO1uFcqFXmTpSfyiIOXqgcK4gWXUB3MrMSNdxPLGP5l5qM1NSiT4bkx08XXG39ouHGjw3idgFYUisbee4+eMRySqagFUsqTeBJHsDzxNo02YQp7X/uUZ+G5lytT0JTYOGJDFlEykQJM9Z/A45UKGaW1EbRcHrfFfNJLNAOkcyOXI4M9nuAms5BPgVgNSxDMb6FY21ETikttFmTJjLkAdYX4JlXrKjVb0ksimOZFz/V9fTkMPVLLoon9I6XBuPKvpvgPX4kuWHdkaGAEGIR7AbidLCYnnaQeVLK5qotMsjSJ8hiQSYAEETJEDSdPSMQu5Y2ZvYNOMa0P3hl806ViAwDtDA2B0gvqC77M6mfc8sS8QqaaUhtIJ8Syx80qS2rb73i5898KWYkVCjMqtoLNUuXb0U/dBuLXjneMESK5D1SXVzSphS0TA80gQIsZBHPC2HNxwbiqnvaWt3Xd1kpq+gnzQ1MggxazTteBOmb4WMtw/u84i+aAHsCsEzyEwAR+EYY+M5cLTYMo0nTUbSQrEAlX0rsRK1SBy5Yo0K1J88XpSEWisEgiNwZm9+cXgm9icVIaxkSDIl6hTGXMVgjhiYVY1BbGZDFb/eCk+sj1xa45mnptADBiGddQtEGBJEljf02wNy+WcVwzL4TEW80ST/exPxygaqsFm6MVLSI8oEzsAxOJDw00VNrc7o5ogBQugEggBRBB31QCDbVY+vScTZujRrIUeAWAmRHJBabhth7zvEqMyGXU0wapJfQRKsDDBygPVoCjbqcRpx2My1N/s5MqNwPQmfT88ELviCwUj3d5nPFqRp5lhYaTaLAixBH54mzVE1XYhpqMNYvc6YLFj7En4Ybu3PBGr01zVMBio8WlSCU5yJNwb/E4TKskoDY6SL8sXI29Zh58fpZK7QulLuUylRvG1Uhgf2ArwV3uYAM2scN1bgA1G3M4z3K5mqaags2lSVVjPgWwOk8hcfhjVv+kuTNxmKcf64wQBrmeTgmukyzs3mNLMOpB/AD9MaLw6oCMZXwqp4saNwB5jEmSbH5iJDx3s2Kzh9rHb9cBOCZVUVkW51GDbYfH2w6dpM53WXJHnbwJ7nc/ASflhOyNQ2CDV0iIA2kkkQfxwNkrOUA0YgLgAHV/wDL06zPQ2vALC/3TiPNZg1FLo4qALq0tpLwIMOwIKsDuDqElbbxAM2lIB31yp8OkgaWI0gsf2I1QRIJLdMX+0SgIjgAaXU09IUELqAMEiIgixvz5Y4Ownm7mQdksy1ai4YaTTbwsBY/vODH+V6lLQCwAP4++Af0d8YLA5eoIIEr/WHX3wa7QcNGkMJ8J68t8bS0VFz5XOHXISvEZOH54uPFBv6HHebkg2ERtb8bYBdnqyyVk38QvtO+DDU4+8TPWMDtUHgRgyZCtFvvMn7TZFVqs6rFyPDbmYIG2AdPOOtlZioMkHmfX12+Qw3drH+zJ/rEfJicKGTALEkW2PpB3+AOJ82IMeJp6TKwTmNPCO0A+8fe5v6b2jDTkuJsYJMsZgCbRIZvQKCQL+Yn9kTlBJViBI0m+3LmP46YK5LjDrzMkQAPuqOfwn5x0xCcNTSGaxNT4cxMusBVso69TPQkW5WnnhpyOeR/CDDc1Nj/AI/DGW8E7QAAJYCIEREemGmhxNKgGuJiA35W9+nTAl26EzwxJyVHWGe36H/JOdjfSh+Tg4+esqwbUW1M7Gxn1vPMnG18fzbPwbiIZy2ju1UneCUYX52bGMZWlqBK6V0LN2gn2nczyGLMfyzL1fz1JVydWpUCAE1LKFMzfaB0E/AY1zP8Hp5TIKqVDTqU1J1AwGY+bWOh+YGFfsf2jyuVoyaZ75mC1KrmT6KgFwltzveeQwM7VdqTm4WStPXDD7zD9rpG9vQYVk3M20CN05xYkLsbPiDK/HKlSqHaGEEaCPBB3EfH8Byw0dmfEEIMvDFQYhnSn9mo6kvBiPu9ThNy9WmgqqUFTUCEYkgoRswHP2OGjsqrNlzbUgltExqMwASbabna/IRvjuVQFELR5GfI1nqJco5UIr03pprVApd3gBjcMSRYyIHuBg/mu+BTvoYVKSkQBBsdQsTI2xSy2dWv3imkzFQFIOjlFvNtaLWA9sDeztKqe9MqAsoqsSxEE9LbQNxscRklgZqABWEnZu/y6rRTVpp1kbVAC0y+qkzGbEhnAi8g2wMM/WopHUGyqeIjTeW2Fp5iLA39ja7F5r7KpS2Icljz9CeptHttzIlyeQK5mppcDuqSqw1yVu0A9LGYIaJ2uMP3cESYrbKwhTM1FCLUpvrMnvFgDu21BiNpkBueOKfEZerVNQsiqiyJAGpr+o2J64B8Kql81X8YpqAAwgBbKSZFwBE8xiXKZKu1ZqIVO7psHKhTDn+tp1cgRhdcx5bjiOPEssiuygkhQY+8bszXkGfMTfp1jGX9rtS5ioS3ikArcMLXtAtvhtocUq1c1VRwqGw3E+IkjSWUmZMQBthP7W5KKwYNqDICCZEgRsD6MBFog2EYbh+ezJtZzi47GaD9HdPK1aBBGtiIcOZI9ADy3jCb2j7MNlKw77WaDM4p1VAMmCVVp2YcxzFxgCOJVKZVqbd0ygKGURI/rdfji/m+0mbzFEpVqF0sSoVYsbGwnfDlQq30kWbOmXGLHIgJFPcEl1A1lQmq8wCTp5LtfmfbFPuW9Px/diVRII2lp+H8H8MWYpdT8zh0FBQlfIGHxoXAHsMZ+lDSQcOOQzYSmW6CcRPyJqA+6ddq8+HrpTnyghf9azE/goxTyWYKeRdRIMdFJtqi8kbbdJ3jFbManQxd7ke+PFqRd9MbsImGAuVHqAcdA4qATzcZKhSoSwHhMwBBESp3Ph8w2JxDn100WKtMamEkwpPiOkRpW42E7csdcPytaqlN1hFYgksZbRe68gYAt674m4/khTy+YcuznQ2nUbLaBHxkz6+mFg8gQz0Ji92Lzf21KDpe86hZl3IFt7dcaoc3SqrCspMTE7jGMdm3ZMxSJ8ZWdjOkwfyxr3C8yHoiDJCwTfeL73nGvjup8/q1Aa4EyOY7rMgW0mR8DcYbq1S0jpjPuMAAJ4vGVCkbNMA9bH44bs04KoGMDUJJMfdO59/bBkyVFKkg+YjdqW5erH+PnhLZ4kbahB+H8sOvaSiFspkWMzPvf4YWON5I06h0jYyPYif34U47zR07DbUp0syDuomymDB9D6iMTVaGljpEyZIMEqAN/UTNsQrlFJQlvCdyN19P1/njqplz9YNMVNQAsw6xtOFFZSMgk1DNAgWIYuDOwgxy67bYPZLiQXxNcnaQDeJAhvu8sJiSSwkmP422xYo5gAeeBzMn9IwhkBlKsRNayud1cI4mbGBljBFtkXbp4NsZfSRYWGljOoRZel+c3w8dlXB4LxaL2oGYjdvxwn5PKlld0B0JpDElZuYFv3TGGIKEz9Wfdckp0KehiznWGHhAkMvMh+R9xiHVSLDUXCyZMAmI8Nus74IZVAXNOjT73WsAOBqBiSVgxIvH5YFVD4iHW8EAixnYE/L8TjskWTConc6e7Pea5DyfLHl09ZvOHLsbVIoaGYoy6iQdQIAkXAZbAHmLRhOzFT+hVkFJdu8Ct4hIlj+0R6fuw7dgs7RBcV6hMM51aZDSBYkrMNEdZjrhWYWs0NCafnxOOCKzPXZaoAvFt4UTBkyQPWcd8FSTWVgWbvNUSALidV7xDfiMS5SoHzOYKqo8QKmprBsoHkK7EjYj4447PVP84q09IDEAh1JBEzLAcrLFsSzWscQb2S1rnqlGmCdWq0gbDnq5Sb84nDvk+ztXvsy4FJS605BlgQBp3tGwPuMI3+UaeV4p3lyoZQGmNII0MSOcX36TjTeL9oqNBXqF1jQtgwJJuAAJkyfTDCObicZoEE9DM37Hfa5uv3hvrIJuNibLBkkwbdBgnRlc2xMjWE8wkhgxMNBEEEgyZ3vgF2CzJbMVNRVXcSHIEIw5xb25fjg0XSpnKmgE6lRiRvqViCVnqfe14wLD3TqNaCV6+VajxFFNu9W2mQIEgeW/LFTtzw9joICz3hSFA80kX9fCBfnPpix2l1U62WJbS6E6RcmGjUSbeGeUXlsFO3detUygLUwqq1MlgDJMxqFoAOoeHlHOcGpoiLyco48f9mc8QLIppMoBBkmPEDYRPT9+JcjUqUlKo2ksASRBsQflzx7xSk1GFbu210w1iG0gmRceV7bdDirRQinqkQTEAifW2K5kgcCT5Hgr1f6qASWPTcwOeGrLqiKqikh0gCSLmBEn1xN2FzCZqsuV0FVYEswbxQt4FucDrjSh2Sy37B/23/fgxHGfOxzSketsFa+a+zVep/L+BhYxcObmPTEuwCaDGMORqTi7wjJsahZvKGJUdTyJPpgRwuphko5i2FtCWMmWrWwH7ZVNWWdJjVA/ET+E4mTNWwJ4xmNbKu43PpyH64HAl5BO6jJtxkxd4VwhmbSKjIIi3rvjVOD8PWlQFOmYAUgT1PMx64SqNO+hDpaA2oi28Qb8/wBMNHZ7N95TDTBuCJ5gkfK2NhVAnzed2aiek57Q0vCo0gwAPfb92J80wNOmXRnCuCUVdU2K3XoJnEPEcyzM1PQbafFyliZ+QvbrilmeKPQKqoZrEk8gBsPUknHYsBrlTtFl0v3aaRNxp07gbCPhgR2hvToV+RUK3up/ng7xbiy1qcxfCrV4hqpNQIMBtQttP+OBaUYSfHQwPxFKgJCgBWNo67n22nFinlylFHnxMLek7n1PLFevmyaYH3lYD5G3zEYLGnJRd7fzOENQBMuWyQPrBWWpaB6nExXnA9cWszkoOrEYroeeIt98ibLKpWhHjsZVU8I4pqXUo7iVB0z4rXgxhGytNQCWeLEgBZM8gbiAevph87BqDwvioE37kWIG5I3NsKmUpUwVLUw12VgahUEx4SSB4QD639MPU8TD1Yp6njITTpPUK93JUBe7FSBdrRJ9C2KWUQlyKcNqDCG039gTvAHxGLAoqELS/eKw2A0AdS2+qdhtjvPo3ffbEObMxRkuDBPiURO3sZx0yQSvn9Wik5rAlTCISxKAGdiNIXnacNX0b06TvWGZLlSwghnVWYkhp0xP3bH5YWOJIQGp6SsGQHXxxaxMWEQff3xP2bz4pVltKO5DA7Ra8CLgid/TC3BI4lmlYKwLdJoI4aoztRKCSCiPA5XYEhibNbmCDFxinwnJ6OLCnUTQGolgAxE3i5VrwJETifs52jR88xWCjUxofSQSFNxBMxJJEwfnij2v4wlLitCsCAq04aZ2JIvAJwgA3z1mo2RSu4dLlH6U8nQpVlC0oZqdipgKQ0klfvEgxfCmorPUQrUaq6pIMligE+EFtgB0tfDB2y439bOoUh3YbStYhpNpIDGBfeN7DAB6NMs/dsUQLIFQ+JiBdfCIkn4YcBxM/K4OQ1GP6L66fW4ddTMrXNxyPlI3mTOGjtHkFqcUpLACmnFiouCxECD67DGecOz1aiaLKvlLMvhgt+1J3IjBnI8eatnaFapZgdPRQt4jnMnAMDzH4sygBT1uFe32Q+rBIVXZmZtceJQpDACLbWJM7csMPa/PB+GseWlIPuyxhf8ApN4gSaApsZIcGOc6bH36YXB2kqNRoUSlIrSkFSHOvSNKd4CYMTNouJxxVJAIh5cyozqe4/iCOIIqqjK4ZjOpNPl5C5sZF8RZPKa6dRg6hlKgIT4nkx4fbc4m4ggWVdWWpIgRETyIN9ojECkyzNMkAqQIkgiPha8YpuZy9BG/sFRfJ5hcxWTwaWQAFSxJEjnYWOHw9vumXH+8/wDRhEo8SSpRgMAwhtNp6/iJxIlByAQjkESCFaPywYNxxEzXLGGg45zKQZxzUEsccsx23woDm5UTxzCXDcxbB7L5nCerEQRgtw3NknAss6jRmfOxgVTzWqoxG8AT87fx1xXztczGIKDRhuBdvMTqn3DbCy1ZdiCQRpBtyufCfjzjDBw/ilFVEMx9gP03wrZWsQes4vZN4MAASSfnixTMrKlioYqcYTU5VGOphclhdQBERA+GKFXibFwwQCFIuSdyPX0wNp5/U5TQB5iSDuQxXbrAxHn6mjxASdv4+WPXxc76VNVdpPmsyS5sBK3jaf5YCVM2VqmBPL8MXswlmP3jefyEYCVswTPKf0wpzKcSCT0Dqrekhj8NsMOSrDXLGOmBOUohVnriJBqqGdhhGb5CJZpwC9+Ib47xJNOlDJOKPCcspWTvjp6KERpGKmWzhpMVFxiMCloTQ3TSuxyFeF8TgTLZeBpDT49tPP2wlz4GgGzTqn0sO7685vEYdvo7pNmuHcTpBu6JNAB41RcmYkXt1wPH0a1f9O6/9wOe9+8xQgO0TL1OMs5i6rhm5MXS4WSQQOZqc/Y+2I1mownWTo8OlQSYHONxb3+WGl/o6rEKpzwhZCj6utpudnv8ccr9G1URGe2/8OP+Zgqk3oGKeaUvoCDxMCNySSLmSbCeQG1sQ1Ms1NgjjSdOxEGOZ3vN4jfDpT+jmspBGeuNv83Xn/b/AIvibO9g8xVjvM+GgQD9WSQOgIfbHKNxox+2olrnGUiopgr4Um4C335xeAd7Y5NQ1GDvDFhpJOo3i3rO22GxvozqH/37/wDQP+Zj3/q0qf6d/wCXH/Mx7b3nQrAVcV0YaACW8LeUnwj+zMz8MXM1lwz1S4AIWQF0JeBHhEj+yL/HB0fRtVvGeF//AA6//wB4nXsDmAQRnwpAgEZZAY5yQ9zfc3x6jA9IxNzWUAVWFSZUk2YBRyAPOfS2OqLle7apDjQdK6vLyEwZF7xhrH0cVYj68I/+nX/mY7yX0fV6TK6Z4ArtOWQjaLhnIO/PHds96bRSz9A9wjmopksAmol1g3LLyB688V+Homly5YPAKQAQ076jNrfjhy/6uq0z9eH/AOMsfLXGOKP0aVFMjOj45dSPiDUx6p70mqop5mf6RyKmomQWOqep5+2I8pTmTquBYXkzvHIYcKn0a1GJJzouZtl1A+AFSwxY/wCgWY16/wDKHi06Z+rptGmPP0OPVPekalup2HWvkKWgAZhaaMpOxkSUJ6XMHl7YV04fxRAEC1wF8IAmBFoEYdKPCOJKAF4pAAAH+aUdhYc8T/U+K/8AxX/ydD9+PCxHz//Z</t>
+  </si>
+  <si>
+    <t>Rhythm Republic Sound is where rhythm reigns supreme, where every beat is a heartbeat and every melody is a heartbeat. With a focus on capturing the energy and vitality of live performances, they specialize in crafting dynamic, punchy mixes that ignite the senses. From funky basslines to soulful grooves, their studio is a hub of rhythmic innovation. Rhythm Republic Sound invites artists to unleash their inner groove and embrace the power of music to move the body and soul.</t>
+  </si>
+  <si>
+    <t>Radiant Henna Creations</t>
   </si>
   <si>
     <t>Bengali Square, Indore</t>
   </si>
   <si>
-    <t>https://i.pinimg.com/originals/10/7b/bd/107bbd787d41c3f17f1e5ae4423af1f2.jpg</t>
-  </si>
-  <si>
-    <t>Everlasting Elegance Emporium</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhIVFhUXFxUXFRcXFRUYFxUVFxYXFhgYFhUYHSogGBolHRcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGyslHyUvLS0tLS8tLS0rLS0tLS0tLS0tLS8tLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLf/AABEIAQQAwgMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAgMEBQYHAQj/xABEEAACAQIEBAQDBQcCAwcFAAABAhEAAwQSITEFIkFRBhNhcTKBkSNCobHBBxQzUnLR8IKSYtLhJDRTY7LC8RUXQ1Sz/8QAGQEAAwEBAQAAAAAAAAAAAAAAAgMEAQAF/8QAKhEAAgICAgECBgIDAQAAAAAAAAECEQMhEjFBBCITUWGRobGB4SNx8RT/2gAMAwEAAhEDEQA/AMdArsV2KkuA8EvYu75VlZMSxJhUXux/TetZhGEUIrV+Gfsrtqs4i6zt2TlUfWSffSnv/wBtsH/K/v5j6fp9aW8iDUWUfwRc+NezA/UR+laRgRoKicd4bs4QIbKES2ViSWLaEiST6GpfAqYrz87udnq+mf8AjSJO2KPZaDTC7xS1bOV7ig9RO3vG3zpa/iALRuoVYAZhzCGA1MNtsDrSmUWiXscQXWWAyxmnSJAbc6bEbVIJcDAMpBB2IMg/OstwnELruzPh7rOynIS/IiEiVtqZAzCAWnYkxV/8PX0a2yqArIx81FJIS48XGAJGvx9NJmuSrQlu9neL4C3dyrdRXUMphhIkbGKW/dgqgKAB6CiY/F2wwttcQXGEqhZQx9QpMmnWGXMq+wqnD5RP6jwxi1k9FpnjuG5hzEDfp+tT93DCmeLsDIfY01onTKXxVfLttDeg9zp/ntUTgLMRT3j/AMSpPUsfyH5muWmVFLNsASe+mug6mpMnZ6OBVGyWwdsRJ0/KnacSQNkWXKuEfLH2crnzNMaQV2ncVTcXxU3CQ0izzKyhGcOrDQsAszptpE1YeEYy0yu/MckSXBtrr05wB09elKlrwFdk1wrHeauq5HjMVnNClmCnOBEkLMbipG2aqGIxK51ywgmbTI2ZPMylYZVMBgSYGze+hsXCcat0bw41KkrmyyVD5QTCtlJFcjrJS5tT/CWYVdNYk/PWmJWYHcgfWpopVWBeST1MqpCNzCqwhkDA9wKr/HfBuHxXxZkcCAyn81Oh/wA1q05a4w61S4p9oRi9RkxO4SaZi1z9kOJkxfs7n+f/AJaFbbFCu4If/wC/N9PseP4rXf2J2B5GIaNfNCz3ARSB8pP+6s+PhDHf/rP/ALrf/NWwfsy4Y2HwSLcGV2Z3cHcEsVG3/Cq02bVHnxWy1G3STpTo0ldFJoYVjxVb+yB7Op/MfrTHCMchy7xp7xpUp4tX7A/1J+dV+5ictl2B1CHL/VGn4xUmZe4v9O/YVbBYiGCZGN4k6uYBcCLgDjW6GIZsuwjca0v5j5iqvmVkcPaaGL3uoFoGIAyyRpFP7GHRcjQxKKMuUTr8+WdTqe9dvYOT5kNmBzqbZGbMQEUDNAIVRrO+nfRXO30HxaXY64Nw201lTdZmdNLj+ZcDK4OolTIg6R7DWrR4dv8AlsLVy2iG4Ps2QEBozN5bgn+IAWMzrzdqq2H4azXc+dkdoJa2oNtiBGa5aacjxv09alhhL0oWvqVV1JItGeQhx8LRJIgQD8XqRQKT5bYXjSI3irgOWuKz3b9110TMwtLcKwv8qqgG2smdSQKunhfHC9ZRwSdWGsToxAzRs0RI71UMZjLIcX1+E3GIl2DeXcBk5GYgRcBmAPhqY/Z2Atl0UkhbpjMRmgqh19d6qwvZPn6Lmw0qPx5hTUg9RPFnhaoZKigcSab7ekD9f1qt8Zx5d8qgmDyKQAQy5gzyNYyn/JqS4ziSM5X4nfKsrmG+s/IGobDYcMWKkiAQSNDoRyr26z6kgbVLrcmXybpRQ/4Res2HRzeBZvjBJIXvOUae2nzoX75u3v3hwb1vMy2bKgkZtRbDDaDEnqZinPDrYQPaO1u5Kn/y7gzKfXQx8qNgcNL3Mj/ZlwSCCMwyA5ViOh07gdd6HklJszi3FIkMPhlDh1uO7nILqxbRSJlgbKjMmTQ8wHadYNjW8FcXFbWedCwChToWYwTAGZh0kRIqFw+H+1ueTKQh8zVsjPIhGBESRMlSdxqCKc28Nl8i6mbKQ9slyCwBVnysdyytbCSe5pc7bTDjpF2wbhihUggwQRqCIkEVOCq14caVtyQSC6k5w+qll1aPi01HTbpVlFW+nXtI/Uv3IPFcYUagRVJKdoV2uVptmbLiZ7fVugJ6ipTw9fLZgRoApGs6mZHygfWq9bYz8UjK35GpLw5ey3SvR1kfI9qSgi2UW6KAOlFuGiMIDxZ/3d/dP/WtZSMQ7sZZpB+G2ASIOxuMIH4VrviGzOHu/wBBP+3m/SsowhyMwXQQV6bHfp1qbK6dlWHaofWOHl05rWZT/wCJeuEydfhEjaNoqTw/CG+EW8OkCeazrsNAc3bYUfh6jlMz3jQ6jbb2+lS+H1iSD33J0Hc1588sj0I4kRtrguUH7KzvJyKyf37UZLSppFxNWzZbpIOTLm0uiPvL9asNp9IEkSYmJAJ10FRl1T5jLLiXQ6TAz23U6jYlkXX0FHik5dgZEl0NEs5c6oEdYYFI8p4PxDLorbAGMtSHgFchvJrAKRIIP3gQR30HoZkb1GM0i4DcthHunMbyKRNxLd1WAzgQGLDRjMzrE088F4kB3XzVucinlM5dZInM2xY9TsehAqvEmpEuVpxL8zaVAcfvQCew/wCtTIuaVU/GOKCWnY7RH1IX9aol0TR7M64o5Zws7AdT8TMAJG07EdaneF4ezdYm4fKugqrFWUByQIBUyMx+tVlrrO+cZiZGxAWI6EnbTpOtPbF9ZBY25BBOa7rPQ/CddxNSyiyxS2xxicLF4hLhupktwwyhcrNCoWT4pY6DTQ+k0+wfDXvD7Msg31d0t3BlbmLCOblKyoJjU9KPZxS6fwo7re7d+QU7tYydkzxI5XstEqQYDEbiR6z60HJ3pBUqH1jDX0QKlnIqg/w3tHefhJaOoMkH21mlbVnJlUqhzElVBJFoC02Zp7k5QANBm31ouFyKc3l5WIMzbIEQF1ZZXZFHsBT26S0XlAcLbZVCkQxLKxhuhJtoNfWhNJ7w0DlBPe4R8B0Nxo+DTYj176zViFQ/ALOVAJmFAmFEk6kwoAknXTvUxV+FVEhzu5Ci7UYURKOtPQgPQoUK04yS0++2ikdOo+vanPCrn21vXqfoQYH1/Oo601vfzBzLppl0n++lOsBl81YOocRqO+1IGF8tiRRmXShaGlGbajBGGLAKlTsQQfYiKxzE3RZYliAZKn32Ijqa2e8tZF4ywwtYt3OnUEnQBubQe5I+VIyxTKMMqsW4fjWADLbY985yrvoNJbt93qalcPfvE72E3gRcYD550n6VVsJi2P8ADtlt4a4cqz6LqSPepjBWsWYPm5BvFu0kaaaF/wDNPSo540u6RZGbfVlhs374H8a0QDMeQ2+gmfN3/vRrmGuM2fzLLMcmgVljK2cEQ51MsP8AVTC1gr1zLOLvw/ZbSxox3VdOo37dhDm3gbkA/vN7Vc3NbSQBqZkROsR8ttKFUumvsa78r8ieKwt5Q+dAwfKGYZ7uVQCpORirbEaKSd4G1d8J4vPijmcNNt80WyoDZ0JEknWcxjpm2HRfFJfQSjo+2mqNtB5gSJjXUR8qbcHxOfEyVKXAhlWy5isiDmXlcb6jaelPxTfKv0Jyx9pfYhaz39o9/wCyRB95xPsoJ/Mir7buSmtZv49ujzba9gx+sAfkapm6RLjVsgMBhVkZlUjSZXOfq/X2ipPDu4LQ5AAUACVHMxWflGg6kiuYANpbkBQZJPTQTsOn6UaxCys7qhHUaXrmv9R0g9ASelRqTk3Zc4qKVDqxin5udt1Cyx1JtowHXct+NOcDdtuFN8gqzOgzoGJZXuAaMOUwo076UytCATygeYgOcSseTYWIPfaekzUpw3Bu6soAz/bGXIDIwv3CH00zBgD20rUkC2xbC2QLjWrVtwSAysk2pGoJyMQo+7rl+9Tq/ZZDmUmJIYhIZSNedNrq676MOncKl3K2cQ99Ug5WhVXLmMEGZEhgs9OU9gaDNaZ2W27uxe0QwLldWFvf4JhYnSaPiY2W3w+p8lSRBaWImR20PbSR71LCkLNsKoUCAAAPYCBS61bBUqPPm7dh0owoqUYUaBD0KFcrTjDrFi8R/ERgNPtLaLoToByn86W4XZuJftZltEZ11UmQM24lh37dKAMJpOs9539OmlSXhbC+dczH4UGY+rH4fyJ+VKsOi/WjS3Smlh9NaeLqK0EaXhWeftFwYZ7bwNRE9ip394b8K0XEoaqnjbBThy3VWB+R5f1H0pc1objfuKRw5xbZmuLyfZhYBZmJgnQb7P3jLU7gGe0qyHuvcLMGS2PswVIzQOkuIB10NVTA4i5l8u2FRAZkjM5PfeFOvrvViwuAd4Ny9daDIHmFF2nQIANpqOdIvg20WYYS5aRV1uc5OZ31WeQBWEczZpAOxp2uAKMLYQFGMkZiMxJkAKSZKqoJncztUDZ4Lh2Izpm/qLN/6m+dP8LwHC9LVvXsBtv036a0CpeGE0yVxfDS32KqyKIysrAAkSTyxIXm9uUCoHDhf3pSisBN1eYZTMkmARJBGUz1kVKXeCW8nIHQgGGtXHQjpHKddvwqHwqX7V9EuXDcXMzAvl8wHId2UDNM7EE+tFDjzXzAny4MtpMJWX+M3nFa9EWPU5m3rTL78oNZb4uzNi2VROi9+07CP86VVkWiTFqQrgpAAhQRPWDI11nYaGjWmliYb+Gq8pI5vNaVAiDo2vYT3ocOwFw/fA9AUkeoZBP/AMVMpw65lhbrkjYeZiBmG5MA77/SpEki12xoqn7ubS4pOUCcvl2gZB3GhkAyRMVIcMyDy1uSiyZIYrlLZrsE7lTLCZ7TXLOEug/xXEHq7k/R5+npT23au9WVoIPOlo9NDyhT+NamY0JoLItYhLdprkMSjhM3ZgxaADDEkQToF0qUwT3nxC/Zolv7MnXMSq5yDAELqI3O4pJrrLzFASRByNlkDUaNIMf1DepPgdiYua/CEUHQhR0YAxO2uu2m9Pg7YnJqJZE2pRaStGlkqwhYZKOKSWlKJGClCuTQrTjDcWFhVYA9fb2+tW3wJZi1dcTzOBqZ2WdP91V3itoSBtvVz8LWcuFSPvZm/EgfgBSUMZL2hp8qWtvGlIWie1OEWiQIGEiofjWHz2nT+ZSPmRp+NToWo/HJvWSRqZhc3Q5VOTWJiWM9u3+aVOYHhJaDcuMdYMsTG3NA0jYdPwovHbHl4m4saFp+TayPUTHzqT4SQQZHYMATqNAFH6moMs2tI9HFBPbFH4BYVHuMiMUVm1tqSwUEkyZ00FOrfBcOLVq6EsObgSAtsRLEA6qJgSZMdPWk+Pi4qI4COtsywZGZBsEZ8jDkSSToehjSpHgGAZ7Km1dS2SzG4yoCHYw0rIHJoNPoaGN8bbClXKkgl9bSDLkZVOUC4hygSQFkhs6AkxMAba60wsW7i4hFNxmWW5Xgkcp1DjU/6tasXH8PcGHuLaKmQHuAqSzEFdEy/wA0AekfSLuENdtOrBg0kEdQVJ0rOTU415BaTjIn738MfOst8QuxxJAJAOUaCSTHrtp27Vqj/AKy3xBimtYosiZtQImNWAAMx3/AmrMhLj7Gz8SSw3l3fNYiDBZmAnsC2nyqe4PbTEKHtWhlLlFmAcwUsSddBFI8O4St0q91Fm4pS5/qAI16AQAKQKXrOL8jDXFtrebMqZEYWolc0EEAjKdukUhOMtJux75RdtaJBDbF9sPN1bianJedRsGMEN6j11qasW7kD7S+og7styN5kMD/ACn6VU+McA8m9bzXhdu3FuOxuZVGYFcu8xMt9KmMFhmH3Lw7FLhYEFsu2aBoWYiNgfaicV4Zik92ifRrkxKMNZUrkbTQmRyk+6/MVbMBYCoBEf3OtUfg16415VLZlYzldYYAAEkN1MESCK0G3TcMfInNPVCqCjqaKtdqklDUrFJrSgojjs0K5FCuOPOfGOMXReuiWgMwSQsAKSsTv07itl4KCMLZnfybZPuUBP4k1QuNYDmOgMk7hW3E/eHWtFwiZbaL2RR9FApeghe0004t02w607QVyOOim2LTSnMUndGlczkZR+0C0Vuh1AkqAJMCZIM/KKr+AGJcgeeqCCIRJOU9Ax1+dXP9otiLauACQSNdtdRPzFUjAi8+hvso10tgINiInfqevWpci76LcbtLssF3gmW2WvX77AK3K9wosEGQOk71YeG8RHkWQ94Z/KhuVlPKJ+CJIEwSKqXEMDZFvzLlweavMguc7MynMFhmJOYiNIqetcTXzZcJiBcS2rahBJLOkE8oBzwUJB5VOtK4uUexlqMicXG3QFVcnmeW75zmFlUkQ3Nq0aGB1O8TUNwa6rphisfAAYMwwtnMJ7gzPrUrw/BKbYLkFkhRDllVGXMFBO8aDWo7AMP3u4oCgFhcAXaGt+XqI0M2yf8AUKWkuSS+Zsr4tv5FmuCEHzrKPF9v7e5DQQFbWdQNTtrGla1iRyD2rKuP2lfGOGYryqBDEHMw9BH1qufzJce3QvwjiFw8ykq9vImQMLis14gIXbTbYayPWKTx7Ocow124+JZiLqWbWVVRZHxwWIzRu5B19KbLw4WGFtbptW71xBmiTadASDmPxLmI7b71dw6WgtlMqOUhVH8tvl0kbS0/OkuUYe5Kx6jKftZRuEMWLNcvE3SQHV7Ru6ZgvMxMg6mAO2pFWjCoEiPKklguRrtknKSJ5hlA6ydDOhNLcXwK5bCgOWBW1lGoKDngr9/4V06QT0qUGEWIy5TzHSVgsQx00+8J+vc0XxLSYKxtaHPheyXcu/mSsQLiqGWZ2ZRzCJE71cEFQfhvCZLewEmdPkNum1TqVViWiXK/cHSjGuCgacKDoaUFJJSi1xx2a7XKFacZbxq2yqCbYBncOXH45f8ABVuwuLD21ddQVBH02+R0qpcTfXpOs7Lt16t9akfCeJJzW2nQBhJJ30O/rFJNLRh6eJTTDindutRwaKI4pZRRHFbRyKN4/sTh7kRIgj8v1rLMOn89wwNTBygDroCCRHrFbL4vw2azcH/A34CaxpIL5YnMrW+ujsJHw6mMusdGqea2U43osvBrdhWCBBmYMQcoAIWJ176jQipq1cbCI9pLKPau3Uy8+TI7slvKwIJKkhTI1GaOxqt2bvJZxHVGV21DGDyXASQNtSdOlXDG2s9pwIeU0BYgNpC8wOk8hBB9iKk5cX+yulJfoSwaMlxrMBrqGc4lVdIzsrRMQXI10Gmx0KPB8O6Ypi7JztcYoi8iEmBluffOW2ZkbgesuuG2wMOLtss1xUZB5mZArk86kLqYMyxJJI30o+D4fbtX1yyvKxy52KakEkITCkaCR0NGpJzoXKL4WWLFDkHtWVccxNoYq8HOUgK0iZ/hqJGhzbbb6dq1bHaIPase8UwL92+TAUoqKIh2yKRnO5WSeXbl9aomk9Mmxtp2juJxd425S8PLZfJum4ig22G6hRrmYemsCKmeHcRcFUtQVtW2BGTPfzryFby+Z8OnxLImO1Q3D+EFbSvytcdlc57jPbczPwLCsQDOs6/Wn/C8BlxaBDl0ZwTzjOSVaFM6HWRP8p3GinKFNfIelLv5i+J4bevg33lbqGHsrmhRAJADMTrodDBH1p1wg3rGRzcRFMkWnYlryAkmFjQkbHTpFOeLWGYw+KVGulQcqEAgQuoknKNST1gAmpHheFZW8hzca4xIulrUhxmUi4L38oVTAnc0cJWgZxqVl7w1qFApdaTt7UdTVUeiSXYegDRZroogRRaOtESlBWo47QrsUK04yvH8wkHQbQf0Udp0Fd8OXYxKjWWVlOhGnxddvhouNBAI139THTqdaJ4au/8AaVneGJ+HTljXU+gpJxoVo6U6t01t7U5tVqNF0FFejJXLlacQnHUlCO4I+orDMRyEldGtkspGpzA9uu5re+KDlNYlxFYvONoYj31qfM6dlOFXokeGZJe3IdGBdCAxUq8BxJYjRiNNNSdKmfDZLKbJbmssU1MkrINs6dYI+lVLA5pKgqWtHzk0HmMjFvMQEgzuY03Iqz3GylcXaVm5cly2AVlVMHcDmRgfeCO1SZF+f3/ZVF/j9f0L8PxDYdzZzu4zrbS3EnLcQXS6hYk5sw1Pz3pxg8E5xTeY8s1szyFQFDKFEHqSCdO3rXeKXAbSYiwy51e21tguaZ+yC9J+LYnvqJp3gLN1cVN91e41tjyIUCjNb5Mudu8zP3vamY5W0/IvIqi0TONsnLOaeoB2+nTesm4vZufvF+FRwwKAvoLUjUqsQSZGu/LWtcSblHtWZXzmu3ZmBcYekjSmZpuKsVhgpOiPvcQxAKpCAhuR4OQKq/CqdOgn0HyW8PXLly/FkLncnPeM+WhaW00IJ7Dr60lxuxbD2zcDC3mIcqYIkaeyyIPoal+BswcGwAEUZc2UlZAOwX+I+8gEb6kbUtSThaXf2G8Xzq+izYbD2sPzsSzsZLtLOxKwygCeXciBI9qlOAEteWMwtqGIBaR2Aygwsa6an2iKruJxSoXhiHAGdnyZYmZd5aF1IFsFe4jRjP8Agu4Hz3AGIIXK7AKGUz8CDZdBruflRQTbTZ02lGkXHpXBQWhVqIWGAowFco4ogTq0cURaOK047Ndrk0K04x3jV4tK5UUz8WZSSvsy+1P/AANZYvdduihVgqdCxJ2/pFRjupb4gfpGsjcL8/lU/wCB1Ie72he+8t+lJNot1k08tU1VqcW2rUcOFNcdqLFFatOGfEBKn2rGfENuMVdA7j8QJ/P8K2LiN5VRmYgADUnYCsixy+bee5HK7Eg7QOk6aaAVL6hpIq9PG2NUwAfLoMykFCQDlIOYGOuoqcwuIK3LjBbVu4IPkjKiYkZIDWpWS2ZmBXMf7JzatjM24MACSzN/Kq9dvzp7hMC9wi9eGQAylsEcpGgZ2G7xHXT13qSM3u+i2cF47ElshvMOHMpnbzLDHKc1t4LJBlGDL9QJ7U78KZP3l8txzyGUuFme2+Zc8sxJOYZOv3NKXs3lxSu8OkBlt3AzAkEqQ7KpXOCwmG3A6SaageTi7dxgvOWTOggHNqoZPu65VGpn502DqVC5w9jZaeIvp7Cskw2KxDsxFpSCzNrcAAzGavnibinl2L7A8wUhf6jyr+JFZfh2uhW8uZDKF0ElYad/UCnTjyXgnxOn5JviTXXENZSIhstwvIHoBFK4BLqQwOdFiFaC9pVk/ZZuUkZjzbjTcxCL+YHxBXPk8s+URpL8pA9fvDWk+H468rWpJje7yrpDnr/TBilxTS1Q6VPuyd4WBeusHYIqtK2GlXdjqLjZhzHrrtm982h8AbcdwD+Z0+ZrOrvE1flv27eUTzF1MD0O6k6dZqY8P8RRCrW8QxE/AxzCB0DxmA959q6/cmZx9rRpqV0iiYO8rqGUyDSpFWx6IWFmlFNJ5a6KMAWWjAUnbOtKzWnHYoVzNQrTDEMVfXNAYa7cx19pbSrR+z1wRdggjMNQZERtuarmN8ssYLRG/nPIknXR9Nz+FXHwja/7OpQxJYnUmdYmSTppSAyzeXRlWKareZdGHzp0lwGiRwpnpK7eiuXGrPv2heLVt5sIhOYj7VgrGFInICBuRv6H106TNSIzxn4uS+xs2czop18vUOw7ttA6b0wwgvvsy2gY1+O5Hv8ACD9aisDxFAISy7erQiDTqTrE/l60rbxz3LiJ54XM2VVw6yTt/wDlYaRoTA6mopxlJ3X3LcbjFVf2LHYwuHwxN284zEfG5l36wo3100UdaJfxZxACt9jYZgoDHK92dAr6wiERyneB3FQGDtrLuAQQFOdmzXMpHL8XMh07f9D8NuqTcsu0ubj8pOpQwyiG7g+vypfGrb20PTul0mXdbVxbf2IUtoFkSupEGBvAM/TvVFx9y4pN24wFxXGSIXO4cqytCy7DKECTAEH3kcJwxZhbtxRMQt24q9BsDp93YDpTzH4TDNaKoM9yBIVmMaaG4QddzuSTWYJRi32zc8JSS8FW8R8W8y2q/FJzQBMga6+moM1HYLE2cstbMTEhSB66rpNEsqnmutwlckKpDBSmupE6aCJFPuGvaukQAWgm5AjnDiGXoM3KxG2hqp1Xkkhd+Bxa4hYblAYtGgm5B/3NSeG8tsreWkZiOZVOxjqP80qTvcPBUZSdh1aNGNwa99/l6VBMCGZR151/9w9tj86UqfTY5truiXscQVQzJbQBXAMKoJXMASAII0J3jarV+9XAy21MqMztlK+YttVGpVzl+JhoSCcp0qgPdGcyTD/FAB1IytruABG9TnhziflnPdtBolHuDU27aLlKlOoIObrOYmNKP4a7A57ovXh3jbeYxXRAlovbYFWBbzBlynXPouo0IIEbEXbCYpLqLcttmVhIPpWa4G5auW2v3XD3BN4FMq3kVAFCM4gKQApjTXNoamfDeOu2TZS4wNm4LaBgoUC6wckMDrmzBVnTcyAadB1oVlhasvS12KKho9PRIFUa0sKSG9KitOO0KFCtMMSxLtPX6NH0jStB8KoP3a37fqTWbY224Y5ig1MAvaBA3gQn596vvgq4ThkMjTMOVgw0Y7EAA/SkBotFy0CKYsCh9KfLc01rlwgitOIzG4tVRnYwFBY+gAk1hnGr4yrfLnzLzuz8x+FpIIHQCVitM/aFiAETDLJN8lWj7tuNST0kwvsW7VT8T4YsojsUHMCFP8jRCn2J/P6KnNJ0yjFilJNoisFh7V24p80LkICurTmIAYO3mTpOkR9aSxGIa3dZ0upcZLjA3AJAW4OZ4WIiNY0iaLcwFp77q5SFALMxZGJjXLBywI3j5Uhhcbcdrdu2oYWyQjZQCbe0ORuCIJ9qzvYfWqJzCDK8nM1htQebVMzBWA6kENPUgT1iicY4cZDhQ+gEaQ6jbpo2pg+pnuF8PdVQLVwMUm2qEKM1hQzZz3ZSDGaDpMxuUFuFdbVxbin4suYCUIUwn3QSGeVnTU0lp3yj/wBKE1XGQhw61ZckALpEq0giT1U6RpvttV78PWECwAI6AADrqIHU7DvWf38RZuCGXKwE5gwCz15tI/A1M8Nu4u1MRdHxAMYaR1BGjEjTWPek5Iyb7/hjYNV1/KK9x/AXFxl7KQZIYaAggrIIkGD0+VKYFMhV3tvmb7wJckehXUD5U64vi0bEl1kErbZkIylSC2ZYPSJj0ipvh2GTMqzIVsigwfs7olRMaQdelMc2opMCOKLfJDDDY5Lk6zBgiNRsNdAdlA1+lRHHGUNKGSIfuBPSe2/4VM4rh0rnYqrJbZvM2INtiG9xoNDvNRb2yFyXFVb90zGsZzoFPaOVf6ia6CV2gcjdcWIPhBcWFIJPNb0AknpMUlgJPNBcKftEVhLZJCnTYg/UCkuH4ny++TNPrbYb/LSrTZwXmxcFwoxyk3EOYOATuqwAdd56bU3lw0+hKSntdhbmJt3rmbOqjlNy5bbndwkhFB+K2IB236bxLcN40964iXGDtb8xvMUkqzuAqqBAEKGbvrG0kVAXfB1xy0OFciUCnQkTKloG8DXoTTbhOJvo3lC2LbKcpa4IydDynVj6bfI0xq46M5e6pI3fhWNF22GkZhCuB0eASPxB+dPlNUTwfc8ogBsyMPtGJ1e4Tq/ffWDtNXlXpmOdomy43BigNKg0hmpQGmihShXKFacee7vGsO1wFRdZpAAhdToBMmT0rYeGYUW0FsfdAHzjU/WawrE3LdkZssQ1p8udeVlVWZlBlomVyyfyj0Fbgww2YAj23FBOKXRsZN9itsaa1H8UvraUuWgD8fQDrUqoqm+MeE37jh0GZYAgHUROsH3pcm0tDcUVKVN0Z5f43cbGXbl5XLsV8pFXMvl29VCmR3Mn/iNG/fXxCrZwwyl7ju4fO5WCCSWbQaxCjrG2tWrA8IuPCtZ22LAQPWrFwzw/bsjkRQTqSBEnU/qfrSork7aKclY1UZGQeI/Dhsm2XObNmzMY+IEHr7/nRcA6W9LU3WkcqABBB2a56j+UGrj+0rBN5POsqrq09hBX9aqdnFCw6IgtsXUZGLgKGJjn7L69elbO3pAYnW3of28KWcPfaW6KNFRdW0/5jrpvTfF2Q75kEFSQrAgv21YjmEGIaa7fsG1cuBiWZkt3C2nNmBnLGy7gD0ouDcZ4BiD12kHT9PrU03KLstxqMl0NlxmVlS+k5QwN1RDgFWCkqB0zHuKmsATbRLlpwUKNc0Byhc+mZRqh+IF4Pr2qNNlmcEbLv0iO2np+NN7eNe47NhlCtzLA0F4dimwY9xEmJo1JTAacGK8exE4wRblvLAdVIJDAsZXbMNz0PpSvA8YnM+fL11JEFTsR/n6FLjePtLiRctE5cilVEhlcks66wVIYnfbbpTTjXDiB+9OgUm4oKKDkC5dPdtvTtWuKap6BWSUdrZO8SxT3lVra8iF7iA6eYxysJGwUFREjUiaLw3hjX7S41yzXRPlqwUWsqSAAIJYT1PWfeutfF9/LDwuVllTsCPuz/aiYXE3cLntW1e+CtrIXaESFcsB0gydBQRk3a6YUopNSe0Ex/CVNg4i2iJd+K4A7ZDrLKqkwPSI7UlwHDywUedZNwEqVlVugDNyk6EwJ2mha4vcvm5atWlKureatwkBWP8pH3tPyqwWsRdvnDW2sG0bMsx5SrME8tQkHrmJ9KO2o1LsBxi5XHonOE8PaBcl2meZiSSQYPtsdhTXxb4bN5fPRT5iAZoHxIBvHVh+XsKvXCcPFm2p/kX6kTTnyaohH2oklOp2Z34UvqiwST71oPDcSGXLOoH1FRWN8K22YvbPlsdTAlSe+XofY074Xww2jLPmjaBA/OsjGUWPy5cWSH1JKNaXU0mpo609MgFaFczUK048qXrHw21EsT+WuvavQ/gu8bmCsZjmZbaqzdyoyz84mvM966WYmvRfgO35WGw9o/wDg2598oJ/Ol/7GSab0WYUajOtFiuBCC2JoOKPRLgrjSpftAtzg72gMW2Ou2muvpWO2sthSl60twOORg3xHSAxDaKBt7zW8cZshrbKdQQQfYiDWIcGvJYdhi7ehRkzHMwEL/CHseo7UDGQGKYlluQ9zNmtiWJ05egJOo0gHrSmMxaiPLYEtEQ2xG+adIpXxBgIu22uWksI4JS2G+FYBMkdSTMetIcZtYcW0Fo5iG5oBKgdyxAkdKCUYyaHxlKMWkyz4DyYJuYq0CRqtsXLrz2KoP1qtcFvOGKpbkhmHM2Xqd1gntpVi8NYi2iiQirEk6KI1GpOnTY1FW8faOKussBWfTWNwvTrrPpSYxrlSHvbi3IPxfBxilLkJcZFYwxUMxYgkEmddJ17k9ybxBhXNu2M7EO4gZlMmJ2+a/WjccUXsTbVQrkJDLAgENtG0/wB6YcY4H5T2lZSobMQJOu23ajg7psCUWk6WrJnhfCL8CCswQM6MDt0IIB0INRPDDfNsDQxIEkgkfIa1JWQ1pMyYq6gMD4lOrgCIInoPpTXgPnKoKXFbQcly3mGhzRmGoFYkqvX2N8pUxDGYu6lwWipSADy5S0nqasvCsdoFyX26D7NvwMBfqaqmJxFz95JdEYjLohKjSCYLd/Xuau3hTGNdvWbQw7iWXM2dYVVkt01EV0sd1r8gxyVe/wAGsWkhQOwA+lKAVyaAaq10QPYYVw1zNSdy5WmBiIoyvTa5dpI4mDWWcSU0KQF2hW2dR5Z4Tw83rqWhpnYLPaTqfkJr0ctsIEK7LA+QEVg/hNYxeHP/AJqD6mP1reLGq5aU5WG1ROW3kVw02wVyVilmOtFYJxzFEN2lmpG7brDRljdVNYjxrDKuNvrd25mRYzKFYZi8SNQZ/StqxKGse/aDhWOLX4VDJKz1ZSQ2bsIKViDi6ILiFgxajNcsBmFpnABM/FEaxI+cU/xdoHDOAirBXQADUgx69vqKZ8U4ob1m3bgLkILwBzPLaplGiidvUe5ecP4Ity20sScumZjBgHbpAoJuq5FGPdqKsR4FYsKVe4bY21Zhpt0179qnOD4XD4nE3X8tXXkjMv8AwLMA9P7VXOB2Umcqk67xvr1j2+vXrbPCqM1649pS6EgSgkDSADHWAPr0oZrbasdgq1yqhxxfAJZv22tIERQBAH8xJM/Mim/jq2CcM8EnnGjFSBynQwYP/Wr3iOCC5bh9G6+npPppVI8Q4K55yW2OZVBA6EzGu+8CsprYfxISTgvmRBCLbuGbwHlsMpRCAFg2VFwMQACDJ3YaVG8NQiGDupgaMhZC2xJZJ0jYRuKsvFMKVsNKkSFWenMyDqBvzdaR4dhVKCToYJ0mIOU/Q++lZ8TW0C8LvsrOHUtdaHDMWiWOQ5V6gHcsBEdDWh/s8S82KzMmVVRidVJ5oyjfswk66qw9ap/DeEtdZmyyCzSBHc9DvWofs64N5Fu6xULnZQAABooJ1jSZb8KbacqJ5xlGFlxFJFe1HQ0W4abZIFmiOPT8aMHotwmuODEelMMSsOKc5zTfGHY9q44dBq5SQahWHGL+AOH5sR5hWVtDN/rOi/8AuPyrYMOQdR1qjfs9s5cM7EfHc/AZV/PNV0wuhikw6GT7H9kwacZ6bA10NTABdrtGFymrtXFatOFrizWb/tH4Kj5LjA8pIkEjlfQj6ha0RbvSovxJw3zrLKNyNPfp+MVj+gcGuSvoy3i2As2sETbUAhlYtuxg9WOtMeC8WtgBSc0mCiqzN/pVdY9Opp/jQxsvaYQ2oI6zTnwxcW2QCoBG+lIkk4+49Thc1wpaI7w1wuw7E3bUnO+jzMZjGZT1rWPDdtQGCgADKAAAANNoFZ0zZMW/QOQ49JEH8R+NaH4WU5GboSIPeJn862LbkDnhGOH6kzcFUPxSsYhT/nSr8RVa8T8Ea4Q6RIMwevemzVoi9PNRyJsrXigl8OqAxmdB9Dm/So7/AOn3UtO0rlysZk7ESfypTjV1vMt2ysZTmP8AVED8zVi4RgvP5G+HLzflH+dqnp2kepNw4uZXfCi5bYHXc1qnCLOSyoO5GY+51/KB8qgeHeEbdpgc7FQdFIH0LdRVnQ6U6EWnbPP9TnjOKjE7RWNFVqKx1phGEbQ0cmgRXa44KUpviEpyWpO4a0wbD3oUfLQrjil+DP8Aulv3b/8AoatVnpQoUiHQyXY7miE0KFGAGB0o6ihQokcJXVoi3TQoVpwljcIjAyo2rOsXZC4pgBoVB+e36CuUKVk6LPRt/ERa+C4VHPOitAG4B/OrZYUAQBAoUK7H0Z6x/wCRoOK7cGlChTUSEBxfgNm6cxBDDWVIB/EGpDheAS0sLJmCSdz9KFCspWN5y4VZJNXFoUK0UJ0RjQoVpwYmiOdK7QrDhMGk3bau0K4w7NChQrjj/9k=</t>
+  </si>
+  <si>
+    <t>SoundWave Studios is a beacon of creativity in the ever-expanding sea of sound. With a commitment to pushing the boundaries of sonic possibility, they specialize in crafting immersive audio experiences that defy convention. From experimental electronic compositions to avant-garde soundscapes, their studio is a playground for sonic experimentation. SoundWave Studios invites artists to embrace the power of sound to challenge, inspire, and transform.</t>
+  </si>
+  <si>
+    <t>Mystic Mehendi Boutique</t>
   </si>
   <si>
     <t>Rau, Indore</t>
   </si>
   <si>
-    <t>https://i.pinimg.com/736x/f6/c1/fd/f6c1fd0458c0c19a76389e82e37393f0.jpg</t>
-  </si>
-  <si>
-    <t>Ethereal Elegance Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGRsXGRcYGBsaIBseHhseGhggHR0dICggGB0mGxsfITIiJiorLy4uHR8zODMsNyguLisBCgoKDg0OGxAQGzAmICUvMisvLy0wLTUuKy0tLy0tLzUtLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0vLS0tLS0tLf/AABEIAKMBNgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAFBgMEAAIHAQj/xABFEAACAQIEBAMEBwYDBwQDAAABAhEDIQAEEjEFIkFRBhNhMnGBkQcUI0KhsdEkUmJywfAVM1NDVIKS0uHxFnOishclNf/EABoBAAIDAQEAAAAAAAAAAAAAAAMEAQIFAAb/xAAxEQACAgEDAwIEBQMFAAAAAAABAgARAxIhMQRBURMiMmFx8IGRobHRBULhFCNSwfH/2gAMAwEAAhEDEQA/AHHinE64r1VFVwA5AAY2E4hbiteP85/+Y4j4uP2it/O354hIscZTu2o7xxVFDaK/iLxLnEPLmqy+5zg94N8QZmrT569Rj3LHCh4oW+CXgCtBK4bwMb3gsqidTy2bqEXdvniSjmamr22+eK2S2xNTHNhyAhJKrTucbV86EiSSTYAEScUs3X06VBAZyFBPv/OMAvGXitcuDTV1pu4AVyC7RPMVAEW25iBPfC2XOF2EuNtzC9Hj2slQjoZ0gVVZJNzYnewm3S+COYYmEFQo0TIBg+gJtjk2S43xN2ZQr1aa0w2sKCdRIMNpJtpmwE3HrNbxD4or1mp6kqU1ST/CzLdRo1Iy83702vbpQMxG8Iq6txOj8So8R81RRqIUI5mbl03PYkm344h4rmM1lkD1X1LMF0LWnqQdh6455wPxWKJIq1Y3IKioeZramJLTHy9MHOKfSSq1GpqFqL5asW1AEFiQy6jyH7trdfSQbkGr/OSHIFsP0jhkOIs6BlqFges4jp52r5hHmNHvOA/gjjK5hAtOlTSmLHQukCZg6j7RMe+QcHs1lURgQ0sSRHe02939cVIfTcKrIe3MizucqgWdvnha/wAWzPmx59SO2o4Ys4LYWmpjzcAyu18xjGi1xKXijj2aQDRmKq+5jhHbxpnwxnO1/drOHPxRlNSz2xzrMZAM84PiyEirmzh6fHk6caVBIO+wl7N+NeIDm+u1wO2s4evD/ias2Qy1SrmKmp1rEuXaTprOALG50gD4Y5FxeFUj1thxV1HB8kW3jMFR3Irvb0F98NYhqHuJq55fqk9PIRwLqM/hXxDnKucFKrmHvzQGMFb7A/AR3GL2Y41mVzdaj9ZqBQZG5IsJA7YU+EccSpoqoCr0oYQQJNgoU7xvMk4LZfMGtWqZgQJY8paDf3C+PSYWQvWkeBx92BChSCCRyNvzhXMcerLqDZisLyo1mfZ2MbXM4AjxVm2rGp9bqjL1OVYedMC5Ha/X3428RUgmikis5qkolyOYgXYnawxV4XkAqtlHIaEBUqdusGfU/nidGM+5ACATf7fpzG8GPG94yNzx9RHXgvG67DmrVT/PIPpb3YYKedqn/aN8zhA8NZoluepqc2K/u6TGG9ajFgqMoIBJkauoEQCI/wDGMHr0OPqGUcc/nLY0XRuBCn1up++3zOM+uVP32+eKa1iaTNEMoYETbUsg3jaRv2jEmUk0kJG6Ke/QdcKWfMjSngQN4u43Wo0tYq1AAyzpYzEgH/xgf4R4tmmq1NeYq1KRhqZZp3mfWNt8WvGVJDR0uJBZRHczYel+uA/gvSlVqEgtTBuNoMGJ6kEkY0MaE9Iz/Ov2hVGM2hUeROgpmqn77fM42+s1P32+eKHEs3Sp0/ta3khrB7SPdII+Ywm0+L52pVpUkrutCs5FPMVKCB2AEkAbQYMEqCfhhIBiOYq5QGqnQWzVT99vngF4i4pmFpVPLqMHKnSdREGLH4b4M1KcACSfXv64TfGtVhT5CQZFwYi+OwW+VVvkiFCrpJoQPX4/nUVC2ZrEodFYK5kEG5+I2wWy/Fs2FJOZY21AeaZOqdAE7fjePfhYyI8gw7akqAayLhS22o/HBQ5PQWpKiMCdYJP3QJKz8PxPfHrU6dASpUeRsOP8SMuJXQZF+hjN4U43Wc1KFeq5LLqVtcEGNgSbHa3ecB81xzNU5R8y+rzVUEOTZXh+txgPxLMmmiEU1Vp8yVMkAXvG35YI56utLMtV8sVPP8qqC20BgWXbqVGK5cCIpAA3Hy5H8xJkrYdx+0bvo84jWrVKwqVHdQBGokj2iLTjMb/Rzmi/mXAWXbSBsTUYxPW0AdhGMxi9SbyXVbDj6QLmzB/Fh+0Vv52/PEJWxxa4ov7RV/nb88aBLYwm+IxteBOf+JVvj3wfU01gO+LHienfArhFXTVU+uGMRoiCfedpyBxcoUSzWwP4U0qD6Ylz/GqWXVzUkcjNIttuLn2riAN5w476QIvAPiLja082tJkV1VvObYaVpgnUJaza4kgbD1OOW+IeP/WnNQ0odm1SxmwVQIgwt9dhvqBxpxriKOajai6srLJMMFNYVUSeogEHFDg2UqV64RRB93sr/Sf174z8agWx+caXCCN4xHiuYp5XycsjIahL1GWBJPS1/iThZ4hVzqrL+ZpHdiY7x/cY7bwfJpTpKkTA3PXGvEOGU6ilSog2xOqtxGlShU+dHzzzJM/36YvZPOkcytf4GPnY/LBfxZ4IrZZmempqUd7XK+8b/LCn7Nx7P5YaGlhtFmBU0Y2eFuJjL5imW0qgqa3qEMxB6NExa4sNmMzGOxcO469TTWg+TUAAERqkytRRvdR7MbETGPn6lWm3Xoe/of6Yb/BXiFadacxU5EDOJktq0kEC4kkdD123OBupO0goOVncc/T0yDhVU/bRi74Y4tUzeWas6wNbKpHVfuyJN4MdrYrpS+1nGfmG8awm1uQ8ap8hwg8TCKD3w/ceqgLhLq5ValjhdjTCFDuq+w0YmZjLNUO1sM/FKrU+F5Hy5BHnXAkrGYJBjqJGI83lhSnSJAxnFg1TKcPVGIlcyxAMTGYO59MafTZNdjtMvqn1Yyp3N3MbMKmXpMUVC7SxpgBVaDJ6EEkX3t78Xv8AElQU6tN9LLOodiD0MWi8g9hgXkWIpFtKlvuadRk7KRNjvOqMCsrnTQqaIActLMwmCbmJNz6k9cP9Nk0Nv9mJ4XN79o7cNzT5nzl0moQA1MyREXP52t1xLrpoq1uVT7JQe1Fw0z/XAriXEDl6mXqZdrkSwJiZMaTB6RM+owUzLCshWhoXzBqOo8wNtSDuRuPQnGt0jkZWDjZ9xXF1v+Y3H4zSw5CCH78z3KVWXOKRHl1QLiLkAm3bDrkahpKoNHmgLKleY+l9Rk3ki25jHPuHVCs0mMvQcMOxAMf1Ix0XI1VpamqlVUKJquwAJvIE7C236zjL/qIPqC+ar61x+k0s2n414bf+ZDxrLZr6pWFIoKjajv0ZpbmIEEJIFugxp4SoM+TovXu7LY6mkqbp1sdMWEYtZnNU1yWZqU64rAJUOoMrQSpgW2+OAvCePZeMpk6qPq8miyvbSCKQe5kEWHaL4TAJWJahquSeIqXmo9EMWAOkFt1YLqAJ3ZT0PobnC14Or0aeaGlmZmpEFYvrlTpUWvv7omYmCvifxIT9YREIehVQat1IM3teDpIPvF8BuCV6T54VlqBDUpyVEkjmBYjuToiPXrOHcDOuB0Pwtx8iN/1H7Sxf3Co/5uktRatKsCC9OGcCQoY6QqSN/WLkTFoArJ8fNXNU6LLR0U6r6SranQKmhZX7t2jVN72GLGf4wjNzuqKPZUsJ/O7e7bYdTgDwjNr5l2GmKzLDEgaqsg6dI0AhO5mem2EwNjIarEeKqU6dVuc66gsCbW6DteTHWWPQwl+KuMGgUNWn7YcMBBgSIPWRBv1wz5fjFJ/aZWK2DrDb9LXH/bCV4lz6PWZIkEFSzgjQSoYBZ3kCbbEYt02JcuUI/B5lmNJNc9l1I8sVNNBxqQqJLaip0yRcixj3Y8yep6DU6kirS9ekSNu4t78TcNy4ZDlC3/tPp9k7+/0nFJ0eg5qaKpKmKjtJ1ERqG/Qe60Y9F0+Rz/tOfem4P/Idj+PB+cnp8gRqbg8/zK78QVqjJp0U3ADRJIA6CP3tsMlNC2XXWkvl2U6SZJpMbDtI2M/u4XuIrRUuxI59LIRtH3ovvON+G+JHWt5g1PsWm+pVIY2HoN8PZAHxl+Nvv+ILPjKkjxHf6LSTWzBiJAt/xtH4Y9xJ9H3GFrZ3N009lVWof5qjs1uo5dNrYzHm8rl2s/IfkIizXvJeIL9vV/nb88Z5dsbZ3/Pq/wA7fnifTbGOR7jGRwJzzxSl8L9NCCDho8VLzYX1TBVG0gzqnhevqpL7sBfpN4kPKNE8os2qLn+U97Rix4ErykdsK/0jZw186MvqK06KhqjDcAiYU7ajMX74L1HuxDfvKYk1PU55VAT7Rh7Jsm8H7oPcjqem3rh/+jjh5TJvnnXVqqBDG8syooA7Sw+GOZ8fznnVtFJdKg6Kajp0+JOOtUOPJlcjSyVLUlUfeZSVJVpYyAw2FhvAG3SNIKi4yCdRC9o+8SREq06VJSWcEATuygsdzblBPwOBycQRiygglSVYAzBBgg+oIwtcK8XGnWpvm2JOlmVlpMAJCqYgE97wPaxZ4bQWtmq+Zpg6augzpKyRTXcEWaZ9cUyrQsQuPmjxCPFOJ0KY+0dRbYnATIfRfl3zTVcwpWi9MsKYYqSzEQw0mQAJlT1IxSzfDFOep1yrO1Jg9rxoOrbb3T1xY494qrVay/V9Y00zqmmz7N00+nfuNox2E7XOyi/aeP1nMqfhHMtlcxm1CmjlqhpveGkFQYEQQNQMza/bC/VrarmzbSOvvx1qv4jnh1fKsjhirgjTpGppckgxFzJ/rjj9QdRhpDqiuRSvedd+h7jTFaiVGs3Iv8TWYW7xN/XDvmawVyTsMch+ivj9LK1qnnFoYCIXUFPU+lrTjrGWzVOuxKmR7o/A4zuqFP8AKH6c2sT/ABnx+lbS8+gwkVvFEezOJvpDyK0q50Aib4W3KuUAQjv64OvSYaDVdxfKxszomX4zSqUJYgd8E6LU2yGTqGFT9oE+n1hh+Jxy3iGrTAELhzrlzwjh9NULStdidhbMGxPTv/w4jB0q4wSDzFMgsVI1eq7LXgrTWBsQdMcum1xMGffiRssvmVarARp1NYQSBDx2lht3OAGWzFRdaKpJKlTN1VdQnTe3vv6YuDMFkCaoix6FgDIjrE3+GDMtbCKFdqENZQ+alMsaYcSA7wB2ChWOpvQ27xivUyqrVo+W3OznVHshhcjTuB7+nU4BcHoaqjk0xoLC4MMhBmVne2493bDlWZQQahBMiKgMb7SANu/acM4uqfD7QdoZM/pGpS4vnCK61UJ6KwuBc7dxvHpbBWnkq1dEL1FSnLsga0l2LkhZ6ggXOFziGfNInkD0xMFb+6xsYIuMPfCKy+WjBZLhZY926WuQCR2AuJm2Iz9Q7gMauPdM7Zlp+BKFDw/p1Ba1UBhpYLTZQRvBkwwnpilnOCMZIridOj7RWTl06IEgj2bYaWzL7Gx0MwWKYJIMR9oTpJ3EkdPh5SzDMxRCrlW0wBqMRqn7Mwq2Ikg9t7YX9R7v7/aM+ilff8xMOYzFGqwqAJ5+rVtpYLTcALeGMsIAO+K/hritEmjSq0SIJhxyk3JNxzDV1g3NuuCvihQaSlIpnfbUpJBAiw0tB/dBud4nAvh1MedRmAy6URAHIDGAxMgf+bYdQLk6c6uQSR9agiArVOhZTOOoijRSkOgVUpz06AsPjjbLNWpkMtNVOkKCKrTpEsBddpJPzxTn7FaoqNUnSR5dR2uzAvKUoVdMA9Nh1EY9KUxUVTqKkm6pWJCaSBqsCpmRADWnCFGHsff/AJCNXiQf/Op6x0ZkVvkV5l95jCfxMCnWNRX1IShakSHDIznTdgdRBgAmCIN4gYYvOZXCeZqbSzFWlxAPcxVJIE+nWMKvi7iFBUqSdNd6aOkCQ0F76oEjr8sH6QL6w18SmULoswhxnjCqwDVKaVgeVJsNonc79p674A+KOP5gV3WomhalOVQEaS1pbVOljpImO4wiAlyRJqE9FBJPUkeo/XBvh+fepQehUBahpXy2UA+W19LAn2VJhWXsxi+7ObKRlDrwLH4H74iTZCu17TSlnW8ukKjIVWoRJkgC0gxcr7sQZvi71Xq6XlWEu0RMCFA7XO3pipnuHQ+hCxBAZQfUXnbYg4mo5WFsOun0OpTf1MgR8cc3UnSQO87N1Ovf5VOvfQlTdc5mw4AYZfLSAZvBmT1M4zHv0K//ANDiHcLSHbYsP6YzAE+EQS8CM+d/z6v87fni2ns4p54/tFX+dvzxZR7Yzv7jHewiV4qXmwvBcMPig82AaLgq8SpjN4HqxUIwC+lPOPTqsVjS1jH72mBPqBfBHwtU01h64a+N+EKWbqebUkgU9MHYG/N7xghTWlfOTjcI9zgn0f5Dzc/RBFgS1+pAtv6xjoGYy9U1KtRFYvSUayHWoQWIEc1Q/dkx2Ujczij/AOmDQ/aIEexrUmBcEEEAyeUrYHeMOPA8vSydOsXcCkrAq8jnVaSxZQAYAgRuBOIOS/dDqlbRTGV84CqKiqaVJNepmQl3lyAENyQs6enzw4cG45Ry9A0HqDzNesAKxBBOmxEgjTuZPW9jChTopWzzlnOmrUdQQsgqsobsDTggBCCO2xM4JcWo0wyxMNT0qZchQp0Gebcs1ibnf1xOqtpIW4dz/HaOWpZlT/nVVYD7NiCDyhdUaLm8E+/CevCnLU3RUbWWAGhQRpa50aVBOnsSBJN4vLxRxVrE8kMdJJDNDEEKDLQDO4AB3mMWqVCtkszSFW+XD2IJIXUHExEqBKiNrsTO+Kg0KliN7gvh2T+sGvCilpA1UXVGYEggX8uRYC1scrqKVZkO4JBnoQYx1XN5E5jN5iotUUyhK0yx0gljoEH2gSRHrLASGsice4DmFq1WKM0F3LKJ5dV2aPZEn8cFxsLomAzKSLEl8F0iazafMJC3VFnUpI1A35RtcdYx3DheUUP5i2DIoC9h/dscx+jrwX9ap1KlYVaYkLTdSVP8UdxsMdQ8P8ETKIKKEkCTJ3JNyTfCXVEFoXDssEeLOF06l2UE4Vs3wxFWQo27YevEN7DfCfxiuaaQb4ynyMcgUGTmAKXcEZzgX7PrxFxHNmjkuGpAhhmQQQTP7SYsCO/W1zgzmeMo+V0xDRtilxDhdSvk+H6EmEzI1nYTmPzifxxsdITRuJZwumxF/U+klgCsggsLu3SY+4Ln1+ONqJ1r7IkyJ6WFtsFaXDqFMaa9XVIby9IYovSXKXZp6AwNjhfyvEgtaFvTDBS0fDVB6YZ81M9gTxCXDsq1EjW49oKpQGOntD3nFridemGqXJIYKyzcAmJGoGCfTFfj2ZPJEKklm22+7+W3XATLZzXCrJqsbSNV59N7YhV1DUZRVLC5e47URWVF1VAYK35gDYggWJ3t6Yd+FUjTpqtRWIVVF+WCoWdR9pTOphNhcdb+eGuBOoFWoRrNwDHIOgO4JveDboeuGOnSNtcAkiXjVy9iJuO3USfasMQWvYTY6Tp2xpbSp5wGyASVUybgGFuSNgDvP649zFZJfWkwASSWaQWbYSR0No2x5maMKVViCZGkTpmCRpkAgSSbR1m+LvmRV8xdWmoAYUgFgQKgX2jcqXW5PtCcVAjhrxFLxXl5pinpMDQApChiN0honSRsAAAJgdgnD6oWrTpJUggnWtNSynpGoyWIkg99vTDxxnJoaT0gqqAsooTzKjUql1LmeUq0GBEScKX0fZXXXqVNhTSWUj2lEiqthAMEKAB96emDA+2ojmS8qeP4jimqYNNWgyBp8w1FmQaR+/G5vAi0xicuCrkogVRbkBkkcoiQLlgPicWlYLBWb81LS16KkkeUJ2LDra1+pOIs8dKosgMzai0W5e07c7AgMDZR2wI8xwccSt5ZawpA9ivL2MwABII9cJXi/LVdQqliaQGkVJ1A8zWIN4v7f8J6Rh984sNLGo8+0DpVf+LQqhhIHRvdvj3M0dUXlrADSwVbAGDEs0SAYURYDqOXaDzIMi6aqcpyJErUQ6WUqzRAJPbuQdpwTp5CnSpVqqK/lxygnrZhttcdR6YL8c8PFqivT5HnTAXQp6KeXbYAgADqOowDrcUKN5T2RgQQYMESrQvQqVm97nucSG1THdCrEHmaU6epASGDDlkgiZ29R0sMVFotpCc3tKQRBvcG14v0xIeHMqBGJlweaSetmvt0xFwag7LU5gy0zOkk69xsf/N/djtqJuC2ozqn0MITmc28CGSncbm7G42iScZjPoWQ/WM08WanS69QWBEdCP64zB8fwiMYvgEPZ8/tFX+dvzxMptgFxjjCrmqyk7VGH44jfxCsWOM1jTGaIWwIO8RiWwKRcW87mxUM4gwdeIMybhT6aqn1x1EUDUokBirRYj+7j0xyuiYYH1x1XgdSaak4OhFG5Q3YInMcsBmaObRA6JAsSoC1QekaiCTyzpkREWGK3hXIV8y4LPpSi0LHLo66Qj0+dYhJOmAnwxbrUjUzWZoeayoldqjEElhDTTI1qVPu2ETEnEeYzwo5hczlyDTrCVMgByfaU2BG+sdyFFgoGBX27xvn3Qh/hiVsvTKg0PJqOVVlIDBXYxp1LIMSJ23jC3wvJq9KtmnBqFw4WI5Qql0ZwQGUDSoEEySLDF6hnamdr+drFOlTBdXMlUGkXNtDvJYG45bg9TnEeHLlH86iZoV6ZVtJLyNF9Cqs35Tq1QAItbHLtsZYm95Qz2VSu1OrlqZinpbVyhWIOpt7yS7ERY6pO4OC/GOO06yq+XYu1VkDU2YSiaGlggNiVuFmTIxBlQtJjQqaqRqaYfSNUKxI5goXyoUi5PtHbFfjj+dnWp5dFgEewKcElVDs0qb6DG5BAFr44gEybNTTJ5KtRKZilTL+YjM9Ej932WGoagSw1EGWuL2xby3EEfI108xRUqeYahspUa2ZAZMqBCm9zbpir/j+hNLUilenSakgVQBzBSAACFkHTNgJIAwo8T4l5SNRpaD59ndSSQomVkgEzquxvv3JxIBMoxAE7rwDMitl6VUffQN8xiZxzYT/AKI+IFsoKbfdkr/LMEfA/mMONY3whkFbS45ivx8OXGkYU87l2d+a47YaONZple22BK59FVnjU3bGWSwyEgQ2d8XpaQLaKvF6BXbbB7J1/wBgyikoFNHOEyYaRXJsdwoAuR6YWuIcXDq0rpM7YO5Zl/w/Jkm3lZzUNIMg12Fj3mBHWcbnSKwU6pjZRSRNfJsQ7U1jQY1mCGi8yRtAmdrjE/GuHpQ9lf8AMIYagTpA3F9zM/hidM0xYKoBo0xDEqOawGmOk3Hpc4t+IIqZcNMmnUMETGmADvsNR/CcNatxFATcUylQodQbl9kR6RYC3XpjqngrwUqU2qGmrZn2WUc3lgqCCFMzJJUkTdSNtWFjwTw1nZolkU6zA1cwGpVA63En0F98dFpZrQ6FkJFMrZoJMpO9rzzXudIxLN27TS6PEWtvymV2FMP/AJdzoYWMW08wE80gCLWGwjFavXYCZgBgGPbWCKczcCQdhckTsJ8r8Vk+SssohqUgbNsepAke0wXbYm51WgCedCjaSp0tf+abrKmHANpja+BbAzSCtpuSrSp1KfOShVmViI1EMsBQSZQkgNIB2Ydxi1k6JdPLk6k5k76QdUDlgaDe8khl32xSoamqKxRYaYaQx06lNhIMlCR2Dqd98TIpVRCksDqB+8WAHNvAaANoHzOILVsZAW9xNsw4KhCGX2g60+XzA/tc0zA30dLxIg4B+CcjoRwd/PZze6sjskauqmJi822icMmZqhkYVYJ/1BYjsXA62HOI6kgxah4XpsMugWVDlyWAEmS2oz90cxFua4gjYWDbShXcbQ1mnCtNUlnN9Is29yf9MGCNTXmxm2KSZMVXhyfMJHKLqyahqQK0agAGHpqJgTGJK6oDpAUgjnBJMzOoveTqBI1b9emIloagKdqmr7pBDAi53GlgPukEmB3xC+ROOwozzNVBTZoJVNYWFM9RKr0PVbddu+JGqhmgzBBiSwbTMDbZogk9MeZeQBJKty6dgAGU3MmzHWtiBp0zO0RZnXR5gmpbEhTLC9iBBkQNxv64qRCrv98yfM5DzhoNMnUCJEiQTuIEiP3pABM9Jwk+IeA1UzFRTDnSVWqDGsBgw1DpVDKFJ2IabYeBn2AQB2UFS7sGIENGkCDNgpk9572A+KqxTLM6UiWQB9EQRrMT/wDJW27774tVfDzE+swl0Ldxx/3FPMZrzadIg6VFySwM7GZ9DNvUYlp1aABFOsFQ3KgQC+5k3BO23Q4F09BARjYGACsC+4v7W+IaGRQUwDKEvFiWGqDFtxb+mI0DiYYAnW/oaacxmiCCCi7EETrf+kYzHn0MCMxnAWBNmgdi7RNvTGYZw/AIziFLObeOc868TzgBsKz/AJ4GUc4zMBJxP9IB/wD2mc/99/zxS4csuMLZVF3NJD7Y58O9nFknEOTWFxLiRBNzLGVqBbkYd+HcWYoqD2mMf3+fwwm8O4dVrHTSRnI3gbdpOw+OGXw/kalPMolVSpAJg99vj1xRrsQiVRit4yqnL8QqOsyCDMQuny6WoHuWLCf5SdwMBmJzdVzUbyaVLUSCyjSpMfvcpIEyRFzG2G/6XOGc1LMLKzNN2EyLcrrexAmDtOnCfwnii0HqK6gppug5iAFlQS1iehuRDL2OLsP7l5l8Z7NxLdOtVyldg8vQcQwCcpWwDCBEi+oE31Ttt6+dqulXNM4p0qSuqQeUzICKpSHDaUkhgQQfSIuGo+depUqaUphdKl1DLT5CB5bEgagzMS0EG20DGni3L18pQq09WqlVWBq0X9omBy6XlgYRTZfhjlq6PM5iQLHEK+KOLJ9Wp0mfznciqrDSPLSQ6kGNO0Ks+11tOBeSzDZKo3nKyrUWBU5CVuYMiABBBjmuQAO8iUGorSzQp1HpgKw1eWY0ipIJCzpVVXTe5ZQTbHnH+LLVQIhZ9beYyvpBSPYpgiwl1N5MHrGO0/29pYN37yhx/NCo4CkuqU9JZpl7ibWVmm4FvvbXhSzlMebHQLb4nf4xgtxGrpAEks2pGBGgWbcpeGk6QwY8qEYB5XMh6yybSB7gNz+eCAUm0GzAvvO3eAsmESmFU6UQjX+8W0kx3AjfDRVa5xT4GQEAGwFsS5hrnGWx2jHeKPilubAXgYBaD3wT8RPz4k4Dk1MPbGdlyjGCZV3CsK5it474YqwyCCd8S0aR/wANyV/uZlNpucw7gx6eX+Iwe8XZYVKTR93AyiUHDckXO3nnSDBJGYdfgJbfGr/T+o9XEYj1YGm4qUcyrABUKKPuzdh3JPW1/kMWOFUTXqjLUxp80WJkwwkkn+HQTb3YHkmWeNIMtuTCzIud7ADHSuC+Hjlcn9YqqVr5hgsQZp0iJe4YaWMCTNgAIO2H6ieHEXyADiWMtlaFCgKaaWpRf+ryLHp7gBEgRhM8W8cKVDTpKgJ0qdIMxp07ljDe4dTgj4m4yUBanGoWN7CTCluw7HffucLy5ikKyUkEM1RfMciSBq0gAmYF5/ucQvmanVZRjrEnP7R/4BlNFKGKgtzuS92Jt7T2mD7JIBi20YtqoKtTpz5kPJIDagFYgIouWsNwL7TfBE06bLT11+ZxAQJIRZAklRaBcFjf3Yq1sjpqALUDrGpWJEnrYixMSdvu/IRI5Ijos+0GQ06MAEGRO4FiQeZfd09IxI2VZzpuWAJ0xzbbi8CBK39D2m3w8GvVZ9NFTTNO7a1D6gVUxOkNuOWCbYkzHDMvRqItVXqkgPpRuVNgohzJBAMyTttiQolDkbjvNV4bUaizIRUUysagGGk73sRa/qYi04j4FwasmVpHRpRKZZpK6SIkm0se9sa8dz5rfcCKqsECmI7iRHMYiNhEdJxr4R4vop5d3Zmp+WAQWZ9MrFge0xA6T7sWASQfU0/OT1VZSuvUNTDdV7x90mw69oNsa5jL/dhfLG839RaIPzG2Cef4XUJU0atGpTYkqBykDcKLt5lp6rEYEuWT2mjmvqWTcRFtIs17GTJkDFWWjJxvqEmpUgLECbxI9oH/AO3WV3kdbgx53I1dL/V6o0KYFOoocAmwi+pOVQIm07DEuXogrYSNSrDRdjLE7kpT1bKD1AkC2LOY4bUQ+X5qFgJAYgybwAG2IjpiQQNpBG9zm3150zLUX9l4GmSyht+U7gFmNhsSOxOHMUlINNiYctFK7wpBWBAkQrMJG03JjHP/ABjmqgrwIkhWAQCST/FvA7YZfC+fJXnMuLVCCCZ0yJ9CNunYDfEk7XBYH15GxNyCaiZxjh5o1WRh7BN2MAj7pHSdvniLMMXDGYnSwAOqCOluhB/LDn4syZdGqzqCgLUBGrkcHQSOWQGBE3MsO2Amb4Ah5llFIUsqNctDbHoIIvjtQFXMbqkGHIV+6jp9CQb61mmYMCaVGZBF5ab9d8e40+gvJPTr5kOf9lSAvP3n6+6MZhlPhhMdadojeOuFO3Es2VUktWcgATN+nfEXBOAZh9TpRqMqRqhSYmYtv0x17h+UVuJV6g/2bufiSQPwn5YesqSRf4YVVTkJs944H0rOL5Xg1clafkvrYSFKkSN5vAj1w7+GPBGgrVzF2FxTEEA9NR6n0FvU4diRjxj+GGBjAgi5Mq5PKU6evy1VSx1EARJiOmK+lasGoullJWx3B/ocR0lIqeYXMEkaekQfx9ce5WqGWoJ6yMAL3t9doUJW8qeIeH0K2Xq0nFmTSp6AxKEdiDBE9scAzdLSoVv4mgFYB06XlQLxyXJ+N4XsFKoz1MxNSNISFPU6ABHqTbbfHOKVRFqanYESdKFrTA3BMAEgbbqq98VxZNQJAhglGrljKVxloo1iK+VqqugtpaQfkrSxHwAOKHH+IV69CrUkqh0KVgwCANKLMAnzC8sAZBFxAwR4NkVcNVzNYEsFGmmFIGm0ywsN+UAWYjrijnMvVqH6sXXQzzTDaYAQliw0mwM6dh7upsKBvvLEE/SHOH+JU8tmrs6mhTuoXlqatIErfS0kKASCZJiNk+oTUJqafsn5UVVQjkcM8LADAAGA1+mDPFeIJX00yy0yAVbnIbWdOgwID7RBvcRGB3Es6ApQ1AaV2ogyxQAgLcCWUCVbVv3xKCtxObxBb8NetVKEyVpiSLiV5bcx+9IMdQdsL2a4VVpEgg+/Db4YzgGZEIAGVkJAIBPLuAguNIHvPrhnz3D0ZpcSbQLA3+YUR17YjJmOMyoRWHziz4c8bZrLqKZKsosNYMj/AIgR+OG7J+OixGumt/3T+uFXNcK5tIYQDDQCIJm3NEwBv7sNWX8LZdMuKjLqIG56kmAfUXwEYhl42kvm9KrFz3O1KVUhy1uoOCeXpKKcJti1wvI5cUAr5emYM+Z5YOoGTG0zeNunU4sZ7w/TFPXSrik3+mTI/wCpPx92M7qP6Y7jUp/CVOZC1VEDxfxdqa+UOvXG2UyyNkcg7gmFzAXopY5o8rHpImLbjcGJVPEdZvPZXsR6z8QRYg9xhy4dmo4dkE1adXnspBI5lzDW7EEEj577Y0Olw+jirv3i3VH2bSGhkqVGsKlVlbn8zSqqdOkahy6jyqwB9YJiN63ifxt9ZOlASqzoZoAabFtiynpEj+mNM3qp5dEZqdKkoJZir1C5Mkifu7yACZ5egBwq1EABamCLWUkGDPw9+GU3EWxZ3RCqnmEeGqqNNV5LjTpCyQDtPRbwQt9pxomVYVA8k6XlhFyAbW7wMR1s0NLGOaSPfsd/fi+XVl16SzXBvGlQIqekkQ3zxNmB1HVc6Y70nCtUdqbIoCsh9oXZZBjeTHyIMYsPmaTBBTM0qZBUbO0ksV5RFyTJkWO3cRw9tVFCAVYykAn2iJG33SDczuT78bcEpKa1SlVreXTFMFjIDBiWRlSdhIm3WTHMcC0mek1pzD/CMsv1TN1XAJcBEke0VH2cTZgahsRbb1JXs2W1inTCh2k0zICkCPbEXa1gLklR64l4xm3bMUUQt5CsWFMBV5VkyBAJaLgH7xGMyxIzSkqNbIzBo1ALygKQIioo9r3nfc2PEoLBJ7mDuL1Go5eo/MzMhc6vXlB/hMgcv9b4zwuv7JTR+fRqXSNQvJABMXbTDXtAsATfz6S6+nLGVAZ3UXWDa7CPcp3xd8ENUOWYh4UMwPKSOhudXu+eOU7bwDOfXA+V/rPeFZvRWqIHOqmQy1O6aQZJO1yVg7/GMMfFs6auWV6jamSuCwAUBBpgb3G/vlh0ws5Yfb5rzSCoamhCiGLBZWBfl5hPcwNyMT0q70s35bsr6kIaLoxsy6e9ib2vabYniH2c78iFspnadJ6VWoOSkHDbG7G1u0Df3zGK1OjpZHNZDT9oRzFtJBuWAA6fiZOBnHMnAoGjUYprhkPtrpTVeTDiUYybfDBLUAscw5QxMKDBjtbf5X7GBkMBQhQVY3ELjtZTVqVNILkwDsAIuYM+pHqZg4DZPiBpuzIGYkBo3nvvuTvMb4l4lUJrVGHND8w3YTJmY5lIF9t+mKCZsUqgqcridQR9iB09Df5jBVG08+2RvULjm51bwtxDV5tGsk+at1sZgEMD3brIEeuFnO5Z086nICq0BtjAUAf8Vuvf0x5keIpmNLAQ6k8oOwKkiDaQQd+84GPmK/nvTKfZKmoUyVZpJBBmZJJBsTgYJYVwYPP1JzqAw9w7zo/0NIwrZmSWGhIJ3nUZv2/TGY2+hy9XMOPZZKZEiD1knsbxHp64zDeP4ZfDegXD/B+FuuYrVDUCI+ZqMwMc3NopKCdhImOs+uGivX0kDcWEDcT1PphTzvjLhxq18nUqqrq5FTzQyqCCDZjAtuDO4xWNR1WEZatAwEbUtQgC4IdbHc2ad8DUEWF7xh22BPEdWqAX6gHAvNZ86IkBmP4dceUc2Ki6gdwd7QYuI94n44C5x/tF7WwvmyEGozhQEXIeO8SZLdBGKlHOB4ubQbGNr9MBuO5pqlRiDH/bbFrhN1BG8YUYXHQKEhz2cBWsXcoAwCkbglDqPugWHQ+8YX81kS7OVYSwZSFZ15mUKrCHCrA5QBYyRfF7iADvpPNadOroY9kCZ3Ej09IxrTphBHoQbAGNMMSsQtubmmQDscP400qBFibNwRmMsxOk6QqujHlpsXpoAFV+SnqJcXhtoEbHBbgNCxcwzMY31QuptIAJIAF/eNJ91LLUlqVVSwZtwmqRPKSTaykMQPS464ba/Dx91iFEAKUptAAixZZ/HHZMbMtCDbKiGjFPiivSq66ZBD6H0hgFV1ZTfSCdTKIlJvM+tSvl+QqqxTZnJBq1CSHBLpBKwNXNPpe8yycTymqhUa7GlzDlCi3tHSoAPLP4DATN09SiBBsWgHlvqkREiymBtE7bQl0JdWDCBamXaFqLUU+VphlGqDEAnVq9rTBGroIw15TL1M2FqIghlHNqAA7iFgmDbY7emE0VWVWonrzAj+EEgyB/ER6mRI6N/gTicPVyzWKsWUxadqgHpqgj3kjbHZcdjedqriWzwFUZQ5BctIA6dyejD+4wZz6eWKFJVJFSzSTACw3rB7Y3qU2qPqWO1wT7+ovOx6YKZgiaUi4mJ7x/5xbp1DEiKdS5UAmYKelVUDaN+g7+/FOtRIPtHvcagD+mJzzvINl7Wkzcz8Pw9cUOKcXSmCqqXfqBEDvJJ/DfE52vj/EjpkPfeI/0geH1rUjVpL9pTudP3hNx7+uKFHO5inw7hgodfrBcgAtAzDbfeiJ2tfBfjHi2tSU6MskDu5Nv+UY8ppSqZLIV9Ghh9YKKtheu4YR2NziiPSb8SerAQWYIzzFaZWZ8x19oz/IJbYg2B7ehwvOHoOytJZgCpZQ4v7JF4jpMHrg3xKrGYWCm06XQOD0gg95PY2tjM9wtKyirRcUwqlWpMWOjmiU3YKSbzOnvicZ237zPUit4tZ3iTn7PVcDTcLBbraIB9dsHs3UHlIiAg6WZtJiSG0vFu3ed+1sBzwlNXO/IBpWN2JsDeN+pwScclNiboWB3mGkkfIiPcMEatqhDpraPnh1Q2Xosruw8vRZWiDc3A9qZ923S21HLucy4SxFFLkR994B2tA3F9veKvhDNBqJDBdVN5KkMxZSwPKqwbgnm2kG2CeWpj6051KCaYH3lXlZuhM7MNx395Gbm5icMgPylaplf2mmSrFSr6brKjUrAFjN5EyT6e6fPU4rUmlllqjsGiCWWCZSCGv0YY2quPOoEEEksCD5qhZTVeEkGB29+POLMJRgJWn5rNKssqDZpZiukKdp1RqmenSwIuoqeOyg8tXqELqZ9MAHUSegsPaboOl8GPATIaFRfuuBpOmWAMbbj7oIkGLwRfCr4upu+ap0dCjkELFlEnRI6DSAQOxHU4P8AhqFeooHKEHLAiAR0giALnsFxJNUJnl1/1dfh+n8w5wsRmMy4klXDBhb2qahtiI649dQMwqhGKLTYGnN21MLg3KQRN4vHrHvDakVcxuS606gCoKl2pkKCwmLw0wwIO2Ikq6s6QWKhcutm5L6iD969xvbcWxJHeP6hdT3ihPnZdSNRWseb2Qy+W0ATE3F5P/cxmlXSSVYQS5MgiSOaQCxMgdo+ZwG4hAzGWIJtUYGSIspDRqYdG3n0xL4mz3l5eoWYXVV1BTp5iQxUyQSJB0kj0nfFCJYsFsmcwq1YpCoPbqnSZ5pAuQRI31D34gzlEMixIZWqUyDtIvHug292JczlSwWnq0H2genMQLHtP4YveIlAKgSYdJN5k6tR7EGVEdABggbcCeesWPMk8P8ADhSAqhyeUdJgTO25Avg5w/L0vtHQhtTEllIIJG/uN4jCzls2aRemoUhmHN2JgGfhGDHC6XkqVWAGOoxO8XO/X07YHkBO45i+UE2SZ0P6H2qedmA6gKEXSR15juD12xmNfoh1/WczM6fJpAGZBMsSb3BiLY8wzj+GO4R7BIc1wGmcxmKh9p69UtI/jKj8AMQ5nhCI2qkxVupU6T8Y3HocX/EFbRmaqj99j8zqP4nEvCMuamECSXP1m0oAQSLwxxR0rClVMhzyttzdjFrjr3AtfBPjzBXA6xgf4h4QUXUsjrI3BGxHrOI8zxHz6a1DZgOYeos0fHA8hPBkqgBteICzD/aEYlyPEkp0ylQEKwZdQAIk2E31DfeCLd4GI1yetmfVsDaJ2uZ7dvfGKfGq6tTCqIRSVEgFtREOwB23K9CNut7YEs2eJ2VttIm4p61mm2sNIsWJaAJtyvyje9pPXFatXEEA3AmLm+8Ko06SBN9J3ibY0Slq9mBMmVY6SZDcysQVt66RKmDAxtnKLyzS9S7AMzEiGjSzizREjRKoCttwcN3UFUn8NJqql9TRSU7xcvZTIsToBJjYk98NK5sdTeNz2m+23xjC1wai9OhuRqctcAHTIgmOum8m98MeQbkABEdLXJ79sLZmJ4g1rUe8IZGhrB1CV7Hb5e7CGtMUmak0jQ5pluo5rGQfZjnPwt0PT+FUgE6ybm+EvxxTWnW8wglWGygsZAvA2nTf/ubtldOMQGF7ykHvFbO5EsVcMNMatpB5YFwTEiRA9lYFtzHpqU6y10WSGDlLSxvrgzHMCRHxtsDLLWP3Ep3ZAXbmJXmBvGpWssBTuTMATSzvDtWrXXZlE8qgppJWdhBgOTB0sYABa5xTVHCoO1R+oZsMQyhSpiPcfyP5fDEXiCv5Sq5NtUCekg/gYjADwNmqahqA5dJNRJggrPMFPZW6dNWM47xqnmKqUFOoK2tvQiQo+ZJ+AwVTpBczNyYyzjHDKZtmUKkqvU9T3939xEXHZwACBgll/ZGBHFKlzhJ2LGzNnDiXGtCLPHTKnFvOrS/wzJSzqQtVhojrWbVIO9/X/uN4xUscS+WWyvDk21rmFkiQoOcAk9gAcXwjYxL+ora7Rc4mrMw5GY6FcwDaygkgXUTO/XDB4P8ANqOVVk8syXDprWoRTZzpEghvLQliDsLgkqrEK+VcUqlKjXJzQFFIXXTqcoqagJABaWB0qxPpbDH4H4PUrGoalXlo06XnDygzVKrKK7NCQzNoK0mNy6jSZknDCgEUZmKoIiRxjhQViUVyzmNwwXrpECXU+0pG4JOwGBSU2Raha0bAGLrFvTaDjoPF8tmU8ynVrDUlRw9Sn9krLpFWiapsVA1xpZoAAH3jKxn8hl6lTN1UzHmrJqsq0mjmqLEM+kaixJt2N7YqdpQipB4Kz4FV1gHWilZ7rqn4k23w4U6zLmaWjQoKOuq3dTIJBg8puIO5BxznKV6NKqhUVDpIMlwPyUnqeuOj5lTTpUKrzpqVgqOTBKmlU0jYQZklZMG09MRXcTW6LKrY9B+xNuIIfNyiMxdVZlSXYgSjHZp7C8m22Bfiji/1dqNVUDNqkq4IDAqykNEMN5idwJwTq5Zmq0QqyVDmDpvyMIJAgSSOmAXjLK+bSpVUJPtMi9WECG9CSSAD262xHzMY6hhhxNW32IC4VmGq1mqMs1HLuzR0nabm0gAE7LvbF9841Nw1LTqQhiWkgx90gbgiQfQ4rZ6qKGSp0lEVK5UHve7T/wDX3YF8MzAupMTJHTlBgEnpJ2xWtXunnTqJ1943+Ds/Ur1M07BFdircq8oIGkADmhQFjv3M4L02KcQcqDagu5UAgs3tAqd97j8sK3gHNp9Zq0mqwzD7OdiQZKT01LI+A92HGnSVa2uDIpKHO4DSX0kgXCzpBv8AE4uR3m/0repiFzSqxfNUyf3Kjyx1XJReUwD8Nh0jAbxo+taVIrpd2BPziDczvMT0GDNGiGq1FpBnqU6SkQZPO5kFm76CJ6ARhJ4vUDZrWH1BUGmLAgPMgHpI/rbEHzK9ZkGPCR5g7h1Lzqr0nHLSjm6i+3rzA2/TF3PoSyK41LK6oO8sFkH0mTH4b4m4xnBSeqsSW0MPdphjPcuG+J6dKOQranOs/wAw6E20n0IIsZ7Y483MM86oPyul2K7Co8gdRAhf0wRyeSrVEetqYcsIDfdd/TpaL4GVqA0q9MkhSELdVjaRFjeScXK+femARARyKkG9ggJ/+R9OmLmzxLMCeJ0/6Dq+urmDN1pojSIkqzANJ3lYH/DjMb/QpVU18yAf9nTMdpZv6jHmDJxD4jay1x2hqztX+fDJwsLTUYFcSgZuqf4sR5vimlTGM4NTmbAUsgE38R8XEFcJVHNaWKzYmf7/AL642z+dLEk4veH+DU6tTzajg0aQDuIIJn2VnYyQZ6wPUY4jUYcKEWeZrJvQormS2hnOlBadJF2kgxqICgiCJmemF7N1vM8sUlgpfSYi7DsSAQe4vMA7ww+IuL/WKhn2NlXpHuxTy1NNBQAAHeBGCBgNhA+mx3PeV8nlRTy9SvUEcsUwCE0yQJgcoI5YEW0nucURnxUdKQ3I9oCCQ27AA8tt+9p7YI1MpWCuvtKwIMVNGqQLkBDoJliShF79bQ8A4WadRmNQGBAJEBZ2HXUYHT0tjiy0SZxDDiH3pqIQGABygSI+JB6euCnDCovF7b/Ix1j87YEtkzEszEyYm1uttpwwcDoEwTJjpAAEeuKYVGQUR3ieZvTNg9ocyyQCxm/wwr+MaeqizKplCHETPYxEGYP4DDVmKtotgLnyCCDEEQfd1xpaBp0xH1SHDzn1HOiVUwBUqKhY7EkW6c0kx872xd4zkRTswLUyNU9FiBBAUKLkRMk37YHJk2DGHOimeVQpDWMiwI63tcgRF8FmzdSsdIJEgxpDALIKlnY6dRHRR1IPQEZ9AHaboYkRZJ0AsOV6bF6cAmAZV19FJBUyBcE+6v4UQfWKpWdJbUJ/iAb4xMfDDvxXKI4AZQwG0ifzwv0kFKpMQDb3dsT6lipU4PcG8RuFUBcAuJPucXVrSMC+IPgUYHEWuKVN8MHD6dGplMlSqkhqtDNohBAkiuX0ksCqyEsxBuPiFjibb4bKXCteTyBt/kZhSCJEVKhN/wC9icFxkAEzN69qS4M8S5c1FNXSyOo011mWECBUJ0iQbajAhpmNQwS4d4sr5TMrmE1VKdSnSqVUIH2iFNJIP76VVZfj2xPRytSlWCVM5lqgUgLrBVqUDZaixUgC2kkCLReDTzqsT7WRCFalUFPM0yumYAqzTZwBZCoeLgxZiZa7cwt4mqMTVhzmUr1KdSisczIaJIBgczKKireTAEmThZyeSopqyp8wqGFWvmFZQqsNSpTKwRUiSAoYFnZoOmGwfpcQDqUU5NVUnKkQ4JAVVlCKg+yJgeyAQsHYYXfEKtUpqwzNJlJgKkJD3V2FMRBaAC0TzC5GI7mT3JgLJ011kt7KksQQRIQgx1uT+Rxplc05qK+oNoqeZpJtcywjpq2OLeUy+uo4UWupUn2lgiZ6nYm+wnFDJ5YFKpCkkELabGSJ+Ez2sMcJQGjc6c3GqNHKDNLDLXemqU9SswK70yA0mG1Em0TvscDM5xAVC9QrYDUdzAHQbmcItCkKVQVKkCCW0e0x30i1h3ufhhm4ZxGlWPlqShbmnY7RG3pNjgOcbbcS3VZ3y/T9LntXhXnMtWrqAU8qAxAG0xuTc/0wBzKLDKHGlBIBMleePkCST0EA4Z8ilWi5pVCGSxpv1YGZntFhgH4r4OEbzqYJFXUjL2Okmw6aov8ADEYns0TtAY291GAuFa/M+ybQyMCXnmUKbtPTHVPBnFqmcpZldStUISqGeDGlmVWItAXywewJxzehw7MmmQtFtbwoBi4F+4AkRM/u+uCZ8L11pgHygdJB5j3JYREEcx+WDs63uYyucY21X+EzjnGnbMVKuVqVEXT5J0ORqQsWJMNcM7MR2tiqs6QFN9KBB3lRrHYwACNvvd8eZngJpDXSD1F0w/cdTpA+A6wb4lyq6XVqg+znTr76E13HqoBBH70YrqDD2yr5PUOrmbeJ6msUiBI0obDqxcNPx6H+t62TdlYWvyfESJn4Gfjgs2W1IjMx1ioGBHMuzvJOxWNXN7p6wFpWqaSTqAgdb7bfDEKbFQSnapLwukC1RG6QQQYLKDcR15YM9Mb8b0u5AGmDChdoJBuOkhRjzho01dfQeZI9CraPhcDGuVANaXPKgiB1jaSdotJ9+JveTZu50n6Az9pmh3VWPrLtpPbYDGYsfQdT01c2DJMIZ6MCSwIEctiLXgQOhxmGE4jOP4Z02rwWgzF2pgsdzJ/XEVTw5lWEGiD8W/XGYzHaF8QodvMrnwdkf93X5t+uJU8L5QIaYogITqI1Nc7d8ZjMdoXxJ9R/JkP/AKOyP+7r/wAzfrjdPCWSG1Bfm3648xmO0r4neo3kyQ+GMp/oj5t+uMp+F8ou1BR8W/XGYzHaF8SC7HvNj4ayv+iPm364tUuF0VEKgA95/XHmMxYCuJQ7zG4VRP3PxP640fglA70x8z+uMxmOnaRKq+FMmCSKCgkyYLXPfffEo8OZX/SHzb9cZjMVKKe0IHYcGeN4byp3oj5t+uIKng7Itvl1Pxb9cZjMdoXxO9R/Jm6+E8mBAoCP5m/XGj+D8kd8up+LfrjMZjtC+J3qP5MrVPAHDW3yqH4v/wBWCA8N5Xy1o+SvlqNKrcgDfv3xmMx2keJUknmVa/grIO2psspaAJlum03viJfAPDhtlU7+0/8A1YzGYmhK0JrS+j7hq+zlUHT2n6bfex6v0f8ADQIGVUCZ9p9xsfaxmMx1CdQntLwFw5SCuVQEHULtvBE+12J+Zx63gThxEfVUjtLj16NjMZjqE7SPEi//AB3wz/dE/wCZ/wDqx4Po54XM/U0k9Zfpt97GYzHVOoS8/hHJEAGgCBtLOfx1TjB4QyUR5Aj+Zv1x5jMRoXxI0L4my+EsmNqAE/xP/wBWI/8A0Xkf9Cfe9Q/m2MxmO0L4naF8SZPC2TG1AfNv1xWq+B+HsoVsqhUNrAlrG9xe25t64zGY4Io4E4KBwJ5S8C8PVSgyyhTuNTx2/eta3utjRvAHDS2v6qmq15ebbfe9MZjMTQk6RPT4B4df9lTmEG73G/73cY1P0fcNv+ypzb8z3335vU/PGYzHUJ1CFOFcBy+WJNCkELCDBJkAkjcnvjzGYzEyQJ//2Q==</t>
+  </si>
+  <si>
+    <t>Serenade Sound Systems is dedicated to the art of sonic storytelling, crafting immersive audio experiences that captivate the imagination and stir the soul. With a focus on creating rich, textured soundscapes, they specialize in bringing stories to life through sound. Whether scoring a film, recording a podcast, or producing a music album, their studio is a sanctuary for artists to explore the depths of their creativity. Serenade Sound Systems invites artists to embark on a journey of sonic discovery and create lasting memories through the power of music.</t>
+  </si>
+  <si>
+    <t>Ethereal Embellishments</t>
   </si>
   <si>
     <t>MR 10 Road, Indore</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcShwW_FeB5eivaqDgeLwf8LpMAGpRrxh5OTfEgeqkqwushdjuVVoBqlEigXA_ym8PtfywA&amp;usqp=CAU</t>
-  </si>
-  <si>
-    <t>Enchanted Elegance Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXFxgaGBYYGBkYHRkYHxgYGhgdGxcYHSggGh8lHhgYITEiJSktLi4uFyAzODMsNygtLysBCgoKDg0OGxAQGy8lICUwLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAFBgMEAAIHAQj/xABAEAACAQIEAwUGAwcDAwUBAAABAhEDIQAEEjEFQVETImFxgQYykaGx8ELB0QcjUmJy4fEUgpIzU6IVQ7LC4hb/xAAZAQADAQEBAAAAAAAAAAAAAAACAwQBAAX/xAAqEQACAgICAgEEAQQDAAAAAAAAAQIRAyESMUFRIgQTMmEUI1JxoUKBkf/aAAwDAQACEQMRAD8A5POMGNcSacRnqplbOHueoxSC4uZ4d31xXo88PhqJJm/Mu+zNMnN0I5VUaegVgZ+WOn5zvRWeNJMqt7L1tMsdII2i3iTzj2aCjNUwzhASBqIkAyCPjEeuOkcTIWxmwIReZgQYH+5r7X3uDgrshzdoDZqpAHdjlJMc5/D7u4I6d3A6q89N4tO4v6XIIHUx44JZgnki7kmTtccvj/yMzgVmEa3cI2FmPX+0/wCMAZEq1Tb5edhf6fYnA7iVGaYI5GfTb88W65PUjwa8bDcG3T0xFQrXhgQenXyIvjq8hr2ASMeYL8RyoaWXfmD6c8ByuGDE7NsbrWOItOPQuOo0m7U4b/2f0JarVIkBQgvzN2+QA/3YT6FBnZVUSzEADxx1HhfCVoU1pgkwAWO0sbE+WwHSOeMoVldKiSpVAvI8jtyJiBMHoOUxEgYrvWuREjz3I5cr2AtM39Nq9gNL6ZGwE3mDHP8Ah+Pjis4ex1uRcxpHQGQCJ5D4dcAIRlXMLY3GxJEGYuQB0uYnoZ3tRzJExIJ6gHp09SZuTHLHteqdPeUGCZsV6b7g3B6SZuMVUbU1iZ6HcGehseZmemBkMigT7VZkkpSGyiT4kyB8vrgBNsEuOvqrMeWw9LYGPhsOiitG9FJONsy0nyxPTphU1Hfl+WKYE45O3Yb1GjzGYzGYIWFsTHGmXplmVVEliAB4kwMdVfhtClSjTTWkgALuoOptmO0sTc22nE0YOXR6sI8jkHEDYef5Yp0lJICgknYAST5AY6s3shSz57SkFo5VTHaBFVnIjUABGq3XbBnLcFTLqUytIJAgvvUa/wCJzflsLYPkoKiXPif3Ks41mctUUAsjr/UpX6jHYOGZBq4F4JRC7EWAgQAOpuYjmT51q3Dq5nuFuuHfgmV00VtBaWP5fAAD0wuWV8RTwxclYF//AJ+ioHd1Ec3731sPIAC+KOY4dS/7af8AEfphpzSTgHnVx50277LsajVUK/E+Ao4Og6T43X4Hb0+eE3PZQ02KtIjlzXYyvx9cdIfAX2myQekXjvIJ815j8x5eOHYM8k6YrPgTVx7A/s57O/6qlUYuabIwUGAVYwCTG55c+eIM57IaWIZyT4AD6zhz9k1CZOl1btD6a2Cn4D5DHufYFSDv1xXObXRPjguxFX2ap82f4j9MbH2VQ7Ow+B/LBtxiWk2Ffcl7KPtR9Afg/s+1CstUVBpXVMiLaSJm8YYu11iRZDHmZ5/yjbeduXOOvTVkv7sieUgXI8rQcPvAOBrTVajiakTf8HgPGNzhyyfG2Q5sPKdIWMp7PV2E6QgP8Rgnfzb49emJH9l6nN057A8/pf8ATDzVxUrYRPLLwPh9PDyc94jwassxBG3WNuscgOWwjxwuGhDgxB59PE22+7Y6dnzhN9psoApqgdVfa4IhT5gwJ6HAQ+oblxkbl+mSjyic4zpUtKbYgpLqMYs0aPeAxJmcvpBdQLSD62Hz+uLlLwJS9lPPVZMDYfXEuRpADUcVqFPU0Ys55tICj7GNf9qCX9zKLb2xmPdOMw2xQ1+yjhc3SdhITW8ddFN3HzUYbKLPxHMJKnsl0gINieQMbybnwBwrezqjtHY7LRqG4kXAT/7469+z7hIo5YVmALQWG4jUI+nP+bE8N6fXk9zHkjhwyyVvpBbMZdaSpSWAiW6CT7xjlJv4TivmaYJtbp8f8/DG/FqeuiWg3I23338IsZ8MA+EZEtUhtlIIIWV293feCDgnGzx3N2Fw6qpLbLc2JsN9r8sX8jUD0kZdiP7HAX2kqtTpEpvYSJsf9oMbeV/PFv2Ora8osmSGcEyDfUTuoA59MJn1QyPdlvMJgFxFcMddcA+JJviLItFWNgB1xFVWbYtMt8aVUwlDmJPB6LKYViItYnlhnoUCw7zYUaFaqajqimzt7ok2J6nDhnaU0Lre022PUwcWyuyaNVpG44UhH5g4sUfZ20yR0G5wuCoUKrobSSO7NRRJi5PlHww28LqN2hCmBctT1BgBAgCYYQY5dcGoAPJ4NKHCJqU0LSO0SR1AOojbYgR8cPpXC9w+lNdT/CG+/vrhkIxtpgtUU6mKOYbF+sMCc68YRk6GwBOefFQZZapCOJUkEjqAZj5Y2zLycT8OpamPgPzxPBXNDp1wEb2s9inpzVyoLrctTN2Xn3P4h4b+eEhs8xpsh5kekEfpj6BzNMiPEfPCD+0T2ap9zMr3WYw6xZjBM22Jgz1x6cJrpkMoehCylMImtsUHcsfE4tcTzEnSNh9cbcPy/wCI+mGJ0uTBe3xRi5AxvjMbtxNZ90nGYH+oF/TG/wBkciKikQSWeIBIlVCkSdgJb5DHcatMJTWnFgoB53Av59PTCF+zzgkVKaEz2Q7R/OZCj/cQfHSMPmc7zyD1PhyF+l8MS4xKfq21xx+tv/sp5zKs6hAQAGEtPnaOduWPMhwymndMFyfAdTAH+2fnjXOZOSqtMIINlCkX/jsYkWvtifh/DQrzojTdTMiTI2B6A+Qb4bRA3sB+1dbSIkgmT72kiDfcRzxH+zvP9qlddWorUDbAHvLF4sfc3xr7ccQZI0gR+JGAMiJI07j3o54E/syzFM16pSmafaLBWZXUpm3MWLYmkqZRHaH3MLgHxPB/MDC9xhwN9ztiTIh+MDb4x1tj1ce1NjicexC4bqOYcqFkPUAMWXvHeIk+uGzPKvZSwRoj3zCz98sKuTzdXU2imCSzESd7z4R54bM4q9kut9MnkoYkwbAQcWS/JCV0wACA4BpRHOnUaI9Jw08KqszyJIki5RoGkx3j3hJIwurwoyGo1wWnb/pkbchhuyOSqI6l1U9WESLETYXtG+Hqq0TSTtMMcGE1if5T/wDXDCy4BcEpRWJG0betsG8/mUpU3qVDCIpZj0AEnGR6Ck9lWuMAOJtAOLLe0uWYXqaDMFXVlKnlrBHcnlNjynFDilUESCCDzBmcT5uh2IDM+C/BAIY/cfZwFYYIcBQlnP4diNO8i0Nz5gjAfTr5WFneqDVdZAOEn9pzN2NBQYBZiSLGQtr/AO44akraT2Wk6RbXO17SPl64Vf2nN3aC/wBZ+AUfniyqdkqdo5Pl8sWeD64tcSrgDQvr+mPaeYCK/NpgeeBt2PUk4elydvwA2oxpeTXGYIjhjeGPcd96Bn2pej6f4DltFEtEGo0gAR3RYfn8cTlLoTYkkmOYJH98WMwsQpvpA+I3OIsusC8QPSBcmPD9CcMk7Zk58pOQL4lSNSoVbV2SsLqsnYWm/UcvocWuE0YEhSo70TN79Gv6+PxqZvMlQVLAgtqIQhWhj3BBIiecnmPDF7gznQoYkzfUQQTfmDcXxsqSExW7F7jWUqVm0HQF1tGoAkgzsZk7DaLx4kBsrTTLZrLqgSO2CswkGXHZ2m0TFh5zhwr0NAqvCsUEyFJIvbvG525dMci4jXZM2rsCunMIfLS4sDsRbblGE5aS/Y7Ftv0dozC45b7c58tXUIwmiZgiYaCJlSZFyCpG4GHj2s44aMpTC6wAzM8hEUkwTtqnSwsbGOoB5dximSWZg7az3mbSs3MWgkwI94AwfHEclsrh0MvDc6lQd1tREaoBFyJ54s5xoRj0UnCfwziDUWHdPehSrEibgypBKgwTyk4ZM5mhUy1V1n3HsbGwI29JHgQcTyx0/wBD1K0JXClB0s1NyDz1n5SRhu41aktrSN208jv122wrZK4IAJVQO6z7noJEx44buNhf9PDaRcRqJEHpI54of5ITfxZQyPB+3pVGpssqAI1MYPO/jHyxc4FxQiEqVHWNww1A35Ny54Iew2ZDB00r3UUd1gwIGqJ+PzwvZ3uiaQKsre+p3XkCsyed7+7h7Wie1Z0b2b/6pHLTb43xBmSmarVHYo9GnNOmu8MrDtak7BokCLgKSDc4X+H5oVaZUhu9RdqhQSQqrJgDe5BAG5AHPEHDs5WoUOz1BaIZhRXsv31RZLe6DeBeSp2MwBOFctDnG2MGcAZdNZV1MzggsH1IH/ds0TqOkAgHqeeOe5qtVpVawp1V0qS/ZqgFOTJanqvDAAWBtJ3xbzuVpKHLUcxSFRiWeRExeezc2sfw8j0OBuTpOi6C6nLKKh2IZgwJiBYwbj5WwFr0Gl6GChmhUph1mCNjYg9COowc4JRVocVCSFGpRtMzcfH7GF72SYsra4La5OkyDKLcH7vOLVXKJQJdS1NQSQAogn+objwO2NxR4toDK7SsPcQoQ0jULgxvMkdeVtvUYU/2oGHog8kY/EifphspVlq0xURw2wblfxWe6RhV/asnepN1pt9QfzxQ+ieOpNHM66o6MwgOLxfvDn4E+uCPCOCPpFQob7eXXAcqeXmMPHEfaVKeVp1Fjtai91f4TsxPgDMdfjjsjnSjHybGk7YP/wDT3/hb4YzCjUzTkkl2JJkmTvjMd/GfsP8Akfo+ua7amAH8R9LH79cbZv8Ad0ixvHduR8b777YCey2crVmc1qBpMhg7wSb2naI+eDXFHEAGfQgG9tpB+zh2OXLYjIuOhWzkGGQlFkCdJlbWkxfvHmdhyvhp4dTkz15+G2F0rAgsq63DAG9ybgm8mCByw1dmUS3yE28CPu+GPsVHSAPtRp7Ju8o3N+6Y292PG89TjjWc7QstJ5INRSDMwCw26i+Hv264rUVokBSAIdQQTfVcXXr5D4IdfJ1i6to7uoMCCWUDwucTZ5Jy/wAFP08Gl/kd+JVh2tR2nuBqxBhSSxZUkBisqqOI2NjEiyZVylJqX+prkVi5RgBP7veU0ztIA8mGHHO0F0VNRAWpSVJIUAH97IC0yQxGsGFHLfCrm8m0oxfN1CunSTTAURCgBXIkTyI5jEu/BUn4A+apCkO0pn9yFXtKbNO5/CPha22DPDamk1KRkhkcEBV70r3HZtxAV1nmY64FPkhDA1KyI+4NGRBkxqUGBY+UcsXaKaqqOul1BpqSsNcPuRqBVrz+sQT7VMx96K2SQsD7zBgCY/FGwHcnYYbM0z/6b90sMFXusASBsRBtMYU8nUQK91kDeY8TEyWPKZ+mHTMUZy0EAyt+0OkebER52xk+0ZDpm/7PKFVWbXEOswFUaSGAuV6gn4Yr8W4a/wC+funSCYsxgFpCwZUgAfHEXsJl2p5l2hFUrHcfUCdVpk+J+eL/ABHIM+sqynvvEOsqdRkgTuLfPFMdpk0vi0L3sdxEjMLpYqRqFhcAnU0sQVjSrcpJAAjfBx6XaMj1WKGqvau1gez3p0gbgCIJBNySfDC/7KV1U1tQJqMQLC5UBgSB1Oo3+eGivUZyipR1Np7uttTwp5p0B/m54kyN3SKoJNWwc9Ef9SmNMqQ1IsrSsne5F4Hd2v4XUWrmlUbQRpFbQJuNJ3EqeR03HTzGGeoc01YUV7Jah1MVFEyo6sZIHS+FrjPao5pVlQtOsgLoPXUI3x0bbphSoY/YukaYqA/9w2BkLYQoJ5BdMYPcSRtaEEhfATfnIFzbAb2QvTYndnmeo0qon1U4ZnpB0Kkkbe7vIg/UeuDi9i5L4nuRSVZTpg7FdvA4V/2hv2lGiTZlNVGHQjT+k4M8Izs1WJIkgaoG3KSeRmLTgZ7XcNY5csCDoMsAeUaCf/jhtaJ7qRy2h9PpiDi9IShE3EX+XyMemIqL4Kez7p/qaPajUuqIOwY+6Y8DGGK4uzZKytT9ms0QCKLwQCLYzHXSw6j44zE38mfo7gjrSUwFPOb/AH9PTCtwenVrN2lVDTKltLAKJFwAVImwt85MiDvAO0ajTapIJXvKdwTy57YERmKtUo0ponvAwIiVaxkibQDuDipbcWtC26TQRThFMEatTIt4YkidzAFtwDij7Qcd0I5UwFMXUgbdee4xtxasKaKiViGN5JBL7A77D6XOEHjPG8xo01KauvvarTe3LbleBsemDnkS0ZGDZRqcfLswrDWh/Fpt6yPHztjMtw5LtTY6TPdmRfw9fngKc0ksySlgCsak22+5wx8KCrSUBVUm7HYCTaA5E/QRjz8vsvxa0W83x4UxppoXqBFLFRZSTTQIGNl/6wkDrfCZxTitZySUkFiLMNg5QTHU6fh02v8AEaTOyrSqhR3iYMgMVUkQp3Mbx+E74EV6NcURUrdwFwsEFTpJA1ETPUx0GNXGW2FuPRDlc1UsTTqiALySNN5OnawWp8B54u0K4epcRVAMFe60yYDDZl1mJ8PXA7OUa1N6gsBTAMkDvra66lM+U4slS93fSSAq1AIIuCLzYGI6XPUkG+IPyYd4bwKq8sSBsFhiCo9AJ/zhmWkVpaWmoQsRza3jheyPE6yoW1d0GzaI1mBaGM/4wep5kmkXMK2mb3AMdR0xkr0DCrdALhNVKOZGksmrdHEGQZjVsdzgtw+p2pqKlNGYM0kNpO5vpLfl1wHq8aqaSWWnUUR3gRY8rG4+GLeR4jQaoj1U7MsCJB03nrsT+uGwk4vYmcOS0UMrw8jM5ikjslQOgUJDOajgmmqrMaJ1sxYwFHicGHqrWmrrFCtTM18xVqaRlz3lFClSBup8gDY3awoZTv5jVQFZXD1Eaf3QbLtpU6XKyXeGcNy2kQJKZ3KItQ1ZpK1OOzUBNNNQpVFKMQW0762EybWtgJtJhxTpIX0qlVJprRynYd7Uzt2lVnQEwz7hpEFpNha0YpalZwcstRRUPZ1atbvjUbzc6i1omw72LPEc/S1io9U1aysxV3RnJkQBCpAA6L0wBrZpW7Qms7lhqCD92NdrldIBAgWIvHPGLYb0P/slQRctTIOow0ta7a2m46GR6YOKdiPL/OKHs9SnLgQBaYjTE3iOW5wTyaWvjPJl62LZpgOxdlYlu8xgCRExEGd9zhjr0BUov3Y10WU/C2BeaWGKkADtJK6goPMGSOcfHBfIsDRm/vEkCLEGYtaBhxLq2fOlAd5lNrn64J0ckGjv6T859Pu2BvEl0ZiqP4ajj/yOLNKsRsThk0+w4O1RXzPDqutpUsdR70zN958cZidqhJJO58MZgvuMX9pn1vUzCU0hm0+fn+pHxwFzvEtAYAiSTZZta9/Pn+mIM5nEXW0lmRdQV7bi0A+XocLeXqHswxBN21dTGwHS3rjMkuMdHY48pbKPtLSeswYMoMNI/lJkGOsW+4C5l6pedD6ajHn7tiBfoREfHfB/jFVC/aiQQoDE3AgQFHLfTe1+eBx4pRpABlDK3/ugXkm+sbgSYBsO7tsTNOTUaKMcE3ZmW4Se1UQBUEO7ToUoCdegGdbbDaBPiMScZUZeurNqqKFYBGGoL7pldSkavMGZ5Yu0qys1KqqUqgVSQrMwGogAN7puBI/34G1uLha9SpmAmsIOyo05MkllN9ye7E8pOJ07rZVVAH2v4ulYr2dF6bqAQ2kI0Hb3D18sUcjka2ZfRXqMsKSDUJN+kExP6YIcRLVlDKAQoFWrB0yTyB/lAKjpAwUoZJXBLkf9LWATqCAzFz4gYY58VoFRTYnnOBQUbUdMgAMWTUDAIUmI5/DBKjTVqanLl3qMD2ikrpC9STGlttjib2qNNGp0yslLltQKlTyAU77/ACOLRz1OgqU6QXtTAddtaFZDaoImI5E8vHHPas7ogy2f004iSO43dELbS3P3rXMYaMjmF7ECncx3dWzGOfXywnZOlOuaeol2YC3dXcWWFvPTl44McKraYDe8RKnQe7Ji7e6II28sbN2DCNHub0wf9RljTN4enYef8O0YG8WqU9KaW1QD3HEWkcxzti1mamYpORUqOASYY3VuRtMfK2BfFJYRCGSO9TPM293fn0GGr2J/Qz+yWSrV0DklUY6UVSdRWdIh4LARI7sSBecS0qFV89Uogt2FEooUn8QAJGoqrdfhhgyNelRyoqMISlTHdOlpiAq6Ce93gBbmTG4wsMKqUlqLqWozNWJphe65MqApEMJLd21uu2JXLkm/fRSlWvRcq8BoKtd3Iqor2Z1cmlDXVibaQbQML/E8rlalTswsa4VKqJFMt0WNjNpuJwR4VniyOucrVEy1c1DNPSwLkgkFgjMoJJJHI9L4Y+N0aSZakxQGnRCtTMnYCFYoIBte5F+WNqt2Zd6F/h/tMcq6JmFcoRAq6en8SjfzHw5l6ytVWUMpDKwBBFwQdiD445fxiualRadCoaqrDLABipeLgc+YmMEEzFXK6jRZnNJQamWNl0mZKiLGxMidrg4ZGXS8gSh5Q2ZrKvUdwpOkwSGGxiIBuINsX+FBzTZGXs9wPd2PPu264F8N452yLVojuGdakd5WHIwfn+uCPD+Jh30FYYgkXmwN5tY4cromkkmcN9uckaOdrL/NqHkRNvjgflWsDhy/bBlAM0rrsaaz4XZfyGErIiZGHXcQY6kWNJxmJ1Qx7p+GMwrkOpne+KZgGFrQVI7rxBEqT3pEhV3PORtbFKtmFo0QQCVFxcGWYFpY8h3hPrvhvzB1D94oMAAEiOR/CZixjCj7S1lKGnFvD5YD6vJx0jvpYcuznXE+J1Q5lgEb3lHu3ESBEn5kyeuK4D1GFBQzGpyW9+Rjn64mbhlSpU7JVLMdo6dfDxw48EyK5QLLITHfdo7yDZEj3Rq0jrBuDAGF44c9jsuRY9f6Fr2fNaiKqOjFlVoHXe1tzZjA32viPiFZnK/vQ6ldU0Vl/IhyT688FzmO1r06hWAXYEFZ1nQ5Xui7EEM0mI0g4CFaT0dVTuLT0E2tVqm9SWAvcsLXGMlGKlYUJScSgO2uiiqG3CgrOkGV1yRpMn16YuZf2eXSWasVlPdCnvQbrqmCAIv1IxXzlbLh0qZdSt+9TBZSbSSY5DexIthjyVdACS0FVJZS471Lkok72F/PA5JtdB44pgXN8MajUNNKYC1FABkEyJtrg6dfuxbnjCjJUdZl9KdpAEiQJSAYsAOc4tcS42XNMaSMuWBWiWAZiFJBJuRcKQDzxQyruwBuskuFAAAVmLELt4xfljrfHfZyS5aCuWySGqKZYGQbKZE6SwOoDa5xNksyKVMT3oJEi2xsBO5uYxFlKdMaSx7oJ2kMRD6TA62N7iPTBejlaYUNSOpS0784g92Nx0i2Mf4gv8xbzFc7UjViYIbvDa8iPrijwamKuYQvoVVbU1SdIUAXJG0T0GCHGSAx0LUQ6vGDc38OvrirwAB81TRiCSwhib9Za8MRFpvPyob+JOvyGvjFYVAHbUuXQqaSkXaoe6KlQbAjUVUdIJvAwEy/GAKhZ5YlwgU+BhiBET+QjBT21y1WT2YfSQquBsSsERIgFSSQRaLcsLfDlCZhJioSAUnug6gbxIm/U8/HEripK3/4VRdaQ21clTIPe0M0iRA1kA2dWlXsCYIJtYjkr8U4NVUaZLIDI06mCW50pJX/AGagOgwcXMrWrUVpkMwYVDpOoKopvOuAADqG382CKgGpUgwp5SBBI+fWfTAKc4JWFUZN0JHCeIHKkkqrqwsVIYSNr9J3BvE2GCP/AKuc5UUBGpkCHIqG6kgQCBqib3Nr4scY4RTYkkhXI94QdX9Qtq+vicLfDeGZlnZqCauyMNBAkkbDVGq1/wAsPg1k2uxc049jbQyFOg+pTU0tZab+5zNmBvYkj588MHBcw5dSrhgSbFphRII0kTIb6YXc3kywWjqqLSU6qdJl2OyjWw1aZYeA1YD5LiTZVhrunaEsqxrRhE3b6bWI5Tg8cn0xOXGntB79qnDNadqLwjA+Ed4T88cr4Sf3g8Qcdo9ta9Orw9nBuaZdTESNNwehg7eGOLcKWaq+En5Ypj+LJqqVDIU8frjMaep+GMxNaKj6Az9dqihlU3Hu2kGNjHngIvsxWqN+87ik2m5PPYbeuL+X4U6ELTbSJl2MzuL6fd5ReYwZzGYKU5AHdkgGRYAmfOBOGv6eMpWxC+onCNIXanDUoArRZdV5c2MCDpJjmwAgQIJ6X8q0gEYuBAUcgSbd21gY7oBPj54nzbsRqCA6onkRdtZseu46ztzo5ziAZez7MEE7GRMTCq/WwY/c0PjFcUTfJvkCM5l8mgqGougIqFSpYM1RtamGEy2wgn8RnCtWyrZjJ0kMJoANO5bVE+8OQIv4Hrh5ApNUp06ygLoesC34nRlB35KCT46p5TjmZpqtKjUp1Arl3BIb3VIkDSTAghgbdMefkjK9aPUwtJbKq0GpRUqACCwA8dgY6SD8uuPcplDTC66YPaEBS0sQJEnROwB5+WN8siFtVR6lUDoCRM+AjrzwZ4zwmpTol4oIGg6WrFqwiYk8jAYQJjvDGpsJ0gVkaNJ0/g0Al6nV5EAeAAb/AJbWxJTJOlKcqLAvU1hYnSu4724AjrjfJrSTSoV6rhpAJKpII/8AbW7CATc8tseZirXzNZl1s+gDUVGrSYQBRptJIBtaT1x3G3vozl6LnDKLyKlNmqNM6idClYmFptcm4v8Apdyp0jUokMmhiCCJmJBuCI6jbphUySgQDrCr/HpVTbbaZuDcmMNvAqbClDMpk2gloHiTzx2mhcrjISOJ0alOpDM+kGzAnbl8No3MY14QGfM0yzSAWhjAYeMQZbp5YucfFLXUALip8iTEDedjiPguY09+oGZUWNZVyFkD3im234ja3lg2/gAvzCPHppgsDpQ2Yk7xbdrkgwIm08pGE9y7L3qSsqmwYPI5wNDAx4GYw003GZbUziq0ns1QMKam5JCLqMgWBI2jaII3PZNg4pyBBEjS5O9z31GFY1TKJO0S5PiZ7Jhl3WlWZdOgAorqTtTBsH2W97eOJ8lxwaJ7CakkMDUKAgFegJGz+WobxirxfIFXVafdF2BE+8GRV3PXnjbLcNy9YlqmYfL1PxL2TOrGfeBUxeMdqSM3EhznESzAk0wRrBRQRFkIJO7SwO+xwe9ha5qLVJjUXvFvwrp68iMLNThVIagcwUAnSalFqeu26rMm/Kxthi/Z5oU1kWoHllddwdIAHenY+HgcMhFdi8kn0MfEeEJWhjOoSO6VEiCIOpSIEnlaTvMYn4V7FUdXaVVVjOoC7X5amPvegUdQYEXqf+fPEdbjK5d0RgxVydhMGR+uCcPIrnXZU47w4dnUpx3HVl/pJBEj43xy72a9jcxJaovZyIGoiY5mBjs2dqqyzIg88BKXPeNh44T9yUU4LoOcU/n5F4eyK/8Ac/8AH/8AWPcMkYzAWBz/AGPmgRY3PLrPgdzjRQNBBH4b87mxvzuCcTFhBbcXk8x19cU8+ToGkgNt063j5+uPUelZMhdzfDldlRGKgAAKYIaZUgzyjeLmTHXFReFIlySQgYSYBJNvd/FcC+C+jvbQV3PUgXU9N1MXsMCuNVRJVn0LOpjEgoApJI87T/OOU4lySdFOOCsQvbHipqU+ys+gjU9hpJIBAiIkEzFoPnhdz/ElFGmxpIWJg2ANuYYX8ME6zVFZglJGUgK2o6gTcqd7mIBHhgMMn21enR8YPd58wFHkBhWJKlfgpy96DCZyu1JQ9WEKxoB/lKxoSeR2jFfLPqzVOiZaSWYEFYNzfUJuTMxz8cE+MGiIQLULC0FCkb3vHh/xwJ4JxAJni6qJCKAGUmCCpNgbmR1xsW2m6MkkmkmEeI5RwxiwI90alETAJk6mA8SRvbE/sLmai5PMimwUo5Y2WW9wiGcxMoLQbYG1c0atZhVqKI1CXJVR5KpG8mJOK/sqKYL9rMEdywIL94KGnZbySL26TjFfBpmuuWgrwV3q1QtRmcLcqY97aGsOajnyw65PKCijwfeafvrtywlezk/6wTBOhoNgIMRCxO0Dfbzw9ZhbDp5jYDb76YxtpANJyFf2pzVRSgBAXeSu3qbHn8MQPSDU2ZipqsZ1AATIt31upIG1sGOK01KHUAVUEmfATbnPl1wh8TLrSUEW3BkgjYdbzjk+SSRvGm5MpcQzL0jCkiSDa3mR6j7nDXkOLhqa6qdUmDdUIWeoiAZO+n54B5nhjModpnSO70G8TzicTcIyFKpSg+8DGqWYk3MaQbHpHwwyfFxMgny0NOVpivSNRWGwpwAe7pLs0j3gSXXly3OBjZ6ilW9UG8MA4nc/wwP8ThczFZ6DqwqFqZbTUT+YDu6gTBMSb9MTZqmpmarwRMEyLjoIA+GFvEvL0xim90hpzfFcuqn95IJJgaiSOg1fDnil7HcQAzYCA6GBQjvOQTdSzAaVvAwqcFcJWVarHsiw1b33jx38eeGPiNYqAaKd20NA7pkdDCMOa2PpjVjWN0t2C5PIt6Oppz+/vlgZxujThXI78iCDpJ5EBuVjjPZ/iPbUkdiusiH07agYPlO/rizxikXpaQBBImRMDrG55YoiyTItEPs/RQA6KjMp/AxB0nwI/K2N6oHKTeL72kX+GB/ByFqXCG4AdAVuZ3G0frgnnfeMCOf36zhWZaFxK8YzGmvGYmtDNj/TEEgG2r9CL/7j8MQ5oEkRHdMnwMbjpv8AHGU2uwnZd+lvHpBPriI5kECZBvqjblFzaLzbHqWJ2DMnmNQqNEaYJBsCwFwehgD1PlhQ9tailCgMtEqjQQpFzM7EEFRzJvyJw7PTEEsA1zAA3BJkgC5PdA6R445J7ZVg9UzB70zM3AEm9/xWHP5Yky+EWYfLBeQXs0qtqbuwRBi5LCLb2HzxW4GqrWVnDHwVghMmPeO0TixUvFJZ0zqvMnkAQeQ9PLBHJUWSm7CkHLMqhmTtAsAs1psSCCGi2nxwrkPqwBnag160mCZC7kAkmL72tfFXh01K1RgGMjfbuwZJ5CQCOl8SOP8AtNDASYaxsCbnfl5wMTezRcdqqLq1IA3dBGm5Mzy2k77RhqpRAe5HlHh5LX9xTdoG/wCHbkbCcEfZak/a6VRXJRrMQByiSQevQ4jSlrcvSACCdQG15EqOhI5csGPZOkEzAm3caPlhcpa2Glst8E4ZXp1pdEAJYyG1lTEyJURty67Yacz7vwA8OuIhcyJ6epxcr0Dp8twfhgU3KIMnUihlMqlRlVxK9+R1GkSD/wAsAc/7Maqo7+qkN1O9rwSPLDBwmvqrsIAhSfHeD+WN6vvGDa/zBwKbTVBNaYrcQo2PlharcWdHQH3UTSokiDB1HzJi/QRhzzVIkG1/74WOKUQBEQTqCnlMg2HNu8FHTWTyweN7oyXQB4nVHZgawSait2cHYB5YmIuWiPXBp827U6ZUU6aaQJbdmCoGKi1pX/yOA+d1GkULkRfQQCGIOk6WixBN19cVsszwBflcmQBaPIYpauKEp/Jl7M5ctLkhjJJIBAabmx89sWaOc/cxKhkMEncgAabf0gjzXyxvw5gyQSdQ3EbbbHmMe0Mr+8nQGnqOp/v4X54U2rpjEvKD/sJxwdsaBJIqQQxEAOB3h6gb/wAvjh7zqsUZVMNFvvljkGbHY1UdTo92ohO4HvLtAHLbxx1Xg/ElzFFKymzC/g2zD0afTBrrQma2RLmm1TobSgEhl/FIX3h4GZ8MXuIETM7gW6bj8vliemxI8t/niLiFGU1DcD5f2vjJ7iJcaBTb4zEOrGYlNH56sUgRzUGCNlIETvYAgfHA4VwoAYd2BqViLkk7RaLN8sX8ye8VBJ0qLwLtNvOeY8MBMxlyCrr7wJXaxB90sOYst+nri+ba2dBJhJEFR0mCFDm8zuNxyMkfDHPfabh1Lt3eBMySe9cbXN8PHBKgAqrfUqgkHqSdUeoHhhE48r1HKqCzOYgCbc/09cRZpW1Xkswx43YA4bT1sW6n5csH88ai5TQvdTXqdg5U9IYWGiN77xbBThHs+aSAuve5LHKAZsLWJxb417OGrlwRVYCWtCkdDYi2x+OOlFpWzYzV0cizzAnSNhzAkE2i/gPzwx+w/BmrCswYqoUAxz8DgfxTg/YgQxaWI2j6Ycv2e0tOWrnmX+ijBSmnDRqVPYHTgQpMCrGdQ2LfQtBHmMMeTySyJAItbx+ziHSS1sEaFIx8fjyjC4NtbOnS6LWXXTAHLEwqSb/4jEYF/l84x7VWIg2JO3r/AJw7pCSCtklDal7rAbr0tMjHqURIG8mT8/7YlLGCbn85HID7/LWgY5X2F7k2Fj8/HGas3dA3P0gGIHL7tivw3hozC1aZElWpVVPiHUsPI6AMW+IjvTaCNz9cTeyUCvU8aR+RXn64X/y0NX4ib7QcLCUa5Kn/AKgdf5SYUx53+OFz2eRdVQPzUAefT4A46F7Wp+6qjy/+QwpeyWVDZrs2UMHVpB6jvA26EYKEm4tM6Sp2iq6qlVAps3d35RN/lgzw+iO0EiQbHy549qeziU2Y7lTKySYtp9bYs8MpEOD8MZadUc092EMv7G5eqr1GGp1MaQYSOTBRG/Oec4u8DYU2NGNIuVHji7wiqUqX90rB8uR+OK3HE0VQ6mCCPWcbNuLTAiuScQwjqMSJe3K/0xQo023OLtFYw9bJ2qF1jfHmLlTh1STAtJjyxmJ+L9GWhod9QMAAsZqEkgKQuwM+nxxLmMsxUBASIAXpJIIuDaPexFXy4gqxHKDBvfvDx8PQ+RYtAF4IsYEi8hRHWwxfxvsXyoBZzIM7EoQCAYaCs7zMXj067Yu5fKAU1hFl1uwHemQdjuBi72bBYESQFEDaIHPcdfLnONc5W7PV0sB4E2sfQW8Y54xY4p2a5triDM5WLqCukPpP/GTqU9T6dcY7zlJMT39v6jbHlekNOk2dVA1E8wJN+smfLFeuG0sgurSwk3iD9SPn8E5U6Y3HVo53xShrZV/mOLvCMtUpKyqZBuR425+WGGtwGmumGJcstpEQd49T6RiSnlwJEbWMeA6ffLCFiaVSKXlTdxB2Ty5BB5/5+/TF+mkAWO0+Y3EnxjfFmlTBaR7vOOtwAOsmb48rTsLxI8ott8BHhg1FJC3K3shouZvMD587yLWjFgJY+IuL+9Nvl9jGlBoI+JvytuOvl0xPVEKDOxufH03xq6BZWo05vEgb35ARO1+npjAoUoseA87R8vpjfItYHkdakepJn0M487KSo6/ob/1WWMdWjbKmZpExA7wBjz2+VsQcEqtSrhnU6SrKWg7mNz0lY9cFSCZtNiDG+0T6wPniCqo0kDnO3pbpN7+OBcfISnqgP7U1AweOcDAX2Ly8Z6mSPwv8dJOGXNZAEtpsSQeUSYG3qb+eBuVy70cwlSJCteOYPd/M4WlxGKV6CXE6QFW+xN8Q0cuJIUAEdI22P0OJajds+pT3evzgDri0tHs7bG55GBcx4wSfjjcavYGSRtTp+NwN5G9/741SkpKki4YADl12xIxAAG8SI6wY+WNJM/e9pGGsXsJVGUffjjUmd/hivTa2/wDnGDbDLFUWu1x7ipo+5xmBs7ihkuORbSqEeMi5HkLYyvXhgDdCRMj/AIeO83HTHubTunSPe7sbbePpGK1DMht5lSbwD3YKkiOhPzxS/QtF+mwIgbrBI8Sb39TilnHUhxJEPLTYRF/gDPicWQqqB5BvQb3nxwMyJeSlQyrW8QI2JG8DTfHS9GJE7JqdjPdEb2092DNvLwucVOJOBoiJlo8phj5GBHK+LuRUw4IkSRHgDy62A5mDgXxoE1DEQLCRHhfz64Ca1YcHsqO51yf42AG0bcutr4yn3nIm8aWBtNh73Tcn0x4ah7hgEaiZjczNx1898Zl6gksCLgxMgavevPMjCH2O8HhYKSVuukAk9DzMb+X82MSpBv5xaY1A+oBHzxCVAv17ren39MedpdfSBcwY2jA9BE0xPneTyG/wEz542rEwyruPnG35DEBuzASRE78oIt8Rzm2LNc/itaRItJn6m3wxxxoj+6DsSbf7VHx3+xjfiBgm9iZA8TAv59egOKxfU6qLiQQJi/S942OLGeMpq3IsZnkpK7eHzx16Z1bRtTeTJgG+1yATdT5aRGIa/NYg6SfCYgxfrGNqdlpxfUuq/obnn/Y4pK7bQIM96RM7W8YN/LG2ZRO7yur+Jfof1+eMqoIA2JDEHbaCvwP0xsUtfbSZjrI0wOVuXjjasLoD1/L/ABjGjrK1NTSSVEnWk2AkWE/DFt6krsLC3KRMk/Q+uIs1cGLE7X3No/PEjKJnoCBf+XSPy+eOSa0a/wBkS1CSDHj6xb5ycbMIPhv+eJ6pANhzv5CAf1xE1OfP/MY2gbMyoEH7++WJ4+GPKajcffKMb0yIPnggWRaTjMThseY6jBmzF6RgQdhHI2j78cVqHFVepqGqFDDVNwW0CADsO7sOZJxLmwQkQCJvfx/vgZmM4yMo0CWIO99hMGI3xRJtCoqwnVzKsrBZA1FYAFyYPeG0kqT4a5F8Vc24qCVljqqRqsadlAUeRHLlPXHv+p0jbkWibG+owYkfwx0xItSfcIVgBM7QZaWG4YBfnfGt2YtEWSnQCoBBgnxNwQbTtfkZInAbMVj2mjVKAkAk3O4Ag/1DzjwwfyeZALahHZhibwIm3KQBy6YE5eoxNUgwVLsOd2B1De0b4CXSCiUdXfURBiIFzzgCNiQDfoMRkQvXVcEW2tbw73PHtRxoFhJ7yt0IMHbe0nriKxpt1DFQOekm7Hw5+mEMeujOyIpqLy2onznu/IHERB1AC5O3hvG++8/DGaiwItCGLbGxJj5b4jQgtPgdusx06fTABIs5UxHUkeTWg8u7ETi1n01d0A2AJi0R3T6wR88UqPux0ifWFny5+uLWczPcVQT3Zk+JPL5fHBLox9lalDVTExBEjcGATfyn5YvVG109HVgLQJFzv+EkAi/PFCjCqe9c3HjbqL8o9cXqbx0KkAaWBnafl+eOidIr8W7qhR00g/ewgfPEVWBeLAL692SSfz549zoDOo5D9Dt9Y8MZUe48YB/48vlgfJq6JAljME8jyg6Y+/AYw3B+HyxqGIYibAD8v7fDGxtMbg/G0/ngkYz1WkkCbD1kL8zf5HGZlbKdpA9JP+Me0R3z6EHxEfr8sb16UkNsZHxFj6fp4Y0GyNXsJmQzQPDl8vpjxDBHn9/njySCYPX5D7+OJUFiPTHHG4Fo+xjancffwx5Ii/x+uNhbbGoE37PxGMxKH8PljMaDYa4jTBUz/EBuRb0wF4i57RbnZT6979BjMZh2UDH2EWE1BP8ACn1viLilgG5moqnxUrceV8ZjMbPo2PZ7k1lHJ3Mg+QJEYF8IbuHxVyfGIAn/AJH44zGYX6CXkGs57Ur+EEgA3AkEmJ8VHwxNWEWGw7T5MY+mMxmErsezTJKCKs/wj6v+gxSp7r5/kxxmMxjNXbLWSNj5HEbDut98x+uMxmOZhPlmloO0gehdgR5W2xYa6kn/ALYb1vfHmMxy6NfZTmGn75Y1diCvi6z6xP1xmMws1dosv77How/LE1YfVfoMZjMM8AMrZVzqW/8ADi3Us0dYJ8+6MZjMFHoDyVnO/wDRPrLfoMZQNz/UfoMZjMYwixyx5PdHl+WPMZjTGWgcZjMZggT/2Q==</t>
+  </si>
+  <si>
+    <t>Echo Enclave Audio is where echoes of the past meet the sounds of the future, creating a harmonious blend of tradition and innovation. With a passion for vintage equipment and analog warmth, they specialize in capturing the essence of every performance with timeless elegance. From classic rock anthems to soulful jazz ballads, their studio is a homage to the rich tapestry of musical history. Echo Enclave Audio invites artists to step into the past and embrace the beauty of analog sound in a digital world.</t>
+  </si>
+  <si>
+    <t>Serene Henna Sanctuary</t>
   </si>
   <si>
     <t>Mahalaxmi Nagar, Indore</t>
   </si>
   <si>
-    <t>https://pinkysrentalstylestudio.com/wp-content/uploads/elementor/thumbs/316896306_594958009053623_800447815430770419_n-qc95q0dxg7jip8akvfpnydknyrc46tep45uwjgemtw.jpg</t>
-  </si>
-  <si>
-    <t>Glittering Gowns Gallery</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUSDxIPEA8PEA8QDw8PDxAPEA8QFRUWFhURFRUYHSggGBolHRUWITMhJykrLi8vFx8zODMwNygtLisBCgoKDg0OGhAQGislHR0tLS0tKy0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tKy0tLf/AABEIAPsAyQMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAEBQIDBgcBAP/EADsQAAICAQMDAwIFAQYFBAMAAAECAxEABBIhBRMxIkFRBmEUIzJxgUIVgpGhscEkM1Ji0QdysvEWQ6P/xAAZAQADAQEBAAAAAAAAAAAAAAACAwQBAAX/xAAkEQACAgICAgIDAQEAAAAAAAAAAQIRAyESMUFREyIEYXHwMv/aAAwDAQACEQMRAD8A69MMFZcNlwV8NCZEBkGOSY5U5w0hUmVucpbLHOQwgUeKMtUZFcmMw5krz7dkDkCcxo1SLGODyjJl8qkfFyQ2DsFkyo5bIciBkeQvxEUQk4WqgZOCKheZPqHWJLeVXeKKN0jpVEh57m07OdxJX9IFm1GKUbHNjrX9VhiYRks0xG4RRRvLJt/6iqA7R9zQxVq+roOZY9RAvH5k0VRixfqdSQv96sHHU9RCjPKumhkZjJqO6xcsSPTGNnCgKKsk1xweTi6X6mdiWdxHHI1LEIVOyM8D8xj6nPnxXNV753E1NgH1i4ETc8ken70RzmX6W/IP3wjrcjhdrBQqB40Kf8t43VXjKAm1AIPHsBXNYH0r/cYxRqIMpXI6No5wQP2w7vcZmdFqeMP/ABWFixWyfNlUUGyyZTeDCa8tRsseLiiJZeTCUOWbsoBz28XQ46lKcFY5fKcFY45CZnxOUuckzZUxw0KZWxzwHPSM9VM45ElyYGSSPJ7cGwqKmGUyHL3wWU4QFFLvlRkzyU5TgyGRRaMtjXnKoxhUaZDlPQwi3rfW+0RHGYzIaLlmH5SnwSt2SeSP2zMavc7DtyAySSLN6Y0MTNp5FkDNbDaQzKf02d3nyQ++otXAZliKQmUISZpY0bthjsRFLeWZyAF96N0Bzidd1GWIfmIS0M1OZT+UGMZDQ7R7gMfUu0fA8HBjHQ1tBq6jcvemLqyawIdgBRIzERasRW/cQbPIseAScUakahWYtunChHeS3cOCTbbSStXV2L9798Z6dpLBjURO+4TaYyFkmVADtcFaJIYkek/pf4IIWu3G/wAO+wuHDaR5AJAoPqCPtCslX9gPf2HJ0F2Z/q0wZFraEKs6gEEBbK7f4YPXngj5wfRvQz3r2sc/rVUYFF2AqxStwpgPB9J4++AwTY2MbQjJOmafSajGUcuZ/QvjvT5XhpHn/kWwtHwuJ8CAy6HK5RTRDCTiw9TnueRJlvayOUVZ6EZto6hPi6Z8P1OKpznI6R8ZM9DZQMtTCAaLFGXRrlIOXRtmvoBdhKLkZFySPnr4plC6ApcFcYZIuUlMNMVJbAnTI9rDu3lbrWBJjIIojTD4kqsXz6gRxySkWIY3kI+doJr+ay3oWpaSCORzueRdzkCl3XztHsvsPsAfJyLJbL8ekZbrejJmYOolRljSUKHM8T8sssewjchNt6iCCzCwOMzcUbNPIrSuAxLUFlO7kc9t4SorgUWWvbgY5+pukmOcv/zTKzShpFfdbNSxKQfVXHAqh8590ro81x7BLsZSZJnZRGF2bl2FWtwz7eORt+D526QdOzOLOA7tSy28NqWhfmMOBW3cI2CkheSxZgfbAuq62Zg8U2ngdkr8yImMKWurWiGNqa20OMYRaYxxSIwqQJsffZWNt350zXwK2FQfez7LinqIfY28FJJhGbDblMijdf2VlkB9qo/z2rN2kJuraBzH30MjwhlEjSBgwcilJu74oXfG5Ri/SnNtou4sDRGjHKnrQ8ghlHgjkGq8fGZiPQFGKnypr9x7HLlicY7PNlmjKboN0BzRaTM/pUo5odAMFaZ0toNWPCYIMs08V4wggxks1InWG2faeDCexl8SVluRSzbLoYaRsNRi6RcZajAHyyJJMp2Z7WWZ4RhAWVE58JM8fKjecakFxzZesmLkwmPAYxBJyOzPgc+L4LdBqNnhXAdU1YU8mBSjccX2MapGT+odYXaLTAcPIZZDY/5aqylTfHizzx4y9NSkm3curYBVERgknSNFAq4xFRYWP1MDd+fYINdGZNRIxcRxh3CnYwWSgBTE2DYhHwOV+TlvSpF3SMUknlZ7jCbyEbbw28G1Av25+PJxM6fRTiTSVo0ia9JYohIkuojSdW7vpL0JSImZRy3lLA588ecuj+qtO7FVWWgaL7F2gWVs0bAtT7XxdViGLVKmpASpXESKe21JLqQzkhzwFa3AO3d8V7DM/g5Vlkdg3fEoMtbRGjO3gCRQGpiATurmwa5xfFPsddUOf/UXSR/lSDhJS4chm2s9BkJU8HgP/rmWL9ztsQ1GOCOQqT6HR2RSR5rbS/3h5zZ6XVpqtO+lkVVkhUqFUsVKr6Qy3ZFE0Rz544IxF9M9MeWNhwJJZCGcknbGhANj5B3jjz6f4LH4T8MGd02vRrZ/p5JGWWNlSIrbKoPK+RsHgcex8f5ZnPqHRqXtFACqEAHwPH+ubZYViiCJYAFc+Sfcn75n9fp7y1SlJVekec4qO62zGjT0cbaBMlJpecv0yVnNUDdjfSLjGOhiqGUDLW1eTT2OhoYPPWV/isTz6zKPxmYsNh/NR13UHF8hxlOuASJliZJJWQXJ7c9RMm2dZjjQK65Xty1zkUGGL5bPY48JSPPoly/EyZRBWDvgksmGyjAZo8FbG1RRJNgWv6kIoJmDhJRFJ2ifG+qU/wCJGWzrmZ61bOgPCqJH8WTtHlB/URZ/Y175kkg4q2KvxhShEdQXnkW0/LVe65AC7XtlY0BdDwMsm0s8e4zwQFWdFkeZpQq7qUFmDDcOVJuzbE+OFnotLG6KGVIpXllk07iR1E22WlMa/qDf0hbBPbv7ZHVdPkA2zblR5QiI0pG6VwV/WT+uibbb88c4jS0UU3stQTTO2kjbTQdvarTwRPLuO3eux93oqwOORR54GKYVR1JCu3dY7nOkeZ9k4rmSQ2+yRQA1nx58416pPHCGQSj8RNPskWLYzQowuX0g8Da4As3dG7F5n320QigHtsFjMkoVv0srKVbaBYuvA3MeQQoFBst0OoI1UbepDI4LDsiHgwyFhtHHkHn/ALBmp+jdF2o/UKPqJHspdi5UftYF/bMt9P6e5S9Ck3k0SyozlgsQJJtgpa6P9Sj2xy3U3L9uJiI4zTsv/wCx/wCrn4Hj70ftmpXKgZuo/wBNVK+45RLprwfQy3jzTxXl2PSPOyJtma1GhxVqfTm31ml4zE9fG28ybs7HGhc+vrPBrb98z2p1BvCNFJeLURkmOhJefVnumTCe1jUJZ2qVcXdQkKIzKpdgBSrVkkgDyRxzZ+wOMZWwOR8BIJtIz2r6lqeQIiNpB9Kuu7YzeneeAGKLfwshqypyLdR1G4kxtRVEAIbaDuW5aHJ/W3Fn/lCj6gS6kfKsNRFSyfoWNrJykZEXqdQ0gIYBPUgIrz4Zj/cPFkA0vr9SVI7Lrwtlf1foWRyOeLG9B/3AUTZ2vUjywrWZJm44/oT/ANqanmoK9W3ndwASm7jnlijAcHYxNcc+6TqMzyjcjom00u0gL+ljvJ4LepB8ApIBdi2EsmDd3F1ZStA8nU9RyRHSq44COWKeuxZFFtoQiuN1qTxuI6ajUlSp7pdtwMxRfRbbbRdoujuIsG1CAncTjeGTCS3GY9BC8aXwpLH5LEFjzftx/hiXrXSU1S7tK8ZkRl07UweNVDgsrAGgy3dfx7imXXdX2oZJB5ClVo16m4HPt839sxau2nMjxTxw6gDZW+ARN2iz9uYun6tjUFT4HI4AVK2NgkPZfppkVgI1kEka9xI2CbpQRe5iRu5JINf0ngXiKX6dRIz+KDiXcwgaWW9y7Lq72iiGJAo7VBo+rNWevwEKZJNRCHUESPE0cSsatN+3YSCaNk8iryEvTzNAdPPKZt6bk1KhVaSMtf8ATwDRCkjyG+5xXJrsckvBzjU6R+2naCLDIEnj3bVUuI1Db/glaO48X5IJwKSZ40rYsbadHYgSLOod2B2FrIJJH6eeN38dF6jH01EfSTyRbTcxiklCvEp/TsIooAKArwKxLpPpvT1HIO9sH5qRSuWAuipYEWDW30+PPnzm/IvJyg+kW6uCRoahRVdlW0FIFut9fcC8G6d04oKqjjiDURte1rYMVIoiq+D74dp9ODjsUWkJzTTegfQQHNFo14yrTaTDAlY6yeivWHjMF9Sjzmy18nGYrrxu82jLMFrB6sM6dg+tHOE9N84xJCZNmj0i8YZtyrQJYxh2cBzSOUGzqEzYFIcKnOCEZ0WdNEayaR5JVz0tWa5GRxliLkZBlX4gZITA4lsqikgWZcG2YxYXkO1nWdRREuWO3tlm2sFllr3o/Pxmds3ozf1z1LtiKJSNxJlA5YySRvHsi2D9QO48WPHHIzNaHWVM2+G5IlAQSytNDp7LNI5aiI/6AODVHm6zzVdTR5pZWvcVQ6Ykn0RepSwI4snZ/ifvl8XcQJCi7REqSyK4ptVOGKzAN4JQqVFcfzimx8Y6Qeuo1CjuJLpdRD4nXTsfyl53NtPDL81zQJrEvUtTP2EEaSJokeY74XFGF5mfadp3qgAT2A48niiZ9InaaRj3JpInEZZVjk7rH0RlQeKKlCCeTuBHGMeowJFPG6BI21Alh1EMZFOyqrB1Arn1bSa9xi9IbtmI1oDBju3AFXO893atBQxLH1AD01fNEcGr3WsnMMAs7nCKik8lmqgT/rmM6vFCs77dpSLXMqw8n8sFCQCT48iq8D7ZqOrxO8qjae0nO7ii5/8AA/1OMUFOST6Fznwg2uz7pi7QP880/TsTaTSnH+iirPQaVHlJuxvAOMlLlAkrImfFcB3yID1sdjMl1rT8HNw4sYg6zpuDndBLZynqSUc+6c3OGdcionFWikpsGU6CULN70rwMcbMQdHm4GO+7kU5OyiMFR0SUYPtw6RModcssmcbB5GrF2q1NYTq2xDrHOctm1Ra2s5y/T6vElm8M0oOE0YmaGCW8JDYqhesnPr0Qbnah/mfsBiGNQwYX4zJfU+tMRMb2N4Y+jljGASxFfNVXHvmi0fV4GXcrWd2zaQVJbztF+eBfGIvrGNngLLuBR0lk2+GjUmw1eQN26uP037chKfHXsZCF78Ga0oV2KuqRd+NBU4A3MGcxg3wCyl+K8IoAAq/dZDJCR+ISWYekxsspiaMgUXFKdx2gWRzSiycp1KyTIzBGKgqZiFI7jMAoUN4G1RVfCj+VhSpe9pRAlUpglUoDYraRzus378e3i8GKHSdDWbUQK8bK852bwWbSOypbM4PItnLSVu2ng+B4yrbqtTJu06rpVVXXfuaaRiW9UrOyjaT87fTf2FWL15lQSS6QTP3mQtp5O3EGRuFVGFn255snz7BV1TqM/rjlddOjylpNLAVSQrt5jM3N+DxRslvkDBphWq/yE+lmp46NLujZYyA7Mt7iWs2pJvn7j986UrrJRQ2CPij/ACMw+mWMsI4neSFJC0JkUpIiGNWZGFC6ft/Y0D982nRo+Bj4+yfJ6Hej0uM1hrK9IOMLJxybJZRQBqOMEEhvD51vBezlMWqI5xd6L4WwHqo4OGoKxb1STjFT2U49I5x9SJycy8TU385qvqI8nMkTziJIoTNf0efgY7/EZkemzVjX8Ti/hsL5aO9SYLI2famesXPq8IElqUvFOo0uNklByRjBwk6MezPDSYRHDWMpIgMBmb2Gc5nKJVLMFBLGlUWTmI6h1d9VMsUTUGcRrtUuVJ4uh58E39sn9SdZ3u0aeuGBm7wFncV/VfI49qvmj7HD+jwVLLLo0JC6AyRREcDUPXbFC7P5bCrJ/wBcS510PjjvsdaSHT6FAJHDzHam42ZJHc+lALO0Ejx44s+LwLrH1Tp2iZVWZllVwCiUZIvFixdOQyrxZALVQvMwziRpXIstJK8nfftR6cSkKe81FrICx7V9TdsgekEMRo5pY7mMIeOM7SO/1BU2g0HlQhvTXIDfN18B8a7YfL0P+qdJnPTxGgQS+iSWBXKRVe94VJNefLE2ebPOYiWWF0/KiZGVRaq6Bbs7mUK1EceQK5OdB0vWlmPY1EZieeM9v1iWHUoQd3alXhuOa4NEZjNfotsx0haZlWliHZR5CAqmkIrgAD1V7Hn3zIv2MoXJPF2zp5N8UwYsC3dZWrw67LIIA9vi7vJaspJIDNFqA4JDkqsjTS3RVGULt3EE2wAH7isa6jpT6RITbrJqQ0Wodm7iraErFy3g2xIANlRzQ9SmefVxgJ30ZH2IJ9g7uz0qDuNV+rluSK85t3tGeKYX0KIuzSMqozLCu1b9KrGqgAn2ICn+c3XTYKGKPpHpCDThnDhw8wVTY9AkYIWBG69oGafTRUMoj6JZutl6vWeNqcqmOBO5vLceNNHl5szTGayXhCpeLNOxxlE2DkjQeGXIjKuIOreDmglfEvUo7BxKZXRzjr/vmTkPObX6hg85idSKOczfAy0UmMO7ifRvh2/HRSomm3Z3bXz4lk1XOMOojziRlN4lIpbG+l1GM45uMR6VTjJCaxcwoolq5+D9gScwvVvqPuOkMBZUkbbLJTLIAOSiV7+PvR4+ce/VupZYuzFZnnpUIYKFNqQpajtLcqDXkj5GYGWM9kEErbFYGdP+J1c4JFIpP5ECnd+/vZ8obKIR8g2rcLwrBJdz9yJmABaQVdnyAfv/AOBrtJq0j0ohJqNXSF0RmSTUMI0aR3kXlQXaqFelavmhhOoa0y2zxx747RpajI3DztI5OaDo2vDywUHYvDbAKSEm/D7JGXjwCqn993wLF2x1JBul1LJumSFewrbIdqokUUyqebJJDBSy7vFsR5wlOpz7mZqL3sb9YMYsqWZGAOxT6SfAI585RodfGsKxSnaFk2yorFHG13kpStFQW2mxXF15y+U6My2oiWPYO8t7ULc2WPtxRb/qpSfAznXlGRtdF+hbSSwnS9wrumc6QhZF7T/qXZJW0MH3lQDdVjP6fPdRdTIB32iEMhHsY3YPX7sP8hmZ0Jh2un5kYeUTJsTbJp0V+5Ew7g42gDzxV5L6Q+oCwjhVZBs9L+j8pt0m21b2PqLfJ2td+QEladBJ09+Rt9d9UeGAKqqe82xmdFdEAG6yp4J444P++c8h1Coj7QO57b6YsdzX5NVRN/8Au+2dC+vOkvPpwY+WhkEm3dtDCips/A3bv7uc4RARvB2j0KP6gWohTXwQjcggj2vgYWKuIM9M6r9Gteij4A4YAABRQdgOP2rNDpxxmc6Hqx+FhIVF3ooCRm0UAVS/YY+0cvGPgS5Nls0WBtp8bKLyXYyyGWiDJg5MWww1lrtWGmHANYuDKfIZjx8QZ9RlE7WMHku8sUcYNDUzLfUGnsHMDr9NznU+qwWMyGs6fZ8YIXZmdNCcN7RxxpulH4w3+yT8YxSFPGdU1sGKjpec006YC8OJ5DqAIYawqZliXc3JJCqB7k/7ZMrWV6qaID1m/BJPtXgDEzY+ELFes0wYEuAwblvb/wCvkfFDObdbhcSuC+7dwZBw7oSSQaraxvkjhvNXebPrHV91rH48ZmJNOWNnknFY4ux85JKjKz6J3oEbY1PojXnn/c5p+naZFUI8rRarTSlSsas0iuBwAa2mxd2a4a6HON+iaMR79QyB+wjOinwXHi/jmufbziWHUy9wSxqHdZDJIrAhGV90bFgAaJDGzVetcbLqhULbsulk0eoVfxgkhdAoklIb81vBIESkV9iBQ+eTgul1cMcnCSzpGzGFkGwSAE0xV/H70cYz9Q0jfqWVZdo3w9ot278yE+6r81Z9hdDAZeurHJIVgJjj2xRRS3E/cWz3GWiR5UVx7fBwEm9UMbSd2XdXm1skeokqKL8oB33s/bgBAGnjJAAvcSSeWN+Bxn30vKwfSnYibvy+ArM1RMKLVasB5As/pF1xi7XdUM0arO7dtCD24Y1AZwLdpUNiRVsCtykCuOeTvpDW/wDFKsiKW2xhZVtwyFZGjlUsbF2wP/vHAo3zTUTE05HRpXCqWb9IBJ/YC8ynU/pPTPbRflAdosi8oyxXSgf02CRx9sfddmVYJN7BVMbgk+wIIzGfSf1KWrTy8uA1SluCPTsHP6rBP34/fJ4KXaGOvIR9ID8iPyRtJH7Mxex+5Yn+c2mjfM90iIV6RS/0j4HsP8M0eljz0YkEhrp2w6PAtOmHJnMw9ZcA1UV4eTlTi85GWhDJpc8ENY5eHB5YsNMGRn9bHeKG0lnNHqYsGTT84yUdCoy2CaPp4+MP/s8fGF6dAMK4xFlKQ5mOByPl2pbFc0uDVmOVF0j4v1kIYcjLO5khzmOBscgim6cPYYP/AGf9s0rRjBnUXmdBcrFfUoVWBYrAbVSCMLYBcBWcqPmwnI9xY98xf9lzw0Nkf5d/mBwK5Ztr8H9PN1+3sKYfU0yaiVzI1Radu2EHq3BbLUAbBL8bvH5YHnMtq5XMbhJJQPQ3YWYRRsST6tvANFFJoeXX+Qex8dLaDptbL6NOSgkinGsdANobt7D6j4WxZtuL8kDnKtTo3X8vUldhuRZVmTdIj027bu7l2Lvaf1H4vFnQZZN0zN6mSqZvVvkUMHR936gyu6kH/qx+2njSNrV2Gzu9t0GogNeZIQ0gJPI9932b25aOf2diiZUTttGhaHcSSQWV4zSyef6SAEW+WJb44130H0vb/wARKNnAWGM+EAXYp/erH+PnIfTHSzNKss8g1CoiyA0BEoYeil/Svpv/ACP7EdZ62ramHskmKH8S8zf0gKuwv+w38H7n2xcpctIOKrbBfrvqzMDDEV4oy8pYjNjwxF3R8fGJOg6fttHKY0YFoloswIDsFtVq/SJR54ojySKC6P1xm78oVzJqSBavsZQt7FB5FbWo3x6ePfDvpLUI8iRTFl7LM6UymNxce1Hq/wBLICCPj7YUY0qBlJPZ0jQ6RQaQUPYeax7p4MA6amPYUxyZMz6NMsOSrIPhoCREtngORIz4YQpMmcqlzyR6wSSfCjE2U0jyWK8HaOsJWW8o1T8YUrBhTB2nAyH40fOJOp66rxR/an3xXEoUjp+rbFMpxrqhiyQYcUTTkVDJh88IytjhUK5lkk+KOqdT7Uckg5ZEYoPO6Q8Iv8sQP5wqd8zP1JHK8YWKzucBwNv6fmyfY7cXOKRRinboRQCSPUK7MsBQ2zTHZHJI0YFupHF/mNwPnEXXNOdKWDzMXVq2x7kNV6SDfjaPji1GNOqdPdhGWdZoUCqTuDuoiIvdtNMwDfN+cX9Njj1fUYVTc0ZdXcsoFhAWNjmgQoHv+rJrLmNF6bDpEWNtzah9NHLqFI/L0wbc0jsfBYj0LfAPyTkNMhISKed44p0BgKIrgv8A1R9y/SwJIqiKI5qrK+staZ5yO4y6NJAGXt9tZWQfmMGJ/M4VhYFALV8+pRrXkWFpmG1Dp9P2QR4naIwBlB8EJtY/uMztbNWnodHVumjkhRe33tP+JiN0Zo1ljjEIA+EoV9+RWItZIyJKvkyQsZW4rfIwG0H4AMgHsbY/Geza0EQooc6dAHdS8jBVK0RbMdvNixtu/fipySq8cioCqDY4Tcz0WBs725bke9+DzVZsY+DJy7Yo6Xpi8TbRtohS1nk1dVzya+2PPpvSosnHLBUDGgBzzQ44rgc82Dnn0/0uTts6rNT+aQBG2vu2hi1Vaqd1WK8ebb/SugaSZroqhuRxXncT5+TxwfFYaewWvqdJ6OKA/jH0ZxRoVrxjNXwkrEt0EXkTlW/PQ2FVA3Z6RkWyd5XIc5MxxAdVJimWfnGOsGKpE5yvFVEWa7CYZsr1kvGeRJlWt8Zk0mFjbSMh12Y85ne8ce9bXzmf7eDxGcjvOqOLJGwvWSYqkkwYgzLGbKXbIs+UySYQpkNS+Zfq+ofvhEYL/wAPZG6Pks+40rsATtjvjmseyuSaHvxnO+p9ePflcxxSKrlI+4l0oAT0upDLYHz7nFZf+Sj8ZfYt1UcSwMhmAKuZZY+QzFrAtao3S1TGgBwMu/8ATDTM0up1AFmGDal+LezX/wDMf45n5NWszME08SEhpJXVphSL5NM5+a/c5oPpnUCLSOoJV5tWpKrwJI0UVFf3cKD/ANrHJnF8X+y9SXJL0XRppIZa1Ev4rUEgStQ7S1TOKvaFG0k3Z4/YYB13qv43VIgLR6aBZJnNDdsRT6yvj24B9m/jBNYiopCMZJQo3sCFQAUSxPvyfc+ar2GD/Tencu0oWWzupooGlWzZKGuPdeD9rzFFdhyk1oe94gFNK7duWN7BBA/MSgD7eFJs8DnxzbLpfRUbRuSNkzFrINrQ4Va8Vx/meTiQ69VlveWcExqEWlB9QUKLta3e4Y/cZsOixgadYwSQqhbbyaGak+zJtdDn6X0uzSRgj1KCCPvZOS0P6mrwXN/vQxz0PTJ2QGF7RRBFgG//ABgWjiA8eCzEX9zilF8rDlJcKGWn4wnfg0Yy3LIHn5HsnvyxXygZO81gxstMtZTJqBgup1FYon12CojbG8kgOU9q8Ww6y8aaZ7xik0LcEyQhwLXR8Y3rBtTHYzVMFwMH1eDziT8Pm36jorxT/Z/2xnMDizb644pkbnGeuOKWPOBEzISOUTYUq588N5rdAxjYnkn2HcbO3njnxznL49JPKCIYpJWX9ZjjeQIfuQKHt5ztEHTw1g2NystjyAwqx98l07pq6TSCBPWRu3OoCmRyTbEexxGSRbggvLOQ9H6YwjndhTdvZyOf1Kzf/EYXodRGgjYgqybk7ldxRavzsuj6m54v/Cjr9T0z0yAcM4bx8nj/AHwXq/07GFUJwABQdBLt/vEhwPtuoYvJJRikw8MXOcmjBy6s9vZa2RtCj9QIqm/cAyc/9w+BnRfoXowXRh6KvKzOWRmjfbdKNykGqHj75gtZ0sJKFSiWNDaHAJJAHDM2du0HTmigCLW2NFQWaul5xU9x15HwX3d+DC/UGl/MVpHLbWGwukJb9twUN/njPpUVAYB1ZjNMqkUo5a+K+P5xzo0x+BfTZN+VJLJrwPemso/UOa8/7YVqIRe4HzzXwcXQnCBJhvGhKzBaDLQMGjkwhXzqo20yW3KZ2oZY0mCalsyw0hR1CfziKaY3jjWxk4sOmN4yILLNETj7SvQxVpYaw0yUM57Ouhn+IGfd4HEUmryyDVYfx6FfJsayRg5T+EGSiny3vDFtMYmivXyYq384drzisHnDiT5BpAcKUYHp8LQ5kkbBk1babwfUvZJBPJ5yUhwVjznRiDOb6IrGP9v8eP8AfBupdPnkUsoQIL27mILV9gOBhJ/8H/PGnUP+V+y5L+RFNo9H8B6f9OQL3O+km3dIkivs8CkYeT8WDnWf/wAjgeL0OAxB9DWHs+1Zh9TGAyEAWyEk/J3tycK0qi7rkeDhLGqSOeVqUmvYu6nDIdQTtcik20DRG0cj+bzTdPjIUXwfjK9Sg2hvcOAD9jdjDoPAyiMaWiLJkcm7CVOe7sjkWwxNl6S5Z+IwS8g5znE2M2GHU593LxeDhMBxTiPjJlrw3lLaQYfHnrjBbHLYseOsA1UmNNTifVYePsDJ0BM/OEwHBcKjx8nonjHYUJ6z78X98ElOD7jibHUf/9k=</t>
+  </si>
+  <si>
+    <t>Melodious Magic Mixers is where sonic alchemy meets artistic expression, transforming raw audio into pure musical gold. With a keen ear for detail and a passion for perfection, they specialize in crafting mixes that elevate the listener's experience to new heights. Whether balancing the delicate interplay of instruments or sculpting the perfect sonic landscape, their studio is a playground for creative exploration. Melodious Magic Mixers invites artists to entrust their music to the hands of skilled craftsmen and witness the transformation of sound into magic.</t>
+  </si>
+  <si>
+    <t>Intricate Ink Designs</t>
   </si>
   <si>
     <t>Navlakha, Indore</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTAMbXSrreuavutpggxaoEL1vLJLv52oSU5ZqoQxavyBJuMZxKf5NVN0IOgw3OJ-3XTp0M&amp;usqp=CAU</t>
-  </si>
-  <si>
-    <t>Pure Perfection Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEBUQEBIVFRUWFRYVFRcVFRUVFRUWFRYXFhUVFRUYHSggGBolGxYVITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGhAQGi0lHyErLS0vLS4tLS0tKystLS0tLS0tLS0tLS0tLS0tLS0rLS0tLSstLS0tLS0tLS0tLS0tLf/AABEIARMAtwMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABBEAABAwIDBQUFBgQFBAMAAAABAAIRAwQSITEFBkFRYRMicYGRMkKhsfAHFFLB0eEjYnLxJDOCorJDU5LCFXOD/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAIBAwQFBv/EACwRAAICAQQBAwIFBQAAAAAAAAABAhEDBBIhMUEiUYETYTKRodHhBTNCscH/2gAMAwEAAhEDEQA/AKcMSgxPBiUGLu2cKhgMSsCfDEeFFhQwGI8CfwoYUWFDOBHgTsIQosmhrAhgT0IQiwoZwIYE7CGFFk0M4EMCewooRYUM4EWBP4UWFFgMFiIsUjCiwoJIxYkliklqIsRYURixJLFJLEktRYURixBPliCmwomBqUGp0NSsKUKGgxHgTsIYVBNDWFHgTuFDCiyaGsKGFPYUMKLChnAhgT2FDCiwoYwoYU9hQwosKGcKGBPYUMKLChjChgT2FDCiydoxhQwp7CiwosNoyWoi1P4UWFFhtI5aklikFqItRZFEYsQT5agpIJgajDU7hR4Ulj0NYEeBOYUeFFhQ1hR4U7hR4UWTQzhQwp7ChhRYUNYUWFPYUMKLChjAhhT2FCEBQzhQwp2EMKAGcKGFPYUWFADJaiwp7CiwoAZwoYU7hQwoAZwpJYn8KLCgCOWIJ4tQQBLDUYancKEJSRsNRwnIR4UEDcIQnIQwoAbhCE5hREIAbhCEooAIJEQhhTiOEANYUMKdwoYUANYUWFPQihAWM4UMKehFCCRnCihPlqItQAxhRQnsKLCgBkhBOlqCmwJUIQlQhCUgTCOEqEIQAmEISoQQAkpJCWVjN496iZpWp09qqPkz9fRLOairY0IOTpF9tLbFC3/zHgHg0ZuPkNPErPVd9+9DKOXNz4J8gDHqsg4kmSSSTmSZJPMninbelJ08FklqZPrg1w08V3yaipvm8t7lIA8y4kekBMUN7a8y4sOndiMuOao9oUwzucePQqC0wc0n15vmyz6MFxR0vZG8lOucDhgdwkiHeBV4uQU3fX5rd7o7c7UdhVPfAlpPvtH/ALD4jzWjFn3cMz5cG1XE0kIQlIQtBmEQhCXCEIskbhCEuEIQA3hRFqchCEWAyWo05CJAWPwhCVCEKCBMI4SoQhACYRFLhUu9m0vu1s5zfbd3GeJ4+QkqG6VslRt0ii3327ANtSOf/UI4D8E8+ayNrRJ0zziIzKbpmTJzJ1k8zJJK1+6uyGFwcajSRmGgz6rl58zfLOtp8K6RA2funXqESA0dTn6K5q7pupMxB2cHpHmtvQsS0SpJoyIIXOlmm2dOOngkcJvKDmPLXiCE3gyXQd9935YarQZGc+HNYek4YTihbMeTcrMOXFslRFiFJt65Y4PaYc0yDyISCyWz4pNPMfDyV1lB1XYu0BcUm1BkfeHI8VPhYTcnaGCoaLjk45eOkfJb2F0cc90bOdlhslQmEUJUIQnKxMIoSoRQgAoRJUIoQAmEEcIKSB9CEcI0owUIQjQhBAmFzv7RLsurspcGNn/U/wDYD1XRiuTb2vL72rP4g0eAaAPkqc79Jfp16iLs21DyASAXEAFxwtHUlXV/u3XtQ25pva9kg46RkMJ0xDlnqoo2Q7uns3EZTDZlaHd2wNsHuFSoaLxhq0n0nBpYQQYJ98SI0XHzTkuYv49/k6scUjS7ubbNakMXtDI+SRtbeR9IhtOliz7xnL91M3R2F2FsDU9t2ccpVTte3ptrHtqvZtkDUAn+mf0yWVyipG9yqFsbq74W1xTdSuMVF+mYJB4ZkDqucbSpNaSGuDgCYI0I4FdZ2ds2h2Zq0Cy5Z74cKb3gcYcBmf5Vht99hspOFxbgdi/IjTA7h5H8lfgywcqXBlyJzhuXNGYtq0d06ZpbGwT9aKHMKY8xB+uq2mQn7Ofgqsd1z88p+K6rQdiaD6rkbD9fXmum7tXXa0GnjHyy+ULVppdoy6mPTLKEUJwhFC1mMbhCE5CKFADcIQlwhCCRuEEuEEAOQjhEjlLZNAhCEJQlFhQRC5pt/Z7mbQAcQ7E0VMhEagDX+Ueq6asbvXbkXbKnA0iB4hwn4QqdR+BmjS/3EjVbEaDSEjgEi2pferkMb/lMMnk4j8pCz7trltHs2GCR3jyHLxT25+2a9KabKRfiLsLoIB6F0EZLhuPbPQ7r4R0R8Ax6LHb17DeK/bsYKgLYc33s8jhP5FW+zb+vVa7t6BpOa7g7E08i18CfRXIcHtz8lUnTJa4OU7M2BcW9ZtWzFRpnvCpGEDkQIxDyVrvVbPdbVBUYGuDS4gEkSNDn4LoT61Ng5lYLfjaAFGpPvNLR48gnfqmm+xYwik2lXByR2ZU93s/n9eKi9gYx8AU7RdkukcuqHLd3BbzcavALOR+vrosJT1HotFuxddnW1yMek5/CPinxSqQmSNwZ0khFCU3MIQt9nOoRCKEuEUKbChEIQlQhCAEQglQggAI0SNKNQEaJBAUGqPe1n8JjuT/mD+ivFF2pa9rRcziRI8RmPkkyLdFosxPbNMwJp1THYlsmciYJ8DEfJXexN661u1rbmhUhpPeLSWgH+bQcU3s3d6pcMx06ga7hIyy8NFd7M2fcsOC5Hg5hkEeJzXDyNHpMO2uf4Nda39OvTD2GQRP6jxUeo/Cqmq+hZMdUaAxvtOA4u6DmVV0tqOc2pWuHNYxkGBJgHQTxdOWXFZ2rLYx7fglbxbbbb0i92Z0a38TjoAuY396+qZqOLnuzP4Wt4MaOH7Kdf3v3uqa1Q4GNyYw8BzPXifIKnbMF5Gpy6nl8lrw49vfZmzZHLroTUaapwN9luvUqNQOceSmsJZTLWialTuiNeZjr+6hvtnUqnZvEOykcROea0xfgxZFwmSaQ1VpY1ML2u65+n91XMHH65qXbeyJ4ZfNTdMSjq+zqmKk13QKRCp92Ks0o5QR4Oz+cq5XRi7RzJqnQUJJCWiKYUTCKEtEoATCCUgpAZRpAKOUo4tBEjCADRgIglBBBTVrOtQe6pbAPa4y6nMOB44CciOhhP099KMFlUljhIcHiCCNQrNcn3j79zVLRrUd/yIlc7U6eC5Xk6mk1E36XzRdVNrC/uwXHDb0pcAZ7xA9pwGcngP1VVt68FephpHuglzpyBOQBI6Z+qj06eBoZTnG5p5jPjPMRkpO7tEdq3EwvgVHuZBOJzGlzWkDUEgDzWNRje72OrKUlD6fv2/8AhVXLHtIY4ZwHEcgc2zyMd6OUJLBjMzDW8fzVvb0RUbXr3BdqRlAc6s8GGiRDQ0Ak5ZARxCpw2YpDQZu68h+fmr0zI0/zJ+xauCoa7xkBIn3RrMeAk81S3t26vWdVdq90+WgHpCsNs1MDG0pku7x6MGbB/qPejkGHiqdmqbHH/IqzzfGPwv8AZbOIy8R8TEKXbZSD08iqxjiQ6dfoqZTrZA+vmmKkzdbpV8gOY/uPUfFaxc/3YrmdePpkfhkVv2OkArdhlcTBqI1INAhGicVaUBIkEEEhI0RKCgkiApQKbCUCgahwFKBTYKUCgKFhE6oBqQPEgKBfXzMGFj++TEQfZmJDuGarar8LC8gnoNTOmqp+tF3Xgu+hJVfksdo7cp0W4teWuZ4AZZkrm9lNSu4uOpM+Ss9p1XVpqvbhp0pgEzifwbl1hVeyGHEM8+OfrKyaiblE6OhxpTRonWIphlaniIcC1xI7rXtdIgxkC17cidQmdi7YFneG4ezuBlRhaOOKS2P9Qb5Faehtpp2c6zI7wLcJjLDjDzPUEfEclz7atYOcQ3QH1jJYsSt8+x0tTJ7Pl0Xe0tk/4S3quq/xbiuXuaQIm4DTPgA0epUbaNm0XD3hgaxoADBk5zWCBiP4nOgE/wA/RHsfaD8VvVqw5lqe60xmC7ERnr0PCAujVNn0No1H3EEsfTptYRLScJLy7xJcGwfweCdXdGeTUY3+Rwu9xF5c/NziST1P5JFEZrpm932fVGsNSgMbW6ge0PLj4hc2dTdTdhcIK1+ODm+eSTSb3h1S25GPrwSKWcfDx+vklVRxSjGh3frQ8z0jlqF0WxfLAuVbLuYcD4/Xz+C6TsWtLY14TzHArTgl4KNRHyWsoiiQWkx0BJKUUglBICUEklBAURQlhZNm2avMKZZXlesahY4AUqTqrhhnFGjegyclySWOO6RbihLLLbHsv6tQNaXHQAk+SzuyLqo9xBJ7zMbs8++6QJ4ZBw8ER2o+ux1IDN4DB/VUcGN+Lp8kde0fS7dg9t72W7SM9Q0SOgxuWPUzrKlfSbN2lx3hk65bSQ7RsC6jSvCSDWuDgHAUmh5ZHLu0y7zCq9q7Ue+s2gzJhrBriNTA7/oZ9Fq98LoUOxoU/wDo0TAHMwxh8cLX/wDkFQ7S2ey3q0KQEvp0u0qGdaj5Emf/ANPRZISul7uzXkhacn0lSGNssaaL6Yy7vDgQQR8QFjrWq5p1zBzWovn4mw4wTMxpEGfzVpsLcunWthUqF7H1JILTo33ZaRB4HzVuaSRXp4t8mbftAmnAOZUWnayRiyBTm1tl1bGoRVEt914Bwu5eB6Kt2XaVryq1jcRBcATmQJMCPVIkqtMtnkdpNclrWPaOZb0BIc9rQeb3afr5LtexaMGBkGgNGUAmBplGQHDRcz2f2NO4NSkJo2jSGEn/ADa7yW43HjPfMj3Q2Fq919q3FxWdWxuFGQym0AYTLpLnCNY49QqJ8STd0v1ZM4ucbOgUqca5zquZfaruQHMdd27cxnUa0cB74A+K6XTeYzPhHzThJww6DI06cVrTowtHlGhUh2f0eCmUyHGBx+fD66LffaZuD2RddWbIbANSmOBOr28hzXNqTiDByIOh8VPYLgm22RPQ/Bbrda7kYZzGXiP7rDV5Dg78QB8eP7K+2BcQQeMx5J8TqQuSNxOjh6GJRqFSWg9E7K2mEWSkkpMoiUAGSgkygpAyDLGDwVpu5TDPvxPCzA8yamSrG3bequd36Zfb3+EE4mMY2BJPdkgDzPqs+ulWOvuav6fFvK37L9kJ3Y2aDc0uXahx8KdOo7/lgUjYMXF813uh9a46ABxbTnxDmHyVvu1s52I1XBzW4HNaHNLCS+Ae66Dk1oEkZ4j4nP7aJsBUo0nkudQLJIAJkGNOOi5uWTnkbXk6uCChjUfZfrz+4/s2gbu8dXfGEu7UchSpkdnHj/CP+lyon3RuKlWuZPaOhozyY04WfAA+ZV/bVR/8d21LLFbFgwzLXOAaZ6A4lRMDaVOIgCABxMZAfJGl5bb8C6iT2qP3IzrM3N1Ttm6GMccBGJ3w+a6kxgaA1ogAQByAyCyG4tjHaXT/AGnktZ/SD3j5kfALY24yxFLllukNjjtjRi/tDq+xRGvtmNc8gD8VT3FQWll3e7XdVIxTmAKQOMdGh7vMKq23t51S/fUB7mOGRyZDfQkE+aG8V6yvd1KjcqQgN/8ArZExP4nBoHMBTCLvkicmxewrF9wKdpTHtEvd/K3SXeDQB68V1zZVtTo020mRDQMxxgwSfEyVn90djm2ti9+VeuMTj/22GA1ufKRPU9Eq026+pcCnSY006c9vVJJaDhzp04yJxRnplKHJK5PpBK9u1fJuKbgTHImPmU8x4Pe5D1A0VfbVpbiHHBPylT2uMAAazPj9H4q5OzKxNzSxMIEHFOueRGfzXAd9NltZWeWtwuadIIkL0LqY4DT6+Cxv2hbGpVbd1WpTl7ROJoOIRqYHtanLp4puhezixANJruR+E/oT6JVjULSROYPw+go9k+WFviPXT4wl27h2jTPtNjzb+0Jo9kS6NfZ7beArBu3zxaqa3txl4J77mujHo5s++C3G3h+FKbt5v4Sqb7pHFJNCNE3AlsvRtynyKCoexQRSJ5JYs28Fsfs9pt+6ufxfVqHyBgfJRa9nRZoJ+YUz7Oj/AICmOrp/8iubrZ3t+TraGG2M/gvL26axvU5AaDUAkngBMrnG+dlXntn5yMOskw7ukAZRnGXEhbjazS0ufUPcMtbGREsEkHhLhHnKoqJ7S6ptHsgEu1jEYgE8cs/Fx5Zc+3uOlGK2lP8AZtcuw1bN8EBoeyfwv9oeE/NVtFhrv7JswHkEnmMj5AT8FPfcNsb+qRAd93LKbMoxuqS0AfhA73gp27dlhbi1JyBOZ6knqVZuauvIjgnV+DR7Otg1rWNEBoAHkm98dpfdbN7wYcRhb/U7j5CT5KzsaUBc0+0+/dWuW2zDIYMxwDjrPlASxjbIbMxsCx7VwLtGgAdXO/QZ+YWq2Bu4194QCXW9FzX1HEANxBsspDmBqf1UDYdkDVp0maNOJ55ktifmtBWZUp4tm2b8ZqVHVHmP8oO9rtHToMstT8DbKREY8IeutrVdoV32tscLHgNqVBrSoNJJjk+oYjo3zV5a2dOjQDKAgUahDQPeLaZmebiTrxiFGo0qWzqTaFIgve4YyT3nuc5rS4+uistlVZpMcPfrvJj8OJ48oySRSYuR0qRb0Rm0D2TiHTvd5p8IB9VNou1JORIjzH7qts+7IOncH+oTTI6cFMpwAGdJB/oOH5R8VejMyU3IYSczplllokXjQWOnOAZ+P6pTXSTlpp580triRi4kifzUinm/eKjTpX1enRa5jWvIwuEQdSWj8M5jpCqm1Ye08nA/HP5LYfazYdjtHtA6RVaDH4cAa3XkQQfVYpwzKdCM2NlWyb0H9lYir1VVsOgajAQJ+h9eatvuDuR8ltxy4MWWPIO26oGoEk2J6+iAszrB8lbZVQh5xaGEEo2nU+aCALe5rtYS2c+XPwVv9nFWLZ1OfYrVG+WKR81k9s13do6m9vea8t5iWnCMtQrDd2++5XTqdc4adZrXNcfZFRrQ14J6/pzXM1TtI6+jXLRtd5G/wZE5HhGkH845qs2RbinJdqDJ4RkMvIZIba2hIBZUYWtzhrxiJzElsjEBkdefGFjt5N4xcH7pau/zAO2ePcZHeAP4uHTRYoq2b36Iojtf99valyM2EmnR/oaYL/MzC6Bsq1gARpoqDdrZgaAYgAANHIDRbW2pQFLFfCGNqXrba3fWdo1pPieA9VyEg4XVah79Qlx55nIdNVsvtHvpNC1B9txe4fys0HmVmGsBLqr8qbB6x08cuuSeC8igsbk2rAKbZr1obTEewNMUfLr4Lo+7eyBbUhRb3qju/Wf7xJMnM65kx5lZPcfZxrOdf12wSYpD8LRlI+XqV0LZVM4e0DQS4nPUgCRHT90VulRE5bYmL+0DZtVuC4psa5lMgE6VNZhw0cDGvPyVnsasMNLD7LKUkfzVZfP+0equ9t7JZcMfSMlxblMQDEtz4+Swex7p1MVLcg4gWMJ5AYoI8mx/dPVFEXZvbeCB/O4x0xsDj/uEhWIJLj0zB4d5v6yFU2lfvQPZY3I9WxH+0qwpmWlpME4gPAS4H0ITIVklp7o5zmOYBIgpyfeGZaIcNJj+5SWAExGYn/cJI8JhKZiGY1MSOYmDlz0TCHKvtrsSewuBk09wjKZgmTxyj4rlpPwXdftR2eKti57ROB3aAn3cMYxnzbPouHXLMLiORj9E0WLJGx3PqdwjzPh7P5NW0sbsBsRKwu6FvJJB1EH1H6Lf2NmIidOishC+Sucq4J9m+m6e6JRXdy1pwhgy6Jr7uRmEg0XaxKt2Fe5DTq1MtMAAzmCEEKtDFqPRBGxhuRlLx2PbFxiOTKzz6HLxzVy2q10seGvaTOFwBj1Ufb26V7Quri5bS7anVqPqA0u85oc4uDXM9qc+EjJYza+2HyWQWFuRBkO8CDmFhyJydHTwyjGNlrvJtG1ZNOlQo4vecGNy6A8+qd3V2L7xbBdmeg4NVBuzs41qnaOEtB7vV3PwHz8F1fZFkGNGWarl6VSHjJy9TLDZ9sGgBWL3QEmjTgKPfVYaSq26RK5Zx3e3abqu1HEHJhFIdOB/3ElTXUjdV2WbMmMh1UjkIy+uJ6LM3LS+tVqH3qj3erjC3/2e06LWZOmo4y8nXoFdNbYoTFPc5I11JoawMYAAAAAOACsdn3zMHZPOAtGumKNM+J6J2lQZEiFGurMOMjlmq03FjuKmqZfsb3YB4anVco3zoPtb3tsXde6Tlq1xzJjUjP0W7tbupRy9tn4TqP6XcFSb+06d1bGowQ6lqI72F2RkcQDBkK2MlIzSxyhyMbGummmyiSSakudx7vA+JwlaehWDnNGuEAnqHS13hp8Fy3dba2EGcntw06Z1HdA9BH1mt/YVwGNa9xxHE2c9TBH5+qFxwS+eUaGk7FMmD7M9eHjl+SkAnug65GeEfpkFWU3iGhwM5OnLkRlzyCmtqFhw6tHTMNOR68U6ZW0Iv6DatN7HN9oOD288tQOK857csHW9epQqDvMOA9YALXDoRhI6FekzVyBwmAcjGY8uOa4z9qew6/3urfNpzbuNMdo0ghrsDWfxGzLTiETEezxKZCsP7PqQLQHDUEjyLT+vot9as1gcVmPs5fRdSEkBzWxnzgfmFurG5pBsEgkk+s5qyMmVTRDLSkNM9FeipRJ1GmabaKXBwOenRPvYm1FWIA4IK0q29MnIhBG9htRLfetLcTvZEkmCBAXI/tP/AMW+k5oAJqFg5tZhJJdz0lVFHf1z47ZrQ4CC5rXEEZZkYtVMt7o3dZpHsgDPmq5yqNsvxx3SpF1uxsxrGCBAAgeC2NpSUDZttACuWNgLDd8m58cBvMBZje3aHZ0XEakQPE6fr5K/uqsBYPbu28FVzKlk+tTIbheJjFJkDLLhmoS3Mm9qsw7qeU6n6zR2t6+g8VG5dP2VnXvbRwJp46Rkg06okjq17cvWCob7YES0hw6GQttJow24uzo27W8ja7BnDuIV+y8jVcQl9Iy0lv8ASSP3W43S2o57C2q/FyzJcOck/WqzZMe3k14sqlxR0Gm9rwo95YteIIB8VV0bot0VjbXwKqsucWujIXm5rWVe2oOcw5y2ZaZ4jiD9QrLZlSpTj7w6o7vNJLWtcMh6xM8MlqIDgotS1T7pCbYvwPWruJD3iTBgRBETlw+Sn0CQJaMPDvRMRw/fkqE2EHFTe6m7m05H+pujvmpTLtzJNYZfiA7vn+H5KyM0UzxNdF6IynURMc5nIcFU742wr7Nu2uIYBRe8F3dGKl/EaXToMTBPQqYys2cQcIiZ46Trohd7QpilUc4tgMeTj9nJpPenIjmrUzO0zh26lwQ4hp1zg6aCR8B6LbWt3lDoHguZbHrkOERJzIjLIAkAeq1+N491X4+irIjVtu+KL7zOYWZZcu/CUf3qoAQCRPwVtfYq59zUtuZ4keaCz+z7t/snvdUSNq9iLZzOgwF4B0kLpO5dMYSY4oILBnOjpTfWYU2poggs5e+yl2q84TnwUGq3IBBBIWorrnZ1GrPaU2u6kZ+uqwG1rdtKq4UxhAOUE/OUEFdifJXmSoK0eXsJdnmlbOqllZuExOqJBaX+FmOPE0dBtHktzUim8h2RRILAzqIurOocs1YgoIJkVS7G3J9gkQUEEyEY3a27DIwiGnLhGWmSrdvnFs24xQf8NV4D/tO/QIIK6PgzZO2cO2aYqtI5P/4uXRQ4oILTHszy6JNEZaKJV1QQVpUO08kEEExB/9k=</t>
+  </si>
+  <si>
+    <t>Sonic Serenity Solutions is dedicated to the pursuit of sonic tranquility, offering a haven for artists to escape the chaos of the world and immerse themselves in the beauty of sound. With a focus on creating serene, meditative environments, they specialize in crafting ambient soundscapes that soothe the soul and calm the mind. Whether recording nature sounds or producing ambient electronic music, their studio is a sanctuary for sonic relaxation. Sonic Serenity Solutions invites artists to embrace the healing power of sound and find peace amidst the noise of the world.</t>
+  </si>
+  <si>
+    <t>Paisley Perfection</t>
   </si>
   <si>
     <t>Annapurna, Indore</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTI6yOJ1rFfCBLaJ6X415v2A4uV5PUdPvnsD-ZdLXcE1g&amp;s</t>
-  </si>
-  <si>
-    <t>Timeless Trends Bridal Salon</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUUExMWFhUXGR8aGBcYGB8dHxobGBkdGB8dGhgeHyggGh0lHRcXIjEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICUtLS0tNy0tLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAFBgMEAAIHAQj/xABBEAACAQIFAQYDBAcGBgMAAAABAhEAAwQFEiExQQYTIlFhcTKBkRRCobEVIzNScsHRB1NiguHwFjRzkqKyF0Px/8QAGgEAAwEBAQEAAAAAAAAAAAAAAgMEAQUABv/EADARAAEEAQMDAwMDBAMBAAAAAAEAAgMRIQQSMRNBUSIyYRRxkTOh8CNSgbEFQuEG/9oADAMBAAIRAxEAPwDjuHvm2xFxST5GmDL80sMIIAPrVDHoL94OPhJ3q12h7OBFD2x03FQv2Prdgn9kqmkqvmWW23Oq2QPQUFQuraQTMxFR27rLwSKNZHi0Z/Go1dDTiHRMzkIshNPZvJlaCwGqOtEcVkig6m4FQZRiB9oQHrWn9oWdqgNpDudtq5RZJIRXJKULKW+0N0C4gtvsTB8qf+x2X28L+s7+0Sw3Cnfz3rjKGSATtNNtywQgK8xtTtZpbiEW6r/dUxyCIg1a7jgsabgYpDeW+0+priPbDDYm1iLr3dMkkkWzsJ32q9kfa3EWbZtAAi4YIjidpHlTI+TB7cNuWWTXP0OjfpJXGgQUzUalrwMLlLXXurHJB+tEssykqNbHxdBVyzgbeHZ53IJ5qtisxKlQNwxrsukc70x8Ke79q6DkmpLS9ZpP7dvpcIiwX8qccGn6pTO8TFRJ2fOKud4EDG3vBMT7TXJZN0JN0nCBgJdS5diMouLwpYxJgTA8/asy3KLt4FkRii/EwBge5r6LwOV4fDM1xV0i4oDKd+J238wSCKhwmQ2Uw7WbACrcYs5HMTMR8gKE/wD0La9vjP8Av8LofSmrXELuVoi8SetTZaEtiByaZP7Q8o+zXBoU6GWRvO42P8q55bx5F0OROnpXS07jqYtwODlSFhYaK6DhsKAsx4j1oiezl2AzHwkSOo+dc8x/aa7c2HhHpVzJO3GJsKV1F14g0o6Gat2L8LKLuUyZ3gmslTOx8q0tYBbkFjJoTe7WreTS67k7elTZTiIuRqoZIntbfBQG6W+cZ19nIQLzT92PwY+z97c3ZhI9K532qsB8RYVvhY7murWwEw6Ivos+wrCxghBrJC8Thc6/tEtlkUD96kmxkt1/hE+wNdVz3BreuBdMgdaIYDLERRIEeQ2j5edJj1/00QYMlMY0kLnGRdmsTbuh2UqB+Pyq9jsf4oJMqPx86P8Aantnasfq0Ae4uwUfCs/vHqfSknBYlsRcdrjSx6f0HlVLOpMOrI2hWE70tabVz7Qv97WVr+jV/d/Csov6f8pJ3t/tVZ8se1bMGSOKMYDH99ZXXyBBoVl2fqw03BHSaEvijautpJ0kzHvTelI8FrueUqieVrn1pVuQoijfZbLbQHeXeegqjjcP3um4CIo3gFBUE8Vs8hEIbf3Wl9YVPtFcuI63bUwvWlfF4lrjFnMk12G5lytZEjZq5Xn2XrZusoM77Vmgna70EZH+lrCOEMFPeTnvrAgiRSxluQX70aEMHrRZMhxOHb49PmKdqtj21uAIWuohSLhLtu7JSQDNPtvNhpBHOniglkXQmttwBWuHOsFgIA5Brmund8JRyEFxOVF7jXbreEnZaK5dhLBAlRtwDQzLc2F26Q3wqdvWimB094W4WmPdICA5eJIVvM2ZAHUwoEAU0dhrgvrqC3QQd3UgKNuDvv7VzLPe0wYtbQSAeas5D2gewqup8MyUbdSePEvWlazROkjNYPZOhOx4JXZ83tNAIGsjyFSZaxt2tV2F679JrnON/tHvFFEKJIkgbneY8gPas/tG7aP3ITD3VKXB4/DuODEnj/SuEz/ip3FsTgMnldX6oOjICu9uLr335DW0HhgRzEn1/wBK5LmmE0sx9aPdn8RiWXULhI8jVTM8K914I0+dfSaOP6Y9OxQXJc8l1lLdWMvQM4DcUXvdmyFlWk+VVsF2fxDtC2yPU10uvG5pO5bYIVzNMKiKIAmRH1rXDqRcmego43Y+84GtwIqlmfY+8ssjhvTg1CzUREbS8WgHFWiVm2t3TrPwnb5U6XcyVLeo/Cq/jFJ/Z/KdafrCQRsRR+/gl0aGJKj/AHvXMnkAftB4Qo7kFpbmETEsvicEwdo8RA434ANLHbDtJ3K9zZ3ut8RH3Z9fP8qtXc4CYbuQdFsE+I8xM+HypZu9oMHb4XWeZiST5yaNsLHyh7Wk12+fkqsyBo2jlLF3K7pOsjnmepoj2QyZrmIJcEC3ufc0ds5j9o0lbRVVaTqHPlHnRrAZgiFmIA8iBz71XNqpQwsIon9ksP7FFv0cn+Gsqt/xUvr/ANtZXH6UnyisLleT5R3m88dKkza4qnQV36GocG74e9A3HX2ojnSrdTUORX0rieqCeOyQecotlWVo1oTvtxVh7QWEUSZqt2QsMqeJpnp5U2plqEapIYVy5SeqW3aVwVVXNHVArLtSbi8MHxoLCViaaUZtLayCAeaH2cIr35J8Mc1kD9hJ+EZxkJkyLEp8NsbipO0iKyS0BiNzUf2y3YTwwNvmaSMfj72ILNBCA0TBuFDjygHlT5NnUs1ktKjg+dXMPau3XOo6E42oXkuAVGZz1/CjT4o6fBBrZtof/TCInwosJ2Wt221Alp+gqr2vlE0W+sDb1pqy3Fwg245nzpOxmODY1e8ZSs8DzoNO+SSXc7O1bybVrs/2b0W9TCWYSZ6VHmOFshSCQIovjUd99WlPIeVIvaPFBn0Lwv4mnaffPJZd/wCLG+ory+WuMvddKIYjK7zWoaNUzQDCO6N4J1elNeS38Q7BLiETwatn3RgFtY/KcSWoh2fwwtBFJ360cxmWo4biY5FCLYUXgrk79aYEZUB6iuNqJXXY5OUlJVm5cQkMpgHmpsVmbvcsrbdlUmGpmS6hQkqIOwEVVxeXqwUwAD1pwnaTZCJnKO9oMrZbdvuH3ZRuazBYTQvjYO3UmgeMzO4tvSGkgQDVLKy9oE3bpZm5k/kKiEDzHkjnxkpziy0bxGY2u9VTcWeAsiszOTsOOtK+cPZRWuFZfow5r3AdoQUWQeIk08aQ7Q9tpeOUzW8PZuW4PB2objMFYWAgQ+Zjj5UvX8wuPdPdHwAcH8aiF4sSCYqpmnc0crXOF8Jqw98BnVHB0RJ6eKtL6E8x7j+lBsvVQSy+EH4iTP51N3bPcV7bFjuIB5+VA6P1UChdt/6q59mX1+le17+jcX/dn6j+teVnSegSpjbyWjoBJJ5PlV7JsuQqSsmepoFdwVy9eYKp3PPSug5BlYs2lS4wmrNVIIoxRyUTqASbmVq/aug29UdI3prybOrvdjvdieQRTGL2GQCYJ9a8zTA2mTVpE9KQ6USRiwLHdCXdqQtyLurQIXT+NLtm6bZA3JmKlw2Pe3eC/dJj60D7Q4prd+ASIM/Wthhc4lvY5RFthN/6E75hcusQoGwmiv6OsLb0qSTVnLcs7yyhJMson50iZngsTYxbWFckMJBPQUljHygi6pBVqxnFteEaBO8UKwlki4IuRPrWmNQltCEwvLeZpj7OZHbUSw1NzuarxGyieUV0ETwtlWQqX1ecUiZ7glt3dVsEAGSPnV/Oc2Fi4RZImd44FLrY667EzJJ4otJppGEvvBWsa7lO+Z5kGsqEbcrvSTfw/hLlpM1fOJQINXxcECqd3CPo1hSEJ6/nT9PGI7rGUwMDSiXZrN0tHxWwfWm2z2mS44AT5xxSRcyV1QXAZ8xRa1bAXVxU+piikO5BIR2R/MouMQhGrpHSp8Gl7RDiT50qNmdu2Zkz6UazDtUFsg2tyefSpH6eSmtaL+6XRKs3b7IYYVtn+O02lFvdjSyc/wC8G/NXMPi1jU526CmDTFlFwXm2Ct/tDEgttAoF2izDW6gH4fzqxicfquaRPpQ/MsIw8RU+9WwRhrgXf4TwM5UuJx3eW0TkkgGvXxQtsEI8PWtsqy5gQ7DbpQ/MbTLcbVyTNOaGF20L2DhGrd1CNVs+4NVruJCyaE2Q3KzRfE2ZsjaTIG3rQmMNKHZlDL2MuNyxjy6Uzdhc4sYUXbl5jrMKiwTtuSfyqlhsDOzLsOlWLWWIH1BQI6EyJ9q8+aOi1EKOE1f/ACBa/dvf9g/rXtCd/wC8/wDEVlS9Rnj+fhe2BWcsRlM7e1WMThrrHUAdPNRYTFa1VyIkTFWrGbOyN4GCjbioqcXEkKfKG4LCXHvam+FeRTSb+uZ4G1LWWWz4jZIM9CetGsh3FxL3xETHltQzMc80OAmBi1wmQWr4Yu2hwZVvTpSX29wmjEJvIIAkdSDT/hrH6oECQo/Chudd3dVNNvWyHcxISep86dptSWuyMBPDHOJRvCX4RNJ/+tR9BVJYu3dTjfifSty9tUTSdXrxtVW9moFxEtpzuZqEbyTSiPKtZp2Mt+G7bJAiSOk+dc7zfOroY2bcrvpMcn0FdSw+dkKURZB28XA9qU86wOHW73nN87hQdhtEkV0oZo943Zx+EcZG71JLbs7idIbRIJjkGPf+tHMm7NBLiC64JbkA8fOo8B2hu2zoOxmDPT1ijJuK5nUAREMOZ89vyroSF7hQNLoSaex6SoO0vZRVM2yIPTqDQVcRcZBacQBsaa7bNfYpILxIYbbD94dPfbrVDDZezGSORqBHl5+nzqN0hFhw44S3wSNYLCL4fLFe0FG+wqa/lVuxYC6QXbqelD8pzMoSBueB6UWkmSx1NURcW47lRZSZmWVKwMrHqKp4TBhbZB3maN5vgcVJJA7sjkcigGBtm3qVj4ehq9m/ZRKIcIC4KMfQ1YIa6wANG7XdXCVEGp2ypQJGxFUO1IHIyiMnwqFuwlphcdt/Kjv2+2y/AWB9KXL103JXuyY4NX8Hi79tNLW5X23pMse4Ann7o6vlEcI0giIAqTCZB35YtAUcUKwztduAKCJ6GmyxYuWASSCI2HlUkznQn0nJQXRQ+/ktm3AA3HM1YwWUB2EQo8z0+QoRYvXHvsxJIHIo2VIIg70uUvbVuyvd7KbML2cwirAcOxHxEjn0X/8Aagfs4eAEI9VG/wBBSre7RGzAdQ8k8GCAOvkd6L4PtVaf77KfJhH5bUL9+0Et/CMDwiH/AA4v93b+jV7Xv/ES/wB8v1rKTvHhyKnJDyzHsXeFIFsxNM2BxT3PFpAnk+fypey6131vWhgMZI9fWr9vvbawrf0qqY52twUvaruM7PGyxvhSAwk6fh/0qnjLrmwtySuoGCDDQp39/nRazm7pbXVcUavuHcH5Ut5lmpfZUVlYFE08AnkgcedehBebN2nwx5tXf0491Rb+FVEEjlthBohkmc2rD926kKfEX0yDHA2pfuYR7YXb4hJj02+QqW2hYQdvetlDX88LJpzu2gK7dzpL125o+6eIj02FCrF4tiWI6QAKuYbLAWN34YEMY9ufqPrV7L8JZUnSNTkaiepHnPlQehgIYDxSnMb3ZAKmv4wIks6r7ml7DYi1cva1fUTyDtx5UL7Q4S7evwlhRuQCjSH351ExPGw86myfszi0IcqEBGxYz/4rJqqPRtZGXbskJjdLIeAbRrNuzoxA1r4Lv1Deh8velHGYS9h203VZD0PQ+qng10vC22IABl9tgCJJ6BTv58gDbpNe4zBvcthLtosrchkPhI2EOOv+IHb2rNPNKz0vFhWQ6fVRnI/dLvZTEd3bbUwBvELJPCn4iT/CNv8AWnvJLCYm5FvdJAuuONKz4FPLE7AnynfeKWbPZRHP6vXbCbE6iwMr01CQYPntPnNdA7C5W1mwV/8ArnwQIJHVj5kmfkBT73OXWcdsSN3sBZO3dJxxpH9KBZr2StvuhNo+ajb5rx9Ipps2utSsnpRmFrxkLmP2nBXFe0GCxmGJD+K2dg67qff90+hrnmaYW5r6kMdvSvqTFYcMpDKCDyD1rm3ansTANzDjYb935fw/0oQDCbAUroay1cndDhbixvqXeelFsRnClQqwTG9D8wwF68+oCQNqmyzJW1Q6Gtf03AOecpJAOSmnsJlrYi09yFAWdutW8Nhbly4ym2AgMavP2rOzV98KrAfA3Sq+Lzy+10JZUKg+Jq48hfJK7bVdvhMcG0CjTZXaQSEk+tRXlBSeaoZsTeXSXKjqVMUKy/NFsubPealA2kyZpbIXvbd2QluAPCJ4PBhpjYmpsRgmCkzuBtQ3MczVV7xSCy8D39KGvnTsoJlT5VVHE8+paSKVe5lxJNwySdpJ49K0fCGOs1O+pxu+kSCBHMUTYvGoAT68n5VU6RwrK8SKwUA/R1zyP0rKI/pHFfuisot7/j8oLVFML9nXUjsGG5E8/Kr2X9rZIS4khuCdqdsTktm4HgD4oHlHmfzoRcyawglMK16OHJ2HqBS2PbMDuaSfKYxhdwhuJwCXo1ayJkKvX3PlW9/K3CxbtaAOOtRXMyxFstoRUk8Gdto8v9zUGGTG3iCqLuY1avn58VTHCA0bifsrm6cd0TyXKmut+sZzHKkaTHuR5+XlR3D5fh7akEqXDncmT1+flxS6mUY+2HYlJUifEd41Hy3+A8+lTWOz2LOqLtuXgmJO2mBv0jf5itLAOAro4Y28hHcS2HZWYMpJdARIAgKYmfQDrVc5nbuXod7aEAhQSqnVG2rqBuBwZkDzoDa7LXjaW4WtF5LaCTIIJWJGx+D8RVZ+z+Lulm7u2XX4puHUJkaSD16AfSjPhb6QbyiWJzRnvJZum0ERiAQAokHfTEAGD+XWm/GXYUC2CoUKCpOqC3A8Umd9ztXN8ryS5cv27Lp3cGD96N/IbyT7c0y4+5ctvF5SLZAYaf3iRqDckuF3Hr57QsijhObRHKbr/d4a1alZus22nmQZYknpvE+oq8mOW/qUr3ZWCYOoMG8jG3G9K9lrd+2HtGXE6WZm36lTM6dgN4/OrGDtXLNpy1xVuyYUbqAogKxIGo9dvPrQbzawxirvK0wzsS66A6KzLDNEbzsDtG/+4ogMYwC6PumUEzBiDA4I424B+dD8yZLdpH06QNLOGAclWMszEAqGOqR56TVW8xJDEkbSjHyPAI/dIjbpJ+R76NrNu4UukZHmi3UHiBdQNYHQkflRZd645hM5ezcJTwPrU3FO8ruDHnMk/L3FO+Q9tLF5AWPduSw0nfdNzB9t45pzZAoZYHDITXcAofjgIrQZrZInvUIjV8Q+Hz9vWqeJzS0ZAuITAMBpMHgwNyD50TnCkprHArm3aPA91fZ1HguGduj9frz8zUWDubnpFOuGxOHvsbbK0EwC6kAn0J4PlMHypYzfJmRmRCJB2B6g+R9jPtXJmhJduGQkz6R262hK13OZZ1AOx2NRPj+7tsSYMc+tXcdlb21J0H1IEj8KWcxssy+YpscTCQKoKctddFeZTnDkkO07bVUssCz3TxND0tmYG9EMYhWyqgcmWNdExta7091pCu2QtwSGH8PX6VvibpIAPTpS4jEGRzRXL7huHxUD4dueyAt8Le/mhQjTBPr0qKxmV+5dQB4LMFHkNRArRMOC7T0MCp3yhdM6yG8oov6TcELQBwum/oGz/f8A/lWVyv8ARv8AiP0rKX04/P7Ldi6tm+d2fsbXUcBGDKsLuzcbDnkUi5j2qvsgQ6kX8/nRfJ8qm0uv4EHgB/xGTFB8V3V29cU/BZSYHVtaKfkoYn/KaRpSxrixtp8EjmmmocM3Y8tv60ydm+0mgIpje4fkNK8/Q1HjMbgAmkWzq9B+ZofZfDtEJJ9fz3EVYQBwugHvPITPjO0Q03iTP7vO8i7H8qt2s+tASzSSFOzavPzjTzxUGByzCG27NbTlenA0A7eXO8UVfLcMLjKLSQLcxpG3ibeB7c0kj5VQdfIQi32rw6MoIbe4TqGkx42gsJ+ft7bx552hTWWsSh0qXI26CE1SdTSJ1ASCInmmS5Yw84clNM61GkD4YKnbzIUVQupb1/ZrDkJcaAwJO5ldAbTAJgTEx1O9ee4DJQtHZDsvxtgot233r3C5OlZLayWI1DeRsJ4HvTTh7Ba2/wBpbu2XYKQoZCqkwCSVVePFI3AofhMkOXlrwtkAaQHBaQSVkNvpYGSJjYnpFCc2Fm4O+us4JID2yzOSASxEmSCOhJjoOKXHMx4thsItu5WMBpt3QlliZLG7wwY7xoAPWQD4onmrOGx9tHu9+puPbPh4YsAZOlV2lWADDyJMiq1gW7rqcPYKrbtwXYQCD4SNM/uQGPAg7DrbtWrVwa3dhiSx07SVKkyoHRfCSekMOgohyvGqpWMtwwFxDcRtJVihBMJIg8iNQBkA8Sahu3bTD9XbC2rl3UbgJhSTpJQbGD5xyTzRCzgzfLF7hVFlFtiPCVl2WBuxA4AEADnpU+V4xWtrYUC5cOzNBgASOu5UmIXYTuSJNFV8pW6uEHzTs6ytpYkMvwsvIB/AqY4PPEeVW1lLyCUDEGdVowZ/6Zg/IGPSmU/qTdOIAuMSIIhmfYgggHwlTHUDfrW13C3Fti5o1CNxyQDO5O6ztuBxXhHlH1bGUqXMvKESbgiYBQ8MIKxHwmTt6mhGIVbZUoGLo3gGk77zpJ28O3r1p2xllA/dLcBcn4BrmYnaBHzJ6Gh13L2KqyldTLqdjLBVPCrPtx8z0pb8I2UVVxWJCartnZCAGQ+HmNo+63sN4pkS7exABZEBVAGmfE0Eggx4SI8uSaAZfgEU3NUv3cDU25ViNWpU4AgxPnVjDYy6FS4t0prWQojTySAR19felXSMtvjlFLeFZCCYLbSJ2J2/BgfLkH0q1istsNtdwu3VlhtvfY/hWXMQXwoulYJliB00NpiOkBaut2gtA7rt0aNp+p/IUYI7lSvj39rQPE/2Z4R/Fb1LPVW2395oHmf9lbQRbvn2dZ/EEflXQGIs93eQsbcANuTtETp6b/Sj0gidoO8+lUMyoZIWjNLgNv8AswxSEk6G8oJ/IgVBf7KYu3JFhj6jf8q75cxNocug/wAwrY4ZSOlE9jibtK6bSvnK3gnUnWujeSCNz8q2vXbRBjVI9f5V37FZcrdN/Pr8jQq92Ywt6dWHTUNiY3k7yG+Lf35pZZ5W9Acgr53+1+h+tZXdv/jrCfut/wB3+lZR7h/as6J8pS7X51bsWbdpCAxETzz1PoJoZluEsXbQFrQDG7kbs3XUf5VXt4NcQVuOZERxxHSr+Dw6YS4C21u4QCsbKTwT89vnUG5oGxuHfzCkLvCjudgi3iLmD1WNvkRP40Bz/s59lTWL2reIKwZnzn/cV0m5idEhWDIPiUH4T6H2PFK+dol1WV/ESraGPRjwY8x/Omt1Ba4AnHdE2d95KW8BmF66rrbHUGOdgNEDaeN6MtmOIDs5tg6k0xBPUmd433qldz5bYsCxKXLdkW7qFZGtSSWU9Q0zXlrtPcuMBcI3Ik6elWOa03hdeJ7yBTkSa1jna1+qdRqIERzc1bGN1EB942j2rrGX5ZZtWVRbelFYOqE6tDAzs0n7wnneT5xSTc7VWwLYVjOrfpGk3fofLb7wpvyHMbGJVmsatP3tRiDyfCTt7wJrg/8AMbzE0tuhzSoeCD6ldxot3h3VxZRtJ52bSwYTHQkCq+YdnLV26twqJCwFC+EnoXjdo6CRFWhlgVl8fsp6xv7ng/SquGz1rj3bHc3LVy2YLQWQg7gpcA0mQeDBHyrgROmaN0BNDn/P8zSXYsbVVzDIsOQT3Y3IJAMA7gElfhJjqRvFUkybuLzXbSxbCEssAKDJII4mBsRwRBNXcddIaIJbgCCefLzotdsh7Wm4pII3WYnrBIqqLWzQ7bNgprrAS1jMFcY95dTTbvEG4isFhdXLbAtOwJI4I5iamxmLsqWuWEBKDS+x4JLFQZh+CRsIC+VLOA7RDEd4L9wJoLBbZAhSG1MOQXbTMEwJ6VUwHa97eHZBF52OgkFknUfC2vgclYAmeu1fXNJ8Idt5tN7pafCl7l0hng943I1HwmSQPusCBvvUbdqC9tLVpdTEiXeCLcwvhA3k7kTzqpFzDGsl62mK3t6u8iJXVAlQoKyOQCfM9JFe5p2hspfZ8PM6DaJ8QhT1kmWYGd9hx71u5xWhjO6ZcHfW1iHNwCIGiSFZlbYq+oSsI2oxGwoDje0mu7cXDrIb9m/jQQnJFtfiOnT6+GesUPzFnYPda6Xuhgw1Hhfu6FRjAPEmNh61TxGZJd0m2pR03kajEAcsTPxFthM7TWbb5RhzQmzIRo1B3Du10699m0wFEdZmYPM1ex+XXBC29OlyY8X7MmW4jcAA8e0xwj4XGKFS7qUXd/GQWkgBQhUAaRpiCJ60x2cxvgIWCq+mQDvAIIlh0mTAmfPikvZSMG8hMt7FC1YSwLgIEg64BIIYkg+p+k+1C7uOUr4TqMEaQN4PE/P/AHtQrLca7MLvhYspBDCQYaBH7u3HtRHFsH7ttGgq432geW88THSkHJorx9IwmC5ib1rDhWdVXTEMpJkjiZG5qtnmb4hkVZ7hF0rc0kmAfvEgcenpVW5ea8V7492JZgR4gxE8bRAAO3UTQy1jGa+bB0hmItyJA2PJndZnkR6gzT2uINdlK4AtxynTs9ibGJdtBU27UBRG7H95p3NNqmuVYC13eM0YcDvE4EnSykblgNg3t1HFdHwTXNI7zTq66Zj8ara4kZUZaAVbaqWnS8+m/wBR+XNWS1D8Vchgd4giB5mIn0mi7rWhE4rKh8VeVtBDlfOOMxv2VwEHPxCeR/I1LjM7W6iKszrEz6CaCZi5vXCygk+UcelXMvwwtKXYy/RIO3zjmKSYWBoc73KHpkt4TBg8xYbXCdIHhH+vtNX7Hc3LF9zdHeKs2041HrB6kDpQfD4u1yxaODKH61vicGhP6q1dmJlR8QgtO5iIB+lSCK3WQsjjeDe21s2eYZVgW/F5kn8aly3OrHeKW8xtpnn+dD7WDffvU4YiGEkFTBB6A+grDltsMWcd3ABCfDtMaj5SdvlVhkAwrhMW8tK6JfzDDNh102ldw5ceEb67jkxsT0kn23oJnWTMl4XXhti7amLQNlG589+Z6UB2VQJgAaRIkAdQAwI+Xsa9xmZXbhBuXCyq+vSDAkRAAnYCOPU0oPBVLdRG7kkfdWc2vYnGIDdxbOLZlANAIYmDqVIMgN8XkamyC3ma4ebF51sTtMCZYgwxBPPl50Ky7BnF31FkOH21MxAJnrM/EYP40+4d2sWVwtxwCCdTKYAXYS8gRxseNx5V7Y3btIFfYJwaz3NUhxGLxTC13wtWiQrlFh2kbjVO24IkRzUj5MFaVxT3CUHhN0vA1RKluOm07zVLP8Thrdq2S41ArARyTuG0lSq+IlkkztsfnRyntEbV4vdTxQdRIBRtJhUD8WyCB05X50DIImjaG4RFxGUXHZ7BDDuxts7S5DnYk+HSrbyNzPh22NB37LDWt2/adbcrPdoFIVhy2kLyBPhmPLemWxir9xbl5ikID3et1k25jUQOQ3QmPT1sXs1e7bW2gA0AagVDaNipKHctM9JNUY7INzvuudZj2W7y664fvmRVbS1xlKnST8LclQOAAST5UExGT41bdwFSFWNSkwdJUtIB20wOm21dnxeBOHuW3FwBAT4AJ4AWQTutyD0HPWgr5E2L7zvbo8YUoWVeZ07uBJfSI0nnrW2QsLWu+AuJ2rrE6STB2gnb51Zt39J1KRtsev8Av5U99oMvVbSWmsI91dy+nSSpY8nlTz4dxtI6igWM7Mpa0i7d0amACxCsNt1vQYiVPiHBBnmCEjSkmGVntNqjhMYAQyNLDkDw7HpIjT8vOjVvMTcDA73T1HHAHttFSYTsOof9toO4K6xq54+CPLzmpMR/Z6+olMQVEbMV2noCVO0+cUl3Tf3Tg6ZvLUw9nsOltCG0sWABHKgLwBPO+8+dFcUiwgt2LbgtD6uidSo86Qv0HmOHPxI4/i/mYj50WwuKxqT3mGcR8RBBjr0NLIrwiDieQVc7T5iwuW7CXmnUpggEoBwNXmZn2A86myPLbN+07KXOJVfFDCXI4MkbcAH29aiwWKQt3hsEO4+PuzJnbYx5Vt2Ww74a/cLE6CsKSCDuZgg9dqAkuKYGsDcco4OzTJcs3t30x3lsEDmeG21RPWJinW3ckDaPQ0As5mD1qwuYDzp7SApXMJRa41DXvnWY4HxT5Hy9dqgvZgAOaDXseVAuNv3hARdXIEmSoPnHNb1AMrWRpr+1ispa/Sx/eT6Gsqb62Pyi6DlzrDXcPhUuoyatNxlhjudLECfcAGl7G5sHJ0oqCeBTDjMtsMJcifMflNCsB2ctXXhWMeh+X5kVfV8pANe0KKzmaxDHbb+VdHRlBtMYGpVXeeXtkfzpdfsJYt2LrkuXTVplhBg2okAb/G3B8uK9xGQXlICXpkKQSBALMEEbk7EfhSX12VcLau0Zw9zUlplBh2cmeCWuDpHrzUmV23Z+9W2lwqFUy2kjqdJkcQfwoW2V3MOwti8FCLqUrZ1M5Fw6QYYCYQGZHNQ4HBXUvKl5vGzQuosqGVA06tJhgQNiIkc70LRRspjvUKCYs1wa4xgxvFLYDam0xMEsO8KgAAAgDedvM1Vw2ToveKotqFaQ4W2+iQRpckeKJDBp1bbmlm5nWIwuIugK3iXQymHI0nRq4UTI6iPF1o/2Tx9s4V37swdQ1MSdROgMCNgSQREARE1tUh+FPj8rtYZLJV9V19gNQ3lQIYKIghifSdprS22HuLdZ38Rk3AGb4ilwxcUDw2wJIg89eKId5bttZN22IkKjFZ7vUq+HfzUgE87UPx+Xd7iHNiwQpVS3EHYL3ZiAQNp3PWvELQcIPl5tWijEO1owVUQSgM+OGDfEQ0SZ39divasPduNZs2lJuSD4jELLqAphRcYcnkTPrVuwbzKLar3BXdy8zaHik8BSukqFEEb+m2r4C7h7gY72mR9B2Z1BlRcQx4SQVOmeh2rBax+e6B4bEX8M9ywWGpnC22RYIJEaXaBqADqYJO6+oo/h+zqrhB31y4NJBYsUVlhnl5LGQdWwnoOtTYPIbeLN25cuOUeAG1r4Y8IQz95p3EDgc0IfKbllTh706SqsC5HeBVJOhtJIgM08j5bVpQNHZEMDjEv4ldbg7mVkgkBZ1iAQSSNUAztVq9HeuMNLjQHPJGnSGB3+9wdvP3oPc0K63FAtKANKryIkahtq3J67etWVxgAkJc94iREDljNEC5FQ8opgcrsthX1bd5Okl4LOFYaD4YEbmaR7mGxOJuBbTazb5Z2WToUCQSSDA8ifinrRfE49VES6A9HUhTOx4JBkHyoTiLgdUSFVFLsGThiyxvvHAA89+KBxyvAHsjWHY2bTWMXbBdANBBBOiJBnYEfEAZnbg7UVs5VjLaAoUIYRoYkgSONxt0+lR9m8MXt6u8194wtEk/s1tyF2P+Hf5irgz24VCYchVUkB2XUSBEBR5e8mPak0Lym27gKS3h2NopfIRl0nT91kkTofleCCDxIiBtVl8usAT9p0h9o707jptufParmQY830u98y94sSREFQP3ekGef3qHWFC3Tb26spEGRt4fIdZ+VaWjBQAuJIOKRbD5KHXUt0sBBRlIO/WTuWiBE8Vay7GtJt3wdQEh42uAeQ/e3EihOWXdGICW1CnSWubbRG0rI3kf8AlVq7jP1wDBCTMRII+Ukb+4+VMaQMhKc0mwcojdu2oabYJHIGkmeIPlvt5etDLmZYRWVblsoWUN4kG0zzExxU2IxAXVpsuWbqFnrPIAHQedBr2Fa5cF24AqLGxPReAf6c1r3HsvRxg8o5h8Hhb6kooYAweRB/Cq2I7H4YkEK6kCAQ7bD0BJFbYHPrKgIqNzyANyTzE9T0ph6TRNDXtopLy9hSr/whb/vbv/cP6VlNMVlZ9NH4WdZ/lfKRxjgQdUUZ7PZ3pfxGBB3/AN/L6UUw/ai2V0MAABtt+Fa38zwseJNU+VUkAhKa5wdnKNYvtKrYYqDu7AfI3JnaelsfWrVrGO+ItBnIXVb31EyAS/Xjb06UHyazh8RqUCASFGpVMTtsxGoH2jii1zs9YRn7vVAUGe9IMuDsNiPhIG+9TOZ2tdBkl5pXcpzW39qJYsynQC8nwMU6HgbsTWY/Mr2KJYJFrTMl4B0DaGP3p6gUHxOQaLd0prEyGi5JcsVABOkDRLTuPumt82wOJUpbtk3LoET3C6kAEGbmqCDG5Mbc81pJ4CENHda5d2ge0HF1VYmO7WdQcHUdSkfe1Kvi6TRGzjr1mzbuGzBub6FMAk6oKnVOrSAZj71KyZFeY3CLqG7bKlgQyupcgADwlSu/QxvTXk95bwtrfdpTSGs2m+IqoBP6sBAInwgjeawgdkwEkcKbG5k2I7si4BbDaSSSDoOmFaTu/wAU/Kr2X2b5kootWd+7AHjKnoWiYMTHsN6sYDB2nvwiLCoB8GjxFieN4IBid+BXmZ5iy/q7TtaQMVTSRMgxJJHE8Dp+WEUsGThUrHfBpNwouozcVBNuCUBgR4YG4896v3Md3hXvFNzS2oSTu0BdY2IXYSF4mrmKCHD23PhHdqCIIEkRLHeR8zVB8PZClmvs2kblXk7eQB2HvtvXgSBS9TTlaXsQtq73uGMF/iRiDIBB1MIGkhlJ3PnwKF4zHtcaRLaiZfTJJHPdj0/eMAdKktsbsswi3yEH39IiWI4Xw/5j9RZwuSNifDbZvj03GEABAASBHAOwgDpRCyhO0BCsMyjVpBdhuQJJYkhYLRJO5+nFHEyPEE/sAqxJ5550qJHi4HkDNPeUZJZsDwIAxMs3VieSTRC4wFMDPKmdqKw0Ljea23sJ+vXRr4QAkn3+78iTPlS7bwWm4WtvonYqQSu+0OsbD5fIV3LNbIdSDuCP5Rz0PrXNMb2P7tlOFhDPjdyWaOfCIifzpTxRwqIpNwytMuxFtW/Wkd6rqPAxA0kbkcajueZ4ovYyrukbbVaJlLi77dAyyCDVC32YuuLhuEIF/YrsTO27EeYHHr6Vbs/aHU95bKgAajI3iJ0gckgH61PnuE7cOxVzJMvuW7huRpBXSEcSWHrBEcVLmAZnOwASCwUmfFtI26b7bVFczw3CFtIdTdWBAEe/Wp8DfKNcRmBcqG1efI/3HnW2OAso+4oolgAfqba7xMERI82JmPQit7GUhldSPH8QugyCxHAH7o43qlbvLAZZ0OPEvIUnk/XaiuRYiDcToII9JmQPTb8aawAlIk3NFhLDY+4jFXBEGDAE/Rgf5UVPZ97wV/tGpSJEr09BMCjePwVq78agnzGx+oqXB2VtqEU7DiTRNhznIQO1Fi24KoZZ2ft2Tq3Zx1PT2FFgte668NynNAaKCQ5xcbK901la66yiQrgmeZHZxMXMOFRzu5E6SZ38PQ+1KuJyO/bcppDGJEHYiY2mPpT1YzDRGm3t6mJqrm+P1FXZQsMBI4Ewpk+259q5sGplB2nI7eVG19mghfZnDXVZQbbayxIEfuqY49aK28xdhcEkTciIA2BgTPi4TgVPhr20A7/vDqCI/L86zEYFHHeMTr4UjlY+8TwfIChOpBcdwpVR64t9Lgq6Y13uJYkkudTfJmI3mfhplyPtRBurc0mF0pqnSw1BSCOp3HrXPfsl8XyFYFisaztpUbT78D51BiUNiA9xhc5VtM/Q8geYqxtGgCqBqonHKcc0xV+5rvC3ctoh0gKPEVJlhq5CqF26AxRrsy1hbU2WK6vEu3JA0mQZlgR59RXPcV2m1WksowRSIu+AaSxMlo+X4mpMJmq61tgh9a6WJ4VgY1pMD4Y28xzXjG4C1UyeMmrXRFzArdXWVR2Ozo3IH+A9elXB3Ru+FmY/EwZRtMmQeBJ949KQ8xxFsqbNqzrOxLcAHoSep3q9lONu2bVy38ZjStzbYEE+KTJYBdhxusxSg8kZTi1t4TL2gzI31CYcqZWVC7gIsQD5T6+VUcXmK38NrIhwQPIHeCrDyEao6RQtc9VbcqPFZEwYOobIQxAE7NIkSCvWa8xeCa5be7bLIzeMArsdSCRMaRMsQfas3EcrdgGESyx7t1lFoFvEoZukTv7CFP8AuK6PkuXJhrehPck7kk8k0C7K4S3h8MqKBq+JyOrEb/KmDv5FPa4KKWzhWmxEVp9pBqqzVUvX4ot6VsVzF3ZoFjr4WSTXuJx3O9I/bLtELSGDLNso/wB9KBxs0EYpgso7jM/XifeoFz3Vstci/TdyZMGruH7VOv3B8jXjFKl/UMXUr+OIuK5nRpKkjoSQZPptUKYxjdZkEsyhV32AG+onoJP4Uj4btoPvBh+NEsL2st9GCz8qU6Nw5BTmahvYroWHw6hQodht4o6+sGr+GvBJIJJYySf9KQbHaIHhqt286HnXg9oRE7gnxMfUoxc9aSEzYedWbebetH1UOwJx+2+tejFzSmM09akTMfWt6izphNX2uspa+3eteVu9e2Bc+zPMLdshDBY9PYfhxS9neOBZASShguFO8dR6HnpRHL8rLublz4m5J/IeXlVrH5dZgyARHJH5VNGYonAclchoAWmU4pXUlRCgwomTHrPrNGQ/gJ67AfzpZt248KfFyp4gLsRA/n/Kjdi7SdSwXuHdFM0e7yo7ZOs+oqn/AGgWVFtTtKvp/wDHff3AokH0sDtM/wA6Edq8RrQIATLST6+f41unJ6rSkjlJdbKxB2ov2ew8Yq3qG2qD/mBA/EimPM+zKtfDrxc+7/iG23v/AFrqP1LGPDT3Ce0WeUqYPMLqnaSOoBifpVy5mlxDKrCnkMSZI2n0MbU6ns5assFgEwCxj4ZMACf51mIwyaWZgq213JI/Go3a1m6g1N+pIwCUkYfE3LzGRKyNQnzMDf3PPrTll9rF3O7RzpslzaJXcqFB68R4eaDdnLtkXrrySGRjpiIghx9NI+tNWOzXujqTTAK3QF4K7Mdv4S/0p8lYwujBuc2ycpiTAvY8CKxQmSxYnpE70ctXRA3rewysg0/CRI9jvQPMLxT9n8wentS625RXuwUVxePC9aFYnMVgmYoHisQfvNSP2i7Q7lLZk9T0H+tY0ueaage9rBlMHaDtUtuQDJ6AVz3HYq5fcu3t6D0qEozSzHf1o7gsBpto3VuB+ZqkBsQvkrmzTl6CWsGTUd6zpMdaJ4/FaCVHPX0/qaH2NySdzpJ+gmmsLjkpTbKr17Ne3Fgmt8Phy50qCT0FMtEtUuEcEj2opYxGIAUgyCJE9QNqy12fundoHpyfw2p17M5KLmFZOXtNIkfdYeXTeakmmYBiijYSEqpmt9fiT6Vasdoh1ke9XMXh+7JlCY5A5A8wOo/Kq32e1cWYHluI3+dT2wi9v4T2ySD5V7DZ4D978aJWc0B60oXcqAofcv3LZgMfaiEId7CndbFldI/SY86yuc/pm56Vlb9NIvfUMTtheaHdpOn+X/2rKyooP1QuaF7l/wC2P8J/M1dFZWUU/u/whdyvW+P5ihObVlZXofcEHdV8p/5hP41roWH/AGie7fzrKyl6/wBw+y1b5v8Atb3/AFF/I0F7Y/8AJXf8v/sK9rKng/XZ915vKRsj+Jv4D/Kr+VfC3/Sf/wBWrKyu7JyvoNP7V2Ps9/y1n+Bf/UUOzfk1lZSH8LAlHPvgPsa5m/Ne1lN0fDlBquQr+M+H5fypmu/Cv/S/rWVlZNwPuoUv9oviX+EVQwvLfwt/61lZVMX6YRsUWI+I/wC+lMvZD73tWVlK1X6RTY/cmq5RPsZ/zD/wVlZXGh9yEobnP7Ye7fkaVMy/ZD+OsrKsi9wVUftXo4oFmfxGsrKsg5QycKlWVlZVSlX/2Q==</t>
+  </si>
+  <si>
+    <t>Harmony Hub Audio is a nexus of creativity and innovation, where artists come together to explore the boundless possibilities of sound. With a focus on fostering collaboration and community, they specialize in providing a platform for artists to share ideas, inspire one another, and create music that transcends boundaries. Whether hosting workshops, jam sessions</t>
+  </si>
+  <si>
+    <t>Divine Henna Artistry</t>
   </si>
   <si>
     <t>Lokmanya Nagar, Indore</t>
   </si>
   <si>
-    <t>https://femina.wwmindia.com/content/2019/sep/sonam-kapoor-ahujas-sangeet-dress.jpg</t>
-  </si>
-  <si>
-    <t>Elegant Ensembles Emporium</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFhUXFRUVFhcXGBYYFRgXFhUWGBYXGBcYHiggGBolHRUXITEiJSkrLy4uGB8zODMtNygtLisBCgoKDg0OGxAQGzAlICUtLS8tLS0tLS0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIASwAqAMBEQACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAIDBAYBBwj/xABBEAACAgAEBAQDBAgEBQUBAAABAgMRAAQSIQUTMUEGIlFhMnGRFIGh0RUjM0JSU5KxB1TB8CSC0uHxQ2JjcqI0/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAMBAgQFBv/EADURAAICAQMDAgQFBAIBBQAAAAECAAMRBBIhEzFBIlEFMmFxFCOBkaFCsdHwweEzFSRDUmL/2gAMAwEAAhEDEQA/APDcEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEIsEJa/R038qT+hvywScHtI/skn8D/0nBLmpxyVP7R4yEv8qT+hvyxGRKYM7+jZv5Mn9DflgyIYnf0bN/Jk/ob8sGRDBi/Rk38mT+hvywZEMGL9GTfyZP6G/LBkQwYv0bN/Jk/ob8sGRDBnP0bN/Kk/ob8sGRDafaRvlJB1Rx81IwZENp9o5MjKekbn5Kx/0wZEMGO/Rs38mT+hvywZEMGd/Rk/8mX+hvywZkYi/Rk/8mX+hvywZEnEX6Mm/ky/0N+WDMMRfoyf+TL/AEN+WDIhgzn6Nm/kyf0N+WDIhtPtOfo+b+VJ/Q35YMiTtPtO/o6b+VJ/Q35YnMrOPkJRuYpB80Yf6YMyQMxqZOQ9I3PyUn/TEZEkow7ie+Zgnl4h8luJ0lH/ALmZhcrTFsNa304M62r+KYTpmF8m+OYe84ZOeYSibEyJYTEwj6wSwjSMRLTmIlxIZcKaOSY3xeNhiK+8vb8sKeGR+rGGN3mTxNHDi4i5NeJlZ0YJIkbHFTJEV4WZoWRSthZj0EHkW2CvvJubCy/l4sawczjsZB4kytwn5YbYPRGaQgWQB4XKrt74zafGZ0dc5ZeJZznGxWkY7pRQZ3qvhIDbzGBl02epxRqAeZz9X8M6r8R2WffHIvXa05t1HSOIVhbFAZlxL0WLiTHmRR3wSQDGGZfXEYl8RBgehxBkgSCcYU0ckxni1umK194235YY8NfsxhnmYz2mjiXDBFZj/vxaL3cx4r1xEsGEa64qZdTIDhTTQkgnbbCzNKCP4Zlde+NOnq3TJrbMDEIyQhN8a+kFHM5YbMh4rUkVD0xLkFcCXrJVszMcN4QVYnGdKOcibX1QK4MpjgshNkY6hcE5nr7Pi9KjAMvfZT0IxPV5xPP2/FW6mFM48ek452tYZ4i7iHOcxua4wkK2T6fiaxkQEzJYyouWOJmc540le1iHsK3O49fUb9Pph+zb3MQltlh/LT9TGR5Xic2+hwD6g/Lvvid6jtzGCm4n1OB9o48I4gvUN6/T/dYobV8iH4Ow9rZEM9noasPtd976eu30xAas+ZfpamsZ4b+IXyHi/V5ZBTd9je5Pb5V9cUes4yOY6m9Sdr+k+x/zB3irNggEHrWKVDJjtQwCzQ+H80qwgk9sWPeYzyOJBxLxgqbLhqyV0zNAOY8WTN8IOJLCaq9Cvmci8Q5r0P44puEd+Dr95eg8XSr8YOIHMU+iAGVM0PC/EiSDc74o6mVWlk7wjNICNsIPePXiXuFzaRjsaRcLOHrrMtJ85NqXD7O0xVscwZk5TdHGJF5mokS3IhU2MafliycwyYh6YMzJuf3lWbLr6YkQ3MOcwJx+MLEzegJ+mFXVhhmOq1TBvUZ5YsL5mQlmpNSir3ILquwPUDXfp69sJTCDE2IvUPUb9B9J6j4NymW5OuKIopLDVIAHYKSNW++k0a/tijDmOZ2IgLw7xiaKTNFG+0ZJRM8LKbKFVaVYf4l8oIoithXXF3K8eDBFJBh/wjxSXNZUTSoEZmegAQCmrykX2ra+9YW4AbAjK8kZMtcUzCRxPK62qDU1CzpHUgew3+7FcZOBH7tozM5xngOXzMSzQFQWGpGHQ2PQ9/xwsv0jgxip117ZnlvE8xIDynvUjEG+uNqVr8w8zlsXQ7Ce0LZLPSShYkuyBhDJg5m6ogDJms4T4KumkO+K4Jln1ZA4mlyvhqFP3RiemIj8S58y5lsnC1hQuxKnpsR2/HEYk7294zN8FhYUUGKGMV2mO474aEZ1RtRugPU9hfriu49ptq1BHDRvh7iL6jE/UYUV5yJotRdm9ZsMrGcdKtiBiecuUFiYYy2Vsb4duMykASX9GriISdcoMVJhtktYbM+ZG6YmRAviPJmSFlHUqR+GJPaL8zzvLcIKlLNLp0+hXVeu/W9vfbbpjmvZtOJ36UyuRNd4P4WyQTaW1TSAt5weWpphGq//ABiq9fYbYZvDSGQrMx4Z8P5mBMyJICmqNlJjlRgwCnZo1YsB1IdaIvcEE4tdgrkGTR8+CMQlwbIPlnbPSy6jmAqRZcEA/rXHLUljQrYD0vFNwYBQO0ZtKMST3huXjRX9VLlZBK+yxao2DqdmIfVpAF73XXviuFB7yVLFeBM5lstoUpGSscUrlEb4kYsC0bEHcKwevUEG/XPqwCwJnT+HXdNGUdmzMf4tiEkolA3ZdL7V502J+RBGNlD4XE5GtQB8wl4MiEEM2ZkHwg18lHb5k192JtG4gCKVuMmb7K8ZLTCNYjooa5WOlQSBSotW5sgXsBvv2xRSPB5klGHOOI3jXHTlpY4njsTLJodTdMg+FlPXqO/fEtkIW9oVAO4T3g//AA+mKrJEEmkPMaSXMOAkRdqBC6jbfD2H98S2WGZYKFYrntNfJ8IY0BVmyNvYkbYSRHKfaY3xpNKy0nljUjVJY+Eggtpqiq2G1A9UPSt4TGceZcrkZPaVosusk+XmjB0yqW3FGtBNkfTBWMMQZr6g6JIPGJuuHwdMalE4NjQvGm2GiZScxwXEkQU8ydEsYrGEyphgmYTjHEwMqZz4Ti2YojmecZniyo8gfcgH5FlawnzND645lleXndof8sYjMrLmc0VyTzxpzdEjNEWLCAIzmIN02ofcRd3u5VCnIlSdycnzC2T8NZKTKHO5dTCwWSSKUyOxGgMLdboDy7r2xDE/KYyvGQRMDn4UEEWYMrHMI9NGoIaPzM6NrYtqXbUCPWvlcfNtHYwf1LucHI9vrPQ8rI8oieVRHJpP7wNg0TbEe3T1PXbHECozMob9ftOwpKoCR+kq/ZpF15i1deaC6Bd9NIuoOTvQFkEev36attic5yOPvF2FqmAHY8zH8YjXW1MGtjddiK67k3RA39Ogxroz7cTn68L+sJZfNAZYQqFYsSNN7nS4FKO7FiNjtQN4s6ksecRWnICgkZhCfPSZdFd441LUiuJC7QPJagtGRpZlo2QRV1vilCKM4OfvGXuzDkYEvcX8OAskULqiLq5nNuUElVp1BN6mDMGIIuvrNt1SH1nEpSlpGU5l1MrEXlXOSLJHEw5RlpYQpjRjaLUbENqAvcAd7xK2At+XJattuXEBZZcvLmJHy8bNkk8kigomWDVZl0SOFbdqAI7X6YtaGOB5/mTQUAJ/T6R3EZ4VkfL5aFmDQu0saIQgJKaWCXVFWayuzbVuMKZWIDE857xyMqkrjjH6Qn4Ry7rEuuQSklmRqPlRqpd9xVdO3TtiVINh4xK3grUPVnmbTJpjWJyLGhBTiwio4HE5gBJImo4qY3xKxGGTNGuMRJlbNL5TglTPJuJokeYn5hvVHJQ9b0+nc3+GM7950tOfTLnA+ENFlY83CanFyeUroZWO8Wkija+W7B99sIfUDeU/mbEpJUH+BKfEfDs0MDPrQQN1ijklVl5jaUpCSshsg0auq9MTTeli5B/f6Sba2VtpGAeBj6yPMxCbSojEEEamCZo43kSSQLRZgtHY1uL3O5xYkcN5PIlwDzWCSBwZemzP2aOQ5hy8ulDDrNCQHpy0GwFr5u+4s4yPQbWXYMDPOP8AmaFu6AO459vr9JzjWby1qyTEBo2LLHqKRyIUKGaNTXUsDY9PmGUVui4PPMrbYrtn/uZnPkF0AFFE5ZFFSCAhIPrTFjfvjWucTDqMcYj8pIY2gKKzOJ2J0bNpZtIRm9WI2v0wOA4IbtF0sy4ZZrsoWzcjQCMQRaXkzNMjyM8chAVGvy0a83t2OFAKgMcxc4btJswzeQZY6l1BJHaQsVUAb+cnURVUD19McptluWtGDjIHvOkm+sBU9We8JR8ZeCohEztIrcrUy8ksotgziyDv3G94foEYAuT6TE60qzhFGDBvDpnyjPAIInB0M+XdoomSWiObHfkliagetiqoVWN7CY1Yn7QdwTMtCzqg5rpAA4hJ5StzpHVOYNgiiVQQP4SKIxS4bsZ7R+nAGccn+P3hzwNlHQSI5GoSkkgbG0Q2Nhd9T733vDEw7ZHtEan0Jt+s3cK40ATlE5lhMTIkqgYIR+jFcSwMg5Jw/Ey7oxosGIbpXmiNHEgSrGeT+L441zqmajGWTVZqjpcKL/hNb4zXZBO3vOlo8EDMP8JWHYUeXy7UKgCLv77Adx22N45VDfM1o5nbsXAArkiGI/tozKotlAcWhIamALCiF2sGxYwVlUck9j4l3UuoA7+8zuXyUmWV0WMuhnjcXKAWiFjQ6lqZgtC6A3G94e2oqfBY4/TtF16e6sHbzKb5RGEXPacNzIo5EaMvEkCgbq5UjayCbvc40o6nkETM6Opxg+JLx7PZVkmEMaLKsxhUQrQfLkBSGZRTDqd9wa+8AbjmGRnt2mbnidCC+rUdWrUbN2K6ewGBXB4EXqK2UAmHuFIWy00aL+tcnRpIQ3qBvV2O3X2AwlrAt20yyVMaNwhDi00KZVhHljzUXS806qZI5TpHmlLbMdVj93p0vD1POIoqxG4/3/iF8rxFJUEeWiZiqq0iOvKSNFK6kBI3bsKsX3rGNtCjZLN3mkat0xgSnkPEgzssf2bLuRl0kZo3aNRIrroYWSdJrce/WsaRT0lCDGIrqLYWds7pyHO5TimbtuYiLltKm11khtTB/iB2OwP8JO+JfNa5btLV+o+jvLKFMlG8CNqWXUYywGpiVChWoDpQ322+RxyzqHvYOnyjv/mdRNOK02sfUe0t/wCG7SSpI0x84k0NtRBQVRrYt3J76hjsIqj5e04WrsY/N3noiZahjQFnL3GSLCMGBJBMdyMVMvOhSMVhIOYcMyYnAkZfEgmGBIJXxYGVInm/jLkxTiZ6BKjc32vYDqenQYwapHZsCdf4e6KhzB0PiVihaHLyto0kkqsSgNdNq83l26nCPwwB9Rm4XFh6R+8tJn83EFQZO5GtgglOoRqN2ax06D7vliRVWWwDLGyzbu4zntmKTicpjWWTJSgMLRlmidaI/dG30wNpkPmSmssHG2QjjsAYq/OhAJBLxOBt1Fxlv9MK/CE85mg60LwR+sWcyuWnUurpJW+tSC6nsSVsr17/AEwtjdSfpGp0bxnjMzvEDbkHeu/S/wDdY0aYcTF8R7gQjwONlkJB6VV9P4r/AB6e2K6mvc2APrKaOwLXzDMc2XdJInlDrI+to0JkLPsTYj8x+AbV2w5Rbwc4iXaocYzGpkspp2ystVqvkSfDvQtxsPL0PpiQr85aG5OMLL4cb/8AC5pSH0kiKAkki68rE9CDfthRo4wWjl1B9oP5eUMiPytDMVKs+XlW96FPGoAv12xBWxVPqyIxGQuPTg/aRcSzkJcKZVLI5KK6ldLXXlJ3b239MIWn0ejgH2m3qjf6+495sPCKEIW7u5dvmQFr6KPvvG/TfKJxfiGBYZsIwTjZtM5BYSzHHg2yA0cRipWXzIyxxGJIkJGHYmeROMTiEikGJAkNPLvHeXT7Rqk1BeSQrCiVfUa0L1JvT9RjNfnIxOhosEHMoLxAQxTxzrNmJnk5UsLLtIuk8ooyi1UEEit7P34QMkjGBOgVXBJziEoYXy8zEQSmdoofs0odXEg0reVYsK0gggn4iq3ffFC20AE/77xiobNxAxgSPKcPjy82VXMRKHbmNGEZjBl571aCCx6+U9dj7dIckgtnj+8Ym0FUC8ym/wDxMk8sEjxiX9WzFKBmC2UhJIoPo6vW9DviTwBmAzzjP++2ZUzXDF1uE5ZRGLCeM6Zl1LSwnRszczy96v0IxPV/pkjTf/IT/n+IL4JE0tlrO4piK1D1rDRWN3E599zEcwvNlUSU80a1pSqEkJQ6lgPi6Hrt0xXUMyNhRI0AW1MseMwjB4hhjWlmgjAogIF2Ij0D4Q3b1xmC3uMnibXOnU4HMJJm25Jk5jlNNMy/CQpO2rboSw+/GMWvu24M6X4RAvJX94OyniuZhzFhzWnVepYxIuoDTfX02xtND/8A3mBbkHdJKni+NaRmkWwAoaMrQDX2Q98LNFuPSQY0W1ZG5SM/SD5+PQTEqZo2u/K6Utkt3dR/G3fv7DEdK1BnH7Rgvob0k/vPRvCGTVYkAs+UdST1379sdGgenM4Wub1nE1aEDGoTmRNJgMsI0y4rLxA4iTGVi8TGSLghIWXEiVaeaePVK5iJ1j5hAJCnpSnzBf8A3U1+2gYz6kZxzidDQMRnAlTLxZmos0+YETA3GGowGElQIGc7tI1X373uNsmVwSB2/wBzOmN2Qhbuf9EmXgbOs8skwjSRSInBVUyaxOrxKRYo7AeXppO++JpvrcZUZltRRbSxRjiU5zmswjlZ4tApTpitppaUJK2xOlvL5ugHUVhaMoOxhz/xNViEKLEJ54HHn7xkyzZiMwLll/Zqc0QWCo8VlBEAdKvQB2v4he2GqQOR+n/cS6M3zkcDn/qVc1ncppibKn7O7q4WiSAkulHM2obOsimqsUAfSpZT55ErWwwCDg84/wC5H4VjkaRw5sqwTboQo2YexFb+2H1qMjE5mtZsHdHeKOHhsxpkZtJEYUAHSgYlQW7Fibok0L6bYvcSHi9AFNULZdwIi2T5ahRzQzBmB0qRKK0EykHcaSBf0OFGK2kOe/YTrXVrZQHQdu5nM/loyjCRecbWVVHMfUSw5oWJGGgnrvQBYE98RWbOoQx4lrlpNCMg9XmcENMsqxrk3zBSKMTW6q8QXlMIwAEahQv/AFwwgk8nIESrKF7YJim4Ypli58cmb5okkDqWhT7RHYZGU0KYRqtn+G+5xBYgHBjlUvgY/WQ5zMqFliJgKM8ggRVDm3IZVZ0J0hW1qfywsgZyM/WPUtjnH0npvhrJqkSqopVAAA6AY31Dief1Z9Rh5Rh8xTujBJEa5AwpmxHpXmQM5PTCSxMeEAkt41TBGviYSMriRKMZ5v8A4nFQ8Cl2UOHDUaQIGisueoFlQa7E4RqRxkTd8PIJIMw6MjSlIBNPFGXeMKdKpK3xEalI0jYi+v37o9RXL8Z/3mdEFQcJyRCQhzMzKr5ULDY1I0tx6v4ivMB+4bDsMKYV1gsh5mqt7L2Vbe315xLmegmCssaJGGTlnluSdPlHdib0rp/8YyBhu3lTmdzoI9XRW0bft/zKXCpBk/MLddBIhcMKmjtopBt3oDb+KvQ40rqA/Ew3fCbKuV9Q8YlrL5fma481DH+sjZ5JwNKoAdTRofhFEo9jYnV1xYFRyp/SZGRz6bF4xyY3whmS2akFIU20sm48o0hb6HYX/wA3vjZpRyMzjfFmwCFPEf4mmVc25ZnA0padQ1Kp2HXT5e213fphWvZi5VZp+B1p0g789+BLWdzi6lj5sJRpVUBZNMyxSq+rzajqUGhpUeX2whUwvUcYI/WaTYWPRqJIbx9Y1s8kSxiJWuFyVVEKK0er4SXJ8xHVu+/zGU3LZaGPA+861fw++nTlBgk448/v2ncxlS1XMgjsyRRpGoWKXd1kd3t2Bfrp630AwxdXSeM8zGfhmrTPplL7XF+3zBCTTIwBkkd0EsbjR+rVaETAA2egJHvjQNtnpTnHtMrLZR6rBgn3j5nFxoCsIplkjjQgAS6Quh6KyESGtQ7N88K4PI5+81oxxg8e+J7DwTL6Y1HWgB9BWOnUOJ5nUn18S+w3xeIkoXEGWXvIpIhjOwzNatgRRwgYsqRb2ZkAw0TNOFsTCcUYsBFMZ5v/AIpGDmwCWYHSHJg6jV5dDso3O2oUevt3zapnGAg5nQ+GouSX7QXk88jQvJG4cIUBRW0vbsEQaNtixA39McvoXk8zvLfQOBHDNSs/JWB+eBZiNKApqmL2V0nptd798B0rf1NGrqlwdo/eRxrrRpeXSqSrHakYfEOtkA96+6sUNTqCQY4WoxAiSON/L3F9et1fUi8LWw+RHjenKnGJUnyQ5TAE0wZSVJojfY/T37YuGCuD2jzqmtrKWgMPfzKvhK1nYdBqUgigD1vYbX0/DHZ0xLEZ7zx/xitE3bO0O52E/aGkIDjUFUkDrpHkG4uul/K8c74i35pPidP4GzLpQi8Z5jRO3OEMMCGQRmU/BGmi6u2vb12PXEVb70zniXt6dD8A7veQNxmYSmA5eXmiyypHGyhasNzNvKR3NdMWOjJHGP2lF1oB5J/eR8N8SRSWFL3V7qBY6X5Qe56Yz2ac1ryBN2nuN7kITxzJEkgzB0aY5TZtNy43G4UgEbEnb0xC02VepRiMbVJd6WbP3lWaGTKgMvMSNSrcuXU0YN0Kb4o/xHscaUdmOGX9ZjetU5rb9PE9n4DmY5YldGBBAvcWpoHSw7EY6tLKy8TzOpRkchhCDjFjEAxXiJcSCQHCysarTgcjAJJEjAxeZSZzTiwEqWxMr4+8QPl8rKYGAkVQNR/dJYCh6vvt6bYS12G2ia6NLvG5u08/4bwjNvJzIUkywaIgvKR5mfdpCgFs25Nn29KxnIYfNzzOzUqsDj04GAIB4jHHBmFhy5clYirP3kl8zAj1GoJVd1Hpi4O5M/WUKhbMY7Cbbh+clln5YniJ0W0qpplVENkGIkqrkuPMa6mxYFqKjPMfWW2kwdPAFmlijmMyJo3LWdTAswfRQaib3Hc+mMeuOwjHmbvh2Gzu8SOTLeW2Boki6NEjegSKJFHb2xkXeuGxN7BWyuZ3iM/MAKxpHQOrQTTk1uVI2qj69cOsuV8cYi6qGrzzmCuENolZiRXxn7gbHz8v446mlbaufaed+KV77NnvgQ1w/W1s1nv3IGprPyBO3bfHHuy+WM79CLWqoIuHZQtnXqOJ7hD6pm0iIIdLGE6WvYjUCvU9aOOloCHowJyPiAKX5MJS6Y4545ZljjILM0bhiQwIbQ7Dyg0dqJBYhR5hhi5D4irQCgaDf8J8vGuYlaSNkZ1Ay4kWrUE6tJPVgCnT3rvjSQjYHeIBdASOMysmbXKtmlmjjbNHNFhzzoDREinjc+g3q+/eqwpqQ5wY2rUvUNynnMPcLzKyZPM/aHJiV20OxKu0Bopq7nex6na+uFbkbK1nkR7121lbLRwZnvC3GZcpKrRqVTYaXsdeiP6g9mG1nseuYlq/zEOT5x5muxatSNjLtH9PuJ7pwzPpmIllQ7ML9we6n3Bx1qbBagYTyt1LUWFG8SY4uZSI4rLqsiaQYWWjgmZCMNEwEzNeL/EQhHJjapnXbvoU9HIHQmjV/wDY5tXqOmnHedD4fo+u+W7Tz6ubmNMza+UI2CNfLLHV5iq1Z273jn2XtWgYeZ3K9OjuV9oezfE5X2etNWFA0p0+p+Rsb9MIs11rcOOJrq0dVYyveZvxRm+XGjAhCJYyrVZWm1WPWq6d8X0L7rDj9pXXrtqBb3EL8RzySiN8zNlp4FcktEHU3oIWMrqYsrGrAO9AVjeW9XEyIoNeTjHvKEssTTu0SctdCIicsxagmol9BAsXIBdfu++MevLHbxxNvw5Vyx8mWRnJOTyQw5YbVpYea9WqtXpe/r71thP4ljX0zNnQTqdTzIMmUDM0sbOhDABdipvZgL9q+nvgpsqBwwl7K7GAKmZmFP8AiNB/eUE9h5T7fPtjR1NtBInOvpDapc+2ZrvtzQxFatZJBSqtu7gCkX16A/ccY6+paDUvY9zNV5prItbuOwg+TK5iRkLMIZA1xLGyGRbBB5klhQD0oddsaadlLFKjk+STxMViWXrvtGAOw8ybPLG6HnRrJflJALTKa8h5rH1NXdA2OxxcNYhDM2ff7SHqrsUog+33kOVzLyKMtmI6eIRvd7k1ayI6kEXV7EHt64pfvpxYh4PaRp+nblHHIl2XOSrGzyzrIqr5WmihkK9wQSoJO3e/xxerX2OwXErboakBYkyHOZRmgSaZ2Eo0OxjVLU6QzKIwNJpgBpo70cW2LXb6B38S7WvbpwtnjnPmQLw8SRWzB2Auxo1SKfMoVjQG9Eaa6A7DC3fpXY7Ay6J1aQRyRD/gTj5y8hhkYFG06mvy2RSyL2okFTXce2L0W9GzH9J/iZtbphfXuHzAfvPVwbFjHYyCMzzWCDgxuKRyxjoMVK5jAxEz3iXjgy8ZIoudlH92PsP71iuou6a8d/ETpNKb3+nmeZZeWadTMGjCljUjHW8pU0QFWggJ21E7XsN8c2ytFXfceT4nfqZtwroHAknGY3EiZyAa6UrJGDu6dQVA/eUsdv8Axi6BLayh/SWcWVPvH6x2R41FNWiSu9bWPu2+uOZdTbWcOJ1KLarBlTM94u4hRiUVqV+ZvuPL0v2xv+G043PMfxS4elAfOYcPGUEsMjZCVJF1FVVLLmtihIGtVBZrbdSca1VuwPEQWH9Q5+nmRR8X+1OZzW1xom1oqm6a+rN1PyHpjBrWb5D2nS0ArILg89se0I5TNKhctE0nlpKegrb2W+e2+9VhelsqUEOOZbVV2sw2HAlKZTpLXdDeqs/IDpf396woLzNm/CwdmMi0ecCOygrGTY/eDMgsX0O5+mN1leyoicw29S5Tj3EJTZcPJ8ehYYlmG4LMZC0YAO4ArVfU/LrhNS9Oln8niTY3V1CV+BzCj0uWQmEIQvxnS3mYEFmo6qII69Lr0IbuU1hVlCWFpJzK8mdEsepmAIB8oBJFAa9IJ2XyDc/xNsBRxNg3LjMpWNrZAgPOcTH2i1Vpf1MKHlixa6zpJ6dGW8SamehAxxiZ1tCXuVGcy7FA8zq8tIgIZIwQxJHQuR1rrpG11ZOFr06R6O/vNBWy7mzt7f5hLKcWkSZWKml6r3II2PT0JI6dfTbChcUsDnxNn4ZLKig8yLNwiDMmMamilBnjLCqLNcyqR+6C6t021HGnWoLEFizDoW6bmtoNmhqQaemrSBpCrpZWYBa2NMrX0PmF31xnB6lWT3Efjp3YxwZ6f4F43zI+Ux8yCt+69Afu6fTHQ0Wo3rtPecP4no+k+4djNMwxtM5yxA4iWnjufzpzWdZDG0iCwyivLH8INNV2QbXruccxlNtm8nAB/tO3pdtFOzbkkf3lficqlyY/KrEdB6ADZex6C8ZLX6rEzqaenpIJFms+Mu8aAFpJiAFIsUWKgt6Wb6X93dtNDMpcHtE3apA4rcd/aDuMNkwS80QMm5Kqx1k1uSUIv78aKLbjx4+vaI1NWmXnPP07xmT4aIJFd0jDShXhBbmctSLApr8+13v6Yvfaw9KH7ydDpFObLB9oVzEbr+tZ21bkvZ+Fj5aOx32+n3Yx4yJ1VYbsYGPaUZMqpljZKEql+cV21KRUesdyTe/p17YDaBSQ/wCkzvSPxQavjjmFI3oeahtv69PTvjEo54mp5c4hw9oYwXCiz2N1Y1URXp6E9ca9RpnrUE+YjS6tbHIx2mTlI+0xgC/Kwo9b2G30xcBjSSfcStzILxt9jCXF86+WeS4dSvGkTgldSlW1L3N3zAP/ABi9VGazUTg5zMVuo22i4DI7SxJHMYuWfMSFWw3QbA9aN9Rjng1i3cDjGZ0mJevbiS8NiQqyBCHsX5isYAIsuAdJ2HXrf46QbGUr3z2/32mNiiMG7Y7wHw7KvK0k0DAEvq5bGleOhTWB5WIBN+4xud0AFdn7zDWlhzdX58SOPPSxZlWmARR8ayDciz8JGxJFDY+u2AVps9PJlzfaXG/geRNBFKZGHQ6iAL72b6jpuTjmX+psee07mnVUTd+sIcXUNmVjBf8A4fLsHUil1MU0abAuwj736Y6bjp0hTOLV69QWH+5gCXLuXAUW36ofA17Sa71g6apW9+g74y042fvNepBazjxjxCvDs+YJkdCfU79R0ojtteMtDlGzHaukW1kT2GGTUoPtj0YORmeNZdrYj1GCE+eOE8dmhzEskWWaUOAlkMlaS3Q70DfQ74yBFVMMfedNXdiCo8D+I1MzndTNojXp5GYEjr2B2I2610xmCaZJ1D+NsAwAJWzs0k3mnnChT0VN1Nb+Y0R+OHLYqH8te8UdHZYM3PjEjMkcaHlozNptmYWSrbCy1UDYxXNjsNxwJcDTUoemMmaTg3BRFl0mllBYEpyyNX6s71d7Derr2xl1F6sMoec4x9pr0lVi/ksOO+f+IzKZjmyhTtDG+qrJBFih6t06m+g9MUstKoPczYlAUMfPic8QTrPmUOTXU6MopKFJ0KsxIXc9ieuH1pv3ZGFI4z/ecm1wu3acuDzj2+87NmHRwk0bRMV1AOVCkAgEqwJHcf7GEPo3Xnv9ppq19TnB4+8shgVBbcDyrbEjqAVU9h7Db6Yq7P2OZqqFXdCOYJ4pxMiWJdNhA6oAKZi5FLt6nYfPGpQ11e2YtSV07h/vC0XBY7RczHzc1KWHnYNEvekZHpQo6gqxs++Na4QbUnO2FgbLOZBl+ITBTl1iMro4AncusQXSpZW0nU7KxIoG+gxntq049dveXquv3Fau0gzPBS/MLseY+2uLUEAr4CpPnXrYbckHFV1aV9h6ZZtE1wyW9UpM0sEnMZI4wGrmR/sACd9UdFlYm9+g1nbGh+jqF4P+ZmTr6Zue0MnikcsaiWMG1L2AJYwoshmA+HUAaDb2CO2Mh01tbZU/vNq6umxcOPeDy6RKMxk5BG2lpNFkqVB6lHvbY7iuh9MMDsWAdefcSRXWELK+BjsTB48SZiVzpeNmkAZ20EbD4R17UNh6A4ZYilSXz+8Ulr7wtZH7QxBxAKtFpDJXmZQvXrYs7V74wdL1hgcATs9f8vaVBJHMU+TnAUrMtAbakUt16eSh1HWvXDGNQPKzIqXbcBv3E9u4emmNQeygfgMdlOFE8jZneZZ1YmE8KSZbk6GnC0ASdUkrRp02rUp/2RjkNp7XM9PTq6a1Ebn8uEKtI8cJE8hVnIJeKEaSAFsWzE7E7ADvhy6dQCO8LNe7Y52jP8TKZPITZpmkjokMTpZq1EeaulEb1RrGndXXhWnMItuJZPeaHOQZ/MR8qblIquSSQikjfY6LLAdANug+eFCylO00ijUMMHz/AGkXMl5oy7Sh00aiSu4VdiFNea/ffGO1awvVC4M6mme5LhUW4xnnv9pZ4tkCgjQSMnMkVdApSQdr6EjTdn7++KaZ9xLOvYdzI+IPkqqN3OMCck4wcnl441DwTxlAwKBtaEVK8b0QRYDet32x0sCw7gZyDY1SbCPv/wBS7CwWdJXU5v7R5I5n0mmT/wBIDTpRTRNqpJDdjeJ3NjPtFbFD7fftJeB5WEZif7RlYjKx5iRgLyRCwpeVqpACatzRvaheIe3sQODG0U5ypPI8TLZrKoMxEgOiX7QQ8dlUh8xoA1S1tTAm+vtiwzziUsKcDPbuPaH85nnlZoFdnKyhHzIa7ChGVUZiTq1pY3qi1XeFM3SGT3jgev6FGF8y/wANyoES69WzkatRV9ZbzEivMx6nvjn2Puc7p0EQV1hVlzm0wWq1eUEDb1Asjbub774yspX5Y1ACMmClbzSNs0QmaFRXxKF82/ca9Q1b/D3GOhbSUVcfNMVN/VZg3aCuDxQyF+RM8JJBYIdIcKbUlTY96/74bbbdSfWMxFdVN/8A4ziFMzk8zqJ+0Ru5Ip3iQuuwBCOh8oI2IoWCcQNbXjlY0fD7ifS0zviKKWPMLNK8crM1FANCfDWmhVDYbYbTcloIAidXp7KcOT9Jf4fPlN1ZpsrJyiAXUyKX16gVAtulrvVgjuMNKBhzgxCWsp9JIML5uOm1LJlysoWRDr30lQHB73zGWtzYJ7jGRqQcZBnTXVkKRkT2X2x0R2nm27kx6DExc+fs34gdXpZ44HV2BMMbNK4UuFEn7hrW219d8LQenM2tndiBmy3kLhGA3JmmNue55cY2BJ/e369RirOAcZ/QTVTp3ZS+MAeTNr4a8NSDIB4wDIymQ6iFB1eZVvSSTp09SBeEW09Vs+0bpr+imT5gzMZsnLc6KwShoaQaNbet9CN/TGRax1djeJ03uY0dRPaS5FcvmY1lNK+k1oYq6sSR5NNHymiSfb1xBayhiPH94bU1VYs8+/sYSy3MBMklSy6EVXEdfqxu43JKliRbUPiGGW2qy4WJ0+nKtl5fbrc+liSGA/aIiuSCSAAWPbfpVDGVnZTgfvNYrV+fH95nIIIpczLojuKMHWyllDTlh516aGABFjoT746IZ66sueZydtdtxVRgfSQSrIJYkd8wxpo43SrXWwLan21Kep1A7X1xNd29CRjiTdR07VHJz59pF4l4aY8zBrkMwlZWfUFBrloAGC7fDtfscSzelvtB6wpXPOTzmEcuuiXmLGWXRpeNNnUJ0ZBYO3wkCjXuKOZfzl2k8iNZTp33qPSZek4zAAgM9P086yKRWw1LW3UmzZ2xRtPZ2xL/AIqo89o2fPPJ5IEosP2zLpjQX1jVxqcjtW16d+uLJp1Q7rDFPa7jFY7yjxDYx5SIhUETm2BY6a3pRuWY2bNDYnayMN3JZ+Yx4HaRsZPykHfv9BKEfh2NXeJ2kWTk6wrAjyo6km9IBvSdt9id7wy3UWbN2PMpRpqTaELEfUQxwSWAPmHkjkllaUiAJr5YVqtLW1iKtYJaug7Ys1Vd1YVh7SK77dPaWU55I94F8SSRPHmFL6uVNULXSlQb0qBsxokE96FdDitNS1NhfIjdXc91Rd/B9sSLJZmYIGUpMps8uYa607khtj6+uLblztYY+omcVtjeh/QyWKfLFlL5ExvrFNH5xYb+FStbjpRwMW/paWSsf11/qJ9Bd8ahOKx5nWbEmVnimc4U5NqmpWvcDcHewQKBsnqT2Ha654Jxkz0dKqeBA/GOEcuA69Wy7CxV79h23vfffCVvJuAE320qNM32nZPEufSIZBQoIULqTeQppGnzXS+Wt6B6dMdPKKNzHE86odiEQZMbwFo4ByZyyMwvzEaQSxGgHcA0AfYn2xh1Smw76u4nS0jmkdO3gH3k+Y4W2XPMyTdRTI3wsGHUE9D6C/v9a16hbRstHPvGPoraTvo5Ht4iHjUjy8mSOSiCFN2dqO+5G110+dYuNGM5RhiU/wDUCBtsQ5jBLmpxSx8hWAEkzEl2AN7XVE+ldtiO8iuqs5JyZBs1OoGANoh/h+SESmKFW5cYtqskk7FmPrd+nQ9Bsue+xrDkdpq01FdXB4J7SXWRQS2rb1uyfludz36HFAwxma+nk8zLcWlMuaQFrIsjfYHpZ+v+98aRxWTMOpINqKPHMvx55hIkRRo5BG5nJsN8X6tla+uluvYL7Yi2sBA69xF6e5muNbdj/EsZjPPEvMOohTTUA2kXQJ1bUOuw7+t1RA7nKmMtsrrGGEmz5llMSRtpeSYRq5rTvGXLqBsdhXT1xTTjrORYc4Hb/MrqW6Sjp8ZPeReHc80GYXLTQASnVLNmGkLFkj1MQARsLQpV0N9sdFqkYD6Tmo7o+D5mv4pHzQkJA1TghpSdJ2UlhEDvpAY+1HvZIW6lsYHPvNiMqHJPA8e88/4rm8s8U4SNo5I9Jez5XZJEic7dVN9D3HzxC1WJYOfTiKa2uyonGG3fxCHinilZFMtLCQ5C6F8nLABBMiGg5FAjf1Nk9cRVYHbjPHvNGqoZKstg5Pgw14f4JAAvloemw9PT5D6D0xZaw3LGZyzJgLCfEsjEukJGoN+WgPiO1j3wq9QDxNlLMUJJm5V8bx2nmW7mOxEgTBzNpBUep/vjBacDE9HoVyATMf4wc8oi+u1YyUc3Azr3jOnYfSWfB3DAItSBWmkhkYtIbubqqv30C1sd6ONdpD3qrdsTj6dTXpmK8NL+U4E7wI2eSMtb6lULuF3XaOhrrUPL/wC3Frly6vWce8ZQW6TV2jPmZbhq6GneFz9jDBYzK2nYsLIBF0Be1C7F74NYEcgD5vpI+GvZTuZvl47/AHhXJZljMmXj1Bm1M9sRoQH4jp/dP7oHqPa0rp3K5LcRturQ242ZP/En41mCrhQRupLNtfoN+9n/AGb2QKuMsczXS/gDEiiz2Zy6loZY9LkPJHNvZX4hGy2VBr4D0vveOhXcgXaBicmzT279wOce/iSR8WzeeRgI4susjajMPO2lQBpUdQbXck/LDGFfkRYe/gDj9YDjgiyWarzzvy2I2LFmLLpFVt+9ufY3iv8A5V9hKOvQYdyTLHGpJyy5qVtJ16VQHUERn1aS4HmO9+gA2vsOysNglqUZD1G8y9C+jSaUoxZWAGxVrBAA2r6daxiSwhiR4m81BxtPmVlQIwgeVkAKvk5tiqsrFlDA/vCyvuO14aDtbq1jv3EzlDs6Vp5HymVPFiz5ubLiVIkLBI9cb2r817Emnqovsd7+7GxLUIO2YbKHLDdG+NI8yHy5zMoIVNCSCwV0PUhYAk8wWLIu6BGGK5MiyvBBJhZeGZWEmSKZSjRhOZMW+Ow6sthRrsdNx79sY7biPSBk9+J0KqUX1k4HbmU/GWXedlY3zUWowdRMsYuyLNKAFc0B8yScW09u4dpTW0hTu+via3hTXGjdyo/7YuplgPeHYFDSRk9jf3gEjAy5cGRcStLYmkhxonnz3kwxBkieZ8TzVE1ji3uc8T1+hQBBmZvP5Z5Bqb4R09z+WL6eogbjE67WqPy0Mq+F/FaQApNYWLmkFb1uWYAJXbvvf0xus04dlYeJzKdVsVlbzIMz/iJmiztGkSKVKhQpIUGvNd/FQHatumHrWg7RTaqwjHiQcF4lFl4gCvMYqQFJsksVZQEBrTY3JF+mM1iGxzngTZVatKDbyf8AM0HC4TFE7uw50h1yt361yx6ADy/M16jCrbQfSvabNNQVO5+57ynw6clyypzDRjIZdYtjsNNjzURRvviAreBG23Vjhmxid8TcLeNUaaN0ViuxDAUKB3eizVfauu+HpWU4aY7dStiZTt7w3DIijQH0jQu3dr7KRQOw7+o+eMSKFJOZp3FgOJnzpOa1k2ClEmxqYkEqNNn4jQ7n3xoydmBE2L+Zk+0i4zMQrRvS0UoGyTq70tgAde5JI9CMTTWF58xF9hI+kNng85iEiRGSMVegGQCt99N6bBGxGEih157xqaysnBOPvA8ZSVDC10DsCQHQitxXQ309tjeJy1J3R77NSuM8iXp8zJIq5fMyAGjyp1XZmWitm/JIK3Xvfyu+1VHUrHHmZCz56dhwfB95V4vxbMSPArJA7xOZDZtHJoedT8PSzv2w1L69uecSyaG+44XBI+s0scEIlVM0I5Q9SkKupEfcWevlqhv2r3wmtlDBz9potQshTHIxkH/iXZDzc7lQeoMzE0KZItS9tt9Sg/8A2ONC5azPgTFqGCU48kj+JQGrKymBr0j9mT+9Hfl+8dD7jCXY1tiP0+LUBEP5HNi1+YxYWg4l7q/yyJqYZNsbczzZHMlV8EnEzM3CUJs4p+GQnMka+0LgSpn+FhwFHTDjSCMCYxqWDbjMxwDJxrK0ksdlGdEao9KqJHpvOa1Ek7kem+OedSBZ0x3nok0+alsPkSH/ABI4BE8TZxJKdAqspVV1W1b0B5t9vUDD62OcRV9QI3YgDwpCkhdgpAB0i/MyoN9Njfoe3oPuVqDj0+8dowD6vaF+K8GZSQC0cqkMuo3foTRo3sB6bAb3eYPsO1hOia+qoes8yTwYs6pmRGxhJ1FygXZN2IMhBIvp8hjYb2VcVTlvo1Z83++P3ljxNKDG7zs0jGOgwZmpgLRWDkmgb6bb/VCuXfk8zoGpaqiFGBHZKeoRIsZdlQvywdJJBXbUDt3+nT+KVKK22I9ZTcO8DDjcPPd5DoVkqiCQTZBJ79Tde2A1My+mFtyow3e0qS56KaZNJQqdTmPchdiKLHrtvVdziXRq0JHeKSxLnAJ4h3LZEOg0l0JYEPG2l1K7iiATp9x74w16lq7OTOhdo0tTEHcVhlzGaVklPOKKJXYmRjppUNtu3lq9vY46BsRky8wGlq7MVHEJiCJ1Mco1gg6+pore4U0dqsdDRIvbzZd/Sb09v7TcKesnqH7wBwvheWOYlM1tFEuqkLamtlVB2rc73VXvWNyElRzObqiBcdox/wAQtxVP0dn1GUUOZokCxuWcxsz7HY2wBSxv69sM2qR2mfqODyfpmFfCuaDZ6KlYWuZAv4WV31CZP4QxjYUNunriiDGZfVvvVT7Td8Q4ekyhXUGjY9QfY9sWdFcYMyVXNWcqZSy3BAhFE174SNOAZqfXuy4MNxrtjVic/PMnRcEjdAzvhsyGQX/fFxFOJiM3w1cyk0DswrMyHUnYh3oMN9upxxLN9OoZgO89TQFv0ygnsJV8WyZJ8jHGuYUSQKoVNdltIoo4HU9d+xxtTJOSIqzaF27uxkX+HQDpmG0KpZJ9IUVXkjoKPbFLOX2/STTwgb/9TVca0uZL3LZWIjpYOtgN+u+sfTFLFB7/AEm3TuVwB7mY+HiK5eaaJdTEsRQUs2kEgDYXW1ff6YoarGwVP3k3amoPhhkzmYzMhU3AwBDC5GSPr6Kx1fcB93WwU7e7CT+KZxhUMi4VxbTCmlWJoCgGIBA72Dtv74q2nYuTmLr1KbMES/4WTn5mVpA6UihTpKGrN7ED+2NNaDGMyhbec4/eReMMgEli0Fh8W6mmArsd/pi1hCd5To7l44Mp5AThiseZNDbS0RbrWxMf99sZytDDLLIX8QpwrS3wuOsyNbC6QSsK3MjlbF2fiZBvviHRbFAHaNDOmS3czRcLRXky5ZNRMmZhdiSTcY/V/L4b2rc3i6VIFwZZ7X5KnjAmHizsMJnlZhzfLUR88ckUirzIyPqe1UMPVPSAJz7bPzSWlyLiCmwyDKBorL1M80iBb5UUkmyWBW2JT2kWYOJpfCCTrnY0n0WmTLIFFaVd4wIzW3koi/fEJjxDUlsAGehqcNExGSXiZSdVsEnEdrxUmSFgRjhwmQyOPriwi2nlXFuITQZ+SPLqS5nkcppL6nZn2ruChQ7f6Yzuik5adSmxggVTC3g9mlTMwyIElTU7akpjzCxN3uN/wIwi1cYIM6OnsBG0iBvA/FpIkZUh5tOxPnRdnjK1THfej92GMo3ZJ8TKjsBgDzCR4hniV/4dF0RwoSZUthE4fse9VXvhX5fvNqvfnIXvK3h/W0srOjBjQ8pDXoQGgQDubB+/FLSMDEtVksS4wYXl4azREBiDsSb7Ux2rbVQ22rvfS86nnOJsBzxmEPDUEQgU6bsbmz1G3b5Y0jBGTBayrYlfLSKmYYgUCAO/Wye+KVuFYy1xzxKPHW5koJNBQTex7qO+3fE2tuMUcKuREkawgv0YkAVQ6ui71XZjv7DFOlvXGYjrbG7QX4kjPPRYpCqtClk99W4/t/3w8EIOYm1GsOQcRuWMgbU2dYAyFzpVVPMKEE30B03vX44BZzwsjpNjBeD+EcOhkldHDEEARFiS5ZatRRG/mG2LWOyqCDiJrqVrNp5hniSsiKk0pRbCKCuqqHl8xF2PUjt1xkO/duC5I89p0vywoQtgTT+DXds1K0htuXpLVX/qFgAP+Yk/djRQ24ZmT4igXaJttWNM5JEfrxMrOhsRmTiP1YqZcCCjjRMJjIuuJEowmD/SeXyvFneVSvlkV5CCQGepFI/5fL9MJYHJnRpI6Yg3inEZpFzDZSOaVpyOdmFidVCKKWOIHfp1Y7/hSgAPmmosx+Ud5J4MiLtMIkeNLU1RsAIoN195+/CLScgd5ppVQpY8cy7mOCzEFi2hTQJett/4evt/u8UAxyZuDqTgSDh8cawyed2XnKNSkJ2Hn1EjSLWjvv074ugyczLqHwwEkzvGyVaNAbZgGfsCCTSjqav+2IK4GTGK+TxLvBcrJHGEO973898VIY9o38Wg794TynC7O+H01e85Or1hJyIzxJk0ihLAUdjYsHY+o3w+2oAcTJRqXZvUZmsgjzzRTLsI2AAPSiy67HoULbYzoQgwZ0Spc5El4kUbOOaBAVV02BQAsECjY36BT92BhkRhsCkDMsjhxBOmJrJ1AlugBpgSNIFq1XqvzEgELiEWSbPYiZzgWeWLOsZF1NqYRBaZdbkAnUCfQb79+uHPkJkTLXhrefM1vEM5DIoBDTPeqmUhLH8Ct5drHqav3xgd9y5VufP2nYWjDesDHiS/4a5oyc9z+6wTV/EdTsTXbZlH3Y2V1hBOTq9R1WH0m3Db4YDMZj9eLSuIg2KwkgGIlhKA6Y0gzA3eMAwSDPLv8Rcxy5pY6H67kygnoNA0H7/1Y+uEsuX3fSbqH/K2/WWMj41LxBFyhMoA86NpSx3v90ex2xnspXuTidSjUPjCrn+0qeGOIwwtN9qd4y0oYlBIVBvUAGj7362NjsbxYKWYEdsRNjFAVbvnMuTeIITZjSd6DBZUhCjzHcLZoDp2uxd4h6vrxL1aj6cyThWe2OmPYmwrVakXR3PXFKztOMxt4L4OIzlPrLaALJ/E2fxwt35xNVVRC5mtyfwi8aE7TkXD1GE4MPQzHYOIP8UZcyREYm4+mV0q5fEyORyUsanSSPpjErTvdHA4gLMwapSJRqPvQP1xBsYdpU0qxwYQiykQAHK1DpReUr1A+HVXf0xC3uZddHVjMzEmYMeZEsaikZWUUNOwBrbbvjYBlcGc6302Er4hocVkEZzhzCNI+qPk1sisewB2IoHpimxSduOJcWsq7szc/wCGZH2NSBVsfwCqT95Un78DHBiSc4mqU74BKNJcTKTowQk8ZwSwlBThqnEyuskAw7vEE4mf45k7lV7rykd/W+x98c7VqQwIM7nwsqykEZkX2dQv7Rh7JpX+wvGbH1neUY7LMZlnCTzqBLpst5GcWFUWPKaJ3vDRvKgrOfeUFh3/AHkWdzGsUAWBWwTqI22q23HTEEMPmMlbE/pEP+F8stbjDKlHeQzHMOZtVHQYpYozNq8VyfLrthq9pwbvmlqE4ekyPHZ1bTFrOVldKcWTPK/UYxT04AKzL8TyjNIaH+zirEjtMzKCY6Dh38SufhPta9D0+o74rvYeJdage5knh/IR6WVlo6iARYIA2HXrt64u7kwqqAbAlx/C8JN0n9P9998V6jgd5o/C1ZyVm04RAI41QbACvTDkzt5nF1BBc4l7vhqzM0eWxMpHhsEI+F8EkSmpwyJzJlOLq0U9ee0HcbS1v0wjVjK5m/4U2yzBmfebascgXDtPWDGMyrwTK0zsSRqY+3YD/TGqs8TBeod5dzuQWtrwOIytceJX4SpQ+2BG2iVdQWhJrc7YnO4ybbBXXCMMJAxqCcTzzWgtLccOLqIp2Bkpi2Iw0jiZ0OGzM3n8kyk0MY3Qieg02rUrgwOFKvbDC8Ed44MrtxCKyisRmahVxmCliZXJrYm8UIIEK3QNC+RQsRgQEmW1V6ok0UC0Mbds8wXycyVjiQJBM7eCRH3tgkxQtvggJWEwwddZQad5IMwMQb1lvwzxk06sKOKm1WGJK0OhyIIbIKTeM406Fsza2tsVcSDMqFO22JtG3tNOhsL/ADRkrbYSXzOwBxLuVjUr7431Uhlnl9ZrGqtwJFLmeV2wtl6clbDqByZVfxLXbFOvGjQSXJ+IWY9MaEYtF2aVVHeHIc4SMOCkzluwBwI/ng9RiSJUOR2gXj2VvdRjJcJ1/h1vPMFZaNiQKxkzPS712TTZbhQK2RjWpXbzPM6l36mVkyZML0GLgqIh2sbvOO9YvnMVnEZ9pUd8GJO4SVMyp74MSdwknOBHXESciMgk3wSMzMDxTkv8wn0b8sYehZ7Tqdav3kg8V5L/ADCfRvywdCz2h16/eMPirJf5hPo35YstD+RFvah7GcHivJ/5hPo35Y0qjCZbGB7SPMeJMkw//oS/k35Yl6dwkUXPUeJnOI+KI7pHBHrv+WM34Ugzqj4iCuDJ+FeK4gfPIAPv/LGyvcvE5GqRLOR3mhPibIMPNmE+jfljQdrDmYkW1DxKUvE+HE39oT6N+WEGhMzcuquC4xLOX49w9emYT6N+WGqqCZrHufvJ28WZKtswn0b8sX3CZ+i+c4jU8WZP/MJ9G/LFCRLCp/aTjxjkTsZ0r5N+WFsoMdWHU5lqDxPwwb/aY7+T/wDTjMaTntOgNQ2MEy23jfh1UM1H9H/6cQam9pTeJWk8Z5D/ADKfR/8ApxXpP7S25YF4h4typ+GdT9zfljTWpHeYrVJPEFSeJICP2y//AK/LF8Rex4zK+JoRdyj8fywxceZRq38SrxDxkB+za/leKtjxLpW3mDI/G0wN4ptjwJlcXlosEJzBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCLBCf//Z</t>
+  </si>
+  <si>
+    <t>Tranquil Touch Mehendi</t>
   </si>
   <si>
     <t>Snehnagar, Indore</t>
   </si>
   <si>
-    <t>https://i.pinimg.com/736x/a6/d6/03/a6d6036d8b1af7857d16579de5e753a9.jpg</t>
-  </si>
-  <si>
-    <t>Sparkling Splendor Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSExIVFRUVGBUXFRUWFxYVFhUXFRUWFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMuNygtLisBCgoKDg0OGxAQGy0lHyYtLS0tLS0vLS0tLS0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAKgBKwMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQIDBgAHAQj/xAA+EAACAgEDAgUDAQUFBwQDAAABAgMRAAQSIQUxEyJBUWEGMnGBFCNCUpEzYnKhsQcVQ1PB0fAkY4KTotLx/8QAGwEAAwEBAQEBAAAAAAAAAAAAAgMEAQUABgf/xAAyEQACAgEEAQIEAwcFAAAAAAAAAQIRAwQSITFBBVETImHwMnGxFEKBkaHB0SMzNFLh/9oADAMBAAIRAxEAPwDz1dXQA2Ka9Tuv355r/LLo+oix+7Tj/Hz8nzZw0158PTGPbILidjbIaaXqQ/kT/wDP/wDbHfTtXmX02hYHNBoYCO+T5KKIX5NVpZLxrpxYxDol9M0ejXjJWbJBCwjKtX0xHBV1DA9wReXzSeGjOeAoJJPYAdyfgd/0w9FFZqQvfR5Z9TfRzR/vIAWTuydyvyPUjEWhXnPcTCMxHX/ow+JJqIXJZjuaJqKmhz4dcqT82MepuqkPlqpZElIQxmhn1daAcBmkNdiD6hgVI+CDyDieaZi1A5sYWBOdG2h1gIyOq0auMRdKRj3OajRrQ5xcltZilZkep9AFEjMvNpNpz1jVwgjMd1fQDdYx2LK+mDOCYB0mLtmx6ZDmd6ZBRGbPpUXAyTUzGQVIKj0o9sm2gU+mHxoM5sjiwjO67pgrtma1/TQPTNrr5KzN9QmGUwmxscdoxut6ePbFs2gOaaZgTg8qDOjDNJC56eLMlLBWVEY/1GmvApNHlkcqfZz8ul54FmEaXvhC6InDNH04+2enljQENNNOw3Qx45hh4wbSaasbwJxnMyz5LoRFOqhxVPHmm1UWKdVBm45myiZ+ZMFePG00WCPHl0Jkk4i5kyG3DHjyopj1IQsVsjEmFqmQgTD1i4xU5FcNPSCtHKARjmCQHMzC2PunveS5I0HjlY508AOONJpMA6fWP9KRkkmUFui0tY500eC6cDGEK4AqTCNgo3VUbvtXrfxiOTSSQC9Lq4lj9ItRTxDuajkDBox34tgK4AGPngV0KMLVgVYehBFEH9DmH6j9PNpHkli02lOnRQQ0iy6ideBu2ob3G/7w4A9sfBE0mPF6rOBxqOnyP/yxIyX60H3NXH93C4+urR8aJ4wN1yCpoQEAJYyx3sWjduF7H2zOaXqW5LPiqo9U02j0q9uLGqcmvkf55esUL+Zd5JH3gaTcB8tpXjcj8MRh7RdtF/1b9NjUqNRpyGcLwAV2TLxQLfAuj8556enFZCrCmU0ymrU96NfkZttHMdKxaIlrDvt5bxArNJItGgWILkPVjZt84OOPqWPSSRxzs5Uld6FFBeRdvYrVsOR7V75nK4Q2M+eTKdP0oAw5gBiheoKT5T29+CPyPQ/GdJqyTi6bKG14GXi4DqoAckjnCYl3Z6qBsA02j5zSdOhrBlgrGGleslzWxkWH7cpmPGWb8D1UmToZFWJOrTVmW10pzQ9Q5OKJ9GTleJpdlm3gzOonN5SdWcbavpvxgL6AjOhGUGiScJp8FCajCYwDlI0hxlotLnpyS6MhGTfJPS6G8caXpfxl3TtLmj0enGQ5MrbKZRUYmfbQ16ZJIazRajTDAJYKxe4k8ifURYs1EOP5o8BnixkZGtGcmgwKWHH88WLtRHlUJipQEskeDOmNJY8DKc5XCQ/Dgsjp05xqsfGB6dOcbKnGLysueCkZ2Of2xjotXVYleMryOxycLkdxjpY00cC5Y5VJG+6dq80Oh1A98886fqyKvNF0/W9hec/JjouhK0bmGcLtN8Hj9fT/AErG+jlsA1V+h7j4NeuZTTzhkKn19uCPkH0I7/pk4usamLynSvMf4ZImjAYe7BmGxvgWPb2xKQE0biNsvXMUvUepEgrpoEBr75ixX5IVQL+AThmn69qohWp0u9QCTNpmDJQ3E7kchlNAGhfegSeMbEmmi7qX0ehkaeBjFId7vtCFpHaiNkkgYQ2QbKjncTgEepZZDHJuD9m8SWcpY22EdmIlbzpwkVWfXNf07XRzJvjaxZBsFSCO6srAFSPY5V1CDToy6hokMoISNiFDlnIRVDH8/oLxyEWZTUIPF3WxVVbd91x7xsZzQjfaFs8UQV/XKYtEBC0kxI04O3cDcmpHk2ohJrZvQurdwG49Wz7uR3eaW3UMFI+15pSo/wDTKKG0KWYMQaKhQfU5XrdZLKxaRtuwEfY4ih8tNH4ZHmcjehRgSeCCO2CH+RV1LTtMPCiWOIUSka2iDsS00hItqU8MNwKsNvriAR0VrzbhZKgkL93lLdjQHccZovCLoYgmojagV0+yQxSABd0jbxbH/CKBI4vPtE2/72kOxZPATcsnIMcptSy81yQOQDzg8hxlQrhF410sYGR1OnHiGlaI1bRvG6AEcFg/2hT6HgXnQSjAY5Ow0rxg6yUcu8S+2VjTknti2rNQQs3GD6iYEYwh0JI7YBr9AVxLxj8c1YmkPOXxQA5U0ZvDYRgs6KfAHLoLwGfpnxmiAzniFZ5TaPMy46f8ZbFofjHywjLItNmvIz3CB9BpKxzDFWdBCBn06pbpefS/Qf8AfMSskyScnSOkWyF7k3QHJNd+BgM8fF4w+kdSrmZ73HxXjJP8kdAAfF7jl3XtGa3IaB7r7/H64x46Vkil81GZlTAZ0xvqWU3Qrk+//X1xbqFzEOQn1C4snGN9UMU6gZRjNjG2LtRgqrhE/es5Ey+CpHX0+Hg+RrjRF4wBVxpGOBgZSrJCkjKyJ5cho5hdHvhIHGKp1o5TFbuD5/Xw2pTNJAoxppoh+MyGh6iV4bkf55p9FrEYeU3kubHKJNhnGa4H+jlINYRrvqSVG8KJAp27mnksRRr6sf5iOPLY74qgm9cZBkdSrgMrCmB5BHscl4TtodKO5cMqQxTWVB1bfx6nUSMmmT3CgcED2Ra9zkNFpJ1Ik0Ts5HdoIDDFXwZZNso+FHPvktV9Pq+5oyN9KsKvzDARQLJHVXQJ5B5yGpLQuw1BkYDyxSSNLIXrbbLHGyRx8tQLMDx8Y1NPp/f37USShJPkf9I6u8bmdY9gDBNbAqFa3GxqkUKCOSxbd82eBhPU+pS6mUBG2rKrKFccRR7dzzv/ACttZHVgaO3aeecz+u10TopJZiRsYMGO+IiwxJJLIpUOG3GvDPmI258if91Qq50vYNoK6VZCIYo0Y9ppX3FAa2WB2F6gHEPLCYoVPhwsWi05lYKoUcySvybdzuLBlB54IINy1M8VIrzeFp2/4QcPJvU0ZqkFeYlaFcUO18RAYEwacNPJKoOrVl21W3dEspIZbUbSpPYDkdx0U5QSTwwwadGIikiPhsy0fDdxCFvgE2N3ofnMMLFlvi9SKNaV/DIBtuV2lPXy2UYDm69MNSJmNpBqW2c6mPxPM3HHBIkHax3Nce2DePCuyCbXl4Cu6MxbQyNXCur7j2Ngjm77VklkFMJP2zxxe07JB4sQZzztQNHYBvb2PPveUCF6aIKnilJxGSfBmWdf3YPl2Nb7a8tWQvpfODyaClDAlCQCsLbWc8Hzu1DwkNWFNk1270RGIl/exiQCS/CildjvIILah1c0EVqq6BNHgHmMKLsErybkdmMZH7xZpAoJEy/fGTtsUeOLJoZjRqbRPpkgagRRrtd2LIsH1Fj/APmaDSaQd8ysoZyJmJuiFN8jm1F2bb8lmI7426X9RIGCOQe3nA4F8eYDt68/1AxVc8jbtGpSAVi/qWnFYw8cVxgOraxhTqgINpmR1UHPGT08fvjWXR5X+z1k04nRxZvAOVypxl0grOQg4kqUiqJMLhjzo48h1PqMWnUNI6rf2gnliPRR3P8A09cKMW3SF5MlCbqWuMkvhxsNiGnrsWHez7Dt+b+Mzv1F9TeGRHCSxLbeOSxPChQOSb7V3wD6j+o1NrCAN1Xt9fQKo9v8yc9E/wBnf0guiiXV6pL1UgtI2rdEp7Dk+Vj6nv6e99PHhUVukQ6jUqCqPZmfpHUarSuq6mMxeLvcK/BILckr3HPv359uNxPrQ4AB+TiL661EuoliiUoWViaHFehDHnaFH+h/Aq6Nrdy1YvJs3LtG43vinLsL1acnF064ykHvgOpydDkJdUuK9SmN9Ri7UjKcRZp8VsSunmyapljJzktudKPR9BixJIrC40ROMBiXnGaDjE5hedVQs+mumRzB99nbVAGu985l+qxBZGUcgMQP0ONNG5HYkfgkYv1a84/Hak2cTWYt2JMXVh/TWo5QYqy7SCjj5tOJzNNh2ZFY7RnBtX2k9+Nyn8j0/TOm10qEbtSN18JHGG/qO+Qhkz68J5MZ2Math3Nex9Mj2o62p9N3x3YO/a/0Geh+otQtFwpFdmR4mPf7WNqT2AHrebLpPUY51I/+LxuvKn2ZT/r655cZ3U7dkhPq3ik2PkMCo/XDoOoNHUinbIo8pJBDIOfCYqaI9vY1VXShkwJ9cHF+JKDcZX9bNN1eVp9b+zhieRFwAqJDQlkog3dBlNDuq88kGcer8aZp2WTw1Hj1GwXbGgZNIBuUHmmbyE2W49Rmb0/U2bxZ920+EwNf8zVSBRRq+FU97qqv2vO5kjjSIOZA0zqu6D92oqNS3ltez+WvMfk55wpUJ3XyFdM1MLJuEkv7S77mjjAbxF3FipaMbrI/i5ok2PQPdLJAZFk02kklaPiWORXkXmjf7ytkt0aA55GKozMBpozPAEu0mj88sVKTtIAUiPiiT7C+2GBZF8Vn13hTqCvYKko3MUO8E9wfXkEj8YD7+/8AB6hnBqZEido9Kg0uqYALIV2wk+XzlTuj5FgUSpIA5oYzj6fO8ixauZCIVLs6D7dOUIf99e62K7SCBwCQOOMtp+pQhV26uURyAnVKQhdAVN3S7SCQfuFnn3ON3k8KFYSznxCJ9UWXeyxMT+zwFRwOALXgGmA5bM/MyvYYiQTSeJLujjcAgqgYQxJYhjkUgiPnfusKRbD1BF6zrqC7yPtkIqNo1pJOPtYHnc3Hr6gelYFrdVNAm0eLHLOS8qlPEjEIU2yeaxtCgFd10Tx2wfTxMEUIAQx8imvDkJH/AApB9j2X7gEeJdLycBnkgzqiPDe5Csh3MxFJZO0g3ZWQA3yDfJsKcr0QISbbTOxtiwjsxHysKKEEqb54+03xhiSrMtSlpG2hdO68vG442+U9zuW2vsVtrwHUJIjBHQrLH/ISAUINruABdSLtrvki/bzPF+m6k8bItrbx71iTtQLW1UKPkawoG2ufS9D07qMcpoEbu+2/8x74l0mrdGZ4HjjTcF8N+ShYDcVBWwtjtZoUaoYG0YWNv3gZi27alkKw4DnitrAcbSDwO9kAKCTNyYBWBz6fEOh67qIbWRDIg2AmxuBbgbW/jshuKvynNHp9bFMLRgfjsf6HNaTPJtMSalawAvRx/rIhiDUrRxEoFmLLQXpZbwb6j6TFrEGnMZkl5aII2xkNVuZ6IVPewfxlbTRxANKxUN9qqN80vxFGO/8AiNKPntgWtfUakGMf+j0zVuRDv1Ew/wDel7fpyPSjh4se17m6AzZVL5YK/wBBH0+LQ9LcEONZrR/xALhgP/sof7ST03HgelcjG3ROoSs7M8hEkwYl3Icoou3F8KAVAWqDMvfagsGPoOnhLO5sgybF4oKpAjv1LUeT+ar0yOv6y5lma6ZgoteAoDClAHAAC0B6Vlu74vRN+z7Fb8mv0XV4wrsoFq7qQeTt8Pjn5uYX+cu0fUYpTvRApbk7eBZ+M89h3s24DuKv8982X050ybYpCGvfE58aih+J89GpSSxgOrbCY1IFHvgGsORJclMeWL53wGU3l07YPXOW4ona0kAeWPKiMOmHGBkZdDo7WP8ACRiPOM17Ytj74yTtiM3ZHqVyZXT4JIvnwqI5RNw4xy7OXmV44/mSnh4wdF5xmVsYP4WeUjc2m+ZNEkOEwPgqtzWWjBKcU65QZIisKIsHK9RpkCSuVZrTaqqOFIHBAHzzzhGnisXjDTptGDKSQeqwYdTGpLn3++zIRRj9nvcaaU2QP5IrXi+fvb+mMtbMpm2uJWCpsVIi28AKDuF7tq+ZvKLH5GN9f0COUEqShPPH2k0bJX3IPf4zO9T0M8J3uCoNedaosBXBWtpIHfg84akps+V1Ogy6ddWvdf3Guk0pd4wulTlHYB3O2baRynm8rD1AI4ux6ZPTjasb3Au6QPv3NJLFa+qkWU8zXd8GxQ5xOs6ny7pnQkME9942luDW4E9657cY40Ep4ZI9PCNjLvmUBJjGezrR2SevcH84Mk0SRpmh0Xiy6uNXMYDNcwh+x4oqcs7gAP59gKkAjdXbLell9RqizKjeK7z7Zf7MxqNkKjyXZXbxZHksgEDE/QVH7JqnU7/GKQKANtNJRk20TwA4qv8Al1Xpn2SYwiWVYkeKQDTrbBZI3iV2LAqqntvo9+BeJce0vv7/ALDExnPPNPK/gxyEUoCq5cwKVt4d7DYN17ioJ7KOwrCOkaulkhPCtW5duwXQWqI8kthirEm2BBs84hUBFSPfMrgN4kUaqfGsbL3g0liIXwTwSByMuj15jk5Z5VG92EYMZM8nmK2KZgCGFhjfvROY4+x6zXHVA7i7swIUsVUeZN4CygM1KRvZQg7NGCQavPsmkaQHw1Muq5d5WZtrw/aAGFbzuBC7aHlJHBo5/pfUHYyIbLEvJAQdzrIULNET2JapVuyA0d35RjjTzEAbCyqwBuPy7onILRIxVnatoVKC+VGNjvgNUYDaePxCrcbVItkKsAwK9ywtz3FAA0xFqDjFUVWeGQ7nrum2ywoqAoP2NSk8KOd3GLOvpF4yvp42OndBsCqFXxAoG6IudoUITZAJ49R2K0cXpsLXQCgN4YYcm5G5cgLtssTZIWiBfuj3YaunijB8PbvJomO2SMt6Lz+9mIIAo8Xdn7sjDpze69gUnzbiota/dK5FeIByQSPa+9SgjsGU28SnZIUG138TssCH0INk8WJT3IvK9ZF4sbqY2XYVCKAFdtnmIlTt4xjNqSvO2vUgi1ZidBmh6sf+KTscnwpGFbtt2rEcXwaHJ9CTlWq1LsfKnh/3nFv/APGM8L+Xv/D64s6eGU0rcH7RbFd1bQ6Em1IoLdmjwSACM0uj1KThY5QAW3eC5ZPEcIaJYKSFbj3II545AzaHfuI9NowCWFlm+52JZ2/xOeT+O2GCA5VLIIZmjktQKpzW1gfX3A9Lqvn0x3CFdQ6EMrCwRyCPg4LsZddGC+pei6uSTdAUKsFBDnbtK3z25GD676GddHtjIkn3iRz230CNi/ABNe5J982PUtWkZruR3A/65nOofVEhNJSAfFnGRySVJBbJS5EX0r09XZ0luN07IRR/PPpmr6bqBEVAbytww9AfcZher9R1EjLKZBuQ8UADXsfcYV0LqLO43Htm5cba3Bwmq2s300gY2MUa84SkuAa18kiuSzBC2LZs6NM++uXVnQgjv4Y7Yg02BMMPkXBpIsqj0XY2ihO4xipwBBzh69sTmQnUR5RlkXBNWfMMJEnGAIba8bFeTiama2qK8sbaY8ZY0eBwvRrGMfIwGdPTtZI17CPUTbXxjppl4JxR1QefKtLKbAx2y42cCOueHUShLqzXwapBhayB+xxTpOmu4sHGmh6RIHAvvkktq8nTjqsXljnRUBWGpHflq79PTE/VOi6iKnWyD6e2NOgySD+1Qr7E+uJdVaYbnGUXKLTM99R/TqglgDGT923sb9x275nX00i3ujMwO4k7moggAFhdhhX3c989U6xCrxkZnukdPJcgc4/Hl+Xkmei02oxOUltkvK/x0ZjSdQMkTBjYOpVmHB7QMBxwPQfquFx9QKx6faq34VNIkRSRBIyLZbs3BIDLyT7c3odZ9H7rTbsLWd68UdxYGh3q/X5xT176E1sSqyL48SCgyli6r9xuEk8Cv4O/HGapQk6RwdTgeCuU0/KISfs8oaXSoYhG8cY3lwm+TybgVtlkBWMmrsfrYIYGPcQ5aNkVxSiNt0hVEgFd6YsO/YmuBgh6nINod2kAt41tWQtRCk+5pr5orxxln7agQKkjl4g7jcVaJpWAG8cBgxtqLcg7ec3Y0TWNehdRaKeEoNwR1J55SJTtd6PoQzGuDVcY2eZo5CdhKrJNCwVVCsFkfw1J8vsLt+QKqszvUFgCMIZHdgm6aRrVbcKqsKAoEyGlN8Kb7cnOfEYs33POGsjtaCQ1de/8y4uUb5CTGR1Cvpkfx2ZkkooFI00Su1upK8LYbbz6ngVRzRTxRxgGYlYmjbwNh3KDGV2rKAKY0sYHoaoiwDmcPifsciGdQj6lUEdU7bpUDOz72Ipgf5hSfPA0DbRscBFtfCA8SVkkL7pEjTdynlKk+rV8DA22aOuodZWdhLIVLLtICR7QRHZCtLbMhYueF58o54rDNFrwjMu5WRhQFUQyHxIy6gUC35tiXPHqd0XpMEWj/aXiTUStEZG8qkeYbmjjAFKo7UBZr1wTrGiWOOLWaf8Asm2kQ0SiSPW2RasqLABFEXRr7rHjweKGQMHRR9hYxt+7KlVNOoRGsbQQ4HHG6jyKs0+tbcvdSTGxkWEySHkhGWjZJY0xsiztAPNK9L1wr4TIm/w6sAMxAHLtdfabIJ5U09AXl+r0RE/hALanaGVN7HjxIXY7bv8ALAelUOfHmbVYE12mqZKYEq4KkbZF70H9Pj5IPrivR6DUaPyosckJN+EtxlPcxbiQB/dJrvVXlfQvqRY3YTylvFVJCfCdW8WgjokSgl/tFlRVg/OMdf8AUaD7Y/8A7DsP/wBahnXuPvVfzmNHk6dMxnXej69ZHeDbLG7EiiAwv+Fge1YkT6d17klolX8sM0nUPqB7JjJXvZUKnAFkMDvv9CO/bPmi+qXYfvYhsP2ypwG9PKrHzC/VT+manJLpDnN9WJYfonUGw0qC/YE430H0UsQ3GQs3xwM0vTirjcpu/Qgqf1VgCMYlKFHFzzPpsFNJmKlj2cYs1b5pOrQgk5np4uczGuTu6KKlTKIly3JhKGVk5bA7SOrKphlm/BdRLjUhkE2yj1wwNi9jlqTcZmRWMyxujMSHjKdOM4veWAVjOkfL3unu8IsjPOM4X4xVp++MwKGLl2dPRN02J+opZJxeAQbxxMt3gLw46EuKODr9PunuQ66F1gggHNl0zWgyK3tnlwBBxpoeospBB7emIy4E+UDgipLbLs9n1fVUpRwbx/ptJG6Dgds8f6T14N9/BvPROgddRxQYZDKDg+ReXHKHQ9k6KpHGUaToaI24DnGsOsWu4yfig57hk/7RlSasr/ZlNcZcCBxinV65lagLwZdRJJIFogepzN4Oxvtiz6s+ktDqV+wQSA2JIlVeTwdyfa9/14HOYzVfSmrhWNBENRGQwE2nUrKlAlWZe5oenmvkd6v1z/dCtRPNc1jRdKAO2UQ3vvoVKcIrjs/Khl8MlSu1wfNFIOOzAhkcXYHa/c9sa6HX/wBmd1/vFPO2wWiHm+xjQ5FUw+Pb336g6ZDOjLLEr8EAlQWW/VSRwe2eR/UP0L4ZvTy9uRHJ6NzyrKAF/G0+3bjGfFhJ0+AsWLJP8KsEk1NaQlIDvOpLLMqxG/DZmKjhStBGrygGjxycadT1OoQxTSMgXzumoioR+Za5Tv4pUvTEnk0OLOZ1tVNDAyOZI2EqPGCq+Ex3BiFZRQ7sTRHF2O4yXS/qORCVjZFQ7/3JQeCGrcA11t3HcAQQL9KwXjfaCb2upcMY/wC+9VpxJAkqtHbjdsNEm93ttLMWUduQaurxxreonT6DTaMNtntZGs8xDeZVDV68qKzPafqtkeHp4I5KJjlJlZUPBOyOmCkX7UCD7ZdDoPFVXCSF3QNKzb28WRllJYgAnarGMAD0Lcc8i0vJ5O+h508xyiv2lHPmJiIMMnmVQVRpAQ3CgVS8MRxfHa9l8RVIFldMaNO/9iDzaOSv5VsW/tYjal2igSNyk+EPMANQvvW0lgBt3qDffF7QzbwZ9pCmONmJUAEaZWUHfY4Wj9h5vkYKiE2PSN7RbPFKhZe4FX4pVViFDcLYcjseaAvCR09QoZiEBTxEt6LgcPtUGgw4O0n2+cF+ntDM0+nqVfLDOy2u/wAENIFX1+4gkiwBxQAHbfdK6DDCOF3N3LOdxsncSAeF83NKAMCXdGroQ9L6SJCFVvECk3LS7FFFl2oCGSYMe3NWfxj/AE/RIotzhQzkli5VN5JAsAqBV0OBjgDObMaBUuTxzqMYkj8XwiZHLO7nbuUi2WNGoFKU3V+nbvjH99CCBNMfDIVt0hO4tGjFqdjVWeApHl7843+qNIYi1/2Tv4kbUNqS0bR2+4BraiCK3n8Yq02tlj2xuoDIhUfxAo5spZvfQAog8A/Ob2ijFDdIpGvnY7XdhxySo9ubIXOHucvmlQkgEituwd1riwSVBHN+mQYj0HBzYo+i00Nq6B3wOZ6wqY4u1D5XjR08UbK3mOVMc4nIk40r4RFjkN2cxyu8ETKRn9L2y+Q8YLpW9MunPGHJcnyWGf8ApWWaM84xduMV6I84fK3lwJLk6OjnWJlQ7ZFkz5GeMmgzHwT5WmkwWSLB9pGNjHlBhwlMnniTVoHja8P6dqJYW3RsfkemUpp8MiWsGTT4HYIQyfLNjNfqnUlh6Vnpv0v1wSINxF55KAMJ0uoZDasR+MmyY14Pan09RXHR75oWQ88XlmpKA3xeeU9N1mqcbo95+R/3yvV9Z1gO1la/1xKuqOY9C93El+R6c3XY1baSBhGo65Eq3uGeNR9O1ssgkorfFsaFfjuceRdLAILStJ8Dgcf3eTX65u6S6ZHqXpMH+7Pn2XLNvJ16LYWLiv6k/AHcnMd1HVvO52oVHoTyT88cAf1wmHplsWPAA4HFKDyKA9T/AOdjjOHpYbg+g5NAHn357d/6YluTZBP1Rx/4/F/zMZqfpVZ+XZmNAij2s+lcVQbAp/8AZ5I4pNQ/uFcbhxffsT6f1z06PQqp+5ePz+nHr64XHQWx7cdv9MbDJNeSN6nM+ZSuzxPU/RHVIaKKHC9vDfa3ryAar7m7H1xT4zQbhqYmViSA0iyAqCh88Z7b9yjn15+c/QMUwJo8k/Pb/tkjokY+ej60TxxyOMZ+1WuVf9CnDmybql0eLajqhkgAYE71MEjg8lf2iIwhmvc1IZBfrzkH1JmleZUa7cg0wvxjthXem0pS+pJHlB989M619M6SS70aOznl1AQ/4tw827k+b/wYvqn0HqIPPpJC6Uu6GVrLUSSNwA3A+1L3Pe6z0M2N/Qu+Im+7NT9D6dA80iRCJB4cKqAqktED4jts4ss1d/4c2KSDPOvpOHW6eIRvp2a2Ztysp+8l23AkEckji/T5xmn1I43b9PMm0E2y0CB35/8AO+Jk/mdclKcWuzbq+c2Z7oPUWkjV3jcFwCS23i+eBfCj09cePqFAsnPKXuC1TKtSisCrKGB7gix/TM5qehKBUbsi3ezh0B+FYcfpmjadT2IwTUkZ6ynBJxfBlH6Vt7v2JPCqp5+R6YLNGi9h/XnGvU3rM7q5sdj5PodMpTXLBtU2LHbCJpsGY5bFUjtYo0itsgTk2ys55hSItlZOTbKrzCabM3CeRhGp7YGDhTta46S5s+M087xuJ2ibnGEx8uK9MecOMnGLmuS/SZF8JpkYjxlqPlRfbzV5fBqEEdD7ye57AfGDIyfNRvotis8AWcvg0rO20DnL2KxKFU27fc3/AGy55PBiP87/AOWIcn4Hxgq5KtP01mNA/wBManoYWlL23qAOB+uAftBhhVQad/Mx9R7YGeuyX5jfuexwanLodGOBdqh/J0WJeN5LevYAZ8l6GgA/e+Y+nFfrme/3nfO4g/OfGnbvuP8AXN2T9yxSg40naNxp9S8SKo22q0DZrj1Kg0c+yfV00XmddPJQ7bijX79jmD3StwCbyA0TNwbJ9sz4Ef3mc2fp2mdtY+X27o2z/wC1GHs2lZSB/A4YX8mhxkumf7TdKW/eaZ0/vLTg/wCKucymm6LEKMzbBQYJ/GwPah6X7n05x9pjo14UAbefsYn8ICO/uzfoBmShiXSZzJejQlK20v6ms0v1zo3X7ylk3uSW1Hpa16/nCk+qdLwDJITySQkg47+g4GZ7RTwn7OAvmZytBT+T9z/J/TJtqdwFKQGPC/xMP52+Pk5M0vr9/wAAo+i4L7/QeyfW2iXm5mPxHJ6fJGQi/wBoWgLbSZF9y6MB/WsRo4IY8UvBPofge+SGmRjTBRYvmsJOK+//AAJ+g6b/ALM1+l+qOnubSdOPmsOTrGmP2yR+/cXmJj6Vp+/hof7xA/yyX+64O+wD57YDq+BE/RYdRm/5G7GpVuzr+hGfGgH5zCr05R9pZfkE/wDXJGXUp9kpIH82bfuSZPQsn7k1+huCpGVySgDkcZmNP9RzL/aJY+OcPg+oYZODx+c1yVdHLzel6rDy0/4Fs2sI+0Zd41jzDPgVG5Ug5GZSOMXHHdkGXNOFJoqY1ZwQ6qz92WaiqonFrwoOxzyTi+Tp6PX45dvk+dRmIFnkf6ZnmYHnGetlsFbxMvFjKIOuUfXen6xVQDqzzg5kwmTvzgOoFfjK4Tvg7+PVJqiZfIFsHMmRMmGE86L2OVFsrMuV+LnieeZGfOXRtxnZ2Us+IwSe+voRiPOWzSds7OwWuSiM2sbotZrXBBIQBn3OzIoPUSfEvNB+n1FFSo8wqwexw9tYTMDLwP6j4zs7Eyit1FePJLY37A+u129if6fjA0s52dhJKK4NU3OSsJRR65KgObIzs7B7Kehz0pmUM7EBaqyLaz2Cgd2PoP8ATCp5RAotQZDRSI87fZ5j/E3qF7fGdnZN+KXIcsknw2LHmJJZmJJ7k8knvhfTog3nc7Y14J9W/up8nOzsKfRiY63CgSAoUeSP+GMfzSfzOcuSYty10fT+N/8AF7L8Z2dkj6sYijW9SCUBRYdh/Cv4+cVSaxmNkknOzsdGKSBsvg6o61THj0OOen9a3cMOff0GdnZk4KglJ9DJtYB62cHk1ZPxnZ2JiivHCNWVjUkZzFG+4C87Owmg5QR0bSIbRzXscbaX6gvyvwfnOzsFcnI13punzwblHn6BErK/Y4q1jlfznZ2FCTbaZ+beoaaOGdQM91HUnuDlWmk3C87Owoqkz6P0jNOUFb8FczYJNyM7OxsT6CGaSFsxrKTLnZ2VR5RUs0mippcgZc7Ow0hE8srP/9k=</t>
+  </si>
+  <si>
+    <t>Opulent Mehendi Gallery</t>
   </si>
   <si>
     <t>Scheme No. 54, Indore</t>
   </si>
   <si>
-    <t>https://i.pinimg.com/736x/27/0d/e3/270de30e45e8f6dc1272aef0e41ef984.jpg</t>
-  </si>
-  <si>
-    <t>Radiant Reverie Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExMVFRUXFxcYGBgYGBcZFhUXGBgYFxgXGBcYHyggGBolHhUXITEhJSkrLjAuFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICU4NS0tLS8wLS0tLy0tLy0tLS0vLS0tLS0tLS0tLS0tLS01LS0tLS0tLS0tLS0tLS0tLf/AABEIAL0BCgMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAFBgMEBwIBAAj/xABIEAACAgAEBAQCBgYHBQgDAAABAgMRAAQSIQUiMUEGE1FhMnEHFCNCgZFScqGjseMzYmSzwdHhF2OCk/AVJENTVJKitBZzsv/EABsBAAIDAQEBAAAAAAAAAAAAAAMEAQIFBgAH/8QANhEAAQMCBAIHBwQCAwAAAAAAAQACEQMhBAUSMUFREyIyYXGBsRRCkaHB0fAGFSNSM/E0Q+H/2gAMAwEAAhEDEQA/AKeZ8RZwE1mp/wDmP/nivB4mzokjJzc5UOtgyPRGoWDv6YqTnmOIpyKxlB7p3X0Z+EoObGgfALbjm5CNmb8zjiN5WJHmOPkx2vp/17Yow8XjtMuGqZ4RJ0OlVO2pm6LZsD5e2FrKcUc5qVp3lgKAHyxZilpqDhh8W1KVoEHcjDWm8krg5iwCewky9ZHI+ZwXybGtzeFjw9xhMwJc27BIVby41NhlCmjI4O6sxagCNgB64Zczmo4lDu1LagH1LEAftODU26UKo6Rss/8ApYzeZgkheGeWNHVlIR2UalIINA9aJ/LCKPEmd/8AV5j/AJr/AOeNI+mGC8oj/oTL/wDIMv8AiMZIuE8QS19iuuyWnSq4UFzQSJGwRQ+JM7/6vMf81/8APFHO+Ks8oJGczA2/81/88RsNsCuIrqpR1ZlX8zWBMe4ndO4zD0W0ydA+AWs/R7mc22WR5sxNIz83O7Ggeg3PpWHOPMP+m35nAfw/ltMSgDYAD8sWuGcay0srRLKvmoSGja1cV30tRI9xtgzHFx3XG1NIOyt5vNyAbOb+ZGPsnNI2+tvzOCj5JWHTAjiU4y8E8naOOR9/6qlv8MF6NwMzZC6RpEQsU8V+Oc2c3OYs1OkYkZUVZGCgJyWAD303+OK3C/E/EZ70ZzMHTV3Mw6/jhDlzJI62T1Pqe5w3/R7AdEjnu1D8B/rh3Ds1PvskcRU0MLgm3hcudeOcZnMvKmmPSrOzaW81ebm26bYNcHjA3qz7fI4HZA0k/wCqn94uCWRl2xk5sNFcBvIJ7LXGpRl3NWOKuCmlV0gdTXYDYX1wstEMHs7NsbN4X5ZQoJPQWcZ4LnJ8ABSxSJGC7kBV3+eELiuZ8yV5AKDMTWPuI51pXJJNXt7DEOXhMjqgq2IAvYb+pxq4XC9CS9xuUjWrdJ1QvIItbBR1JAH440HgfAlhAjYOplBBmAFovbc7C/T2xQkiEUsUGXWNmjpnegwLaem3sSTv1I9MHclnFMymaTUwUALdkPIaJCjZVCaf8z1xeo9ztvgr0qYbc7pkZVfKiNJi5XYMhoNp2p6NsLuwCL9sZp404eIBEC7SMzSMSxN1y+/QdBjTuCMJMujItIwDCwAze4bte94EeJ8ggikbyzISraQ29H3PpiGnSZKKW6mkBZhw5YjtJFy9Cys1re10dsWc/kPq0mmyUYWrevoRWIuGyBa97V1/SHYi++IM1mmPJqJS7Ufon29MEuXdyXsG960bwPx0yr5Mht16H1HY4ccjmWhbUPxHrjGOCyMpWZCdaNzL6oeuNRi4iHVSO4xm1x0VTU1Ms67YKesvx6NhvYOA/Hc+JWAXoMAHlNXeKMvFQponHn411RulVZh2sdqRhhj3zG9cBRxceuJv+0x64VlHSNmY9ziER3i7J1xyy7Yfjiu2TDks7IZZiw0K8WXhB2H2aRBwbI3JMsn8O4xDxbjcOSlmXzacstoUMkhJGpm1WArawG3PRh3FY94/xwR8JWkuUokUcnSpC5RgGG4YLGSfmLwK4FwCCHSXU5iSTW3m0JIxZWmOvlDG33Y97JFYZcQOsVwNRhFRzBwJ9U/eBPE+RzOuEyL5jNQSUaXkAsgjUAHNknbfc7DbDu2YVpfIaNiNAfUVuPqaW/0uW/yxkXEvCkWYDquWXLuleUysB5hNFTSqQRykAWCASQdrwf8AB3G+IZZRFmo2zMVLplS2mj1AaVlveQbjmWyBV32NSqNdYJWowi5Rf6UVR8lKNXPF5baQT95gBqHQ4xxMbL44zSzcKmlUobVLKHUNpF2v29DjGo8K4vtrrP04f4HeP0C6fpinlF1ZmAf7wH8t8XJOmK3Cx/3zL/rn+BwBi0sx/wARWmcb8UPkTAoiSVXDWvmBZbAJBUEaa2rc2SQBha4jks7xB0zH1eQ6SrIaEMKRgamUtJomL6ttY2oWKw2Qp9uzRx09KrSJFqc8vRpNDbA6eUEd+t7e8UmzEcRLOUjC0wZYhGRvYJbTQrasHa8NAsuIqNJlEvozzk2Zgkd9HlBwsekymyvx20jMSN16HqDi19JPLwvOm9zDIB+Iqvfvhbg+kbJrEuXy8WYm0IocwRAItVfxVsxvcCjZxNx/jcOe4dm4YxIkwhZvKlTQ/SrA6MOYC1ujV4c18ErpX5sUEkDudsat4ey/l5dF9v44z/gmQJnAYbJufS+g/bjTVpVA/DGjhmWJWZjXzDQr2WP2U36qf3i4tcP2GKmU/op/1U/vFxb4f03xhZwP5/ILWym1DzKkziWMKPiNysRrua/DDlmem2E7xWKjPzwjhh1wn6vZKS2wweHslUbTsgZVIJsWNI67e52/PAPKxa3C9idz6Abk/leGPPKY444KYNJzFVrcUBEtVfUk3fQ1vjZqn3UjRHvIp4YyhD3RYyEihsijYtbC6UCze16e91jrgaM5kmIHMzN06jovWttPT5/OrJlMWUclGRlVUTc0Xl5dgSRajUfyvEcqtHlNApdelNiLpqBO/fTVA11X1oL77prbZOPCM6MllsrFKxp2CBeWl1KWHuBytX44YM3llb4d1Iu+or2OFLwd/SryKQEY78xNaBzOSTYDPQJNayPYOsKjTpGygmh6Am6xLbhSbbLIPE/h0xZklBSsC49mB3/DCvxbL0xobHmX2B6j88b7xDLI2nVpJB6GtwdiN8Z/4w8NBR9Ygql+JOoK96x4OLTdQ5gc2yzzLZhkIZSR64dOB8cR6BNHp/0cLEUKMRXKG7WK/A/4HHb8LkjflO3rimIp06oh1iqU9bNrhaPmJDXthJ8UZohhpbFfPcUnQaPM7dsAnmLGybwrgsC5jtbiCFNesOyESyuelLAA3hsjy0tDbsMB/B3CDMS/YGsalHww0PkMexTxr0tGytRaS2Ss4I3OPJBeOi29fjjrpvgnBd5xXPnofq8Eg1ATvIFIsMTGEC168zH5gYYcq7iJQiLCVcEht6RSYjQsAAhnbYnq2E2XNFJUkADEWAD036fLcDf+OJ81n2cOs0/ITbRqSEragWJ5h7Ene9hi5GtoXJ5jT6LEu77/AJ5p9MyJIPMzHliRSAjFVi2PUMBanmY1sdul4scLzWVEdHMNysxsynWp1lgVo84IAsj5b9krgzkvogj3NkDmo2rOvO5RQSqsR1ujhlSTMRulwGnKASAx6FaQEqHYva9K6dx7Ymk2CAs2qRCu+LMhE8OYlil1MYxqCMNLonwswStR6fFZG2M1jw7Z/PmTLmVoqUM8evSDupeOQ6kdtgUazVfDvzYSIumJxfaC3/027+N7e9dSdMQ8JnVM1G7mlUMTsSewFAbk2cTOdsCMzKVkFGiRQ2v7wPQg+noflgNISYWnmhiiStU//Lp3CrlYVQG/tJyeUCqbyk3IN92HvgFnPDs08kcmczLT23wnliIAJqOMDY7deu3e7wB4fArAB9JPbzZEJ7GgrliPlpX5YJZdQXJVFBFf0TxcvbbdWBr0vBHahsfz4rjoaeCblyyRq6rCI41UIpUDWUbc7Cm1AsL2J+ROKvGW3QnffZz8ZPMrBq7EKP8ALA/LzuhBilZWHMUkDNZB35X5wKqypI770MR5nMidiQCrA/aCw24ACm+4073Q6j0oCg6pTmCaH1mjv9Lpb4tlFgmDAcsjD87sjBsEEY5z+UEqaNiQdS+oI/6IwNGtDubGOmy93S0r7hYue4AYfE9XZ1wmLJj7Kb9VP7xcW8odsD+EuTHOD+in94uLcAxh5w2MRHcEXLBFDzKvSNthG8bSUqj1OHOsJHjkbp+OEsKP5QnK/YKBcHg1uARYJrars3QF9brp88F867PnAACwQogGpt1G9eoFE+te+POAZQKmpqptyKY2vatPQ9d/62JOEOGkmmZkQ6+UEkttZ0rRsVQG49vXGm43JSzW2AR7xXOsgysS0AdcrAXQa9NetDmH4Ypcfl0mJavcsbojoVBb1Iskn1Htiqs95mNo1fTGqodVWH1Mxutjub26gdMXJsuZ83X3fLU7/oWx1Efe2BND1PpipV5lNHAMyGLSxLziKjuatmDDb5DrZ+E+uAfEeJ8RJNzLGg6kUoX8Thx4NlY0dwpJfywrdKUXfKe9m9/RVwt+K/DpaRrV2jZQE9EPc7dT88VaYKMACIQ7huYywIOameYk9Q4IHzo2MNmVyKKCYpWeJxujnVV9wcKWU+j8OoFsp2tj1+QAw/8AB+ArloggZmofeN48+DxUi24jzWHcQBilkj2pXNbbddsfRZo30r86wd8e8LK5hnUbNV/PCukpXY4K2HNlKPljoRHiZGxsdMD1GLmdOpFOK0JxNOzVSpdy0z6OU+y/4jjTkj2HyxjHgziRjYqOl3jWoeJLpG46D+GMeoIqulOtuwQsliXmJ/DHOabtiVT1xFKLwc7Lu27odnItSn1xFwXiiZSKQzZZ5Ekica6DAssjgBlJHloVKDuDpsdcXWXFjgxB8yBioEilBY1HRLs5UV1XST6b4vSfpsVjZ5hdbBVG4t8Ud4NDKsenMyiV2CtE/wAVR6QkYBUC2XU/Tqb9cMHDmmgZbBGoDl7UdjtvZo9a/GsLXhHMBY0iZQv1eR0SZgdMiKoNaCQaKkG/6u21UbPiOOUGUyodblQE1B2VTX2asOcnTdA72avFHBweSudtoAXUkS5TL5iGLS0D2QlOfIV151+81aizAnrqIAoXjO8swIFdO2NUyXC1i1nU6GU88rkXIwry4pNIAQDmrSBuB73l2YGmSRaqncV6cxxesSVrfp4xUe1fOuAWfhLyKimiQ291sBZF9tu+DhbbAbN0JEJJA5iSvXYHb3F1titHtLXzYThymLgWbgEuXkTLxpoX/u7hrV53ADQyEGhKQ6kb7HfscHp+CZXLPIRCs0rmR3dg6VrIao4geUqdgR698SZXLCbLqPJDtLqPl6gH1BCwYEG1KkAhuo/MYM8JzevR5hV3iozhQeRtrsHcdDt7jFn1CRZceGQb3Sdx+dViGYjsaW0Nl21Orszrp0MxGnSH2220epNR5LMEFiwIYsQRdnlNC279Ovf3wY8WldM7qAyElQgtWKGnmks7ry6gDW5O3uGy8VdTfuep9SffFS46Vs5NRDqzncAPmURizgLCx+OOOLxDZx36j39ceQJipxmY2Ap6dcaGWVHiuADvujfqCjSOEc5wuNvGUQ4E32c/6qf3i4KZfAPw9IdE918Ef94uDGXkwHOf+T5Bc1l/+LzVpxjPfFGd8yURkcqEavWr3/ZjQwcInjSArJqX7wIP4YSwsdJdM1p0o4eKLHCwgRJSASG8uljXSKF9GHxEGxekgWRj3wnm4FgAcoGRyZEKAtKXOpdIJAutVD2FehXOH8WByxy7qzDYpooFmutLV7kG+tj5YI+HYXjjOYXeSJyHQ9AoANH0Ude9EWOhBbI02KgO1GQjs+S80yZkgQIOWkBLUTvrXoRve67Xuo3OBfCQYnkYVTEAEg3SnYroUaCDdbad+5OCEGcaQyJASFlt5XcnSge9qDAqeou72Hzx3CBlJJIGA0uuoOBGzSUSd1arfTqF32B9cQDwXiBujPhzNp5xAK80dnSVYWpUbleh5jsd6GGaTOp9ojWCihm26A6v28pwg8azUqLZREE4CRFeWrZdDCgNKtdkHcaR2vFvhPGlrNfWpAC8ZhBJJ83Q7panuSD062LrmGLAGYCqTAlOPCmK5ZHYamC79LLV0PuSK+ZxKJ/MjV6ALC6H/XvjPMtmJmhRGmYKND+UxXSFBGgudIagwANt88X+C8SzWaWA6AqRtYoVq5StEsx2okAD2PtiLQrjdD+Mys+bMaqGVQGe+wGM740wM8hAoajQw8cY4kY89OiffAUn02/1wi8TiKSMrdQcXoWKHiTLfNGuDcIOZiZVZQykdb6E127Db88DOI8Oky76JFo0CO4YHuD3xa4BnTEwZev8fbDN47dJYYGGzEkj10kC/wBoGDsFyEu8S0FLPBJiJMPCZxqG5wk8MyD6rB6YZ1JrrjPxbJdKYoE6VXbHGrHrvjguMCK+gtC5kF4pyZtoGEi/EtgfiKF+11i4Tinn4QyEeoOPNIm6HiKfSUnM5hEJMyuZhCqwm8uQ6b+CZdHKzkUAA2kMu1lWoVgtNxSbVlUi0LDF5ZYSBdbutggGNaRKIobb10wB8OQmVbILuF6AhY1s1ps9TQI7dD164Z+HcOfnqJVAuyyg9y22s72WYjcAkmjgzngGAuG6O3WUEvEZTHP5Uy6ppVk1U7qEXQvl6LoqSlFttm/HC3IQzudOnfpd1+YG2DmX4vHN9modC1hdZUEMC1o0cYPkk6XK25J09OmBGd/pDvfa6617jr6X7YrVcey4XWlkkDEW2IIVeRcA+JFdaagSN+gs32/hg+/TAqZEMg1kgAE7C9x7d++2K0TDluZqJw5hMXCOMsJIay70LDEmAMikdU1Nu9117XQwRSeIPH50buPq8qSE0rUhBS2BCsxGrYHrVY74Lw/LOpAiJBQgyNVq2nUCoTYnodNk+2LWW8KNIomyzo0RVNJSRtTOXZdKknSFA03a3ZI7YuHNJsFyDmxuUKEgnTzZiGaNJIVddlcNIioT3J06etbk7YjUBe+IeK5eaNqlRoyXZd/v6GYWGHxqfLatQBrcY4dbFj8cDqWK6TImfxOPf9FblzekbYC5lzq364IRre+BmfNSfljSycziD4fZA/UwjBiP7D0KK8Mk0w5hv6sf96mLeSzt4o8OTVBmAP0Yv71MfZTLEY9m4aaxnkFy2CJ0JngnFYD8ayvnK3yIX5+uLWWUnbtj7OyBQcYklpkLRIBF0hcPRQ7LIdLUQG/QZQav2PTBngTtKJmLBE5DKynnetgP1Tv6d+t1gbx7JOriUjlfcfh2/wAfzxb4fxF1d3jC6mi5wATGCD1PpsO21nvvjVPWbqHFKs6rtJTXk5EgAjZi0Mo1RhbDXYNXt1J6VZv54uZHhLyJ5jD4VUxQ3ZVRpYNpeuZSGrV+J7Abw7II6lWlMk0iKweiUIIJFqNiOQnf1oHtgnwziBcxhI2bMquiywGgA6WbQWJ1ASAkkEHbfoMUajOVyRTmsxlJCVddbM8dEhCiBW+LcgkqRsNqNb4F5oeW88QAQh2AokLbEyaqAG+l+xNevpBxXKy5XMxskgSTy9V6lYNrYl0A01pBW72HToOlPLzuyzyFmLJIxNlqILMdiVAsW3Tp6C7wQ3QwYVrgMqljra2EjHTq1crcyiOPrutmxQAuw2CHBXU+ei62jD+YgVyvI1PqLg3p1Am/TfAOcLrDCQKGjj1AhvKag8ba3QnlJhUWb2sdziVJT5pFksVYMFGpmdCCE5SOamI22AZRveKkcVYHgqHGuETCdpoV1K2g6VFVaitvQij+OA3ibh0kTgygAuNWxxqHCZGjlYUSvMQHYkUV1ErY7ALt03v1tV+kPKZYrHIkkvmt1V6K115a6VfT5YmmTqVajRpKSMq9NXY4PcOg8xxr37AHsPYYXQO3cYa+IcLeGGKW/Sz6WLGCPMOBQW3aU05bhcaqWoDEByq4Aw+IuSi9nEZ8Qj9LCtTW47IzXNA3Xs53OONOOswu5xwuAL6ENlMq4jcYljO2OXxVWCIeC45l+sNAyq0eljqdUXQSSbdo3AAonpvXXFzwrxqCXMz5fMSlfrE7yxhDKjoCgIcyIoCK8YU7NY3BqzgNwvPGJ5RqIDx0QK5gLsG1NAg1fvgVklSB/OYl3ZQCVV2AUAWFFnalFktVCgALw3TMtXDZlS0Ypw4Sjv0n8JEU7nLynYJOoEqsC8aEO8ivJq8xQinzKYt5lHffFfianzCTsdwR6Edf23g1BmpSqgI5Uqsiq7IusburKjXZuNqBI3GAPFUeOQK6sOhssrGnXzAT8wR0vc/n6sHOaLbKcqc2ni233sonG2KEIHnpcfm7NyetAnF5mwLzYBeNWbQGbSWq6BIB279cL0ruhdTmcezuK0Lg/A3ijV2y31l48yzqVdIzAoAjDfEGalUHRR1X1G2OcrnnbJzIzeaGlgfzHhYaVWQNcixnsiIOU3sTeA/h7L/aLCZcxrO7OsKratr8sqCptdMVk0QPwNWcmZoSFGbYa2FE5d415i4Q0layQm9dDVnDekgriJBC44xxFp0djIrH6zTqkhkhUiBSnks26g6nJFfEWHbcZFJRwQz3EJXQLMsRbUrtJGVILNGdjVbkD0+78roNHhOr2l2GSR7IPEqbbtgRxU86/L/HBHScD+MbaD8x/DDmVGMSPP0Qv1CycC7uj1RbwytpmB/Uj/vVwWiiGBXg82MwP92n96mDsSDrePZy6MT5BcpgGE0pHNdxIBgRnmsknoMFmnUXijl5ctPqWyGGMxgkp4sIQaALOssbn7vL6KR0P4HAbw9mArFdLPashjVd21bglu1f4YucSTyS1NY9R/DEXhuSndEXUWEZ2cLRWiw1N+P5Y0GCGHklHdsTujPCMvMQ2WldkWMF9A3Z1BDVt8Q/GueiD0wwwyR5PyZoyVjKnWhJVjpS7KVQ5U7AUQABzYEhXeeGUyIvmHyNSa75WHR2okkG7HqeuGWDhWWjLRMG8wpXnsdyxXRyk9GpqpffFxzU9yXmnSTMyJoZVCoq6mBsqNYYVdNzg7VWq9ztgTkcvLIZRHGrlXkNMSqAbMSSDqsajtd83Yg4lgZi0z6r0SPsT8RKoNVHuNuvw9QCQMR5bWhkZZhGpYCQEaW2jo6R0A07Ve23piQqmFazeWfLzKjlLCSN9mxjKEFgNJYlS2osRrpe+2LWay5hngF6WL0uygAMjKp8sGwLYbHuXN0wo1PNlHy2tQryE8hIDKehA2BY7Cz36k7i8CuJqzopCAP5isG5hZjYMw3QagFViaOwxY2UNvdGcpKYpEaUGy5U0VCANSl7NWNO526s2An0pRRnL5Z46K6qBHQ7N3/DBGOBnUB9D6iADrI1F+1Fd76Vt1oVeA/jeDRk8nlx8QtiPSrBH5tj1MiV6qDCQ4Vth8xjaGyCtlQrbgoQfkBQ/HGRZLLtrVSD1FY2Thz64lB7ACsCxFUNK9SZZZPxbgjx3QJGA3kt6HG08Q4cCOmBJ4Kv6IwBmNLRDgpdhwTIS1JuTiHHUjcxx4+Kr6EFNGNscOMfRnHMz0LxRWVLNqmpPMUOvMCp1dCrbgLuSK2Hr6dcX8tMZ5Y2kLnlQNGo3AQMNEf1cNS83c3+wYdeFeDsrFlPO4lavIQUABLxd1CKASZCLJ2NDbsST/0a5XKaXlgdjLQWRWBXSpJZCEIBAYUwO/Wr2xoUmkNAXB5rXZWxLns228YWbwJGJViaEGTWAE0lSyK4kSJzKwvSQACQDRojfFTiUq9VjoGQx/0OnSUN6A/mtZVWC3W6gemzDmWjjzf1eXTobMNqRkV45K5o0fUBQ5GAZR1YdRuZ/FPCI4IGky/IqkS6TI3lN5WpyHG+p9BKqx35U+eIdVb2TxStMOpVG1Bwg/VKDLgLxHzBKnlfHfL06m99/a/ywRExIBH+vyNd8Q+HXEmbJdS6hWAUUCT23PTod/f0vC1EEOnkuvzWuw4aB72yY+A8MnL+XNO0UtIiuZH3XS6oNfUCmbpZrr02v5XK5xMwYY3dpoiEIch/KUKfLOthRRlkIU9TRBArFfhnHZSzypkBMoFj7RVKBRpp7UhhsTqU1vp6jFTN5WZ9eclmkiMxOlo4WWQxPpUJIQxCKABSk+tnfYpqwTqXJ9Dq7KI5/hOclRLCSNoRVUlBIqg6viBCk01E2fffAgRuh0upX2Io4Ow8XlyhEEiJK8cSmEqzq2YHwgCMqSpH3hY9bFYB5+c6rbLvl5Dp1h7JkdjQZABbWSCSe5J3snA6gD7jdauVYx2Gf0T+wfkV0WrArjC8gP8AW/iDi8HxW4ufsj8x/HHsEdOIYe9b2bMDsFVHd6XRz6L4BI+YU9DCP7xMH+M5AxqSotQawE+iOQiefb/wQP3iYd+KsWifsLP44fzSm19Q84XFZe4inHekE5jmB9RWBfCVBkc+t4uzporudWAKZ7yZJCNydh8/XGZSYS0hqdqP0kFyl4hw9nfTGrMo67Xbb0P2H/oYqjLMCLiqtweZdiDRoHft/wC04IZGCQD7OfUd9VEVbCvWyfesHOHZyZLZ6Yk/Ik1o5BsbA2FHvderIeWiN0rpDjOys8MlQqNam+q7g7M2gXqrSaNk30BAGIuJ5qKGGSXTE+olI2o/G3UgEAgCibrfatqwf+sQFQrwmNhpoVR2UBQB16kkmiemM28W5wNMY0rRGSLH3mPVj8gAv4Ys1skAKHu0glWeDRnyytOwJRtl1AtbfFVGuWzR7bjBjN8APmIiqLERkKGmZidLDSjMNLfd5jttfXA/wewlSSCrkbmjJCnSyBmHxAgE/DdGtRwR4ZxdwI444wJEtRJpLMsTsNgpbUxBPM52B7UTiSTJUCCAreV4n5OivtH0jUFAXLg7hJNYGnXQogEWWPyBbh7yxmLN5hS6O520G0LKqrIsZ/odgb1Ne5HfAbiGRnjCZl9gWXlanaMkKCDZCKXrTyitRB9TgtmuLmaAguhEqiMRajqRvhOrSdmEm2odwo72IkSrQYRTO5jVHIJZkUSHVl2RwxXTpKulAWnLrY2TTN0AxlviV5mmDONJArSOiFSVYDt8QJ29e/XDnwvhojkkEwKSaAyFqKIunuBvQGoBByBkO5JGF7xRnPs4WJHmM+YZ17gM66L9bUDf1vvePNPWhVeJbK58LTx69UnxDpjS8rMpW164xyWXlDIte/e8N/gzjLyHy3+IdPf3wriaLp1hFpPB6qeZJNtxiDUPTFiLpRF48pMJuY5EhZfmG3PLf44iEh/Rx3L8Rx5eGl3IXkkxrph5+jLw2szfWpqIjao0681Bg7D2BBA979MIW5YAbm9hV2RuBXfDd4R8TCBszHGVZmTXGrGg0igqbIHcaTfXDFBrZ1OWBnWMe0dBT3O/h/6r30iZmf64QpV00IERtghbXqIPQD7ME6vQb4G+EYM1ls8jTHy9Q0MLDaw4JTcbVqA33/DAKTxDmGkkOcie5A4OgFWAdGQCMgMu1ivl1JJOOOHw5vNBVjjmCoAodtSjZmZSXbdQLHKo7CqvEPFy75rEY3q6Tsu+O5xjn3YVa5hmA1+WHpXBXUAOti+uwPXFTjniNJ8vJC5VQXEY0NK6xMrMwfVQjdXKgVtQFi6oR5zKr5yiapD57KRpNSO6yAHT13Ydr3rfDHxfOJ9UdU0h9Ykj6RlZUFITtuRQ5ACTVdLxGtoe2096l9NxY6DtwQHi+TbLHm080ayUvRX0ASptsSHDbjqCD3x5wBMwuTmlSLkdXQTKOdCWCsQCaCgBrccw3od8Q+JfECz6ECsumNpKYKCPNCsFIUnsFYez0emDPBwf+z2hJl8to99BoD77aRdMSdW3fFmktkuFyj1qnS0KbGmwlMOdky+TSMQc0yx0RqPlxLsTqUbX0oYAt4uzDQSSwmJQhKqNPYLeoLfSwVGKvieczcNjnHKKRH/SaTYaSOtAA/twT4F5D8NV0hBlpIWLLpDPfauvxE30u8LFkN1OE3hQxwkMH5P2QrhHjx4/tMwscz+VqDJytHzf0b3sCdjY9cSTcazHlwzTyMWcAoyn4GLhiACAqWgI3vtuKOFvLZapTIsVxwTc66wCWUjq3QgH02r8cXuNZxDK0iA6RXloD9jsaZiKBKkb9LPywbS0O6o/OShlMvaeMfkozmdDyOwNWxNH1O5G2wokj8MQS5a1IJ2OOeFMJ00opLIpLnlG5INmz+saFncY8WKz12wEyx0ixXSYGq3EYfo3XgQfBF/olkAnzFnpCN/T7RMNXH+IKUZEIuz/AJ4TPouQLPm73Xyunt5q/wCGPZ8wJXko7KxrGnmVQ6rcQFx+BYAD3FU5ZiwH6x/ZhdQ+ZKW2q/f8+UE4I5jNUlHYsSB7DufyxLkuDELqTmG9lLZh6bDmNWD8PUYWpAMBVq5LyAOG6t5ePUpF0ygkMeYrXWibNaberI+xsbHB7KPoCsnKGq7bqwG4JJCtRtSCb2vcNYFwJ5IV6On9JfuEUBuAapVXt2cEU2xaGVVFou5H/h69I6cvIeUC+hc1vQHTHmtvJUEwvc7xRFUsyUFFkKAUr7vLdIpNfDXX71bZ4p1PqbcsST7kmycGvFmepFjFc5LGjewPyG5IHYHbe+uF/JGzg4FiUEu60Ixk4rzEaK2gOtN1Gr4uXYi72w05vh3lqcxA5keJvtixQuSLXzNiBpYXszUNANWDhMzrLUbXVFgT6GgR03HQ4cOG5yfNDySVgC88rBdOqqtiP0tiQu4pTq6jA+CITcwvMvxEsrLlI2kaUUdbFkUdWSME1pBL21jtV0BifhsDZSRZpNLqdiVOtVYWGC1vrSiNwSQK62ccKwybedGxMbcjqWXU+k0TubNkghgSAZSKFYmKLIhdHdcqrLaqWMkrDcLcm4IFE7DqepOI2U7rzMyySDUk1rE0jpI40mWReZ1j1bCMASdT12utgkcUzseYllkblZmJUD4Rv0v/ABxa45xQqrwIxMQkbQwFakY2ebut710tifTC4NzgtNh3QalTgiXCM8ImOoWOw6jFx848UnmpsTv7UcV8vw1SBbgs2ygHv74gzUbr9m17HoceOlxXgXNatk4JmmkjRjXMoODQiHphY8HZ1ZcumlSunl/LbDRqwsGpslZBP1OOCRjuXqcTwRaV81qCiyL070LumO42IHWzt64EGkmAu1r12UKet/8AvuX2byojiVz8ZY0LXYKupqqztrQm6rSeuFN5WMyvHtRs79Oor+K4PcZ4svMkUkjh7jCqxC+WoAiYhAi9NXJ74CfV9C1+Z9ThmzRC5WlTfiarqr/E/QLUeBcQEWWaeZGKqCQApI27WL/bjrwJ4mbMyHLGIKPtHUq2rl1lih26jWAD7du83hLIpmcqBKQsTrzDbexv12G/fBr6P+E5NFkly51uHliL6yx0CRtOntRGmyOun2wFlKQUviKoBM7rO/F2T05qeiAVmujsbeNioRguzm9KnmosPkKU3AWXLDMRy+W0a2h0GNZtJLF5WclTKVJ6hbrvhi8cZSX63mUy665HaBgOUktcek0fQrtZ/Z1r5Xxgq5SWB4nVlQG1IuMuopwO6+Y2nRR2Ydrq41CANkJ0ETxhAvEnCaykMrtqlLmIsAu9rIxDFe9g7n9EjbFLhvFWbJPFLKyHSShIaMOoouAxOmQ3qXSunVp3O+K5yUqwxsY2ih8whULklXKc3zB0M2/TWa95/DgR4ZIn1Mpc8v2tD3pGAOPAgNN5/wBo5pksa7aZ9Amb/sl/qWVNoiSTAuJBoQIFecEiyQeUct+14rcXXNAyZNZFjSKJXncMAosWiGi3luSAncWAdgcHvDmamaMxPC00SSENIGUFFC2HCdQwAFd7rvgPx15pXhlJTTKrQk+YGLWXmcam3tgGjq6AYAVijS2esFQteLA2UfEuA/VYGEZfSRl9YIvlmkZC6gc1Wtep8wegoPmodRb5kj8/4YeeJ5bLM5SJ5CAIy0rzNJokV9QVXmLc1heXptvXUJSnc7g79R0PuPY4G42t8ea28nbqc8O5C3xQfKynKsdWpVN0V73Z336g167DB1uJJIToskLu1k6iANzsKJ9Kxy0SsKYAg9iLGOViCggAAUegrtjznh2+6dp5eaNQvY63Lj4Kp9HPECBm2YFvsUGxrcyrglESgkY/o3+w4VPB8xSLNsOywf8A2I7wY43xGyI1o3Wv89l2w5imF9QeHouOw1QMpknefVCxKWYEgkbAD/DB7hJJcajW19RQ+Ii/c13qgD064ox8OIfSWVSG21XZAPXSttVUbod+2Ca5UkeYXR13BKb6Tts6uAwF1W3U11IxLiDsqMkGSmXgWfkYkEiWgLYkAqtbgOpBdfe66iiQQO81IjG1pH60wG/z6Bhv90KRe2o4HKPJTUinUVI3KkmM6TRugbI1bD9oFzZPLCQ6XBby0MzggMFoAmzdli1L3/IDFe5F3QDxJk3fWWUoFJ0FurqNr3NgHcgehGAPDorBOHXxM31uJ3CswVQyshJB33seowp8Ey2vuRvjzXEMMrz6RFUBSytojLbag6EV/V/0vBrIcR+saCvmNmUYaWjU0VJtVcmtC6rW7IrrfYHxvSCEHrvhi8CceWF/JlAAO2sUNIokavb398eA6upedZ2lXuHETPK2YjL5xQVSJwKYAiiQSoIBDHTYFXQNXihmQ+t/qvmPF5anMRo2oKuqmiikPxAEN29asXVvxXmFMcUZ05hgf6WMsHiVVFkub1uffbYYg4VmmEbRWZFEySI68rPpFASnp+jtqHTr2x4mBKiJMKDxAsM2WR1YAEsU9QpJ0oANhQoV2rCOq71jS+H8BGaheBidYOsE9bq9IvsARueu/TAHO+AsyoLKFYD0O+JwzoBuhVaLyZS7MVAFNbD07f64IR5kzodSFnAAVh1+Vd8Bp4irFW2INEehw68C4zl8pEjIuqQrzE/pYJUsBxUUruINgnnwnlWiysasKOnf1vBjXhH4D42M0wjkWg2y10v3w6a8AvxTQIIss1yGZhikZ5omlr4EBAUt/XvqPbAriXF81OztpIaT4jsAgB5VTl5VAGnbtWLEx5jjg4C2qWiF1uIy5mIeHucfz0VLLZXRuxtqP6qgm9K+2+IZdzi864qyLiuokyUQ0W02BjRAT/8AR/l0zGSlilXUiObBNVVODY/W/Zg74XlgyaJD5JieW2VjzBhdhFffZVrb2J9cK30bZNMxDmoHZlsqwZTpZSQQGB9QV77YLDw4sORvLhpJdcsQFhR1kiJRegO1ge533weOrIMLlsTAruaQlrxjxqR5FmiLAzFYA4JAjlSW7W66qFa++2KPjPwayZL64JneUPEZCTVqygEqAP09JA7Ae1Yn4jw3NplJTpKrG8TlnTSUdDSgDVe4k32qsReJPE1ZRssRI4kjARyEFOgGtaLWVU9G99rIvHm6gW6fNLVLtM8Fxxjj0mYy8UbQeWEcFiOgcGePQQdwdKr17q3qMC/C7KryhxqUMbUC2OogCu52vYdNz2o/ZqSR/LLRSAOsbiSTZntHY0VGlgxJf1BDdzinGwizAYgUw76qv/hIOILQCWwn6YJwwfyPqEf4bNEJJy4DtrraKMiwqigxboP21glwriivoRY0H1eYyoWhYklkNhgrAVqINA/dXADIqhadtIMY0mlHLqbblIPxUDtffUehxJkctIZZLcgltyLVRyi15WGlulDuAx7UY2khA0hwjmrnBc2gMytGocSEWIh3JJ+JtgLFC+/tiCR9TE9LJ9PX2JGIOCGnlFryljpYqLAAJbU3sX3PSt9yMWPLAJAFAEgD0onb/Tt0364FV3WxkwPSHw+q7THkzUrH0BP7MfKccZw8jj+q38DgQ3W/UMMPglfwufsM7/8Arh/+xHi/kssQdQomjTE7Kf0vSx77Yr+EoG+rZx62KQqPc+enT5YL8MVgwqwx2urG4F2NrFMp6+vrjWqmF8zpCVDBAI9RYsHrYkdWq9z6dhfY3gz4cjvMxompi7ESfomKn1WF2IorRO1sK3IxajWN1CyIEBFUQTGbCmwauM84HL+TYucMyawRyLCGBbd6A88LVFVr4k76k6EdjtgAdO6Z0Rso3yLxOVaZUAJI1ancDUo3VdqYaTuQTbe+G7whlP8Au0szsCZg2lwDRjAJBogVuzbV2GESdxO6JCw1vIFGzAgNvqNn1JP/AAmsarwaBfqioPhCuo+QtR/DFmXurxaUO8LZOEZVfKKuHHNp2Fn4gB2wkcf4GMkSwB0Emj6e2HDwTmKXylBtSbO2n2xc8a8KM+WZQOb4h74rGtkq4JbUM8VhrDWxPrjgyaWBJ3HoSOnaxgqMmUVtS+o/HAOVWBBI27X6YIxwcl6rS0XTzlfKZFKx6mZdQLln70aViS1CyR7e+LEWRZ3WTzgUVjSnbV6lVuhuNh/HAnw95ThdTSgqeiKxA1MAQNxRr2wx5qdYxoEbFgljz5VVugq1S97YjbuQReFnAphpEKxEHRWSMMrrSoQAPXU+3Ub/AJDCJwDj88Ep+0JOoghmtSbo+2H99TqYyqqmkpyDQki6jW5GpyVIBHcrY64Q/GnCfKl8wKVV+1AUw9h0BG9fPE0IBLearWLoDhwQ3xArmZ3caS5v2/A4q9BXoLxbTiTGPyiQfS1BI+R7YrzTM72evpsOmGxMQUo6JkcV3lYCzqA2k2Ob0s1jX8vwtwqgyuSAATfUgbnGbcByRfzH33pVodWYgD8t8bAkZAA9sL1HSY5Jmi2GzzWTT/Ecc4kn+I4gZsKFfQBYL5sV5h3xITiOXocSEJ5kIh4bzUiGdYiRI0LaKq9S9Ou177Yn8NZjMQyeZcxVW51YsQzfcB1kc+xH8e1A8vmmiIddiL9D126HY9cX+HcflVrk3U5iJyaACgFV9T1A6e3XtgomLLnMa1oqyRwV/iPiDNZiHNB2Vkkikd0Cil0ICD61yqu563ibxDw7KHJO6xr5yxUo+6GYBToBOxJOqgOtnqbwV454ggC52OOAjzICuoKqgHS2osDR3JXtvVi8Z7MNcikTa1NMoKkOy2BqYVSnVdeoUnvvIDnAEGIukAGl+gjeAEwzcXE2Xy8QN+UqjpQUBSFUd+5+XTFDMxWPQjvt3FHr7EjE6Lj10sYWm8hdhRwjadHot0L4PmX+sO2uNW6WeWulUAwH3R87N3eLPDZ1QyxnSY7fWDdHZSKojUpYIWrer0nc44yeUhTMCScMYyDq03d0QOm/cH5rijwSFpGlaNGrmPUfCi6iCSfirf8AHDdnAkLlcRSfRq6XDiVNk88hnzDayluxVhu1E9NVizW199R9cGMu+pQw77/ngdwWIRMzNEJA4sXppSVIF32AZrr1GCcIpQPQAYBWIJstnKKFVhcXiAutOIcx0YexxMXxXnPK36pwEbrZq9g+BXGVoZTM1QAWHbtXnJY9trxTil0sLVL33K7fj02uT/4jF7g0gOTzF0eWIG7q/OQdR0Pv277Yhhy4jIfqqCqYHqTqCyBeoO9EWDtjVeQvmlEGEx8AVI3EmY0qpFxrTHl6K0rEUiAEDc8xA/GumbdX8tyXHWm5ZY2BPdCFU2VC1RAI3GPc1xZ2NcomYEqpIqNNJB82rDX1UHpYOIZZQlsNXdiW21E1v868tvmMLXThI4Jj8LZTzJ/rDcxTa6AJd/6ykBqUVut8w5jhz4L/AEC79BL/AP2wwJ4FkvJysSsKdnDPX6RANfgKH/DgrwSdViBPYyn128x7ww1sCFb/AKz4j6rrw7kDl0ZGK2aOx6+n8cX84Nvn2xmGc8Qn63raNtN0q8wsE7MVPQ1jQstMzquoUa3rtj1OwhSafvE+KU/Gnh0tG00QUFQSw/S9gPXCBxDhEyopaPRqskG+XTtfTYH+ONB8R/WGz0KxeY0ajUQuk779j1FdsImfzkhlKzIwGt/LVgV2kJarJ3XUCPxOKFt5araWuHWKp+G5QNQIXtuWIO3oAp36YfuFZBZFBVS2w2W0G3w2x1PYsiwy9emM3ycj5ecj4Tv91XIB2oWRfXrhtgzM8qkFmK9SHPKNyT9nFQ9epbritUQ6ZQKZMaYuE1CaCNzqYBgNwls6gBq8yUmlFrXM1YHceH1q1RQIzf3eUE1R1Hdm32IAXfqe1LLxxRxec1SIkio+ohBEGqnEdBdiegAOGLJTebyx6dWm2BIqROgZepK7MdyK2wFx5Ize9ZLxzhZysrotsF211QJoE1+eBIvGt8W4KmYgeUiSMqzgxH1W6IvqCB1wgcL4ZqALjSp21enz9sNtqjTJStShLursrvh/xCYtCkJSsD0N+nXpeNWj4mhAOtNwD19cIfBuHkOI5IkflYRNp/pL7k+i98H4fBiKqgyvYAG3TYdsLkyZamGggQUjZn4jiGsak/0UWSfrf7n+Zjk/RL/a/wBz/MxX2epyXS/vWC/v8j9ll2PDjUf9kn9s/c/zMef7I/7Z+5/mY97PU5KDnOD/AL/I/ZZNmYNSkdLBxUz2QcwgeaGJvl32IPufTGxn6Iv7Z+5/mY8H0Rf2z9z/ADMXbTqt2CRxOKy+uZc8/A/ZY7ls1yG7Y6aqzsSCL2X59+2LPCss1Lq00tUQN2pQo1E9aFgdtzjXcn9E5iR0TOAB+v2G43J2Pm+5x8n0TUKGb/c/zMS5lSCAEtgq2CY/XVfMbWP2WdY8ONJ/2Vf2v9z/ADMff7Kv7X+5/mYB7NU5Ld/fMF/f5H7LMZI7xHkg8Rk8tgqyLTCrq9iVPYkY1E/RT/a/3P8AMx8Poo/tf7n+ZiRQqgbeiDVzXLqsa3T5O+yzSOOgAOg2x3jSR9FX9r/c/wAzH3+yn+1/uf5mI9mqckb98wI9/wCR+yzbEc/Q/qnGm/7Kf7X+5/mYjk+iWwR9c6gj+h9dv/Mx4YapOyq/O8EWkB/yP2WK+GsyxyudX+rA34+egP8AH9mCPDeJbqrA7WAV3b3q7BB/RIr5dcN3GvozPCcnPKM35xkMKV5OjTUyPfxtfw9MK/B4yDLIWtlWxspBLXZIYEdu1Y0agAC4ijMwFfk0sNSVZq2AJVgCDzKOeM2BvzDb4hgn4dg+sTopW40p2YFGVgvw7qaAJaqroN8KSB92DldJ7bdb6emG3wiZiQRIo1OuslAWZabluxXw9a74D0cFMNeHFaGZKCi/v/4Yg4C53WwQRNsR0PmSb/jfTEEjGox/vD/A4m4Cu19wZq/98mL7pn3D+c0u5Lwm+tJGRlbzeU6xbR3y61N1W427DDVxniyZRLfYn4avmI7E9sD+DZN9IPnMzeYFBkGvSA33QCK2sYG+OXWSWPKsG06iWIarABsAVteKF0NlRrLjpRXgGWXyp84jLLM4YqVuksD7Oj3Fb/M4p5KRs6GjljJ1L8ZQhR1AG/3rBIwvcJ4kuRlKRxgp5MklXRZtW2skG6C0CAOuGngPiBpIJHKDVBFr2OznW67itvg/bgRDnOBBsgklpJ4hZd4x4a2WzbDbSd1Ox26b196x/DBPhiRr8DIGoMd2or97mB3/ANd8WvGOXGZRswQqOv6I2Ivod9zv19sCuHQeaFNhWGxIAtl1JQIO37MSXiq2R4KlF51ElWuH8TUufK1V94Nbo3NenTXQbbkb/wATqQE/b5csaDeZCWI0sSzWhN6gzbBLAH54WclltTwU7fb2Gs6iBqoi9r6/x9dm3iRCGNQo0iNX/rENqfSx6GinUjv+OKvbCMx07qxHxKRPM82M6tBFncElNVj103RPzwucLy/mxqp79fRR3vF3PTosjAJvvZJ6joRVbdb29Me8MyQRvLuwCe1XvtYvAhtCYaU2ZDLAlGUcqA792JFbf1QLwQLe+IcqaShiBpDg+yFuV//Z</t>
+  </si>
+  <si>
+    <t>Celestial Henna Haven</t>
   </si>
   <si>
     <t>Scheme No. 74, Indore</t>
   </si>
   <si>
-    <t>https://www.wedabout.com/blog/wp-content/uploads/2023/05/modern-best-red-indian-wedding-reception-lehenga-dress-for-bride-1.jpg</t>
-  </si>
-  <si>
-    <t>Heavenly Hues Bridal Salon</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFhUXGBcVFRgXFxUXFRUVFRgXFxcXFhgYHSggGBolHRcXITEiJSkrLi4uGB8zODMsNygtLisBCgoKDg0OGhAQGi0lHx8tKy0tLS0tLS0tLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tK//AABEIAPgAywMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBQIEBgABB//EADwQAAIBAwMCBAQDBgUDBQAAAAECEQADIQQSMQVBEyJRYQYycYEjQpFScqGxwfAUM2KC4QcWQyRTktHx/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDAAQFBv/EACYRAAICAgICAgIDAQEAAAAAAAABAhEDIRIxBEETURQiQmFxgSP/2gAMAwEAAhEDEQA/AMNe64LjfiBdw4uWt2D7qeR9Kd9O127k+aBMZDqeGB70z1PTLdv/ADzZsTwow3/1P2rO3elC0++xeW4snykhTDfMFI8p7GMcCuaj6NSce9j67dgBhyMH93v/AH7VSfVbW5OGEennEiPbdj/dXui1gcY7SreoI5Efxqlq7Y3CDEKQW9Nrbk/j/KtZR9aHFu+w3AbSCVcBu287Sf13H71a8QsMcgEZwJGP0NZrqN022tsGHBSDPmDEMv6ETPpV65r8kBl98zH3/StyFTJdU6e6KGZ0AZSDGTJEiSe4ql0w71VoIIO0xweeSR3PpXt66xMG5KbSMDEnDCf0j7+lUTrlHPy4DIJD2/KIuCPmU+1D2BySezRdCXZeur33KTkEA7YjHHFa+0ZFYDpV3bcgkZHrJPoZ7iO/NbDS3yQKlLs48y2drEFV2FXr1lmGB96A2jJ5NBxJWUdQmKo9L8rOnuGH3wf5CtGdEAtIOopsdW4zB+hqGfG5QoElyVF6a4GhKpNdtrz/AMaZNYWGmumgMKkts0fxZh+GQWa8Lih+HQrixW/Fmb4GH314XpcWNd5qsvBnRzsZeIK7eKW5rvNR/Bkay87Ch+KKAqMa9ApH4j+y0MTkDvNbuXC1wNqLpkhIlR9F4Ue5IpD1JnuErYs2pBhtowvsXWBPsJq7d1Pjk2NNKacGHcHz327ktyRT/p+kVECKAABXrSlxO3JlvUT53Ze9p7wN1dquYJ5Htn17Vprw3gMOIiJiD/c071/T1uKVZQQeRWeRGsMEeWQ/ITz+6ff+dZZFIPjy4/q2D15ICuVDAEjJ3Mp7wD/cUK1b8h2DcR5tsgSMz/ftVm4pOdxxjbiCCZBPv7+xoDaJto+cuplSABk5gx2o0dMkWrgs3VFzefDwCOCg75HbnPuaXdTt2PF/CO4HkCJJ55j+xVhtDu53WiWBI/KSeYjg+oqzoOjm2xUW924EhiANo7kTRA4ti+3Yu2yCxjbLBcSUzgnvAra9JuBgDWY1enQruYyRiWkmIjt7gU46HdAQHgAd+faaSaI54Uav/FlFwu4kwqzAJ9SewAkk+gpVrNQzb28Qo2dmzabcxgncu5s8/wAKra/qADBeGFu4yqSJnyCWj5cE845q3Z0bq6rcKCzBLEE5ZShCmR5cEt7hfrTROFhx1IIAt0KJAKuGAtkEgGd8EESMCZnFKeo3w6FvIy8NsJO0xkHE8/fPFV+nujIt+3uZ994JO4Kls3DCKCInaFOM/bFUOqagKxZnh9u5W7kqI8NlHzAxxnnsaWSsMXWxnoNWCgB5GD9quWiDxWW0V70+VpZfpPb+X2phZ6oinbMmoe6IyzyjOn0OWWvHeBQrN4MK8ZJNUUPY/wA99ESxqDk1Z8Kut2ZzTNUCPKT7Kvh1JVnFXDYFQFiKWU3Wh44aewBsVDbVpkxQwtDmwvFGyJFVTNWnWAaGq0haLA6DRi2oAEQIq/aejLZmu8EetNVihBkcVQ6jow6lTmacabTELvcqqerECY9ByftVW9dtkwCZ7bkdJ/d3gTx2pnF1ZlLZjLY2MLbk84LHkdu2f+KareGI5Bjnkdj/AEql1+ysg+VmUztJ55xAz6n7UHQa9GWCoDehMk/m+4qkHaO7HkT0MrmrQyMnKt6QVINVuoau9cRyjRskBvWe2ft+le6m5uUqEyZwTxiMfWq2quO7bJCr8pjP9nFM2Uls98dhb3l5AUAJORkRJj5pEVb6FqT5i8iG35527d38weaV3tXaX8KGLFgzAgFT6HiqljqLKWYKW3DYSQVWcgDEwTuI/Sg1ZzZpLia2xugNhWmHwCWLRv3eontPYVPRaS4Aou3vGSTttso2i2ZCAnkmIxxnPpVbpdlWtXf8QVuI58jAQ/cHC5UzkHPaYq9o7Y2hLat8qSuCwKrHmYmFOOWIoLRxdktZvKFbK27dsFCygQVDOA9y1GFIXkd9s98qurqhcPaYJtU20ChfO07myeQoByJmGzkS4dEB23HVXgHaJuvtkbTtEY/2sKX6+wmV23hB/wDaURz2NuaNgoxmn1J8VhwzbjHaY/TkH61Y0C7YuQZPM0PU2VW8jI3fKwVbuBKnj9BVfqNy6LgRRIwQR71pRt6OXPBtWaDpvVWa7tiJ/ua2VmyIrH/CWh3PuuEbhW8FoRU+tFfGh+tlfwhUfCqTLLe1evQZ1JIDdWKBqL4XmiMST9KTa29LGcAUUrJZsjgtFp9YCKg2uA5rNr1Em4VjHrNXDc7kgis4HBPyMg41+vRguwR6zUP8YopFd16MQimSfSp7W96m7Fj5EoG40drcBV9NGAJIxzPbHrSX4f1UrBPHP0FW9RrXuL5dkiGDM263a3KQvhqoi5cZST5sCRBq0KkrPR5WrRS1ji5dN0hCo/CtMwUgKk72WRiXnv8AkqprtIbk4FwIAWV8yTJ8no0KTJ9vWRK1oCl9biFSSDvN8C5uYx8oQDwz6kY9ua7xmZmuW7a2/MbV1lKstw2wy7rQEAlZI3HbgcGKeSAnRlNQjC0J3QwLKhS28Wzldx+YvkSd3r9aTdPvbLpiCT2aQOeI5mf51pToSgW0hLgnBZou/wCpQVBVvKMA7fv2Xdd6XBNxIZFh1ySx3kKRnticmc+1aL3Q6bi0xlpSHXcWlvTCAH8wMegxVXUa50BUW5PY/lUHuT7Z5zEVW0upRVR8lG5mNqnaADtA9iD9KZhlvWwVIOdoxHrkgUGekpcloQvaKgXbo7hV5Eg5J9/vVDUsyPEnacp6AgyMexphq9MxtkMSdrHkzH/6Ipdr13Wg3daaLOXKtG16NeJUEscwAoOWIHCgwAY5bEARIAmnVskwkwOBbtkiCYOWWGJPtHPD81kvg/WqLUs0bYDsfyiYVVj1MHGSfpjU2nuOyIpOmV4iYOruCVaVUmLQkctmDwKVrZyp6Lz3ltALcuWtPbhcEoJDAwxXv8pzjik+u6haMRdumQvFu8VEkhgduBHP3pv0bT2LbBbQt2dQ9xrFp7o8e5c8P/NPiPiAQywvcD1ivdfrbrte3MybW8KyJY2nuoWV4ugAEbztjBGw45rNKjJ7PnPUtQrlQGDwQY+V0ws4PPJn6VX+IbrIEZTx5WP8RTrr5YhgwV9m1G3RIukSSjCCFjuc5+tL+u2d9iR6K1FdobhyhJFTpvxGUz3rS2fipyMHFfNEtk8VounLCwaXNjUdo4FOUejZab4iJx3o3/cQXkGstZtAGRMmrj2twyK57oK8mSHdn4hTPvVHU65XJB5Jqnbs7YxQdYQBJ5poz3o083NANSETdMifSk1i5ct7mMlCcAzXanqRZwJonUdedmxlFdKvr7JpaLnSNUu8yQO4MVbf4gYGACR2I4rO6bqAC7So+tW7XUkAAC0sob6M0je9J1JW4J4OD/SrNzV7bhG1mfahxt2gWxsaZKgcgzAmccYULexU7euHiQVJZlWTGYTeYB7zJMex+/L48/4sr409cWP+lahL243HuoAZRot+GfWHZShO4ftAEH617pkVVFtW3kM4kA7HDMX8gUkAjIKjvPal1q+xO1XbZyB5dvm44G718oImDwATVzS6yfLbI2/muMAQYny2xENHMxtECA2Wrsuzp6AauxGWYAT5ZPPssZbtgFjPakup0CQItMQMg+HaUA/7wr/wrTXLCqjXGKoCCd9xsvt+YAtyeMfWCKTPcDeZLLumQLt1hYQgqPlJ85z9ZHfilr6G5fZl1222e2QdjyVLRBMzAIPBH3BrtNNu5sQ+Uwy/UDv9v5U16jpDcDBjp5UFmVLd8lduC26Z7+n9aS6hyqmYLIZkZBgxPAPaOBxTNFsOT0W+p6qdykRuUGQIEgZ+tK9Db3IyHvx71b6y4a0lxeMVS6ddBI/U0q0i0ncqZZ+DNRtulIBcGbasQAH4ZhOC8AAT6mt9Z1E22O22wbxLrW7u5bpuORbsbWzu/KNy9+DXzB38LUh4B8wMNwZ9T2+tfR9CwuIlvLi3tvMkFLq27NsEIrTyzkEGc5E08l7OBabTG2kDIfDtOLjWtmnFvUKNyXtRAa4hVeAIYzukbsiZqzrl8NRaMhbVoWxprwm5dvsYLJdJIuyCMZy7Tt7VkD7wSpu+EgvNausEuJcugrtS4BLMqzBP7Q83pO6qg2dGxa6La3NRcTUwj+I0wEJEOCWdoGPLziAA+zG9b021WSdzWx5uJR78ghpPmTJg5iRzyKcBrKrM4KfpI/pT3q9sgKxVx81y4jyz2wJCgk5ZD5cGeDHEUj0lmLe3EqR/IHBHIzzSvovg3Jr7RjN21qd9KXdmlGvsnxGEdz/OnnRUMDtTZmuNnlz02OLSxRlagFjRN1cLOcI00o6qD2p0pxVPU2d1GLphTMXdtGZr3U3mIANPrnSySTQL/RzXas0fZVSM+tHVoq+OlmjJ0tyPlp3liGzVKRR7GlF0Mk7WglGHKmhpZAqzpDtcH+4OK8vHKpI2BpZFfQusXW3eA8yM3ADySAAv7v8ARR+0afWb2wKAm+6/+VbGIjzLcb0tiO/3k1X6t08Oy3B8ywT/AK1HKn+/bvS7Q645lkW5dUsxYkBVj8KwOCBBk/8ANej3s9HLjeN0aO3aZm8Qr/ibgddzeXw7O8jOntuds/6jP3qvr9OwbUM7qyKFRjqNyOGZZ8t1PKn+YBgelH6dolZ2K2+bqqWs3Gt7fwUaQBEiR781f0+mKqx8XUjxdQbcbFv2zsbbLyC3FsiZHArE6EXVGDO3iWyrLbUKzfiopdiJFy35lB2nzGOKzvxFpBtNxWBy4EGQRtVj5/z4yJg/WtdqEu+JdMKx8W2m60fAuHw9jAC2+GEueT60n1tpWZjlGd3DTCPAXaAQ34dziPbNZaCY3SXNyG0ZyJX2PJqlavG2xWmD2Cj9s7WETiQGjOQfMP1qt1zTkEP2NMu6Kyvgpr0C1tzfDfY/0ra/BWtF1VS4rXDbCICJDpvdjuBBBgKq5GfrWDtNIimnw1rPCvCTtB/MMMpAMbT7zGcZ9qLWqJN2+R9LXzL5j463Lpum3uK6nbZPh22UgiZW2vlIU5bPNGa/cbxdzLFy6Cy3F8ZvCtEC3b3IdoMScmQXOeTS3RXmZfBsIT5VUKu6CCtwJ4jnMfhEebjcMCm3/bpY7LtwIWBhUHmKq1kxuPptIx64iphEfVHA3tuuAzyWygtgMVBYMdo5gsefpWe0jfiXAeZ3dvUg8AcEelbf4hGitXvDfbL+M7F3kB7zAsGzAmCB6RHesfqtdpzfZbbLPEr8rTJIBHJnv3mg+mqKYmlJOxfd0INwn1NXLdkCIoyoS1XUtKOa5ZSZ5nkOsjRS8M964+tWHPaoW/Sks5yIM5r0GixU9tawgCY7VBhVwrUTWsFlUWR6UVNOYxRwKmCaDkZSZC7IFDsk+tDvXm4Ary08470iRSvY9sXJRT7kUn6rY8NxdXgNuYcgQCCwU8+UmR3o+iePKTHcfWrWtErPINd2Odqz38NZ8KvsD0fa748MkspYgvaYA24MAH9oce9O+laYhbe3/EjfduS1u8WCQbkEi4Y9BMGe9ZEJsYMQjISAd/C+aRmJAy36056S9sbQbdzaWvea3dYZW4VRQAwkkHEVQ5JQcXTGt2y3kD3RcL37pVdRaBBayWXd4lvCnyjOaTW9WWG3bj8cnaBetsWc7QCvyd/mgU0sXfCUpcuNdM3Cts3PwrZZnYhjIN1/NBBYLjPellzS3tRJiQJGVK2lMbhCso3LmAUBgevJIpl+q2DsBlV2QfnNzhQpAYAxkcbo+lB6haD2hlcCQeJmtNrejW0tm7eu7hgjaYkYwDy2J4gewrMObMlLT70AkTOJxtyJOf50G/r0VxOm4v2ZtDBijkZqOstwxrrRxVnvZCCpuLPpei+Krdqxbs6RSbwcHwwrHCzvLHGCCTJPeTxVrqbXdZcRrji0LclUs+dpYAljcbyz28oaJrIfDbtMLtG7J9XIZRs94mQPc4xjbPq7SLsJRX2g7QHuOykmGcASsAZmcfaot09FOD/kU9V0FERGNhfOPI9xvEO4Akhi5OYU42jP0rPdV0Php4gRAQ4jaqwB83zBRBgcepitfqOob2V7DSoQgJfU7brky7KP/GVX7849cvr9bcZXHiosPOxbQ2dlySYKwP1o/sD9V0gmhvAk/wB81dCzSLoLsWIaJiJEQQODj2NPTiuLKuMqPP8AMd5LXsiVFBdY4o3NcwFIcyBIams1yqK9U1gkwfWoEUaMUG6KBj1GzRg1AtrXkmkkBgjeA+tQW9JwKBY0+8zmrpTbWaSKMC8zMxTWx57Z9v50k1BJB7Vf6PqYMHgirYnXZ3eBmcJ0+mV7LwxRuDIP3oWkU6YscSx222ACkBh5yTMTCjI43E0b4i05XzqKhotUl1drc8GutOj2MuJT/wBNH8O9MF0eK+beIWSA4jlgHZGQg4ED3qrquv6hw9vTi34QZlW84KqACYW3tzcIGIVTxSnUahnui2xYW0RVZAxHjPJIGMlAsExkyB3p+dPsguJIC7QMALIKqoGABEAfLIHPmJbrs85pt19GWsdHQEyGvNky4/DnOVQY9csTEZXmpda0jDZ5pHKhVIBBwBtGAeRwOK03Wr62lC34F7w12pZ3OXO05yITIaZkD1pJrAbga4jtZtQqFLdwOdymZuFdwU5/Ke4yZxrb76MqXXZiNfb9Kp22g046laIYruLA5BPcnJz35pKRmqw6oGR7Uh50u+yqxQw6+dDgkECCQDyYJrWdOtq1u6ibmZ0cbmmWZgdvcTkfaAKxvRL8OJ4PNaXoNptxAZsMRuySADML3JgzzABychTN6stJckpDWxfLWrF0H5Su4CBKtKOGG7g9hJ44qvqekmCzbgWztYcjvFqOJOd0GtF0vp/hKGQTMQzNLAkdv2QR2WBj5a8uaUPta4JVLqMbvkItllYKp77STBAxPpNBO+hOFdmF0ugew4YjynygRntBgExzTqwwbg/WtHd0dl23K6kLBDIRtnmYkyR6THtwaXavQKV3AhSTyCSAfQAQWYgHMlTtPcYlkhy2+yOTxoz2igVqBFeOfQzPE8mCQfv8uPeoNcIwR7+xEAyD3EEfrXO4NHFPx5w7QQivUFRt3JqZalIkmNc3FC2GiIKzZqOJqG2jMJqGyps1EbCRQr16TVe9rcVACc0VFjU2GusKgLkcVTvFi0AUJbLzBODVFEZaNAl7xUKH0xWT1CtZuU70cJABzU+uaHeu4DPerwlej2vG8j5I8X2iFjUC6gf89v8AWKYHqNxQmmRgHYM94hZNtVjbHbIIFY/p2qazcB7cMPUd61FgeGSUP+YwO8mSEbaIz6AQPTjNWWg5Y2uS/wCl29potjULcd7iP+KxIJZZicQABj2CseTNCS8FfIbwrwAzuO08AnJ7krgTBkmj6a8EaVMpkQZYXCR+z+bvgftHtmorpmZe6CDgkFxJJMkGZlzgEe89jetnPW9CDrungEF2JSSuQSf3gc1kr3M19Ht9NDl5ui3aVCd5MBWXM7R6nHuZqv1L4L8Syt1QyXCiu8y4LXTFu2dslDHMrgRk08ZI04uqMLoHhx9RX0r4bKoFuuypaZ2t3HiYFxQApHZvwywOcH6T811ujuWLht3FhlMHII+xGDX1L/pz1ECxKMq3QT4YuZsXr90i3bVzyrqqvn0acxA042zRyVCvobvqSiOFKXETm4rDw8CRJHcDmCOfrShOpozhfEVrKgXrsj8J2HyKxiBAlv8A41c+NejolsqmlO8bLSNbb8O9fVTcZmyobE8jkEZMUg6jqtq2dRZIYMwSMzBBYq4GQVMjjg1NQop8nJF2xr0Fx7vh7bV3w1RgpFu4wkM8AjbPliY3ROa7qOoDKUVskjd3kAgj77gBPoIpAdfdW8VUFLRXd4dyTaMjzFAqksvBgcEmmum0+nYqHFzTtH5AQCo/8mxidi7hA7k0ziLGeqKOmvXLLu5CH1DHBAE4BYcAEmARA+kaVeoqUvF4Z2Q2BAgq1654awTJwULGZwRmBWb1tvTBrRttduPPma7AK7lZgm0YUgKs/vCufSLgqShBLDbgbiImOJipykovZLJ5Ki+LQP4061bXUutg7Aq7RtgrKzyD34pf0Lr7XLgtuASZhhjgTkfagXfhWTPjHJzKyc85mmvSuh27B3Almjk9voKM5YuP9nFklGW0NVk9qLaEfWoWbntXGZntXBIlR6OakSaFHea9ApQCG5baRBxRk1ABg0u1OqNwhRjNMbOiBUE9q6WqWy9I7UarEAZqtqWZklRmrgQFuOKtjbzigmkDQt0NtoBNME1PYmZ7VW1ClzAMfShppwveTQv2NHI4S5Io9X0UNuHFWuj6rcvhEwRm2fQjNXLDC4hRo3Dj6Uot6Q+Kq5EsB7jNXT0e3CanDl9mr6X012XLQ5AIIGVAOF+hjPrMn0pjY6fddH/A3BLgt3HDrbliQNqoSM5AmI9Kv6UBMbYErmCTM+Tjg884/or627WxddLtxZAYqu0gEJAbgmSoEwRAjmCasv7ONquixYsAqVf8O3dHhlFYNdBBkS7CDJQwBHAE5o+k6jct3bSspu3GY3xeV1sNdVV2C3cBEM6SBBEYU8g1kNbfuNZGiYRfVsYw1oTcV1P2irug0pNseLdd2Ahdzk7d0TAxn1PIjkRNB1EKuXQx+L+mLe09q7d/8iG+Li7Q5v3idtl7S/MRkSvO3jFIv+nGqFjVG3dYW/DZrrF1Jtnw0dYYGCMtIOKf6a/btNavrZZtthjcW2QCrGBadQfldlF1ZA4JPNZ7rKXCw1CMC1wmQBuVbbrtKqPzLtA+sTAplJUK4M2/W9O1tNMrWQlvwne4UuM9tNReZdjFRkDLgGI8w9KQLo0VjutgMcMdoB4HPGeefWmPStTpLqPJuvevKBdK3LqBiJEIlpdnh+gImqVxtS4R22ssA2nuIFN7aNxDkZyssGAE7SYjmU4tu0yuKSiqkK20m0Wid5TxjsUIxcB0YllESQNpJA7GcRTUoGWEdXHBKkQSpgFhIggj07VPVeKji8RaO7cbbo5CJs8NGXJ8uduZEz2imNrrS3GjU6W3cfAJYIDHGSI+8U1aAnbbSM5r+l2bf4r3VXJbzNuYscnaqkyT7H9ar270gEiJH6VqOpiyCXtaW1bJ4OwFhjdjJxGYA7+9ZbTXgzMsyQSe3DZ9TUcqvZzeZD9VILabOKsDNeKoFcagecSYRXhj1oe81ykHtQaDZNzAoIuGiuZoRsUKAI+n6Fp33CB6AUxbUngcUN788elUH1J/Mdqjmqu5srstu/O0Qa8RuB3716L0LKjdIoZ1MAMRn0paEJ+JtaJiaE96CTQGAcgkkD35qYsASQfpT0MiXTAysWNPNHaV7qmTjJKjI7T9pmkJUjM47xTf4YuT4pEHbtPsJLAzGY+nNPG7OzxcrT4fZrTfMbCu0AAGCT8wxHuRmcQKW9SLXWt21cEXHVSCpDbQWd+DEQjdufWZpbfv3FYISJJMHHc8OB+X0+oHHLf4b0TMb2sZvJZBtoTAHiEA3NsmCflQe4OavE6pa0JOvr/iL1wBoNqVTZIKOVMl7nrgeUY9aC2rFqblzTmLewXijgrNxSVKg+piZ4mm2g0jbWuNJZgSCXV8NkiEGxe3E/MJPpbtaXdZ1DwChuFFkYfw7KW2HuAxNaVPsWKaWvYG/qW0SLea2pd7u10E/iLdZ3CAkeZrZiG/1RiapzcVPDe0yXmDHTA7dnhiWVpHYIgEDJgDvXum0oexqL7szLaWLNwux2sclNhzaKkL9fLzFM+u37rWd73BNneyFABcid8u07STtOAI8x7GtSMnL0Zjp+uu6S54e0nxfOpKgcySCoMRMnB4j3rR6j4jt3tPp9FcZrN9NrM2BHgW2W2VJkHeSuPQEZpDruj3fCS+WhvygcKBLLsBJiOwEDBxTTpVnT37U3V8Rzm4WKs+ML7ADMD396Zs3G0kT6XrCjsdRGotFGtsnlSUdlB2FYAaQpk+2RVnU6bSu/8A6XUsp8s2roG4bcMADyTiWBPAzWf0NvbqGsi55MspByoBMoWbsOx9V9sE13TfBvbvEm2R5wwF0TEAyuMyOOPbFLv2xkl3Qw17nxFs3b7FmZgqIApZCMGfylY+YRMccy06x0LTafTLc8UHUuBKyGu3GA/ZXljGTHvVPqvQV2i6llLhtrZUtahrTlifE3J8ykq44mCRzFVtLrLRRfDtqQC95rbgC5bbKqA6jAgnJ9Kz62CUOaoXW7pP0o1uqlhsspDAgjDZIkA8/mHOatW5rjkqdHkTjxbQXYDUCsUYGK8gZB5PFIKCJqO6ikxiuFajCDS6Qtc3cKP41LWWFML39aiNW5QRA9alYfOcwJqlvsq2WNJajjj1NLNbfbxIUA0xvNI8pxVHS2oY7u/Hsa0HttiojZvEzIBIrzV6s+VRAnn2ooslUPln37mo6XTKyjB9ZqirsZI8tafZkHnnvNbT4Z0pNu7dRAWgqyqZYCMFkHm25MGPXjmszbsCQRj1mpdZ65sRVAS4FwM+ZZOQrLDoM8gx/Cmx/uy2B1K/otdTYi42w+eIG8cY+dVPy5gQAO/sT50685t2tM8bEJchlt3N1wsSSd3P/P3pT0vXPfYtuubQNoDvvgnJhiJjA5ps/kgjkHE0Z5HCXEafk/8Ap/RqLm7aiLHiXTssrgye7t/pWSf7FR+Iwtq2LFs7kUbUHIuEiSZ7lz3PO5DSrpHUQxd3YNfM7sYt2xwlseh79zP3DO1ZF5yzxstwH3FvM34d20yHg95Pv6GBRVR2xfLaBlUTQ6e2Cd+ovIX8m1mRPxPxADJYKFUkmTH2pP1/UMUKiHUhjCg+YIZMkflMEe8+2Z9W6gHvz5T4avbtg7gTefaCywIMblGfTtWq/wCnlvRJZu3tWTd1DO6m08Fgts4JXAzgycZosRy4poQ3+oA2lKgMWEAS3ymD3yMgfqKzulTZc2uAAcGSoRQT5SdxiMEczI71ouq6nZqWOwC3cJARIAVhMbnbBET2+gzWT+NLxhTIBJIhJiIB8zt5nOB6AelCCvsacklY66i6WfD1FoqfDJ3XASLZVuUU83WOMj0OZo2v6g19fw8g5Ux5QcGfrPm9onjNfPb/AFK5dEXbjMAMSf0AFaX4L6iCjWWCSp3KzbFUDJO5myYP1OfQRTSxtK/onDPbr7NRa6qWVWYTd8R3vtZO1iUBALr+YEbDOZ5pBpXG90dk23R4m87LbAnkEmNvJMgZkxNWOoOtu5vtiBeXwvFA2rub5TbHzXTzJiDjiKJ8X6cqvi7ovSrW1CzcIWQSVAhVCkkk+3tQS3/o7lq/oFqQA4YEsDjxDhXOSAhY7rh5yMQKMrxWH13UnuMlx3LMIPORB7foK2Ni6GUGeRNSz46pnnZ3ylZZ8WpHOaChzVjAGa5miAMH/mjB6iqiJr2gzGetWt0qBweZ5owt52j6Ua3pvPMZqwwg9vemcihXXTbSPNx2oV1QoHcmiX7oU5+tBu3Q3mXtisrYECt+Jv5AHH2qdhyAQTGYUCuZX3gniM1d0GlBAb04p26Qbojr75tWSxAJwMmBn3rIavUNefC59FyD719HABGQIOCDxQhpVHyqo+gA/lRxZ1BdbMslKhZ0bpwtIo/Ny31NH1wxRmaK8uIZqLk5Stk7vYo0abbqNwCwDn/QT5h7Y71ufiCyq6Yae0+QgUhAzeEkBQXYZmIgc5HAzWJu6fNaboOrS3biTbIIZz8yOtsSC687ix5HO3munHP0d3i5P4i74W0HhXWsM4m4Vcs8PadUIL+bkZ8s+4weKY6530xW4oKqwU3QfMv4rttKvE4mIbtxxSrq+qcFboVBEreZfMjC6Zu7l7YAP3qzrdabwYqCqXW5Xz29iDkr+VSQfTmrPezrWtC7rNi5c3HdG0gpyCCBIB9fUSJzWZ6t1E3UCnbA2gCIaQDPHbJrb9J1Nt7JRxudPyWh8xPmB3HCA8kz/EVjtXYQX3ACzMwslVJ5UFvmj196MXXfohnlSsojSgwBV3T2TbymHGVMAwfuIoxtiYH2q1p0xmpvIzjsoazWm9aHituuj5SZBAByMYk+9Rf4hc6c2RtUkAMwnfcGPmbkk/WIFE13S3diUYQZJB7E8x9aFc6EdoKkFhO4ExP0mrrJB1sf5AHSOleNJ3RBgiMxWyAgfTFJeg6RrU7olowOwFOga5s8+Uq9EZPZ1phRncHHegIPfNStjvUGhAgbtUhcrg1Dbd7UrRgIuGe1V7+pCttH3rx7w+VT9T71WsaY7iTn0rJfY9A7rbtx4H9asaJHB7GrCWFgqQIoWjujPlIAO2nvQbIXslpEE4prpLe1FHtS7dL7QvHc03tpilmxZHobMVN2J44oXh0U8VMUAwivTxUoogE0TFMpBodxtpDbZ47wYBBgHtxV0oJmgahaMXsaMnF2id3SKwDXYbeSyoqrvfcIwo4xA3NwP1ql0e63itpl2q6AwyEgBGIJBJgELgSZmqGvvvZB2+UPkkAffPJ9Y+tJL9+LguggGQQCJ+sjvXfD9kej8tpSNbqESzf8pLLcEMfybxxtP5jEyeKTdctC34d0czsPuuf6VLqusNxVYk7xlf3mxj9lR2pZZtNfALNMEhsn+A4HP8ayXt9AySVUMiuas6cxk1Fl7URVrmZxHO9RAoj2qkiUAHWsGaMhzXi26IUigKwqx6VNe9BQ0a2e1AUIi12xagLteMD6UDCJQQqkCCTkmiWbRBZi8k8V1s7htImDVm5bAyIp2/RaiKQvzTn0qNu+oI7zwPU0T/DllyaJ03RryBxjNLpIDVFq0s5IzVxOK9t2jFTxFSbslZEDOK8uLXtcorGIqlTCEcV4wipjjNazAHFDK0ZxxQnNExX1ukW4pVuP4j3FILXwv5pa5Kg4EGT95xWkNdcQjmqwySiqQ6k0ZbqHTLqMTaEqeM/L7Z7VZ6bojbSDlpk+gJp1ft1TDkHae9P8rkqKc2+wVxqiGr28oBFGRBHFKIcMiako714oFe+1YwS3U3btQ99ezQEZKuZuKAhkx3o9sZisagp5ifeud88mvNmZiiC370AFO2VUGQN3AiuusAAe5rq6sXJb8wMz+gplYQQBXV1JMSYVm7V4eIrq6pxJkraYogGK6upjEWFekV7XUDAXTNeKorq6mMRFuDxXl3iurqzdjeyuDM1UvrmYzXV1PEdAws5rwtArq6nAeW1PM1InNdXUAFhLYivIzXV1AVs5LQmY471ZsrBkV1dQsxLg0K5cycfxrq6sY//Z</t>
+  </si>
+  <si>
+    <t>Harmony Henna House</t>
   </si>
   <si>
     <t>Sukhliya, Indore</t>
   </si>
   <si>
-    <t>https://cdn.shopify.com/s/files/1/1150/2764/files/How-to-compliment-your-wedding-dress-with-accessories-Matha-patti-and-maang-Necklace_1024x1024.jpg?v=1668507171</t>
-  </si>
-  <si>
-    <t>Enigmatic Elegance Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQExISFRUVFRUXFRUVFRUVFRUVFRUWFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGy0iICUtLS0tKy0tLSsrLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0tKy0tKy0tLS0tLS0rLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAAEBQMGAAECB//EADYQAAEDAwMCBAQFBAEFAAAAAAEAAhEDBCEFEjFBURMiYXEGMoGRQlKh0fAUI7HB4TNicpLx/8QAGwEAAgMBAQEAAAAAAAAAAAAAAgQAAQMFBgf/xAAqEQACAgICAQMCBgMAAAAAAAAAAQIRAyEEEjEiQVETYQUycYGhsRSR8f/aAAwDAQACEQMRAD8A8OWLcLShDFI0KNSNVMOHk4ctBbcuqQkqexVXKgqzpZTlhgKCyoYU1YQksk+0joRjSILgoGq5S1XoNzpK2hEXyMYaXQ3OCv8Ao1qMKrfD9vgFXKzdtErDPP2N+PCtj5rw0JLrGrhggFQXupHgJO+yfVMlKoabMBfXPzQFKzSQ3JMqYbaIzhJtS+JW5A5RqLfhAOaXkI1Gs1gKpN/cb3E9FNqGouqeyXp7Dh67YhnzdtIxYsWJgWMWLYWwFC0jUIyzti7gSh2syrx8KaYOSELYVUA6boTjkp03RgzKe/0wacKe7tyWqqKsg0RrZhWF9LqEh03TnNMlWWm3ChQG4IOsE08NB1qahExZUaoRgo99JD1KSFoKxVr9oK1OFV7b4XHUSru9mIUJbCW2m0jdU1ZWR8Ns7BYnzjlYqthaPLdi5qNRQZlQ12ptS2DOFRIAiG08KBvKb29OWqZJUBiVimo1SWwyFJc0oK1bjIUu4l9alZY7JmFq8aFHQrwFDXqkpFQd2NOaoW3PKHYMpo6hK6FgRmE0ppIXlFtj3Qo2hWeiAWqkafcbcKw2V/OAlpxsZxzpDajagmSmbKbGtnCX02uiVDeVyBlYuJt2FvxBXaZXnN0ZcT6qy6zcl52hIqlo4chO4I9UIZ5dnoEDZXXgFMbeynomlppRPRaSypARxtlZ8ErgsKvbNCHJCDudIzgIFyEG+OyohhUjWK0N0eOQmWmfDDq5gDy91op9vADh18lf0PTvEcCe69JsrYNaA3mEZpHwrTpCIyn1vpjR0RpGUpWKbWwLslF1LCOE6ZQAXZoqwRZbWndS1mgI4shCXAUIBOKFqhGVGoSoqICVEM8qesUM5CyEYEldPYCIKAvdYp0D5jud0a3J+vZVzUdXq1yTO2mBw2f1ISk36hzFFuI5rXlEOILxIW1V6dVsD5v/AGWLO5G3RCoMQ121HFqDuQmYPZc1oAHKcWJwlMZR9tVgLTLtCuPRu/QdM5R1SnuQtSjtKqDVUFMZ2zZCKZRS+zqdE3tygkiJmqNMbgmb6IhAVG9UXRrYyl8ifk1ixPcN8xhWD4etZMlB1GtJBgJxZVhTEoe7ao0SSdlqDWtYqdr92JIC51f4igQClViTU8zkUIVtgzlekDWtEudlOKuky1cUw0OCsVABwhFLISOIrdtYQYVh0+zA6IylYAZW6pDQs23I1UVEFvngYCgo0hyVA64Bd3RFRxIwD9kSjQLlZ2y18RwY0clXvSrBtJgaB0VP+EGP3lzmkDpKuraycwwpWc/kZLlR0WwVs1CFniBYXhbi3YlognJUxCGZWWzVVF2dVEJVUrnqB5UJZBUQVZGVEn1nU6dFsuMno0clU2krZatukQXlZrQXOIAHJKql/wDEDqksoggTG+D+nZZqVy+q6Xw1k4HUdZhTeDU2tNJziMkzAkD8o590jk5F6iP4uNW5CsaeR5ntfkwXwRk9yVp1huMAR3BPUQYwrCKdRjIZUcS8j5gNmT5s/VQh9Nzhk03D5mfgMcCZ7nj0KXtjVCM0aYJDqZkE8HHJwM9OFisAt6Y5NEnJkuaCZM5HdYi7AUU3al96izVS+8qLfFF2XN6AXldMeoyVpO0c3vsdWdUQurqmhNNyU6NGQlZemQytoT0XQU5tHpVc25BkKexr9CibtFVQ5ldhhAxwhvEC2bwBA1YRBWqvBXf9YSIQV3dSjdGobzlA0krCjb0ZaaW6o6SrLb2GxvCZWFo0CVNcYCxlOxiOOiuOtZerFYUdoQdvSlycU6cBV5C8EdSvCUV6jnkjhM6sKFgEoJZOukV1sRaMzbWc1+c4lXKhTaYwErdatJ3RlHWrjwsMk3J2FGNIa25DcAKSvub5m5CioCU1tqa34+XJH9BXkYITX3EY1I9oUzb6Udf6SHCW4KQvqGmdrxH+11IZe5w+RGWB72vkZtvF2L5A0q4K1dX1KmPMRP5Rk/bp7lXKdLYOPI5uo7YY/UfRBXWttYJcQPdJb/VXvcGN2UWk5eTu6SMgEAeuVy/T2CHP3lzvkfTe2s1+RAh4kfMMeqXlykvy7Olj4WR/ndf2d33xHUcIpMMmfMQY94Sq3tfEl1Q+YwCHEbnZk5dx1wO0JnZ0y5wA27t23G0AAAGXAFwzu9vKYR1cbC0FofOBiDMgcHHfvwlZ5JTezoY8UMa9KE1q1rfIxm+XGHvAaC0ECDuGZngfou7Sg9zxSkmMt8M7QJMGXETGQMd0zpXNB/lmOQd4gZGZILQ3B/KuKlGkPOHkQAAWVJMDH4mt6R1QUa2L7a22O3Fwczwy4OaXFpbuLSBPYkzK0y2BkEA9x6zJ/XcJ7FMal34rC4knedgMAGBgzmOoQFZ1OJa3w3RwDAMYgjgcDgKJlNaBKtpSk+VnYSSDAwMD0WKINH4mNnrO4nH1WIuwNFDug5hgoGpUlX3U9HFQGAqlf6O+keJC6MGhWanLwLCFpdOCxrVrYrWxlpbE9phI7GoAmrboAcpTJ5HIeCWtRBSq4AYcKe61IdEtdULyrjF+5JNEwuycIqkJQjKUZRdBpcrlRSTZ0223HhWDS6Oxa0+2AGUe1oSs52NQhQxt6xUlSrKDpuhdh6CjQMtnAKS/vtjHO7CUvdW7KO4fvaWOEgiCFfgmvcrh12q5xduIHQKWjq9dwJ3dT07YUlXQvyO9g79wobfSK7Pwh2fwuH+4UlGDN/qr2GdpdXD/AMRHRHtZVkAvcSf+4/coShc1GR/YeYHHl6/VWLSbd7pfUpvYT/4kAdPlJWbhH2L72ZaWL+5P1KaUbV/dw9iQjbWh0j69E1t6EdEahZjKdAVk2o38Tj6Ek/5UGvVAaZLqBfAJlpgiOsRx7SfRWBtEKKrR+wU6zhuLFpxx5U4zR51bOfUIAO0RMCHFwzwZE8HjIjhd0HUqeQ6TmILi5pjnd+Np7Ezn7M9e0sNOMNqSRwNtQfSAHDB+/RJbcVHeVjQ0DyvcYbkc7nHOB0wVJSlL8zKxYMeFVjjQVaOY+qBD6Tg6mQCdzg0vY0xu4HndghadcgOFY02Fpc5vyvZ4jWtc8+WowSRtmRI9CcLllu1gLy8PqR0BcB8xIB6CSD3xwUca7zSBqMcWFzhmKgxIeATLmgjcCZAA6KKvAbvyL6DdjQxopkB7gXuqEgwT/wBSm0zIyewJ6SQj2OLyx+8ua0tEHaSHsI3FzhkGeJ5BQTwxlCs0w13iNq0zLoPHlDp5jgEgnmBhEPqsNWpUY5uwtDnRt2h7mhpBLZ824sJ559ypJVsid6BKwc4R5WguMc+oyY+sdP0Udd0u3mkyQ4t2ux5szP1W7mpDxNQ+UFzOu10A7QOOZmB1CjtsmSfJAc4c7iOnoZ/0goKyPUnNaGtPO07RO2HGM+4B4HVBWrj4YJmZAkgRgElokZiB9l1fXQcXgjzSRu3Egk5hreJx+qDtydoad0A4z8o7/wA7o1FsFzSGtMNInP0j9liVPr05zWbOJ+3usRdH8GX14fK/gbUwuLq0a8ZCmDVIxqaKi2nZRNd0gM8wGFXnBeo6rYiowhUa804scQQjU6GpYPrK4+RMHwtGsSibq2gShWkLVU9nPywnjl1ZNb0S4pkykAgLW5AwmlE7lhlbRtigmtMyjbyU2tbdoQzSGiSYQtXVvywln2m9DSiolhY+F0Kyq7tad2C7tb9znDdgHr2UeKaVsuLjJ0mWkXAUrHykmqsqUdp8rmuPOR9PQo3TrgObIWcdpP2DyQcdMY7lyXqa3ty5NrTR55W0cdi0ppCagHO4CdU7NjGb6rto9TE+g7n0RN34Vu0uIlwbuDB8x6D2+vYpBRo3N081NhcQYAaIa1uMNL/LPsZnmFeRQivlkxuU38INsL+1Dt+4zkNaA6oY4ztBG7/CZP14kf2mADfs3PyQZgnw2ngRySPZV2hbVqLyweQk8ODTuz5pkkSDPB4TTRbEVKpqOc5lPh1RseH4mDta6TtBkZ44HJkrLzSRu9I6OoVg5wNdx21IcCfDGyASW7BzBHfhGaX8RVhUDW767CcBwG6MZa/HQ9Z4PGUsfYNdXIobthOzxKp8ogEFwfHrA65nqE4txYsDmPc18bQY3zUcSQWx+MDHpx2lGvT5Zm/V4Ra9P1WnWlrajSR8zQ4FwgxmCfuMIwMnj6KkfD9mH3bajGkbA41HZAMgtY3bwOZjs0E9Ffm4RxfZASXVi/ULIVGOY7qOeoPQj1VBvLLY7zuc0tIbVLRulvFOoQQd8eWT29ZXpFZ6p3xVT3OwMmm8TEjuAfqhcUmErqwSk8NAq7fMDUcHt/u4Z5GNLT5mkuLTgdftPQdtEsJ6U2vomRLvPVeaXEwcgAkbEPalzmtqOYW7to3UnCWspElxLCIOffphbeQ6XkBzjO57Jp1mbjucCOSWt2j6hVRRw+kHS6k5gbB+SQRTYI3OYTILiR1mBwSl/iBrQxxxJe+Jk8lrADPefsOQutT1BjR5nhzoBaNoD24IDXR0A6Ykyq9c6m9xxgCYwJzySe60jhlITz8/Dh03b+EH17pgAgZBmSf34QVxqbRnJMyQ3EnuSl7nyhay3jgSOTP8VyTfpVElxqrpljWtPeJKW17p7z5nE/XCIdSXVrZGZRqHwYS5LauTB20vRYrJS0rAwsWn0WJf5sfkehdrhSsS5687Y3ogb/TA/omdJqnLMKDHHy/TkVI/DbXDhUPWbXwqrmdl6+LnaYheafHFVrrjyjpn7rTE9jH4l1nhUkV0Iq2rkYlDkLqk2VtJJo4uNyjLQ4/pXVG7myYBP2ElB2ttuz2+6Y6PebZBMYPPBkcH3Q1vh4nA/bPKWUpK0dbJCElGa/cirWm3jOcrdm+HApq7T6lUbg1wbJIx/kn/AEss9LcQ10GS7acDyx/s4Ucqj6jPEoufo9hhqzi+3Zg/MPU4aYRHwxbFzY9TP89oTTTLYNDActLwJwfmMAgjESYTyzsQys5voCP59Qk8ElL0/djfL1sM02x4wmNV4afCb83Lj+UdB7rjxYPh0/m/E7nb/wAqNtn4P9xx5M9y4k5nuUxly9V1XkRx4uz7S8BZ0imSH1AdpBa8gncWO5M9SOfootAqNBdSbEUnFgjiGxtI+kH6oym59TBJa3sOfqVq8NO2bumOkDt6BKOTqzdR3Qh16i8VS1oeRU3fK0nyugk4OSH9J4dMFSu1CoyC61qFtRkV2eHtaXCGggkxO0e0bR0wystRbWxuLZkF2WkdIBPB6z6JONPO91V7vIx0FzckukfKZ5k8k4n0VqV+C5RaezqvqD2N8GgzyHG50Nc3fOIB85H5vTMkElbaaM4VGtY5hJfsPmD9sgkue0HDgGz2McIqpcB1QGsB4TgIkGGPP5jEkkHk8ekojTNLNKvSrBmxoqhvPId5Q+B3DuVnfaVewVdYv5LnpVg2gzY0epJ5c48ud6oirUWq1SEvrXP0CcbrSFUr2yO8r9krfQfUe0sBO05OAIxgk+oHCaUbPxMukN6Dgn37BMmUwBAAAHEYWuPj3uRnk5FaiVq2+GIGam04kskEgcCQRj6fojh8P0Z3ODnuPJe45jiQIHqnBC0UyoRXsKyySfllS134TpVG+RoY4cFox7EdQvO9Q0+pReWPbB6diO4K9scEq1fSWV27XN9j1B7hFQhyeIsnqjp/2eQCmVp9urLfaM6i7a4SOjuh/YoV9ARCLraPPZMssc+slTQHp2nte4AmAmAtGB+xuY5KGjbA9U1sLMDPfko4RF82eoOwljQABCxHNqgYDQtpijlWvkSlSUyuQFvauOfVgyiUS0ygWFFUXKEOLxsAleRa2HPuH4MyvZXskQVX73Smgl7WglFB0w8mSU4KD8HlD2kSCFyx0Ky6jpxDiXRJmQBgCD90t1HTdjQ4dOf3W6lYk4tbQbpTGvE4P/bAnjA9kfb2VN0OaAXNIJB+V0chI9BJ3Pg/gOOhyMf5Vo025hjXxDRIJ/8Ap5SWdSg7TOtxprJCmWrSNYoMZJDgGwHtI81Oe+Mgdx0ylei6hQqVqzGubtJLhtjEEgEE4yI+6ValQa6rSqO8VrXja54wCP8AYH+Fu+0pltX8Vh209kbukuMEA8bts/VSWT6kKZnDB9LJd/8ACyvtwaW+fDb5SxuzgA4diPeMIh9c/wBQx7GtBe0jcCTy0OyCB2Hf/Rr2tfE1EzRphzqe0ARLZP4QZzAxx2XNvUu7YsuK9MlrmlrWkwB0HHGFhjwuL7eBjLyYNV5fwXq2qttxDnAvdJy4TkzLj0XbWmudwdvjjblrHfvBXm91VfXqeI/k8N7N6Ad1f/gC+DQ23LC0moDI/FJ5PaEWPHGc6b0LZM7jHslse34rWrfNTO6JxkAdyQlY1NtRuxmx1RxjdVwJPoefZN/i/wCIGl76LAX1ILdvTt5uyq1lphDvEf5nd+g9lXIhGDqLL4+Sc9yVB9C2dSBYDuM+Z/r2b6Lb6b9opsIDSQC0iQGnme4OfumFtXbB9OVxpt2W1fFFMFreJPPfHUEYSkUuyt0huUnTdWxPU000QW1/knyOjDm9GuPQ85/gnst4qNp7iaNPaSfLGDI6SO0A9OFZby737T4flq7tgMbSJgg9ueF3YaLTpiIBzMR5QT2B/nsnocZylp6EpclKNvyQMqPq/IDt/McD6d/ojKGntBl3mPc8D2HT/KNhaJT8MUYiU80pHJWitytLQys0uSu1qFCrIyFG5qmIXO1QlgF7aNqNLXCQVRNX0h1J05LDw7t6H1XpLmoW6s2vaWkSDyFE6FOXxIciPw/Znl7WBzh2Cch4AUWpaQ6hUAyWE4Pb0K4eenRbwerPHcvDKE+k/YYsuBAwFiEYcLFrYnbAKVVTtcltOoiadRcij6oHMKJplBUCityhYWCoqrVjai7mVCFd17RzUaS0Se385SdtlLSxw6QQRH3V6ABS3XqMNDx+Hn2VqW6BlHVnlVSnUt3lrRJOAYJkeiI0+9dTcWVOQSQDxvjEj3TK5ty6ajiQYO0jhxDuCfQEcJf/AEheMEkAiXHDWlxgSenKKbi9MrC5Ql2T/YsFs8vp7HPc7c7dEznut63WrCu3+q8wYwGkwbdgb+GAMNPU9yha1tWtKlNzXMeSJMNMeWJBE8Hvhd/EvxKyrsNJri4DzPfBBcQPlA7RCwx4nG9jvL5MM/XrH9QOxoO8ZjtgMuDoIwc/KvSNT0+4vPDDqfh0mmdodk+p6A/uqT8CW7qtX+oeSdphs8T1IC9YF4GtAJ6IMk5RfWzKGNSqVbFR+HR4babQ2mGkkuJ3OP1QrdPFN4NKvV3gyC2MH7I+vXfWO1shnU/m/wCEfYWDWDhZSyv2NVjS8g2n6aGkuMlziS5xy4k8klHVmACApi4AIF7zUMDjqVkGmACmXvgfL19UzY7bDVOGBjYAQFSplD0TYfe0NLSzrkgF+yk07g1uHPJ5LnDPp0wncoa1rBzWuHBAU0ruQilFUcObbk7O1ohbC2AjBONq62rrauwFRRFsXJaiQ1Y6moQFhR7ESaZldNpqEIWMWnUuqObSWnNUII9W04PYZGCM/uFQ7y2NNxafoe4Xqjx07qqfEumSxxaMtkj/AGP52VxlTOb+J8NcjF2X5l4+/wBinGssQxctra2eT+mhXRei6b0spVEU1y559NGdOqiWPlKKdVGUaqooZsKmc/CXtqSp2P6KmWT278oms0ObBSkvIOEXTuJQtFplH1elXtxUpCmHUnmQ4guLBJIAzAiUsstYZbUn0j/c3mYmAJEGQfReoV2teNrgCCqTr/wUyDUonaeY5H26LWE97MZw1oQ09b3Mh5how2mMzj5nuOX+xxhKK9Z1V4xyYECOfZEWejVHP2uBbBz6+ybstGscAABGfXtlXLrG5BRnOcVj8L+X+o+0qt4DGsZ0GT6qwaO99bzOPsFWqY8qdfD13swVz5fI/FF9sbDEqYnaobHUQW4Uk9Ssmvgm72A3Dy920YA5KJpNDRAXVMIe7r5gcq0RnVer0HKhdb5DeSVLtDG7jyURpVI/9Q9ePZbYcXeVf7MsuXpGxnbUwxoaOgRDSh5UtMrqpUcpuyYBStUbSu2hWUdALFK0SujbkqiHFNFU2rhtAj3XbFCGjbyuXUgFKagCDuK6hRKXKNxQ7a8+4UTrmFCE04UNYA4PVZ43XoVHUdMHuoQ8u1i2NKtUpgGA7GOhyP8AKxXq/wBviOloPH+AsRdmcif4TGUm1I8Rq19lQtRlK4S34lZBDwo7G8Dh6pSvc9Xmj1m0PadVG0aiS06yKp11DJjllZT06iTsrohtdUUhlVrgcrug4Hqq9qlc4MqGlfub3US0W2WypVIW23OFX6WsdCVLU1SmMkqUVZPf0xlwwc5VWs3Fzy48ko+71XxRtYIaeT39vRC0WbZWWWeuprihuxjRKPtxGUqoP6ottdL0M2WbQr+DtKtdv515cL3Y7dKsWmfFDYiULRGWm+uAzAKFted5SGnqIq1MnCe17tjWYjhSqKs6e8vdHSU8pHEKu2FUGO8ynTai6HFVRbEeU9pBzSpGlB06iIa5NCgUxynYgmIui5QoJYUbRcgmhEsMCVCjVzUj90Cb+MHIWru5BSys/qFCDR9ecg4KFrVksp3JaY/Cf0Pdc3FxBypRAzxoM/yFDeVYS19zPC3dVMDvChBqK39sHsu7d/laT1k/Tj/SFdSPhNb1iT9VDXuobtAM8NEZj8x/VQhzdXTdx46f4CxVS91Bm9250Ht2EY/SFihk82NOnJFHqtFWnB7KrXVI0X8rSxYQPQ82Kpv4GFvdSJyjaNysWIWhL2CqddTtrrFiooX/ABDVOwEFK7XVXDBysWI4q0Zyews6o0j5MrdC4dUJbADevUlYsQZNRtGmPcqYyt6YGfsiC2QsWJEcfgEbULcLHXSxYjoGyB5JXAp7TMrFisqwy3vHtPlTA39Qw1zsngLaxaxinJIznJpF00ajsaCTLj/ITanVWLE8kkqQhJt7YbTep2VFtYrBCqRRtAQVtYoUEmpCX3N+R7LFihQBUugUJWqLFihAV1YHBUdSoXMPdmD6hYsRexCHS2GpUA6DJ9kyvRTYd7iTHDY7LFiiKYj1T4nfkN8vtz91X611VedznkCeZkrFitoFiWrUlxOTJ5PMdJWLFio83LbbP//Z</t>
+  </si>
+  <si>
+    <t>Enchanted Mehendi Gardens</t>
   </si>
   <si>
     <t>Nipania, Indore</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSfly87cti1dveeug_8222TkD3ei6k6P1f4XD1N66-VJg&amp;s</t>
-  </si>
-  <si>
-    <t>Opulent Ovations Bridal Boutique</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXFxcYGBUWFRcXFhcXGBUYFxgXGBcYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICYtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARAAuQMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQMGBwIBAAj/xAA/EAACAQMDAgUCBAUCAwcFAAABAhEAAyEEEjEFQQYTIlFhMnFCgZGhFCOx0fBSwWJy4RUzQ1OCorIHFiTS8f/EABkBAAMBAQEAAAAAAAAAAAAAAAIDBAEABf/EACkRAAICAgIBAwIHAQAAAAAAAAABAhEDIRIxQQQiUWGBEzJCkcHR8HH/2gAMAwEAAhEDEQA/AMnN+uHv/NQXKHZ6So2cT3Lxr20xNDA0ZpVrZKkcF6cGm+jsUPobE1YNJpopSdgkIsVE8CmN+AKRa27miow6uRRGlalHnZo7S3a6LNDNVcxQANday5Qdq7muyM3oJZaG1F2KIuNilOuu1kOjkR3b/wA1C96hXuV6ppnE0mU1Kq1zZSjVsULZwKFo3SPFRlKI09uaBs4l1F3FKr5pxds4pTqbcGuTMsHrya6NcbhTEaSXBQripi9QvWxOORRenehKmsitktHFo6QeKstpcVWug2verK14Ac/lQRidQPqTSnVaUmrvpfDqOF3avTIzxCNclpJiDAgHjFIfFOluaK6LV5RuI3SDuUqcAqYBJkHEYpnBguirnSmp9OkUb/G2nAiQf1FcKFPBFDLG10cBaoUKlszTbyJqazohSmmEK3UxSXXjNXDUaYRVd6lp6JaOEBqVK9e3UllKa3o4ZaC1NNDp8UH08Rmm65FI5HCa6uaI0nNSXbMmubaQaG0zGM2tgrSPqNmnNq7IoPWpM0dGIrl2oKP1FnNQ+VRJhA+2uSKaJpaHv2K5ZEYCItHaG1JqC3Zo/f5ayBk8Vrd9GjNtXs9KZc+3H51AXMkuxLEZAMAD2kULaBRZJ9bZP/CvcmuQNxmDA4H39/k+1Mjo4IOokQDxx7D7Vpnisfxmh6VqmILmbVwwZJ2+rA5G60360B4Z8EWBatXtf5qNdb+XYBA3JtkF9oLoZmRIgAA81c9Pp9MBb0Caa95KMbwKF2VXdmO13PYhmMcgQfmky9VBS4+QlB9mQeIlS3qLgXA3Ex2Hellu6Pn9f6Vqnjb/AOnaam6X01y3YhFLI5uH8TzcJyVGAO8kHiKxI3mBgmPemQyqfRzjRZdN1LbhuP3FM7OtETOKpwcjkY9xUljUlcTWSdmUWy/qxSfVtJqG3qCa+uPNBZgDdtZr1LVTbZohLdYcd6URTO0KFsWqY6ZMilyRx2mmmhdVYinlu1il3VBFJjLZrQqVoqQmahVc17cMVX4AaIL9qh/JolrwrncKyjgr+HqB9GZ4pygBouzpga5QORXk0EdqXald16Oy8+01c7ml7VSdXdjzCO7ED7AmabGNBWeNfmSTjn/9R9v9zTLw7dttq9NbcNsa+gMMFJlgPqbAkxJ9hAqtPdkzVl8D9M8y6tzbuCMGgzBggxjNZkfGNsZjg5ypH6Ev39Nd1C7yj3rKl1VWkDeShYr3I2+2JFEaBAiRaVFBcsw3EKGMbtsKfbj5qr9bsO1h9Rp0t/xNtCtorbG4yV3owMhvTuGz3rrw/rtS+luKVuXtTadkZSbNtQ5EhSF+lFwuAc8TmJ/S5YuG9NDmlF0xp1DSXm1avtFlFQFry3GJuEE/ylSdqkQPUcnGMCKD/wDUzo13UruGnt22Ul92yLrEiPXcn14C88Feas3Rx1A3jqtXdOmBAt/waqLtsrEqdwY+osWkjJiPamGruC4DBUgjlQQDjmDx9qnyZV+PcWFign2fm2CsqcEcio1ftVt8e9H8u6bijB5qnHmr8c1ONicuP8OVDLTXcVKz0Bp3zFGW0mskqYpk9kUwspQ9hIqc3YrEYFqaL0lwEikj6qjOl35YVk+ji3WUxSnq6U80i4pf1a1UON+8KXRWkTNR6vijHtUJqVq9dACs3K6319ctRXGyuNGlvWkGmuj14pFqLea+ssRXXQNFtN8Gs+60YcqOAT+5k1Z7WqgEn/Iqmay5uYn3M/rTk7NREiyQBycVsnQtANLbFn/xjbW5tH1RvUH7mCxis68FaYm+LogeSN6zEF1yqknAmDk/9RadZrg164zzG1FBa3I9PEEcNHtzBpObbo9P0SUE8j+n3LnpOo3djlGubt43W1IkLMn0sw2+nOM8UFabXeeb3lqoZQGQOVLsgIR3KkCcLPPHNItBqk3sFvKBt4Yi3tEn8LHMxOJmjtF4qvHUOjqFTcYUiGUTj9oxUU8aVyoszRhKpqrd6XgsfSrmuaFv+VERuAloIAMg8/SIPYzVhTTALHxVf6xrLiW9yEAkcnt81SL+p1987RqGA+Bn8oiKHHwTfgneOVe1Fx8V9GFy0ywDIP3rBdRaKMVPIJH6Vq+l8MXNp8/VXzIxD8feZmqJ4w6Rcs3NzNvVuLkQT/zD/VVmBxTaTJ/URk4ptdCTTvDKfn9qsraXbVUmrRoNXvtieRj9KfNEJ4zRUF25UzrNeeTSzgcWyaZdFskNXtiwKaaK2BFDJOjiz6L6RQfUam01yBQ2teoYfnCbFl23QOrWKLuXaW6i9V7egQK8tDxRF0zmoqGzg7VOOKA8zNRarVSagW5RsFBeq1GD9qr5NMtS2DS4L3puPoI0Pwdpimm9PlzdknzAYiGAO4TETPHIGaYdPukm6wGw+ZAKuTZIX1FS7ifpDCIHO7jj7ohb+GtKIK+SDyeTxA7Hkt8Afc/aLTsy3lIkm43pzcJ2lTKLPqddwlmwojvAMr3Jnqr2xVEOgVzdeP8AhJJ+qApYEriCPp7fT80WOnqzsSSTO4THAHqz8FT+lDaxDbu3SpEFU3FSzAhptSCRJY/M+ox6sGvunGVuqXdTuuD1Da4UgFhLeoYJHuNxgjiulFMZhmlfJXp/uaJ1jp+6zbHbE1Rk6oNLf/8AyEKrJ2sQGUicE7SSuI5rSOlP5ujtMeSik/cqJqO90azfTa6Bvefel8En0LWWSRS+q+MNNcG226EnAVZLE+wAzNQa3w4b+mZXByJWeQe1WrR+ANLbcOEyDIyaba9FCxXSVO0Yp2uLPzFb007wSAVBMHuQYI+9F9JuwY+asviLQqmluXNkN5zAH4ck/wCx/Wqhoj6qsjPnFsgy4/w3RZFFdxQqXKlDUKEslF2KK02rHvS9qinNY2ci22NXX1+7SbRuTRdwmKl4e6zQTVXKCZJohzmuyk1ScLLgio91H621ig/INCzrAriVyBR1tJzXGpsR2o7OoA1R9NTdE6Nd1Ei2jNHMdqH1fFWDwb1w6Ta20Mr3FUg4KZHqU8TEiDitnzWN8OxuNK9l46NbFiwiXGsKVVAS923gpMggtmCzCKE6Vq2Q3bv8u6jXBu2MDMrBPpOBkiO+44Ip2l2DcfeT6lXcloFj5n0wAoZuIkkeoEZJAK6+EG7aiXPLO1vMCtNz1E+WSJeQpaeT7TU56vp/zRTr7kty3pbgF1ItMi7VG7aogEjbOAw4xiCBAgUqHiIPaNu8yscEKTuZXBEETkcc9x70N1i0NqX7QO1JDqWLEAwfTJn8Jlf/AOUMU09+1uZlV1APmrgqB7/E9vkxwJLumUZZPFKeNRVfD390y6dN8RPatFUUuACdolmwJI92OCcU78PdY8635yhhmHVhEHvisvtay9ox5V5YL/jPIBIKiQfSfxH7iMGTbegdbuIwQ+pWmQdu05lmDciPUM98fhNA4NEjcZbSNA/7QBGKTdQ1G4wOTSy91H1ekQCAY9przT3N78gffjnvU2TK0nfg1Y0laAfHHhfUanRqunRTDh29QBYBW+ke84isT0wh4OORB7V+ndOSSAhiMj0rsieMGN2TWMeLfCl1epXQ3lkOWvDyioG0k4YY2H3n3xzVPocsp425Kl4Ic8G5X5E2nSRU9u3TWx1S3aDKokgLHYZ3T6e/bmePmgLus3mYUY4UBR+wpvLdA5cCxwUnJX8eSRLQrj+HBNeC/UmkuS1DTslTHfTdDiitVosUd0lMUVrbeK6SLIRVFE1tuDXAu0b1dINK5ooskl2TnPNfeWK+WuqCwLPfD2tFk7vLVyREsJgfA7H55o7R6m1qbgtuVAG7cTtXcBPvA3RtyBSDT3O1SAFT5q4ZSJ+R3H6CmV9T0IeoTioSitefJP4s8KtYXzbbC5a/FDKzJ7Fgv4cgT7mK48FWluq2ngeYXS5bZvpGwyZ+MZ96ufSes23WXuKZEEMrlGkQVPp2sDwRNDXOgafTXWazduJcYw1kgHy8hgytAYDGAATx8VsZvjTDeNKdxehqm7zFdHbywSjjhikDdYWTlkCMxIjIPuZH8Q6N7inYqviQqfR/DgblYgGeYZZO4nf2iudFr/J7K0NIuQT5TuACSpyrFYO1wJImaI0uwW7W3eN38+2gI3NiGDOI2lGBO4x6WYRPCV2PZTNLduK8XN5T8Fx90MOQQ2QZwcfFG6vQKh/iLEGJutZB9IKzDzzggmPeDniibnVEU3LVxgVO6UCk22kT6D2iRz8EE9ktwvabYdxQmQ2A09g0cQMweZntg1d2Fk4KKp3/AANelXE1S+oyv/lkjJkZBxAGWxEbccGiRYfRB2WblkgAGAGUYJVxH0ceoAjaG4kUHa6K7+uwIu5G1Ji5MRtUHDGAc8yOZwz6R1AXCy3PqDw6KCTuU4sqAJYSCWORwAfWxHP6dAJ/PYV07qAvEbZaYlhn6jhRGNzT+QPGRTzT6S9badmG3hMgguJKgsJ2xtM4Hf2r2xpVS5bc2WIa6r7xaCmQGAUekMffJPGOa5XUJYZNrXDN3G+2FIAV9whAA0s7EwJzSZxjJUzdvok0PiA6chNayWpVrhIIhoGSjDkEzxnIxVT0Vq7etectszeY3HuO6KHm5tVZaSwRbiDMAQea58WeGbeoVLi6geaAd7FnZSvp9RVoZIJb3JgEkkyLDrdNb06aeyrrcIQi2qmCwyQVCqxLQMmIkczTm6gktmKXKVy0Zl1rTst6GDD0qVmPpYbsbSRGRgfoKGBpn4lM3zAIgQVPKsORmCDxyAfilZo19Tzs1c2dlzRvTcsKAo7pZ9YrhVGhdHXFHam3ihuirgU0v28ULRZF6KJ163SAmrR4hTBqpb66tEk+wtOK6io7bYrqTQUweIi09w001tyECDt/hpXpLZDAwaK1E8U5jYI66DqbId1vYBA2tHqVhPB5GYqyaLxDstm0QvruXFu6ssbl5lH1OUAx6SoUtIHOaz68c0y6T1YWLguKJIUiG49Qhh9v7n3o3C9jYZK0XW3d3XB/DKzadSLQukyVcqW2w7ljbIABQ+luwQlTTjp7sLiC0g3ON6QJZbil5t7pA2bg6knlYPtSnwp1dLen8sorXNjBIAO9W8yVmQTMlduZNvjIIP6epv8AlGIJdSFVgDm3bwHbK+rf6hkZIzFJkvkqg/g4690VbiodoTBClAfTcmPKUSPUHEEeokEGVAqt2LjqG0122Q0ncrQp3ATE9m4APbdPetFs2UJuXPVvullnY0pdUAgC2CGKMPSysQxiGjdFVzx7oRt89GQPZC2mX0l49QVnKgLIKkQoG2COxrIvwa35Aelaj+Gth7epAe4xtglf5li2/Nwf6m2kxwJYATyrmydMlyzcny9jBEABlU2vkkLDElwe+SxjJqtdJ13n2xaZQ5MLs7sSQqiPYTxOWg4iTZtP1g2fLS7euyrbUa9ZZGtqQctKwxEL+IztB4kUMw4Lz2TaXq3lpb8+6WJu2yzqt7G1AslmUSZE+kDnijrGps2ltjzwQL4IADYU7vVJWTcbduY5zNAjqSbVDX9/89GyZOCd10kr6d3+gelR9NFJ1LF3zNTauILim0A1sMNrgjaq8AqTO4kyOBQfJ3haOtRrd1nY91brAgyN7MRBD7iUUZgRAHJpb0LS775dwHUZI3OpnyQbnlhSNzb2BgngtEmadXtWu26jahbithZJZ2aVIMIAtsRIIjMSTmqpcuXLbsEZG3OSbJLKz/UIVwu1SQVj1AyF9oJLujHpWKfG2oH8XClSAgG4csNzgBvkRHaBA7UnABH0ifiQf0r3rb3Lmoc3SPOhNx9PqhFAPpxJXbPzNRWtR+G4CPZh/v702tEzipdnlxOw/eiek/WKia17MPzqXpoh5P6D+tYmInicejTuhjApxeGKT9COBTm4MUdWg10UzxFbkGqK65rR+vWsGqFesnea6hM+wnQWZo7+GqTpVjFM/wCHruJqQz1HhVdhMdj/AEqidX0m1R2kEk/0/aty6iAti4eIRv8A41ivinUQoAzAgdv2puVfAWJdlPv7RwJPcn/YUMzTU9+2YGMmh2FbEyVlo8K2WKbirMu4AAZyMj0yAY3NntJ+aum9UXi2swM27nDSB/4sEHd2xQnQNP5OmtrLA7d5EAgNhjP2Df8AtxNP2uXLMmxYVyFRnuEIxupCsbVlJkqA20wCfSR2AqebuRbjXGCB9x5DCRI+huQQcN5scrP6RNVnxT1O44KF2aWyGbeONs+oBlIAiM981a+oMnKgqjhYQud1pmUEiB9TKzSR3j71Sus3SSgPzB4kc96Wnsc0nEB6SXsutxfwsrFZ+raZA+9XHpnWrbrYD6kO3nW+WYMFCBDIdieQSTOZ+aqtia41t1kEDI5KkAiRkESMGQPv3rL5aZ3HirRoOs0d5bDm5dW4AbRVgyGT5stgKCAAVGSZiitXaci6LhVxtubTutALDBkIATduyRz+H3NVnp3ULd1LgNuyVKMV2qiupBDQYbdPIiPw/NWnT2VuQF0qbXUEOLU5NpmMmfSdwGSO/vWOLugeWkdaTWhX9d20bLJ/qTeCwmFRE3HuCSew7zSIpaW4Tdth7cMrAxO24hDuA0SVNu1AmfXjMCrJZVkt2Wsi2AFhl/lI25CQQ9xjIVtu3AJBg+9IfE1hW3IpDAllBBkS+bayO5urb/SuXaN1TRnfjTThdT5ltmZLqq6swKkmAGMHiSCY+Y7UP0/qjKIZFuL7MASK0Pxl02zqbFt0ZV3FdrGERVcO6EwAI2gD4lpOMZxa07IxVvQw9/eR/eqLUokrTjLQ9TX6Zx/3W34GCPtGDQd60m6VbcPb6XH96jtaDeDnZdXIU8OPg1J0W2lxilwwxwPv/el8fgJzf6i++CtbvUqfqSPzUzB++Kt+3FY74d6o+lvqTJSdrT/pnP8AetkRgQCMyJn70yLFTVCTqun3VWLvSvVxV21CzQbaUTNOhGxE+xJpNFtory6LvJFRxWuJyY98QXWW00lSCrcqZOPeYrGepzdund3J/LPNa91/dtIYQIOYIER71l+ptbTskYJ3EfibnaPgSPzqfI3ey7FGNaEHUfSMDPFLtDp/Mu27Z/E6gn4JAP7TR/Umksx+YHx2onwTonuagsqliiMRBgBj6QWb8Iyc/AHJFMx9E+RXKi+6F7mWYnO6PLDPA3ArhAQdq4j86PuW7e4uCB7BpQYzkvHfAn/fAdrWAC0FBgsS5YP5Z3zFtFK+Y22BOwNl4LTBJ1srYveXccahvKYsLZZroupMoiIJQEEEswP0njAqeUbLFOkAi1ImdwnLW3ViokkgMrcwxGSZntVW63ta+FLeoLgsc88VadezN5jtaCi2CxF28rXkU2kcNtClgJYLKsDLQQIrPPEwKakicrHcnkSMsZOCOc+9bGB2TMqQ/wBMuIPIoPqK/tU3Sr25RnPFSa+3+9IqmUNpwKrfO07hz9p/Wrb4P61b27WtlyHPp811JU5VQJjnEnA71V9UnI70rUwftViipx2ebKbhI3/oelthb6JZtvdRt6C5kFGlkg5/4h9xHzQniNGKI0LbulPoGyUugiG2qzADcEIEn9qzjpmrU21KqC8QzG46hZPpwGiQZifcQDV58P8ATEKh7jBBkwACwAOXYEfy1BZQxaSA4JVImkONaK4tfmbOOndNZl2kg21ZroBgLaDEkNuIlVgmCcmTA5hH4z6HuUXbKFkCTcaI2leQyj6IBUxJMHOVNXz+FMKxuBEUtsFvazG6u4Pctkkm58s8YndA3b0+t6kbqLat+lHjbLAebP0hWJyDiGMCNoReGoouhcvdozHS6g/924Jjhh9S/PyKLFlWZZhW43Dhh2cfI704u9LDSQNlwZAIK7gDEENn2BpRq9aivta2VUnImdp+D7V1t9AqvIwewHADAbhKn8uD+daT0TcNPaVjkIo/QVRuk2POv22JDIY3nvjtHufetHS2AIHbFFii+wc7WokNw1ExqTUCKUa7VRVUHRJNBGqYUJuoRtZNeed8n9aJtWCkWXqvS2ttcHmM1pFwpbliQAD7hf6is16xpfLvOpOPnkg5Jx75/WtE6tqLqKzEBodty8iC0wYgxBH5Gs98RXy5BICkQAJkQMrJP2j9KgnGXLu0XYdKmVPWpJMH/bFWTwNo1Fs3WUv5txrflBmBuKiBgAEMwbhUcEcz7FFftRbJjNXnpvTtmnS0Rbt7dm+41uSSGFwy7SqjeWX1gLg8nhqdIxxuVhV6wwF225GnXF5FcsFV7u0LvuFJXaSx2qkSD6htmpL3UE8i3ct2dgtst25ctk2bBuA+U9tmEn6XCyrSxLYMEVJfteVdtuUZ2Iu7he2PbuM8up8x2CBNxVfQqkyxnJrnTod19bl0adGAu3GQC6l22wC3Ua60liGZgBtaGZjJpY1n2u0t4Oj3LptrqS3mXLNvyzCk3UF6QrKWTzMwGAUA74NZj1axN/ajbzA3HcX9XDeo8icj4Iq8am9YbTlmVn1CfjAe+NqEODcNz0AFVeIxtnGao/UNTDXNi7AzHHJAPCz9qZAVkSDeg6ghin5fnVlvWd0GqP0d4uj5rS9HZlZ/0/70jNGpFPp5XDZQev2yl2fzpRqlBII4P7HuKtHiiz6j9iR+WTVW1SFTFPwu0iT1CqQ28NdTFnUISodBgz2nBZfkDH2mtCs63TW3K2VfVXSGIUSwCMCG3NI3pDQS7BMA/VunJLRg1ael60ra2iVUmXKBZYiT6t2CI7kwI7ZJ2cdnYpNqi4azWG6Sl28qyvqW2C9tVRdwtuyAebjIRAlszgNO4c6ZSw0zRp7zbiTkreI8xRDepZG09pWe7HDd6K+BeueTqBCW3C+baLFW2Io/CZyzHdgmWw3qnhhK2WNq3d/mOZS5tJhk9O1TM45gkA8r3WPpHvV+ni1tQl0AuOqi6qMFEJAW4hLLOBEbfeO69vD6Xkfg+mVI9/8AIo4bi5CtdVGu+hA4LOxZiNsEIwO85x3JaATTPQ6hd5sqINsbZUoVkwXsjuWQz94JxWW6C4q9mcdG1JtXgjMVgxPcfNat4f6pvItuefpcEEMfaapfiPoBZjdtqdwJOODHOfzph0ZybS3BEjvEMCOZ9+1ZyraN/DTXF/Y0a706RVY630lxkVd+i6nzrKORkjP3GDX2v04IqlO1Z58lWjJFBDQan3Uw8T6XZLjtVY/janlkadCHKjUvEOmOWXAP1fpEn7jHxArIvEdghzJkGR+fYgj2rd9bbkZ4rMfG3SMFlH3HvQy07PWhUo0ym9Btb7iI8sBLmMnao3NH5Y/OroLpdgx3AjcfSdpJJAgNzy3Yf1pF4Y0oWbzEgbtikAwRAcyQP9W0R8GrBobBYgLESRI3AYywicgqGGfYd6KTo7GvkLt3/LwsxEk2zAb0kklWU2jxBLAsZPtJ5Z0BV3QK/qho8t1AGYK77ZkA9kkc0Jrbm30hSSqziACNsMcDEBmwe6jHNfNdJCluAPUIIYCIkrOFUnvOO5zQWHxXgD6sm4s4uEKbaqVRUt3GRJwdoh12mPQ3tPArMb5/I5n71oOv4YZXb2HHG72gnOD224rPiJP5n/rTsTJs6oI6N/3yVqvST6CO+I+xANZFobm24p9mH9a0npPVIv2gvDf7CB/Wsyw5SSOw5OMGDeJ+lFU8zJyQfbOD/X9qqqdLa+rMObakkRztAx+kmtl1PRBcSXtkptOTJEwYaPg1Q+hXfLvX9O+VdSAP+NeCMYxmulLi+MRa965SKK2nlf3GfaptLdMCGKn3Bj4/oaZazSBLl213RtyH3U/9CP0pQRDH5zTPoYqTL5purtvLXFtXptNtgwy4X0nIPKnjOe1d6RfNt21e0SQdwthizMGwC27Fm1k5bGDG7iqnoHVmVyQpXBYjdtXPq2/iMcTirD03qrXQRbULah/MdyZuhk23BdeSWWYIg4wPYUutFKlsbaglSbaMnmsCjlGP8hSQHsqv49wIY3OSYPYASLaAC21ETGF3EDaJABJmMAz+I94B3L7SpZ2gCGYBAoB3MJjIJxJ/CPzidoYae8GAYQwacHIOJPPB9I5yCI5NKm2h0Ipof9P1iERcIIaAY9WY5ED9RVf1egbTXXjNq4ZI7A+4+4qdCACSkhSCDgAAYMTJEHb+uO5DCxfW8otvMx6WPeMDOOaFM2qZZPBF0GywB4Y4+D/hp1q3xVY6NZ8lgQY7GOCP+lWTULK1VjftPPzxqRQvFj+hvsazzNaJ4wtHy2rPppGR7JpaN91d0Cq31dFuAjAaJg02e7iGMk4zwT+kflVe8Rahba73bYNwUHJ9TQJA/EByfsfagbcmerGKiiu6dbbSlm6iupcbXG23sVgXfeoFwE75BBjHFStqjbc27yNbKkDzAsBjEg23gI/YxCHHJihjpBc3oIDXFIBTlk5PlnJnglMn/mEGi7+qPlXPNi5Ydi9xJIK2004gKQZB3osH7fNNtXQPGS2gzT2bk3Lm8Xg0AwIKQDAcEBkBDHLewz3oPWuhcgMODIBziD/T1D4Wvl6cQ9s6Fhtna1i9dZHtXPLW7stXB61MTKyQChkGgOpXkZouI1u6rwfMVLbl443rFm/IPE22IM5xQuFvQUcvyA9TjInCgkHuZUYMjIIJiDVCsH0k+8Afc81bOvF9rH6kClSZMq0DDKQCh4wR+tVZQNi/eY/3/pTcSpbE55XJUDnB/erf4e1ypqLLtkBhI+JG4fpNVJhmrN4J1AF5AVVhKyGUMNpZVfB77ZosjqNk8Vbo2MI/ni6NQDbJJa2VO4giFVQfp5E/nVC8e9PNrUJqbYwxn/1A5H2IP9avPTXUKygghCyicyoJA/aKX+KtC1+2LdtGuOPXtUZCj6j8AA/uK6OGo8gVPdGe9ZtE3bGp/C8KcZHYE/r/AO2keu043EqMAx+8Vb9NY36S/Zbm3DKDzuB/sCPzpBbYeWwxvyR7ssZP5TXPfQaTQi0uo2Op7HBqw2dYyHbHp+pTwJ5JAH4s89u0TJrGsXJHyf6016XrZtwZlfYT2OD96yS8odilftZbNIC1uVkkSYOCDBAZSCMyZgnaYAxAIk3QylGG5gSu4hUvIrW7ILl3JS9u3D5Ig+9KtHrwB6SSwHGBPxHf275I+1NgpIlUbLgm2xIlkAdHIBBRxj1d42kHBCYt9S6KpJP3Q7GaXZ7TPudvtIYHgyMjn0mYg0NZANxUUkrbVblxhMxzbQH/AFMwB5GAwB4oO3aKkLBvX2XdBLMSo5uvJJCAED3YAAf8LCyVRAgPmkks9wQDcdsyDAKrCzBwoBzAmgS49Gt8tfuOuidRwUdsjAJxIgc/r/Wrh0rVh7cd1/WO39qy/ac4kBeeATukkE8H1H5j7U+6J1lluKCRB9JkgT6ZwO5x+eDTcbpiM0LQZ4xs/wAtjWU7vitc8Qeu232rOP8As6tlTZBKJrF62CykgSskH2mJI+fmPf3qsda6rsvAhCVtg+swE3sVO3ecByitngbuRNOup6oKpMxHf2qjNoy91QznyLlweapY/WFI27ucmB8qQRS467PSknR7o38wtstsVN1nO1lW3Y7rsusVBuTJIXGabWtWHEXAXIn+bbEvjnzrS5PyyA8mVApXr9FesXjb0pVHO0gW4thkdisMrEqGDR6u4NSdN8OXSvnG5cW+63J9QZWvQz25xkbRB+TWypmJtBFzR20Vb1lgy+Y9zekMpuNaa2WLiSCJnb7jil+o195Lfk3n8+04RWV8egWnDFWGQCRbjvMd5rq71Dyyp1Iay7op/iLLEAyu7a7RtchWU7WDc8ihH1ofG+3dwfoizdI5zbny3Pf0lT8UKTX+/kJ8X3+6/or3iFLcHy2KTt/ksuVBVTCuc7czHHFIjwP8/wA4ph1Vs7QcZOQVP22n6f6UvUf3qpdEcuzlhUmj1DIUdDDA4Pt7f7195ZwO+P1/w0Zc6ebbBGxuyDmPjMR/aa3wA+zWPCOqBsCD2BH6UZb6jctncgts1zMXELRtJKFYYQVOe/J96ofg/WvHkzAByTyAeRH5VdZDEHJjA/ztTo7QiSpiCzbZdT/MIAvBg0ZlgxPf3NA9Q6F5N1kuWyJEoxENtOQVI4kT+lWHxJpdoRu4Ab7Rgj/PeofFvUTcezdKIJEMyggsQoALyYkBe3vSGqKE7+6Mp6iIZh8muOl39lwZgHn+9EdWT+Y/3NL7Yre1RibUk0WfU3QrKQR6h9G2ZnsFAzkH8iKb9PuXMbilhWAIdlDXCCIDJakj6uZJOcjiqzo9aQv5gHjGQQRPBkDjNONPqFEkepjlmYHaCRk7SdztycleaU46K1O33osL3FVPLUOC7KWn+Y925s2syk+rcRuG2YAUHA3VzJ7wGjHBA7xPfIWTwSR2C0Ba1O3OxjulS7CXMQSuAFAwD5ajPsxEgq7ctlYJuxuAHqwRF2SotidhCLAlp84YkmV8Wxykkv4/sKK/zACW5ILEFYJ2xKt9JBEQSP0GOXvMJg7SpAx77iQROCAQfft7UGtzYS7qhcbs4ECY2jO04PHxEmcd3bmDJwBOOeZ4nByR/T4Hpmv3ItHS+uW767SYedpWD9RBOMcelo+0VH/BCqlo9Y9l8NMDaw3qQdiKMEcEMDg554mmH/3mn+lv0P8AemSi2edkjT0MvE18ki3OH5zH4lAGf+aeQfTSrSaoA7WBMj1IFMusttifxrBIyZyM4pbd1rtfuPOWJA9UCQCtv0tgzuIg/wCn868t49gFDMgO62QcJbOJViQhP5nNC1ou5bGPUbVxSnkqGDut1ru/NwJ6kAZiAqwDj3/djf8AEyLZS8hJClgoLRFx1Ygun4iAGIEgevg4r7RAMpG3ehnzLIAJBkhrlqDB4JZR9XIzNL+rdKe2ivpxbu2it0KPqUm5gupJy4AiDkRihVeTpJ7oI6t4ffUaddQuolRaBtoLZZAAslWPIaRBMYgDtQvUtUq2109uyQreV5V4ABNpCknfz5jPuBHzRGh1OjVrOmtndh2cGUUsELEXATDEsOIgARVZv2zf1O+2f5asAh/AzqACwX2LQTH+r5oo7e+gGqVrsT9RDcscbSUHEAkxj8gfzofTpIzXXWLs3Sv+naJxmAPYe81HYvQRHb+s1TWiVvYyS3tZfeS0fP8AkCmasbq7brkg+leIViMcD3pBqWafnk9uOAK0Hwx4Vt6/StdS+1u4hYBQpaCqb5umPSpxBg5+ayKAmypdJ1TJcJEbyCvf6h7+5x+dad047bYe7CgCfVAn2n8h+9ZB1Mvavnc0thpAifmPfFaN4e6F/EAXb5a6cRuMgYxA4FMhoCeybrfiS3dXbbRmiV3x6RMce+R/Wgtdd83RBxysN+nP96Y9U8OXAzFApTBAP1CDJUREyff4pZ03T3BbZIG2WU/kSP6R+tY7b2dF0iga3LSO5/6UDbGY98U11FjZdZD+Fv2nFK9asNI7mgj8DJdWdWr2x88EQfzp1obQB7GBPEiIzH2zVcutOaYdO1pBUHMfrFFKOjcc1eyzW52hAdrLhZgq6lgdpLEAQSeTxIjEGa31Aydxhdo9BUewgk8wdw/biZoWyyMDu4gZn8RggD2Iyc+xNSEvGDuHA8xVY+obSJOWwFAn27Uh0+y1X+kd58pH3ATvVTAjam30wCRALPgbY9sVDYsE3EtlJkb39JP8tPUqwo/EVYCfmo11zO4WGuXTEIZJ+d+36LYOT+2c0XrECL/Dlt929D3mKv5TKvp/lMCAm1YgfAH3DzbNbpcUKNSxlWMljuY71AIk7sgYER29qXf+n/40z6tAVmAELAx22rJI+0gf+mKU/wDZ2q/8pf8APzpsNolz1F7IhrQSYODIn7nH6Y/U0z0GtgjaM7txVYBhfSq+W/pMmDie9V/qnTbunaHHp4DfhI+D3/r71N0zUgEE7SO4b6TGVz2M9/tXOCrQWPNZf+naVlIIDgl1WRZAIKqSxkEfikflzRC6ptzPbA3EkXLTjbbvwxE+1u5IPrGDwYxSK31KEt+hmhHf03zhj3EkRE9vevrdiMei3C20ZjcLsNxlnAmMgkntUtPsupPR9123pbpknybp5W7NthiCNwG1xGAareostplbYylW7yDBggQwPuZ+4FWPqRdLQIYlJYBmEKYmNi5Jnb7DmqV1bUAnaFUe5AWTj3AFPwW/+E3qagvqAO5JJPJzROhtkzH+d/8AahAKK0rQf8FVPo89bY2OgYpu5JkfpiubLtbBB3KYiQSDHMSMxParLpioAK+tcYYAPOZYAGGAxIkHOJr7r1y2NMXUq0+kYzMcROD3zSkrVjW3FlI1LtcYkksY5JkwPmv0B4UsbbCg8gKP0UD/AGrBtHpzMqJge09pP7V+gel6g+WgYEBVUbmILHAMtHHPHamwe6Fz6sL1FoEf3rPfEPUhpncCIfIxhXwsnv8ATtOO6mrn1HWwph1GO/8AWs36xp7bO25y5Pcn78RRS60LRStRqWa5vYyScnifmudegIBH+D3rvX6eDj3P25/ahhcNJXyPT1TBK+UxXbCuDTRTQ00VyYEgEyck9u0AZq0dEsq+43LxVFAnyVaSTwS7D6T32xlgKpul07ODtEx2HOMmB3pv4e6otskPJUxGcKZ5PPvz8ClyiOhk8F5sNaRAbNtLYub081VXzAyMstJkOhkcgYMiaCOn8kwFG5mOxVlFLQG3R+FABubGM94FTWuroARussPTjcGJ24EKqA/SSMscYmM1AusBL3CxLvALMFG22IIVFkhF9xyfepp6LcKb/wB0Cu+Utg7gSAcGWG4bmPsZyfkR3NOt/wA0p0qhrpeIVREk5LZWP+UIFx7tNMd496JLRB6uV5KXg//Z</t>
+  </si>
+  <si>
+    <t>Dreamy Henna Delights</t>
   </si>
   <si>
     <t>Airport Road, Indore</t>
   </si>
   <si>
-    <t>https://i.pinimg.com/736x/43/e1/bb/43e1bbf8d13904e296ecee26116ad602.jpg</t>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhMWFhUXFxUVFxUWFRcVFRcYFRcWGBUXFRcYHSggGBolGxUVITEiJSktLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLy0tLS0tLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLy0tLSstLTUtLS0tLf/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAEDBAYCBwj/xABAEAACAQIEBAQDBwEFBwUAAAABAhEAAwQSITEFIkFRBhMyYXGBkRQjQlKhsdFiBzNygsEVJFOSk+HwY4OistL/xAAZAQACAwEAAAAAAAAAAAAAAAACAwABBAX/xAAqEQACAgICAQQBAwUBAAAAAAAAAQIRAyESMUEEIlFxYSMysRSBkaHRUv/aAAwDAQACEQMRAD8AOcbwBBkVj8fYg16ziMOHEGgON8OButcijpxmvJ5heaNa9b8GcUF7DIZ1UZT8RWB8V8BNlMya9xRH+ybGiLtudZDR+h/0o4lTPU1au5qrbepQ9PTEtFZzUDtTu+tQXXpbGGQ8YW4uo4/EsfNT/BFR8PbaiHii1mtT+Ug/I6H9x9KDcOuVizLdm3C7iajCmiNuhGCailo0tMNkxqnfq2RVW+KtlIzfHFlH+B/avGbztcbX6V7ZxVeU/OvKcFg+ck9Ca2ellSZj9Wro4Xh+VJO9ereELY+zW47Vg8krFbbwViP93C9QSIp6lbMklSD78opnuJkJf5CpreHJEms7j8RmJ9tKIA5uX+YAdenar9ldqC4Yy89qP2BpVMtFzD3IovhmmKCW95ohhbtRMsMg+9KoAwpUywRCqWIvQwB2q65ik1pXFIitGlIB8WwocbSKx+E4ccHilvJop0cdIPWvRDg42oXxrCZlMio4eUMTtUwvbu9alNysj4Z4yCTYc8y+k9x2o/cukUNgtUxXLtU72Irm7c1qri+UTQ2WcYps6sp6gis3w8HNHX+KLNxFOpihTEeYSpkEzNIzrVmnA90aHBGjFigWAbQUcw5rPEfIsxVbErVsVBfFMaARn+JDlNed3rUMY716TxEaGsNcRQxzdzTcD2xHqVpFFLkVrvBNkrmzAwdRS8P8ERzmK6e9bzCcNVVAArbCPkwTfgGcQxmS2Y00rEvemvTb/C1ZYIkVjfEXhd1BezqPy/xTKFgnhzya0+GAyisjwhToIM9dP3rV4YNGg+tJnkjHtjoY5S6RaMASTXCXmnk+pH7Cu7WEJ1bWr1qwBWSedv8Aaa4enS3LZQ8u5+dvrSorkp6Xzl8juMPguYq3Kms/w7jYFw2n0IP1rTPqKynFvDguMXkg76aVvla6M0K6Zp1cESKzfiziYtWz3Og+NScEvXByPrGk1b4xwdb6EMKu7WitJ7MB4UwTXL2c9DPzrf3kih/h7hP2dSDrrvVzGXIpNUiTdspX3FB8bxHLodqs4rFCdaC46+ussPnQkQzcUtdVqqmKtu0WxEan3mgnE+J2V6gn2odwjjE4hBEIxyH/ADaL+sUUscpRZccqjJHpPD3o/hWrL4C50NaDCPXOjpnRewulQ4gVJYNK+NK0doT5AeOFQcH8N2ryeYw1zMD8j/EVaxiVPwQ3bSOMg1bMsnaQBqB0070WGSjL3C88XKHtDWEwSoIUVL/tOyo/vFPspzH6LNA8Th3u6XWJH5dl+ajQ/Oals4ADYU6Xq6/ajPH0n/pl29xydLdsn3cx+gmf0qjevXrm7QOyiB9d/wBauW8MKlFmkyy5JdsfHHjj0gVZwIHSrlvD1cFunpfEZzIVtVIEpZqYvRaB2dZaVceYKapolMuJciumINcFZqjjsatmCx3MVuT0YouyPKUuSRoetERfUjQ1zZxCuJ0NcXMMDtTETdkd8xWY4zjCp0rR3LJ70A4/gSUMb0ucPISZlsbxdRqx1rI8a4tn0XrV3idkkkEGe1SeH/CFy82doAERbBGc6/i/IPjr7VUeMVcipcnpGZThTsVCqzM2wAJPyArd+HP7NnMPimyDQ+WhBf8AzNsvyn5VvOFcJFhcttVUwJIEsfizb/DarjYdjuzfWP2oJeqRcfSsyWJsG3eZex0+HSi2DfvRG5w1SZYSe51P1pNYS2CSQoAJM6aDc1z5RuVo6MZVGmdW8TGwJ/QVIGZt4Hw/71RPFLSwZJQ7usFV29YnMPUOnWoL3HCA4CAMp0JJZGUEzJUSjQraEaFSDsaJKQLaDtm2B0qby6E2eNAm3oADK3CWg2nEaGRBEnvOoMVdwnFVYIGVlZna2Ro2VwAQrEGNQQQRvRKLFSkWvLpwlS2WV1zIwZe4MjTQ6iuLgijqgVKxgaYvUDvULXaB5KGKFlk3aiuXqqXL9QXMTSnkGrGXmvVG9+hlzF1XuYygc2GoILm/TUCONH/hpqHkwuJ6ILEVifGIzTJ0GwrfPWZ8UcG81SRvXbyQuOjjYJLlswHA/ERstkdiV/avQeH8TW4AQZrzTFeGroJbKZq/wDh+IsK1wmLagsxMwAN8vUn2FLhJxNM43s9HdqCcXxaqcpPMVLBY1YCdvmIoPjvFjZSuHWCBrduAEzEwqagddW+lU7U6Ym6xZlILahmyMDrPUgrIn/hjvVTzrqIEcbfY2F4bcxL5VUIrDMXAJEayM/x0gR71scHZt2B5aASAP1mCfpQ63i15XtoBlIDCCSZ5YVvwhVzcsdQTqaIYYCTcbQkdegEkSfmfrWOTt/k0qNIu21ga/M0G4v4hRCqWmRmY6knkUDeSDv8A+dgR3F+J+eXRXC2kyknKW8w6mNCIXTp7HrQ5LbXAoBtpJzKABJZSSSq6H8J0EnQ+02Dtl1bdvEqxvXD50My6xkyekBRprqfcA9ZNccUwWHWwxuF7l8qDmJdivXOVEhQNSAZJAj2prN579q4rkZreYgquhZFLLzbBdPY03h9c1xnfEtbyZGyi4ArSJbNOkToR/NWmR/BJhsExX7u3ynUFnEHcH7u1n05iNehg1OcFdB/vLKxOgttPc6teWfp701rh7X2ZrIC2WuEhjA5VUAi2GB0LTGgA1Ou1XMP4euHL5jgalmyM8iSCEtnQAcqyxBM7AURLKJRx0s3G/p8xbm/Q86jbeRtXFu+krOe2YypmgawY8u8rZXI1PqUDfU1Ji+GYhVbkEa+h3uhFGq5VeWuvMaco0HYQNxuPKHJHO4J8p1zXSpgrnsgt92NVgnQRy6VEyqLeIxF2yFyEhkN5tB6jdSRnECVzCdtlmCKP8K48t6VYqLkvlAMh1SJdfaWj4g1hbnEVCfc6gAlrDMWjucOzT1GtsmDGhldM6ONEEMklpDKZMnKSVA66NlleuVfnHFy6KtLs9ixN4Ch13FUC/wBssyKXGViBInrVO5jidqycZNmtNJBy/ixVK/j+1DPO0zOQB0k/zVO9xhB6Fze8afrr+lNj6Z+RUvURXQXGIZtqrYrELbE3biqPc1ncVxi62mbL7L/O9A8WhbUmT9T9a0w9NAzz9VLwaZvFeD/4rf8ATf8A/NNWHOFFKtX9PiEf1WU+uGFVMShqdrnaozTmjLFtFHEYcBZImNTAnTrA61A2LtskAqVYR3BBHTptRZVqlf4Lh7hLNaXMZkrKEzGpKkEnTfffvSpYm3aHwzJfuACcKwdsD7tdM0Tr6hBBncR3oPjzZulkw4NxiuVktDMqhRlBYDRIOXfTlrVHw5grQl7KNqTN4teMnWF8wtHwFR4q7nXy7ai3aH4QAub4gaAe1Z8kIwW3/ZGrHlc37V/dmd4HhjqxUpmM5C2bUCMx31IANXOP4j7vyFBNy6CFAIEZdSzE6Bf32ohbtRQDHA/bSAwBNpfVrMNm5BI6n/4msi+TRIGW7K2cpJfPC+YBopG2q2hzBSVOaddeuz3kTODYG4OfXzIzSQbebTMQWlST0EHapEOZWXlDyAfMBZfwhgfjBM9ZXQxpzg7We+/lOBbn1jmMzqZO5EbmdIOsyWV5A/BLgcGl27btgMqnM7M8q93WSBHQR36k9p1WKwOFRM1y3aCIBzOiwoHuRQPheIARcVfa2tu2rJbiVLEwhLZusJlA+Pah9/il244YNmdv7u1avtkI351NsBhvrmBMdOlooOHxOpH3Nh2A0UtltW3Ub+U5kEwDymDoe1QP4oclhbW20qLloeYJdPxo0xkuDeD2O8UADg5kh8S8y62ot2R0Ba4wABgDaOupqzLgT9jtEbwMZzakEwSYmQOvSqbKoMHxQFY+ZbYLJh1EjIbZuoxG/pV/mp+VzELYxVsiQ6GJysQehAlSCOhj3rE4rF21lYfDOw/u74HlPMiEugFGMMw1ncbUDw/G/stwQ7LlCh7fq8zJbKL7Azr299qrg30TlQT8QcKe0SygMJ/AB8gbYUACAJbMSexoUlsMVuPysIYlgJJHpJHfrO/eaa54huYhyPSsaDrvrJ+Yrl1psYyS9wqc1eizfxadcznvsPr0+lR3OJufSAv6n6n+KqsIrgb0aSFubY7uTqSSfczTD2p5rpEqwSFlqI2pq4LU+9FcH4evXIISB3OlEmUzN+UKVbYeDW/OPpSq7YOj2ECnAroCnrXRnGis34p8VrhIVVFy5mUMJICBhImNS22g/iaHjPxf5DCzYcZ9fMcLm8vaAJ5c2/QgdddKyGAxLM126CWaDcl2jVt3OUCYO400MCsuXNXtj2acWG9y6NbwfigxQzOfvQOZD+HXYA9P5owmleejGXLLW8SbjXJZVJdUQMrEqTaysTprAbvNaY8Ta65t2SJHqcyVTttu3Zf2AJGJ9nQitBjzQWgdN/nWHuzeLXWuZLgdldjBayFHKiqfwklgT1031rW8JwBtpDMWc8zufxMew6DoB2FZzx1Ytq9lmRTJYPGTORACDXVhJOkHahjZJUDMHxHCso+0F2c7vGhgyACv7VZs2Fe7ZUK9u06N6Xytc9Z51UkAadTPwqueJDOrNaZbLIVB0ZhOUi4fccmhAABAHSb/AIcFpr982QpXkKsBsGBzAT6QWWYonopO9HfGcS6OqWs62rUKCCqIXIJgs4JaFOsf1a1S8l3ueUGbzXXPeuH1LbOXKo9yCuncxsDTY62TeYvnMXiksALaAkjKgO+jKS3TpvUmEvZ/tLHRrl5bZ9lZktwD7C6/6UXSK8hfhuALootN5dhZyldblw/nVmEKCZ59WaZkCKmxXCrWsZ5/N510PtGrBpNX7lwryW1HKANTlUDoBAOsdI2isr4s8TjD2yAJvMcioDMtA1n8uoM0r3SdIPSVsyvjrGrhlNpbpY3N0eGCr1bbX5z+lC/DPhS9iQLnptnZz1/wjrVjg2B+8e7fV7+JBzFFUuBPoC6Qenwg+06/wTxOzbsWcMwe25BKm4hRXLMSRbJ0OpgVs3DHUe/LM6qU7l/gF4vwmllM6sxZdekHvp8KGBZr0nHWZG1YbiWDNttBynY9vas+LI3ph58aXuQOKDrURSNhV6xhmcwAST2rUcJ8JDRrx/yj/U1pSbMbddmTw+DdzCqWPtR7h/hN21unKOw3reYLhcABECj4RROzwcbsflTY4mwHkMlw/g1u36Uk9zqaPYXhzt0ge9HrGERfSBUwpyxULcgL/sQ/m/SlRqfeno+ESuTGis94w4sbVsWrb5b12QpB1VRq7DsY0Hz7UYx+LFpZiSdFHc+/tWQ41gPORvM1LayehG0e3SO1Z8+TiqXY/Bh5e59GHKWxnJYAxo0sV6jpJI1H67dR93EKrNEkEmFnmfMdlAjOZI26iimNs4jMqeXadswjKSM8bcsSD8I2rQ4XhAwNr7VfUXcRPImmW3mgkJodVUMS2+h+NY4xv6NU3x+wVwLwncFsPiiU1kJmzXJOsCeW37mCfatnwzD27aQoAA6Dv1AJOrfEzWBucVvXWYXLsZjKsNVBG/XQbQJgaTG9XvDd2cQC6ksg5fMbKEUaEpajMWOvMYGpO5iqlv6Dg3VG5weMz2luFGtkj0OMrCCRqOm0/Osf40ZLhUhgrKGDNllssA5FP4STE+0T0o3j8abhyIQIEs52Re/xrO4i0txggnK7SIKMfLGpJyyQWOupmYEUtO3oZJJLZ3iUVbVpeotsxMfhFm18hrGg/LRDwU3M6hxlAnJGoJYwQfywDpvQfjWNUZ20yj7pOo3bzTruslwD/wCnVjwi2ZfMe4Ldl9FB9b5ZL5WBny87O3z6DcmtAp7L3i6yM2bMTKnKNktBATcaYPM8hRpuaB4ViDcW62VLh5m0At350c/lBaDroGUDaCd5kw+JtMgyvbPKY/0P01HasL4lzYZ7jOeUyc8BlZbjuWW4pn0oFGxmRodquO9FP5C3FPEXkIzXVyXMsskgrmUAZlMzB5RtO2leW4vz72Kt3HDy5GVV1IUnnB7GNfn7V3gcWcRdGafKUt5aFpgjXQMSYjoNBFaS1hXXEYd4HN5iKGnQlZnTqcpA+NMj+lKvLTAf6kL8Wi5grvklrVqVEiZUggkbgmP6d+/yopaAxCpac+ULTI4K5ZBEi2ecEAdffSNtRWKwBJZbiko7gEglTM5u4OjEAwf+xe3aa2xupluXGy5Q4CjTTUgkAAa/LegbSpp7CVt76LfAsS97Co9xgzy6swjmysQDppqIri/hw0hhIqvgsUUItqbjXDcJvWfJICm60tcDgQqgmdWYECAetHDhdTSskalaH45XGmQ+C+DIruS8n8sa5eh9+1bq1hEXYVhgGtsGUkEGfjrqp9jsa2HCeJLeQMNNwQd1I3U+/wDIPWuh6XIpKn2c31WJwla6CAWnilFKtpkEKaKcU5qUQalSpVCFFsMLpLNMDQfAdqyvFcS/mG0ozEnKg79q12Mw7sIRss7zt7x71xguGLbJb1OdMxGw7AdB+9ZJYXPX+zbDPGEb7+F8GYtWLOCTzb7L5jTLECdgDbtDeP3nXoBnsbcfE3POko6jlSZXIOk9TzA5uhaDykGtV4gRMZKGCizkPdo1bSJXpGxE96w2L8zCHLcnIpWLkAZnIYzbGvKJiPc/mIOebV8Y9DIRf7pdsr422urW1no1tfwkdVH4SOY5fY6+oCtwjHNaL8sByihsgABMnnfdmjYGJEHrNLE2zeueareWqR5jprn6pbtgxmuTEfkEk6AKLOGso+5hVGUWbGa4ttepZhyljpmLlST+gcLQxSp6O8ZxJivlWSRJbNmRLguA/mkwDEmIO2oEVBZxhtBlWBcIGZgAFtrqdNIG0gDcgHZcxkx5ZBoi2pAguQ1wjpCDljqJJAPUUPwHCruK5FJFqWL3SwLHQ5mY95jTbT2mqUUiNtsHPivtN1QEY4dPuzl9wBAJ/EQQf+XqZOibEnDr5Sg3LcFYjcHXSdANFldRoDqK4wOHt2LflkKVcFZMEN3FzKSM/Yg6E7iDQ8F8xthS9oglUkZgQNMzbhtfVvzdZJq5b0ilrbClviBN5GQAsArksMxAYMDkuCIGgEREdO8Pisl8M8mSxTMfYOpIHtpUHCgEa20yt0aN/WoZiD/SykEaaZD+arfiK2WtZZ9Uz7CIn9RVqHGSYt5Oel0Zjw/gee10UMoPZjOUgnKYEz2nada1viLCl/JQGJuhdVlRyPqR3ESPeKHcAQG4unoBfXQjPJifbNqD3Hap/EOMJuBJAAUOOYoSxYgEEanLGw3LCglJyyodBJY3YQxlxyVtESoEwBAYDSInsv61V4ddPli7k8neARqQOjA/x79Aa5t8Rw9woGzYcgEnPA5gRKqTvqZ17fQhhcXZGINpvMukhTbld/UxAmA34SD7QO1UotKmiWm7sV28UvYe6t3Nde4mGa2CpU2iczQPUIJGs1tfLrMeG7TX8QcYVyW8htWVkEkZjmZo2Mg6e57SdTdaBVT8IOHyVGQOp+YqjwHFvbxDKUhXYKeYGdOS4B0M8hHw7VJw3GAll7O4/U/6zQfxDe8rEZgxAFpiwG/cFT+ZSB/1F71MLcZWiZopxpnpuHudDUtBeEY3zbSXBvEN/iU5WH1BoxbaRNdmLtHHapnVOKVIGiKFFKnpVCHIrP8AGeJZyLdsyh9TLqG9gRuP3o1izyEd9Prof0qrkS2nTbb+KzZnriaMCV29gPEJk23oDxe19rQq5Fuwpl75AMZelsdW6aaa9dqvth3uuUBIUE533gamF7sf039iWThSsir6UQDKu4Ebb7n33rFGNuzfJ+P9nnmJxNmQowyJbsCFFwglQ5BLOG3donedPnU+K4o5UrbBzLlEKMpQspiDq4GbN+IekdDWo4r5Pp8tTDT6QSXGmbbVqsYDgiznugGTPljQT/X+Y/pp1q1yk6QuXHGtmE4X4av33BuFshk7ks07S3UR1H1rXY/DLZsnD2UUXHQkBlOTKCqsXMEbHY+2kVpDeW1zHVjoNNo2H0FZTjfFc7HId+o+mlDJVoKM41ZmOLYB25PMB2EBTA0BYnWBJ27AAV3btpYQkHfVifUxHU/p7CiCITqB2H/MQBJPckUGw1h8TdYRNsrClWmZEMgHzcOGAMwI5A1HCGrZnyTt6OsHgQ4DwAjgXIUtu5DFdQGUhkVv/cddYmouOXpbJrlCln7RB09yR07Ez+GTyqdo9oobisA1y4WMBQEPdmKmSP6QIBnrtUlLyyQjuizhMEbVlnf1GWMdAPSPkI+dAjirhOa4tsuyLkz5sttTzRAmSdNeu21WPF/GFJWwSfKCzcya53nltMQeWIkjrpUWDS+ALFuylxgqXsxYIVAcypmMwlco6iaXGDS5PtmiU7fFeDRNw+0+D8y5BOVuYAZjdUgWso7yIA25j0qxjcNi7r2mbDoHsyVbzVNrM2mcgDzCBAOXTXqam8P8GYt5+IHMGzW7SsWt2+XLmjYvHXpWivvQufENQvspcFwIsWVtg5oksx6sxLMfqTU+LvRXFt4n41VuybiLBMsBAMTrrrSrcn9jaSX0UH4U2DueY9yVuBix2VGDFo1P5Tv1ymg/EMf591mtIJIEEFmzKAFDldl3fX8uUnZa3fi/hJxOFuW09frQ6epdQNe4lfnXnPD7xQFARYWRmdsvnMwHTNyofcy3YCt2TEoSteTHjzPJHfg13ghmts9tiOfnWDIkaNGmXWQdCdjW4wvvXj+E4mlm+twZrtxTOZmNx8scwzNqsqfygV6pYxIYKymVIBUjYg0/08tUzN6iPusKUqZWkTXVazONNKnmmqEBl64WP7VTv4A3XzF32ywIA1/Ftv7mrdhZMfWrV1wg96yuKl2MU3HoqJaS0vlqo22/UzO5nWaqYy+8Qq8o7RPy1/WrBeTJpihO1BKKkHDI4OwbhcGFYu3qP0We1EFqNUOtSIauMaKlJydsHcfuEWjHwPwrEYO7nAMbkCN4J6H37/Otrexo857N2MuQXFJ0DAnKQO5DTPbMnes1wbhyXHvsCbVjNbvHNpaGZvMlLsLlJC27mYMQPOdSDAqpYuTKU6Aj4l7zgKHVApDhSWzQTmVlA98rgwVawIJB19F4DwIWVkjnj45f/O9ScJ4XaYt5aRbnmdgR5jTJCg6lZ1JO57yaP3lyqYpqx+WDyMw3CAtt8urmdT39qy2JuHDkeYjsX9KIuZ21AMD57nTQ16BWE/tLdw1ooRJS5AjQZSCxO06MNJ6UjJjTQ7FNqRi/EWG/3h7IZcpl1yxy8s8x6tmUj6VpPBaO5e/dGV2VLarEfdpPMO+ZsxrLXVQ4ibSoqm20ZENtxMAi5qQzQdwK03AlKNPOARbgb2iHVjnst2JQSv4WnvScqqFI04tzN1hXX0ZhmAkrIzAHYkdtD9KqY+/luKn5gSPlH81Dwy5ZOKchV8wWbea5O6szQp6fhU/MVzxwfe2j2LD6qRWaUdGqLtl7DqCKgBUYm1mMDNG0ySpyg9tY1+FWcIRpXC2w2Itz3JHxAJH7VeNe6P2gMr9kvpmgnpWD8VeE1bEG8WYW3WAo0C3NZMjWDoY75q3grr7OlwFHUMCNQf3HY+9dWceSpHLxz4St9Hjv+y79kZfLFxVJYOgkGCsEqCpV5AOnvM1uvBWDv2LHlXxAzMbYMSoJ1Vsumplh/iIMbVZxfD3wxOjXLXcAsyjswH7/ALVNb8Q2WUS8ltAAOYn2WZms0ZOD93ZtnCM43Ha/gPYV+hqzQ6wxgMZBgaHf51ftuCK3xZzmjqaVPTURRAQEFD3fMSae/fLH26U9qzPw71mbsMaysmI+fSnuPrA2ru5cjRdqjFtmMCoQjUjYCuMXdW2pZjAG5/YAdT2HU1ZvWssDqdzWd+xPi7hRyVCO4PPIPMcqm2NQDZjm0/vu8ERIlgrHWWx2RVC3ArOmsG4ytb9ecAKEdHtOSAIJAGqgHV8N8OEAeeytEHIg5QepzQOusqqkycxYGiXDeE2rAi2sdZ7kzLHu5kktuST3NXpp6jQDYyKAAAIA0AGgAHQU14Sp+FdiuL2x+FW+iAqsR/aC2a9YUWmuEJcPqVRDkKRLMPya77itxWA/tDZlv25bKhtblmCz5hBzZSPzJv7+9ZJ9D8a9xicRNvER5RQZIylg0s2u6k75T9KJYPiC2iZMAqWgSG+6ViTljKSADzKZIjMJE0Lx+GuowZwyOEzZWk5fJY5oJJkEGdI+Fd4xSjjLorEELnKrzhkAylYYy0aQeU9KVJKSNCbizQ8LxXl20khWfy0u3SdFsYU3GLD/ABoqj5ijXibif3Nu+AV0z5W3E22IBHeYrFpij5dvMWIWNmBAyMIJt7lcoH76nUkbuNX7Gc8uEuSSCWdyYYlp2ksdNRFKnG6+x2OVX9EmFv4kXkb7QXvSpKarhmslYzaTzZtIGs9I1rU8C4i74sJcCZkaMyElTntsdjqCB013FYLBPdKiLi22W2AGyh4DFicxOoMiNO09aIeHr8X1CeYtz1vnLEmcuV2zGCxPUAaaGrra/FAOXtf5s9hUVNhzzVQ4ZjBcthuux+I3q5hNW17VviznsvTXItKNlA+AApxT04EhOHHeu7aBRAqSKY1VEIzdHelTFBSqtlg+1hWnUfOrGJXKoAE1ZJroLSlEuwZatFjptRO3bAECnAroUcI0U2RPZBMkVIFFPFKKOihUqalVkFNM+1PUeI0U/CqZAYrUB8RcHOKuLb5YyoTnBZdLkkQCO1HGPeuVEMH9oj23/mseRWjRilxlZ5t44GTFWg3pylD2hiP4M/D3oPxW15djy3OqQ1i5pzoMpKaaF1AXTqFVl25t34s4P51rPIFwsQrRIWVcD4jXX5dqwXiK6bdu9YZc1sMgAIP4wWRrc6RIcb7zEEklUVTo0zfL3I4wmHEFpYxzZQrRykkCSdddTlUk694qbH4MjCOuZSzuHj0HLbyhyc3UhCRO8jvVjhVplE/ZMRH9IRv2uA1Xx9pbji2Uv2w3mGLiMnMtq4yQSx0zqukwdutDu0TVMp4OwCTrGs+qdZAEprmHqBM6ab0RwYf7VYUgBhaMQTPqEBp2rjhvnSAcEXcFi7F1RW0IGWRtrPyFaf8As/4Exv3r2IE6KiLmLhAxZioJ7AL9aKKcpUBPUWwx4Jdpuqdpn2BrW4McxqCxZROVVAHYCKu4VetbMca0Y5OyelTRTxTgRxTGnik1QogPxpVEW9qVBYVFumpzSAqyhxTU9KrIKmp6VWQVNTxSqEGFRYr0GpjUWIWVIqn0QDuaadamuYRgMx200qGs7VBlDjhi1/mFZzxNhEuYO5nH4CymJMpqCO2tarH2wywe4MewNScWCnDEnaGG3tH+tZ5x91/CN3p2uHH8nkHD+LIolljuc4GxyEnX8xUbdas5xdxNuNkJJ9mUQRp1lhp7VsOH2LboS6rA0krM6jSY7gVNwjB2zivSIVQZjTmZtSfiBSG09ryPUHHvwd2MOoQM2nYDejPhy3ltZvzsx+Q5R/8AX9a64/aDlUt+sggEdB1Y+w/gdaJYLCBVCqICgAD4Vpw4qk/wZfU5bgl87Gy0QsLCiordk9asVtiqMLFSpU1EQc0jSFMahRVLCnpF/Y/SnpYRZpUwp6MoQp6akasgjSpUqhBUjSpjUIOaYUqcVRCvjfQaDrRnG+g0JWlZOwkMKrYnCKyncwDClmKgxoQsxVoLSNLaTCjJrobDWEGGK6RER8qk8N4EKr3P+IRH+FBCx7SXM+9T2+FoyQ+Yg7qHZVI7MAdR7HSiQEabdgKLHiaab+BmTPyTS8spnBQxYfi3J3+Enp7VZtW8o96kpU9RSM9imlSpRVkFSoXw3jAv3bttUOS2YF0EFSREqRoVbUkbgjWdRRSqTT6DyY5Y3xl3/wBHiuWp64cVGwCHSlXMe9KlhFulSFKmAipGlSNQoYmkDSp6hYqVKlVkFTU9KoQYiap4qwqqSBrV2mdQRB2qmrIBlQsY7/pV+1gQNzNT27KrsKkoIwrstsVKlSphQqanpqhCHG4pbVt7jzlRS7QJMKJ0A3PtWY4xxC9ik+z2lt5nZlOW8Wyi0x81Lp8sAGRlhWYFgw1CtJ3jRU22tXLV24lxGVhbHRsqkSCCp55BH5SelZ5ES2pe4+bzCqu1tEW8+dZZXuq0AHJzZVQk6zQveh+OLh+o1aX8gNcMmUW1DPbF63dtqCRorJbwyWmGqefiLVy+10DS2jEwCK0i2sLw6095bds4h3FslLXlm7euMFVEVRIt5l2WdLZPMwJNTNa5WRmW55tzEC5FrQmy9lAEJhcllgFkRCKTOaCKHh62eY4i9DILGbykLJ5cDMhcnLc+9fVlJ++fXMS1EIbbds3nB3um0PPKm7rnCAALLEopAYwwQqDqQSCRVx9qAeEMIttXIJbOLbZyAJgFACczEmUZtTqbhJ1Yknrh0qmRFTKKVPlPelSgi9TGlSpoAjT01KrIKmJpUqhY9I01KoQ6pClSqFDU9NSqyxUqalVFD01KlULFTimpVCD000qVUQcmuQaelUIKubux+FPSqMhSmmpUqQMP/9k=</t>
   </si>
 </sst>
 </file>
@@ -260,12 +284,6 @@
       <name val="Söhne"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
@@ -275,6 +293,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Söhne"/>
     </font>
   </fonts>
   <fills count="3">
@@ -297,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -316,32 +338,26 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -565,7 +581,7 @@
     <col customWidth="1" min="1" max="1" width="26.0"/>
     <col customWidth="1" min="2" max="2" width="24.63"/>
     <col customWidth="1" min="3" max="3" width="19.38"/>
-    <col customWidth="1" min="4" max="4" width="164.0"/>
+    <col customWidth="1" min="4" max="4" width="118.88"/>
     <col customWidth="1" min="6" max="6" width="25.38"/>
     <col customWidth="1" min="7" max="7" width="179.75"/>
   </cols>
@@ -593,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="72.75" customHeight="1">
+    <row r="2" ht="54.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -635,7 +651,7 @@
       <c r="F3" s="8">
         <v>9.30255828E9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -658,7 +674,7 @@
       <c r="F4" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -681,7 +697,7 @@
       <c r="F5" s="5">
         <v>9.998887777E9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -704,7 +720,7 @@
       <c r="F6" s="5">
         <v>9.998887777E9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -727,22 +743,22 @@
       <c r="F7" s="5">
         <v>9.856235841E9</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
         <v>20000.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7">
         <v>2.2</v>
@@ -750,22 +766,22 @@
       <c r="F8" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>10000.0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="7">
         <v>3.3</v>
@@ -773,22 +789,22 @@
       <c r="F9" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3">
         <v>4000.0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7">
         <v>5.5</v>
@@ -796,22 +812,22 @@
       <c r="F10" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>10</v>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3">
         <v>7000.0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7">
         <v>4.5</v>
@@ -819,22 +835,22 @@
       <c r="F11" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>10</v>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3">
         <v>8000.0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7">
         <v>5.5</v>
@@ -842,45 +858,45 @@
       <c r="F12" s="8">
         <v>9.30255828E9</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>22</v>
+      <c r="G12" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3">
         <v>5000.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E13" s="7">
         <v>3.3</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>7.863524841E9</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>22</v>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3">
         <v>4000.0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" s="7">
         <v>5.5</v>
@@ -889,21 +905,21 @@
         <v>9.856235841E9</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3">
         <v>4000.0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7">
         <v>3.2</v>
@@ -911,22 +927,22 @@
       <c r="F15" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3">
         <v>50000.0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7">
         <v>5.5</v>
@@ -934,22 +950,22 @@
       <c r="F16" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3">
         <v>60000.0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7">
         <v>5.5</v>
@@ -957,1096 +973,1042 @@
       <c r="F17" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>18</v>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="12">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6">
         <v>90000.0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="F18" s="8">
-        <v>9.856235841E9</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3">
         <v>50000.0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="F19" s="8">
-        <v>9.856235841E9</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3">
         <v>82000.0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="F20" s="8">
-        <v>9.856235841E9</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3">
         <v>75000.0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.856235841E9</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52">
-      <c r="A52" s="13"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55">
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56">
-      <c r="C56" s="13"/>
-      <c r="D56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57">
-      <c r="C57" s="13"/>
-      <c r="D57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58">
-      <c r="C58" s="13"/>
-      <c r="D58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59">
-      <c r="C59" s="13"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60">
-      <c r="C60" s="13"/>
-      <c r="D60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61">
-      <c r="C61" s="13"/>
-      <c r="D61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62">
-      <c r="C62" s="13"/>
-      <c r="D62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63">
-      <c r="D63" s="12"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64">
-      <c r="D64" s="12"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65">
-      <c r="D65" s="12"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66">
-      <c r="D66" s="12"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67">
-      <c r="D67" s="12"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68">
-      <c r="D68" s="12"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69">
-      <c r="D69" s="12"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70">
-      <c r="D70" s="12"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71">
-      <c r="D71" s="12"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72">
-      <c r="D72" s="12"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73">
-      <c r="D73" s="12"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74">
-      <c r="D74" s="12"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75">
-      <c r="D75" s="12"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76">
-      <c r="D76" s="15"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77">
-      <c r="D77" s="12"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78">
-      <c r="D78" s="12"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79">
-      <c r="D79" s="12"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80">
-      <c r="D80" s="12"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81">
-      <c r="D81" s="12"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82">
-      <c r="D82" s="12"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83">
-      <c r="D83" s="12"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84">
-      <c r="D84" s="12"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85">
-      <c r="D85" s="12"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86">
-      <c r="D86" s="12"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87">
-      <c r="D87" s="12"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88">
-      <c r="D88" s="12"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89">
-      <c r="D89" s="12"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90">
-      <c r="D90" s="12"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91">
-      <c r="D91" s="12"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92">
-      <c r="D92" s="12"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93">
-      <c r="D93" s="12"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94">
-      <c r="D94" s="12"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95">
-      <c r="D95" s="12"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96">
-      <c r="D96" s="12"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97">
-      <c r="D97" s="12"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98">
-      <c r="D98" s="12"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99">
-      <c r="D99" s="12"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100">
-      <c r="D100" s="12"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101">
-      <c r="D101" s="15"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102">
-      <c r="D102" s="12"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103">
-      <c r="D103" s="12"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104">
-      <c r="D104" s="12"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105">
-      <c r="D105" s="12"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106">
-      <c r="D106" s="15"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107">
-      <c r="D107" s="15"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108">
-      <c r="D108" s="15"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109">
-      <c r="D109" s="15"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110">
-      <c r="D110" s="15"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111">
-      <c r="D111" s="15"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112">
-      <c r="D112" s="15"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113">
-      <c r="D113" s="15"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114">
-      <c r="D114" s="15"/>
+      <c r="D114" s="13"/>
     </row>
     <row r="115">
-      <c r="D115" s="15"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116">
-      <c r="D116" s="15"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117">
-      <c r="D117" s="15"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118">
-      <c r="D118" s="15"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119">
-      <c r="D119" s="15"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120">
-      <c r="D120" s="13"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121">
-      <c r="D121" s="15"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122">
-      <c r="D122" s="15"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="123">
-      <c r="D123" s="15"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124">
-      <c r="D124" s="15"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125">
-      <c r="D125" s="15"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126">
-      <c r="D126" s="15"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127">
-      <c r="D127" s="15"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128">
-      <c r="D128" s="15"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129">
-      <c r="D129" s="15"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130">
-      <c r="D130" s="15"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131">
-      <c r="D131" s="15"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132">
-      <c r="D132" s="15"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133">
-      <c r="D133" s="15"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134">
-      <c r="D134" s="15"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135">
-      <c r="D135" s="15"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136">
-      <c r="D136" s="15"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137">
-      <c r="D137" s="15"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138">
-      <c r="D138" s="15"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139">
-      <c r="D139" s="15"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140">
-      <c r="D140" s="15"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141">
-      <c r="D141" s="15"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142">
-      <c r="D142" s="15"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143">
-      <c r="D143" s="15"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144">
-      <c r="D144" s="15"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145">
-      <c r="D145" s="13"/>
+      <c r="D145" s="12"/>
     </row>
     <row r="146">
-      <c r="D146" s="15"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147">
-      <c r="D147" s="15"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148">
-      <c r="D148" s="15"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149">
-      <c r="D149" s="15"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150">
-      <c r="D150" s="15"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151">
-      <c r="D151" s="15"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152">
-      <c r="D152" s="15"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153">
-      <c r="D153" s="12"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154">
-      <c r="D154" s="12"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155">
-      <c r="D155" s="12"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156">
-      <c r="D156" s="12"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157">
-      <c r="D157" s="12"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158">
-      <c r="D158" s="12"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159">
-      <c r="D159" s="12"/>
+      <c r="D159" s="6"/>
     </row>
     <row r="160">
-      <c r="D160" s="12"/>
+      <c r="D160" s="6"/>
     </row>
     <row r="161">
-      <c r="D161" s="12"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162">
-      <c r="D162" s="12"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163">
-      <c r="D163" s="12"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164">
-      <c r="D164" s="12"/>
+      <c r="D164" s="6"/>
     </row>
     <row r="165">
-      <c r="D165" s="12"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166">
-      <c r="D166" s="12"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167">
-      <c r="D167" s="12"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168">
-      <c r="D168" s="12"/>
+      <c r="D168" s="6"/>
     </row>
     <row r="169">
-      <c r="D169" s="12"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170">
-      <c r="D170" s="13"/>
+      <c r="D170" s="12"/>
     </row>
     <row r="171">
-      <c r="D171" s="12"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172">
-      <c r="D172" s="12"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173">
-      <c r="D173" s="12"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174">
-      <c r="D174" s="12"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175">
-      <c r="D175" s="12"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176">
-      <c r="D176" s="12"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177">
-      <c r="D177" s="12"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178">
-      <c r="D178" s="12"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179">
-      <c r="D179" s="12"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180">
-      <c r="D180" s="12"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181">
-      <c r="D181" s="12"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182">
-      <c r="D182" s="12"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183">
-      <c r="D183" s="12"/>
+      <c r="D183" s="6"/>
     </row>
     <row r="184">
-      <c r="D184" s="12"/>
+      <c r="D184" s="6"/>
     </row>
     <row r="185">
-      <c r="D185" s="12"/>
+      <c r="D185" s="6"/>
     </row>
     <row r="186">
-      <c r="D186" s="12"/>
+      <c r="D186" s="6"/>
     </row>
     <row r="187">
-      <c r="D187" s="12"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188">
-      <c r="D188" s="12"/>
+      <c r="D188" s="6"/>
     </row>
     <row r="189">
-      <c r="D189" s="12"/>
+      <c r="D189" s="6"/>
     </row>
     <row r="190">
-      <c r="D190" s="12"/>
+      <c r="D190" s="6"/>
     </row>
     <row r="191">
-      <c r="D191" s="12"/>
+      <c r="D191" s="6"/>
     </row>
     <row r="192">
-      <c r="D192" s="12"/>
+      <c r="D192" s="6"/>
     </row>
     <row r="193">
-      <c r="D193" s="12"/>
+      <c r="D193" s="6"/>
     </row>
     <row r="194">
-      <c r="D194" s="12"/>
+      <c r="D194" s="6"/>
     </row>
     <row r="195">
-      <c r="D195" s="13"/>
+      <c r="D195" s="12"/>
     </row>
     <row r="196">
-      <c r="D196" s="12"/>
+      <c r="D196" s="6"/>
     </row>
     <row r="197">
-      <c r="D197" s="12"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198">
-      <c r="D198" s="12"/>
+      <c r="D198" s="6"/>
     </row>
     <row r="199">
-      <c r="D199" s="12"/>
+      <c r="D199" s="6"/>
     </row>
     <row r="200">
-      <c r="D200" s="12"/>
+      <c r="D200" s="6"/>
     </row>
     <row r="201">
-      <c r="D201" s="12"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202">
-      <c r="D202" s="12"/>
+      <c r="D202" s="6"/>
     </row>
     <row r="203">
-      <c r="D203" s="12"/>
+      <c r="D203" s="6"/>
     </row>
     <row r="204">
-      <c r="D204" s="12"/>
+      <c r="D204" s="6"/>
     </row>
     <row r="205">
-      <c r="D205" s="12"/>
+      <c r="D205" s="6"/>
     </row>
     <row r="206">
-      <c r="D206" s="12"/>
+      <c r="D206" s="6"/>
     </row>
     <row r="207">
-      <c r="D207" s="12"/>
+      <c r="D207" s="6"/>
     </row>
     <row r="208">
-      <c r="D208" s="12"/>
+      <c r="D208" s="6"/>
     </row>
     <row r="209">
-      <c r="D209" s="12"/>
+      <c r="D209" s="6"/>
     </row>
     <row r="210">
-      <c r="D210" s="12"/>
+      <c r="D210" s="6"/>
     </row>
     <row r="211">
-      <c r="D211" s="12"/>
+      <c r="D211" s="6"/>
     </row>
     <row r="212">
-      <c r="D212" s="12"/>
+      <c r="D212" s="6"/>
     </row>
     <row r="213">
-      <c r="D213" s="12"/>
+      <c r="D213" s="6"/>
     </row>
     <row r="214">
-      <c r="D214" s="12"/>
+      <c r="D214" s="6"/>
     </row>
     <row r="215">
-      <c r="D215" s="12"/>
+      <c r="D215" s="6"/>
     </row>
     <row r="216">
-      <c r="D216" s="12"/>
+      <c r="D216" s="6"/>
     </row>
     <row r="217">
-      <c r="D217" s="12"/>
+      <c r="D217" s="6"/>
     </row>
     <row r="218">
-      <c r="D218" s="12"/>
+      <c r="D218" s="6"/>
     </row>
     <row r="219">
-      <c r="D219" s="12"/>
+      <c r="D219" s="6"/>
     </row>
     <row r="220">
-      <c r="D220" s="13"/>
+      <c r="D220" s="12"/>
     </row>
     <row r="221">
-      <c r="D221" s="12"/>
+      <c r="D221" s="6"/>
     </row>
     <row r="222">
-      <c r="D222" s="12"/>
+      <c r="D222" s="6"/>
     </row>
     <row r="223">
-      <c r="D223" s="12"/>
+      <c r="D223" s="6"/>
     </row>
     <row r="224">
-      <c r="D224" s="12"/>
+      <c r="D224" s="6"/>
     </row>
     <row r="225">
-      <c r="D225" s="12"/>
+      <c r="D225" s="6"/>
     </row>
     <row r="226">
-      <c r="D226" s="12"/>
+      <c r="D226" s="6"/>
     </row>
     <row r="227">
-      <c r="D227" s="12"/>
+      <c r="D227" s="6"/>
     </row>
     <row r="228">
-      <c r="D228" s="12"/>
+      <c r="D228" s="6"/>
     </row>
     <row r="229">
-      <c r="D229" s="12"/>
+      <c r="D229" s="6"/>
     </row>
     <row r="230">
-      <c r="D230" s="12"/>
+      <c r="D230" s="6"/>
     </row>
     <row r="231">
-      <c r="D231" s="12"/>
+      <c r="D231" s="6"/>
     </row>
     <row r="232">
-      <c r="D232" s="12"/>
+      <c r="D232" s="6"/>
     </row>
     <row r="233">
-      <c r="D233" s="12"/>
+      <c r="D233" s="6"/>
     </row>
     <row r="234">
-      <c r="D234" s="12"/>
+      <c r="D234" s="6"/>
     </row>
     <row r="235">
-      <c r="D235" s="12"/>
+      <c r="D235" s="6"/>
     </row>
     <row r="236">
-      <c r="D236" s="12"/>
+      <c r="D236" s="6"/>
     </row>
     <row r="237">
-      <c r="D237" s="12"/>
+      <c r="D237" s="6"/>
     </row>
     <row r="238">
-      <c r="D238" s="12"/>
+      <c r="D238" s="6"/>
     </row>
     <row r="239">
-      <c r="D239" s="12"/>
+      <c r="D239" s="6"/>
     </row>
     <row r="240">
-      <c r="D240" s="12"/>
+      <c r="D240" s="6"/>
     </row>
     <row r="241">
-      <c r="D241" s="12"/>
+      <c r="D241" s="6"/>
     </row>
     <row r="242">
-      <c r="D242" s="12"/>
+      <c r="D242" s="6"/>
     </row>
     <row r="243">
-      <c r="D243" s="12"/>
+      <c r="D243" s="6"/>
     </row>
     <row r="244">
-      <c r="D244" s="12"/>
+      <c r="D244" s="6"/>
     </row>
     <row r="245">
-      <c r="D245" s="13"/>
+      <c r="D245" s="12"/>
     </row>
     <row r="246">
-      <c r="D246" s="12"/>
+      <c r="D246" s="6"/>
     </row>
     <row r="247">
-      <c r="D247" s="12"/>
+      <c r="D247" s="6"/>
     </row>
     <row r="248">
-      <c r="D248" s="12"/>
+      <c r="D248" s="6"/>
     </row>
     <row r="249">
-      <c r="D249" s="12"/>
+      <c r="D249" s="6"/>
     </row>
     <row r="250">
-      <c r="D250" s="12"/>
+      <c r="D250" s="6"/>
     </row>
     <row r="251">
-      <c r="D251" s="12"/>
+      <c r="D251" s="6"/>
     </row>
     <row r="252">
-      <c r="D252" s="12"/>
+      <c r="D252" s="6"/>
     </row>
     <row r="253">
-      <c r="D253" s="12"/>
+      <c r="D253" s="6"/>
     </row>
     <row r="254">
-      <c r="D254" s="12"/>
+      <c r="D254" s="6"/>
     </row>
     <row r="255">
-      <c r="D255" s="12"/>
+      <c r="D255" s="6"/>
     </row>
     <row r="256">
-      <c r="D256" s="12"/>
+      <c r="D256" s="6"/>
     </row>
     <row r="257">
-      <c r="D257" s="12"/>
+      <c r="D257" s="6"/>
     </row>
     <row r="258">
-      <c r="D258" s="12"/>
+      <c r="D258" s="6"/>
     </row>
     <row r="259">
-      <c r="D259" s="12"/>
+      <c r="D259" s="6"/>
     </row>
     <row r="260">
-      <c r="D260" s="12"/>
+      <c r="D260" s="6"/>
     </row>
     <row r="261">
-      <c r="D261" s="12"/>
+      <c r="D261" s="6"/>
     </row>
     <row r="262">
-      <c r="D262" s="12"/>
+      <c r="D262" s="6"/>
     </row>
     <row r="263">
-      <c r="D263" s="12"/>
+      <c r="D263" s="6"/>
     </row>
     <row r="264">
-      <c r="D264" s="12"/>
+      <c r="D264" s="6"/>
     </row>
     <row r="265">
-      <c r="D265" s="12"/>
+      <c r="D265" s="6"/>
     </row>
     <row r="266">
-      <c r="D266" s="12"/>
+      <c r="D266" s="6"/>
     </row>
     <row r="267">
-      <c r="D267" s="12"/>
+      <c r="D267" s="6"/>
     </row>
     <row r="268">
-      <c r="D268" s="12"/>
+      <c r="D268" s="6"/>
     </row>
     <row r="269">
-      <c r="D269" s="12"/>
+      <c r="D269" s="6"/>
     </row>
     <row r="270">
-      <c r="D270" s="13"/>
+      <c r="D270" s="12"/>
     </row>
     <row r="271">
-      <c r="D271" s="12"/>
+      <c r="D271" s="6"/>
     </row>
     <row r="272">
-      <c r="D272" s="12"/>
+      <c r="D272" s="6"/>
     </row>
     <row r="273">
-      <c r="D273" s="12"/>
+      <c r="D273" s="6"/>
     </row>
     <row r="274">
-      <c r="D274" s="12"/>
+      <c r="D274" s="6"/>
     </row>
     <row r="275">
-      <c r="D275" s="12"/>
+      <c r="D275" s="6"/>
     </row>
     <row r="276">
-      <c r="D276" s="12"/>
+      <c r="D276" s="6"/>
     </row>
     <row r="277">
-      <c r="D277" s="12"/>
+      <c r="D277" s="6"/>
     </row>
     <row r="278">
-      <c r="D278" s="12"/>
+      <c r="D278" s="6"/>
     </row>
     <row r="279">
-      <c r="D279" s="12"/>
+      <c r="D279" s="6"/>
     </row>
     <row r="280">
-      <c r="D280" s="12"/>
+      <c r="D280" s="6"/>
     </row>
     <row r="281">
-      <c r="D281" s="12"/>
+      <c r="D281" s="6"/>
     </row>
     <row r="282">
-      <c r="D282" s="12"/>
+      <c r="D282" s="6"/>
     </row>
     <row r="283">
-      <c r="D283" s="12"/>
+      <c r="D283" s="6"/>
     </row>
     <row r="284">
-      <c r="D284" s="12"/>
+      <c r="D284" s="6"/>
     </row>
     <row r="285">
-      <c r="D285" s="12"/>
+      <c r="D285" s="6"/>
     </row>
     <row r="286">
-      <c r="D286" s="12"/>
+      <c r="D286" s="6"/>
     </row>
     <row r="287">
-      <c r="D287" s="12"/>
+      <c r="D287" s="6"/>
     </row>
     <row r="288">
-      <c r="D288" s="12"/>
+      <c r="D288" s="6"/>
     </row>
     <row r="289">
-      <c r="D289" s="12"/>
+      <c r="D289" s="6"/>
     </row>
     <row r="290">
-      <c r="D290" s="12"/>
+      <c r="D290" s="6"/>
     </row>
     <row r="291">
-      <c r="D291" s="12"/>
+      <c r="D291" s="6"/>
     </row>
     <row r="292">
-      <c r="D292" s="12"/>
+      <c r="D292" s="6"/>
     </row>
     <row r="293">
-      <c r="D293" s="12"/>
+      <c r="D293" s="6"/>
     </row>
     <row r="294">
-      <c r="D294" s="12"/>
+      <c r="D294" s="6"/>
     </row>
     <row r="295">
-      <c r="D295" s="13"/>
+      <c r="D295" s="12"/>
     </row>
     <row r="296">
-      <c r="D296" s="12"/>
+      <c r="D296" s="6"/>
     </row>
     <row r="297">
-      <c r="D297" s="12"/>
+      <c r="D297" s="6"/>
     </row>
     <row r="298">
-      <c r="D298" s="12"/>
+      <c r="D298" s="6"/>
     </row>
     <row r="299">
-      <c r="D299" s="12"/>
+      <c r="D299" s="6"/>
     </row>
     <row r="300">
-      <c r="D300" s="12"/>
+      <c r="D300" s="6"/>
     </row>
     <row r="301">
-      <c r="D301" s="12"/>
+      <c r="D301" s="6"/>
     </row>
     <row r="302">
-      <c r="D302" s="12"/>
+      <c r="D302" s="6"/>
     </row>
     <row r="303">
-      <c r="D303" s="12"/>
+      <c r="D303" s="6"/>
     </row>
     <row r="304">
-      <c r="D304" s="12"/>
+      <c r="D304" s="6"/>
     </row>
     <row r="305">
-      <c r="D305" s="12"/>
+      <c r="D305" s="6"/>
     </row>
     <row r="306">
-      <c r="D306" s="12"/>
+      <c r="D306" s="6"/>
     </row>
     <row r="307">
-      <c r="D307" s="12"/>
+      <c r="D307" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
-    <hyperlink r:id="rId19" ref="D20"/>
-    <hyperlink r:id="rId20" ref="D21"/>
-  </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>